--- a/Combustuble_A.xlsx
+++ b/Combustuble_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D006EE-8F5E-4039-ACE1-1E5394CA1831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB4BF43-42F1-43D5-9A0F-0488B1AC5EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -2834,9 +2834,6 @@
         <v>19</v>
       </c>
       <c r="G83" s="8"/>
-      <c r="J83" s="3" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
@@ -2844,7 +2841,7 @@
       </c>
       <c r="G84" s="8"/>
       <c r="J84" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
@@ -2852,6 +2849,9 @@
         <v>7</v>
       </c>
       <c r="G85" s="8"/>
+      <c r="J85" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" t="s">

--- a/Combustuble_A.xlsx
+++ b/Combustuble_A.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Transportes\Aéreo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB4BF43-42F1-43D5-9A0F-0488B1AC5EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637D9E9D-7F42-44A6-8349-7992DACE087F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,21 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>Ultima actualización: mayo 2024</t>
-  </si>
-  <si>
-    <t>Dirección General de Planeación</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>AICM</t>
   </si>
   <si>
     <t>AIFA</t>
-  </si>
-  <si>
-    <t>Periodo</t>
   </si>
   <si>
     <t>Total</t>
@@ -108,6 +99,18 @@
   </si>
   <si>
     <t>Fuente: ASA. Aeropuertos y Servicios Auxiliares, litros y servicios por venta de combustibles. En: www.asa.gob.mx</t>
+  </si>
+  <si>
+    <t>Mes</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Para el concepto AIFA, A partir del mes de mayo, no se cuenta con la información, debido al cambio del prestador de servicios.</t>
+  </si>
+  <si>
+    <t>Actualización: agosto 2024.</t>
   </si>
 </sst>
 </file>
@@ -350,7 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -373,18 +376,6 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -393,9 +384,6 @@
     </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -411,21 +399,6 @@
     <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -451,6 +424,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -460,12 +439,62 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -524,26 +553,11 @@
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -553,13 +567,6 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -615,28 +622,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:J82" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
-  <autoFilter ref="B5:J82" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:K85" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="B5:K85" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2024" dateTimeGrouping="year"/>
+        <filter val="2023"/>
+        <filter val="2024"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Periodo" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Total" dataDxfId="7">
-      <calculatedColumnFormula>SUM(D6:E6)</calculatedColumnFormula>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{78678468-576B-4862-8C08-4E1669ACC699}" name="Mes" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Total" dataDxfId="1">
+      <calculatedColumnFormula>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Turbosina" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Gasvión" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{921AEF46-65F7-4B2E-9910-D1C0A146F016}" name="Turbosina " dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{0680BCA2-BF30-4617-80D8-74DE92A39A09}" name=" Turbosina" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{BE50F8E5-4343-40AE-9892-E8B315F40375}" name="Total  " dataDxfId="2" dataCellStyle="20% - Énfasis5">
+    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Turbosina" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Gasvión" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{921AEF46-65F7-4B2E-9910-D1C0A146F016}" name="Turbosina " dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{0680BCA2-BF30-4617-80D8-74DE92A39A09}" name=" Turbosina" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{BE50F8E5-4343-40AE-9892-E8B315F40375}" name="Total  " dataDxfId="5" dataCellStyle="20% - Énfasis5">
       <calculatedColumnFormula>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{798C3AD8-B516-48F7-9335-369B01456921}" name="Turbosina  " dataDxfId="1" dataCellStyle="20% - Énfasis5"/>
-    <tableColumn id="13" xr3:uid="{A853E079-175B-4713-BAE5-790EA8F3405A}" name="Gasvión  " dataDxfId="0" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="12" xr3:uid="{798C3AD8-B516-48F7-9335-369B01456921}" name="Turbosina  " dataDxfId="4" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="13" xr3:uid="{A853E079-175B-4713-BAE5-790EA8F3405A}" name="Gasvión  " dataDxfId="3" dataCellStyle="20% - Énfasis5"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -865,2028 +874,2366 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:AD89"/>
+  <dimension ref="B2:AC94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="9.3984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.3984375" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:30" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:29" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B4" s="26"/>
-      <c r="C4" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38"/>
+    </row>
+    <row r="5" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="B5" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="46" t="s">
+      <c r="G5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="47"/>
-      <c r="J4" s="48"/>
-    </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B5" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="17" t="s">
+      <c r="J5" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B6" s="28">
-        <v>45413</v>
-      </c>
-      <c r="C6" s="29">
-        <f t="shared" ref="C6:C37" si="0">SUM(D6:E6)</f>
-        <v>420255.26899999997</v>
-      </c>
-      <c r="D6" s="30">
-        <v>418249.16899999999</v>
-      </c>
-      <c r="E6" s="30">
-        <v>2006.1</v>
-      </c>
-      <c r="F6" s="30">
-        <v>132414.008</v>
-      </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31">
+    </row>
+    <row r="6" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="B6" s="39">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="40">
+        <v>8</v>
+      </c>
+      <c r="D6" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <v>410385.15499999997</v>
+      </c>
+      <c r="E6" s="8">
+        <v>408646.99599999998</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1738.1590000000001</v>
+      </c>
+      <c r="G6" s="8">
+        <v>134271.14299999998</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="16">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
-        <v>58099.767999999996</v>
-      </c>
-      <c r="I6" s="30">
-        <v>8068.768</v>
-      </c>
-      <c r="J6" s="32">
-        <v>50031</v>
-      </c>
-      <c r="AD6" t="e">
+        <v>7554.09</v>
+      </c>
+      <c r="J6" s="8">
+        <v>7485.5810000000001</v>
+      </c>
+      <c r="K6" s="8">
+        <v>68.509</v>
+      </c>
+      <c r="AC6" t="e">
         <f>#REF!*1000</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B7" s="13">
-        <v>45383</v>
-      </c>
-      <c r="C7" s="24">
-        <f t="shared" si="0"/>
+    <row r="7" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="B7" s="41">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="42">
+        <v>7</v>
+      </c>
+      <c r="D7" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <v>425598.28600000002</v>
+      </c>
+      <c r="E7" s="5">
+        <v>423719.45600000001</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1878.83</v>
+      </c>
+      <c r="G7" s="5">
+        <v>134103.45499999999</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="15">
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
+        <v>6892.0260000000007</v>
+      </c>
+      <c r="J7" s="5">
+        <v>6846.5480000000007</v>
+      </c>
+      <c r="K7" s="9">
+        <v>45.477999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="B8" s="39">
+        <v>2024</v>
+      </c>
+      <c r="C8" s="40">
+        <v>6</v>
+      </c>
+      <c r="D8" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <v>402694.15900000004</v>
+      </c>
+      <c r="E8" s="8">
+        <v>401228.58</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1465.579</v>
+      </c>
+      <c r="G8" s="8">
+        <v>130346.13999999998</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="16">
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
+        <v>7673.4130000000005</v>
+      </c>
+      <c r="J8" s="8">
+        <v>7627.335</v>
+      </c>
+      <c r="K8" s="10">
+        <v>46.078000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="B9" s="41">
+        <v>2024</v>
+      </c>
+      <c r="C9" s="42">
+        <v>5</v>
+      </c>
+      <c r="D9" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <v>420255.26899999997</v>
+      </c>
+      <c r="E9" s="5">
+        <v>418249.16899999999</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2006.1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>132414.008</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="15">
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
+        <v>8118.799</v>
+      </c>
+      <c r="J9" s="5">
+        <v>8068.768</v>
+      </c>
+      <c r="K9" s="9">
+        <v>50.030999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="B10" s="39">
+        <v>2024</v>
+      </c>
+      <c r="C10" s="40">
+        <v>4</v>
+      </c>
+      <c r="D10" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>439431.40099999995</v>
       </c>
-      <c r="D7" s="8">
+      <c r="E10" s="8">
         <v>437628.61099999998</v>
       </c>
-      <c r="E7" s="8">
+      <c r="F10" s="8">
         <v>1802.79</v>
       </c>
-      <c r="F7" s="8">
+      <c r="G10" s="8">
         <v>128736.15699999999</v>
       </c>
-      <c r="G7" s="8">
+      <c r="H10" s="8">
         <v>14608.594000000001</v>
       </c>
-      <c r="H7" s="21">
+      <c r="I10" s="16">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
         <v>7934.7060000000001</v>
       </c>
-      <c r="I7" s="8">
+      <c r="J10" s="8">
         <v>7869.5050000000001</v>
       </c>
-      <c r="J7" s="10">
+      <c r="K10" s="10">
         <v>65.200999999999993</v>
       </c>
     </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B8" s="12">
-        <v>45352</v>
-      </c>
-      <c r="C8" s="23">
-        <f t="shared" si="0"/>
+    <row r="11" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="B11" s="41">
+        <v>2024</v>
+      </c>
+      <c r="C11" s="42">
+        <v>3</v>
+      </c>
+      <c r="D11" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>484582.01799999992</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E11" s="5">
         <v>482370.14599999995</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F11" s="5">
         <v>2211.8719999999998</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G11" s="5">
         <v>132127.88800000001</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H11" s="5">
         <v>26118.722999999998</v>
       </c>
-      <c r="H8" s="20">
+      <c r="I11" s="15">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
         <v>8232.1929999999993</v>
       </c>
-      <c r="I8" s="5">
+      <c r="J11" s="5">
         <v>8188.4409999999989</v>
       </c>
-      <c r="J8" s="9">
+      <c r="K11" s="9">
         <v>43.752000000000002</v>
       </c>
     </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B9" s="13">
-        <v>45323</v>
-      </c>
-      <c r="C9" s="24">
-        <f t="shared" si="0"/>
+    <row r="12" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="B12" s="39">
+        <v>2024</v>
+      </c>
+      <c r="C12" s="40">
+        <v>2</v>
+      </c>
+      <c r="D12" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>439514.446</v>
       </c>
-      <c r="D9" s="8">
+      <c r="E12" s="8">
         <v>437434.21399999998</v>
       </c>
-      <c r="E9" s="8">
+      <c r="F12" s="8">
         <v>2080.232</v>
       </c>
-      <c r="F9" s="8">
+      <c r="G12" s="8">
         <v>121792.711</v>
       </c>
-      <c r="G9" s="8">
+      <c r="H12" s="8">
         <v>23599.862999999998</v>
       </c>
-      <c r="H9" s="21">
+      <c r="I12" s="16">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
         <v>7101.8710000000001</v>
       </c>
-      <c r="I9" s="8">
+      <c r="J12" s="8">
         <v>7037.6580000000004</v>
       </c>
-      <c r="J9" s="10">
+      <c r="K12" s="10">
         <v>64.213000000000008</v>
       </c>
     </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B10" s="15">
-        <v>45292</v>
-      </c>
-      <c r="C10" s="25">
-        <f t="shared" si="0"/>
+    <row r="13" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="B13" s="43">
+        <v>2024</v>
+      </c>
+      <c r="C13" s="44">
+        <v>1</v>
+      </c>
+      <c r="D13" s="20">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>474317.27799999999</v>
       </c>
-      <c r="D10" s="7">
+      <c r="E13" s="7">
         <v>472107.52999999997</v>
       </c>
-      <c r="E10" s="7">
+      <c r="F13" s="7">
         <v>2209.748</v>
       </c>
-      <c r="F10" s="7">
+      <c r="G13" s="7">
         <v>133551.829</v>
       </c>
-      <c r="G10" s="7">
+      <c r="H13" s="7">
         <v>24093.275999999998</v>
       </c>
-      <c r="H10" s="22">
+      <c r="I13" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
         <v>6939.9099999999989</v>
       </c>
-      <c r="I10" s="7">
+      <c r="J13" s="7">
         <v>6885.6349999999993</v>
       </c>
-      <c r="J10" s="11">
+      <c r="K13" s="11">
         <v>54.274999999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:30" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="33">
-        <v>45261</v>
-      </c>
-      <c r="C11" s="34">
-        <f t="shared" si="0"/>
+    <row r="14" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="B14" s="45">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="46">
+        <v>12</v>
+      </c>
+      <c r="D14" s="22">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>497130.734</v>
       </c>
-      <c r="D11" s="35">
+      <c r="E14" s="23">
         <v>495355.598</v>
       </c>
-      <c r="E11" s="35">
+      <c r="F14" s="23">
         <v>1775.136</v>
       </c>
-      <c r="F11" s="35">
+      <c r="G14" s="23">
         <v>141052.152</v>
       </c>
-      <c r="G11" s="35">
+      <c r="H14" s="23">
         <v>24233.223999999998</v>
       </c>
-      <c r="H11" s="36">
+      <c r="I14" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
         <v>6935.0720000000001</v>
       </c>
-      <c r="I11" s="35">
+      <c r="J14" s="23">
         <v>6907.192</v>
       </c>
-      <c r="J11" s="37">
+      <c r="K14" s="25">
         <v>27.88</v>
       </c>
     </row>
-    <row r="12" spans="2:30" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="12">
-        <v>45231</v>
-      </c>
-      <c r="C12" s="23">
-        <f t="shared" si="0"/>
+    <row r="15" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="B15" s="41">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="42">
+        <v>11</v>
+      </c>
+      <c r="D15" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>448851.103</v>
       </c>
-      <c r="D12" s="5">
+      <c r="E15" s="5">
         <v>447174.89500000002</v>
       </c>
-      <c r="E12" s="5">
+      <c r="F15" s="5">
         <v>1676.2079999999999</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G15" s="5">
         <v>133555.97700000001</v>
       </c>
-      <c r="G12" s="5">
+      <c r="H15" s="5">
         <v>22508.399000000001</v>
       </c>
-      <c r="H12" s="20">
+      <c r="I15" s="15">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
         <v>7171.835</v>
       </c>
-      <c r="I12" s="5">
+      <c r="J15" s="5">
         <v>7125.1350000000002</v>
       </c>
-      <c r="J12" s="9">
+      <c r="K15" s="9">
         <v>46.7</v>
       </c>
     </row>
-    <row r="13" spans="2:30" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="13">
-        <v>45200</v>
-      </c>
-      <c r="C13" s="24">
-        <f t="shared" si="0"/>
+    <row r="16" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="B16" s="39">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="40">
+        <v>10</v>
+      </c>
+      <c r="D16" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>432477.60700000002</v>
       </c>
-      <c r="D13" s="8">
+      <c r="E16" s="8">
         <v>430760.484</v>
       </c>
-      <c r="E13" s="8">
+      <c r="F16" s="8">
         <v>1717.123</v>
       </c>
-      <c r="F13" s="8">
+      <c r="G16" s="8">
         <v>135949.88099999999</v>
       </c>
-      <c r="G13" s="8">
+      <c r="H16" s="8">
         <v>22848.071</v>
       </c>
-      <c r="H13" s="21">
+      <c r="I16" s="16">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
         <v>7518.7080000000005</v>
       </c>
-      <c r="I13" s="8">
+      <c r="J16" s="8">
         <v>7461.4880000000003</v>
       </c>
-      <c r="J13" s="10">
+      <c r="K16" s="10">
         <v>57.22</v>
       </c>
     </row>
-    <row r="14" spans="2:30" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="12">
-        <v>45170</v>
-      </c>
-      <c r="C14" s="23">
-        <f t="shared" si="0"/>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B17" s="41">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="42">
+        <v>9</v>
+      </c>
+      <c r="D17" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>403096.08900000004</v>
       </c>
-      <c r="D14" s="5">
+      <c r="E17" s="5">
         <v>401473.96300000005</v>
       </c>
-      <c r="E14" s="5">
+      <c r="F17" s="5">
         <v>1622.126</v>
       </c>
-      <c r="F14" s="5">
+      <c r="G17" s="5">
         <v>130099.94800000002</v>
       </c>
-      <c r="G14" s="5">
+      <c r="H17" s="5">
         <v>18583.999</v>
       </c>
-      <c r="H14" s="20">
+      <c r="I17" s="15">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
         <v>6008.808</v>
       </c>
-      <c r="I14" s="5">
+      <c r="J17" s="5">
         <v>5967.9129999999996</v>
       </c>
-      <c r="J14" s="9">
+      <c r="K17" s="9">
         <v>40.895000000000003</v>
       </c>
     </row>
-    <row r="15" spans="2:30" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="13">
-        <v>45139</v>
-      </c>
-      <c r="C15" s="24">
-        <f t="shared" si="0"/>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B18" s="39">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="40">
+        <v>8</v>
+      </c>
+      <c r="D18" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>456592.212</v>
       </c>
-      <c r="D15" s="8">
+      <c r="E18" s="8">
         <v>454830.98300000001</v>
       </c>
-      <c r="E15" s="8">
+      <c r="F18" s="8">
         <v>1761.229</v>
       </c>
-      <c r="F15" s="8">
+      <c r="G18" s="8">
         <v>143391.905</v>
       </c>
-      <c r="G15" s="8">
+      <c r="H18" s="8">
         <v>16745.141</v>
       </c>
-      <c r="H15" s="21">
+      <c r="I18" s="16">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
         <v>6500.8150000000005</v>
       </c>
-      <c r="I15" s="8">
+      <c r="J18" s="8">
         <v>6459.5010000000002</v>
       </c>
-      <c r="J15" s="10">
+      <c r="K18" s="10">
         <v>41.314</v>
       </c>
     </row>
-    <row r="16" spans="2:30" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="12">
-        <v>45108</v>
-      </c>
-      <c r="C16" s="23">
-        <f t="shared" si="0"/>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B19" s="41">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="42">
+        <v>7</v>
+      </c>
+      <c r="D19" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>471958.52600000001</v>
       </c>
-      <c r="D16" s="5">
+      <c r="E19" s="5">
         <v>470075.826</v>
       </c>
-      <c r="E16" s="5">
+      <c r="F19" s="5">
         <v>1882.7</v>
       </c>
-      <c r="F16" s="5">
+      <c r="G19" s="5">
         <v>148684.78200000001</v>
       </c>
-      <c r="G16" s="5">
+      <c r="H19" s="5">
         <v>11646.752</v>
       </c>
-      <c r="H16" s="20">
+      <c r="I19" s="15">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
         <v>6100.8280000000004</v>
       </c>
-      <c r="I16" s="5">
+      <c r="J19" s="5">
         <v>6053.3130000000001</v>
       </c>
-      <c r="J16" s="9">
+      <c r="K19" s="9">
         <v>47.515000000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="13">
-        <v>45078</v>
-      </c>
-      <c r="C17" s="24">
-        <f t="shared" si="0"/>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B20" s="39">
+        <v>2023</v>
+      </c>
+      <c r="C20" s="40">
+        <v>6</v>
+      </c>
+      <c r="D20" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>445605.64600000001</v>
       </c>
-      <c r="D17" s="8">
+      <c r="E20" s="8">
         <v>443787.57799999998</v>
       </c>
-      <c r="E17" s="8">
+      <c r="F20" s="8">
         <v>1818.068</v>
       </c>
-      <c r="F17" s="8">
+      <c r="G20" s="8">
         <v>146831.476</v>
       </c>
-      <c r="G17" s="8">
+      <c r="H20" s="8">
         <v>7161.2819999999992</v>
       </c>
-      <c r="H17" s="21">
+      <c r="I20" s="16">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
         <v>6393.7270000000008</v>
       </c>
-      <c r="I17" s="8">
+      <c r="J20" s="8">
         <v>6324.5640000000003</v>
       </c>
-      <c r="J17" s="10">
+      <c r="K20" s="10">
         <v>69.163000000000011</v>
       </c>
     </row>
-    <row r="18" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="12">
-        <v>45047</v>
-      </c>
-      <c r="C18" s="23">
-        <f t="shared" si="0"/>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B21" s="41">
+        <v>2023</v>
+      </c>
+      <c r="C21" s="42">
+        <v>5</v>
+      </c>
+      <c r="D21" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>438617.83499999996</v>
       </c>
-      <c r="D18" s="5">
+      <c r="E21" s="5">
         <v>436653.87099999998</v>
       </c>
-      <c r="E18" s="5">
+      <c r="F21" s="5">
         <v>1963.9639999999999</v>
       </c>
-      <c r="F18" s="5">
+      <c r="G21" s="5">
         <v>146066.30300000001</v>
       </c>
-      <c r="G18" s="5">
+      <c r="H21" s="5">
         <v>6589.6929999999993</v>
       </c>
-      <c r="H18" s="20">
+      <c r="I21" s="15">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
         <v>7134.3119999999999</v>
       </c>
-      <c r="I18" s="5">
+      <c r="J21" s="5">
         <v>7076.7709999999997</v>
       </c>
-      <c r="J18" s="9">
+      <c r="K21" s="9">
         <v>57.540999999999997</v>
       </c>
     </row>
-    <row r="19" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="13">
-        <v>45017</v>
-      </c>
-      <c r="C19" s="24">
-        <f t="shared" si="0"/>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B22" s="39">
+        <v>2023</v>
+      </c>
+      <c r="C22" s="40">
+        <v>4</v>
+      </c>
+      <c r="D22" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>452626.13400000002</v>
       </c>
-      <c r="D19" s="8">
+      <c r="E22" s="8">
         <v>450773.85800000001</v>
       </c>
-      <c r="E19" s="8">
+      <c r="F22" s="8">
         <v>1852.2760000000001</v>
       </c>
-      <c r="F19" s="8">
+      <c r="G22" s="8">
         <v>142422.533</v>
       </c>
-      <c r="G19" s="8">
+      <c r="H22" s="8">
         <v>5892.4449999999997</v>
       </c>
-      <c r="H19" s="21">
+      <c r="I22" s="16">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
         <v>6515.2709999999997</v>
       </c>
-      <c r="I19" s="8">
+      <c r="J22" s="8">
         <v>6469.5959999999995</v>
       </c>
-      <c r="J19" s="10">
+      <c r="K22" s="10">
         <v>45.674999999999997</v>
       </c>
     </row>
-    <row r="20" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="12">
-        <v>44986</v>
-      </c>
-      <c r="C20" s="23">
-        <f t="shared" si="0"/>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B23" s="41">
+        <v>2023</v>
+      </c>
+      <c r="C23" s="42">
+        <v>3</v>
+      </c>
+      <c r="D23" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>474025.5</v>
       </c>
-      <c r="D20" s="5">
+      <c r="E23" s="5">
         <v>471373.67300000001</v>
       </c>
-      <c r="E20" s="5">
+      <c r="F23" s="5">
         <v>2651.8269999999998</v>
       </c>
-      <c r="F20" s="5">
+      <c r="G23" s="5">
         <v>147034.883</v>
       </c>
-      <c r="G20" s="5">
+      <c r="H23" s="5">
         <v>6186.35</v>
       </c>
-      <c r="H20" s="20">
+      <c r="I23" s="15">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
         <v>7697.951</v>
       </c>
-      <c r="I20" s="5">
+      <c r="J23" s="5">
         <v>7624.7790000000005</v>
       </c>
-      <c r="J20" s="9">
+      <c r="K23" s="9">
         <v>73.171999999999997</v>
       </c>
     </row>
-    <row r="21" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="13">
-        <v>44958</v>
-      </c>
-      <c r="C21" s="24">
-        <f t="shared" si="0"/>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B24" s="39">
+        <v>2023</v>
+      </c>
+      <c r="C24" s="40">
+        <v>2</v>
+      </c>
+      <c r="D24" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>418819.08400000003</v>
       </c>
-      <c r="D21" s="8">
+      <c r="E24" s="8">
         <v>416951.092</v>
       </c>
-      <c r="E21" s="8">
+      <c r="F24" s="8">
         <v>1867.9920000000002</v>
       </c>
-      <c r="F21" s="8">
+      <c r="G24" s="8">
         <v>132657.08799999999</v>
       </c>
-      <c r="G21" s="8">
+      <c r="H24" s="8">
         <v>4602.9769999999999</v>
       </c>
-      <c r="H21" s="21">
+      <c r="I24" s="16">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
         <v>6457.866</v>
       </c>
-      <c r="I21" s="8">
+      <c r="J24" s="8">
         <v>6410.7969999999996</v>
       </c>
-      <c r="J21" s="10">
+      <c r="K24" s="10">
         <v>47.069000000000003</v>
       </c>
     </row>
-    <row r="22" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="15">
-        <v>44927</v>
-      </c>
-      <c r="C22" s="25">
-        <f t="shared" si="0"/>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B25" s="43">
+        <v>2023</v>
+      </c>
+      <c r="C25" s="44">
+        <v>1</v>
+      </c>
+      <c r="D25" s="20">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>461982.14700000006</v>
       </c>
-      <c r="D22" s="7">
+      <c r="E25" s="7">
         <v>459918.04600000003</v>
       </c>
-      <c r="E22" s="7">
+      <c r="F25" s="7">
         <v>2064.1010000000001</v>
       </c>
-      <c r="F22" s="7">
+      <c r="G25" s="7">
         <v>149629.198</v>
       </c>
-      <c r="G22" s="7">
+      <c r="H25" s="7">
         <v>5197.7539999999999</v>
       </c>
-      <c r="H22" s="22">
+      <c r="I25" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
         <v>6489.6009999999997</v>
       </c>
-      <c r="I22" s="7">
+      <c r="J25" s="7">
         <v>6439.6379999999999</v>
       </c>
-      <c r="J22" s="11">
+      <c r="K25" s="11">
         <v>49.963000000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="33">
-        <v>44896</v>
-      </c>
-      <c r="C23" s="34">
-        <f t="shared" si="0"/>
+    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="45">
+        <v>2022</v>
+      </c>
+      <c r="C26" s="46">
+        <v>12</v>
+      </c>
+      <c r="D26" s="22">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>490826.32500000001</v>
       </c>
-      <c r="D23" s="35">
+      <c r="E26" s="23">
         <v>489000.86</v>
       </c>
-      <c r="E23" s="35">
+      <c r="F26" s="23">
         <v>1825.4649999999999</v>
       </c>
-      <c r="F23" s="35">
+      <c r="G26" s="23">
         <v>157413.09299999999</v>
       </c>
-      <c r="G23" s="35">
+      <c r="H26" s="23">
         <v>4958.7839999999997</v>
       </c>
-      <c r="H23" s="36">
+      <c r="I26" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
         <v>7356.5429999999997</v>
       </c>
-      <c r="I23" s="35">
+      <c r="J26" s="23">
         <v>7305.0450000000001</v>
       </c>
-      <c r="J23" s="37">
+      <c r="K26" s="25">
         <v>51.497999999999998</v>
       </c>
     </row>
-    <row r="24" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="12">
-        <v>44866</v>
-      </c>
-      <c r="C24" s="23">
-        <f t="shared" si="0"/>
+    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="41">
+        <v>2022</v>
+      </c>
+      <c r="C27" s="42">
+        <v>11</v>
+      </c>
+      <c r="D27" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>443157.86400000006</v>
       </c>
-      <c r="D24" s="5">
+      <c r="E27" s="5">
         <v>441195.48500000004</v>
       </c>
-      <c r="E24" s="5">
+      <c r="F27" s="5">
         <v>1962.3790000000001</v>
       </c>
-      <c r="F24" s="5">
+      <c r="G27" s="5">
         <v>150891.29999999999</v>
       </c>
-      <c r="G24" s="5">
+      <c r="H27" s="5">
         <v>4915.8980000000001</v>
       </c>
-      <c r="H24" s="20">
+      <c r="I27" s="15">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
         <v>7236.4110000000001</v>
       </c>
-      <c r="I24" s="5">
+      <c r="J27" s="5">
         <v>7161.7529999999997</v>
       </c>
-      <c r="J24" s="9">
+      <c r="K27" s="9">
         <v>74.658000000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="13">
-        <v>44835</v>
-      </c>
-      <c r="C25" s="24">
-        <f t="shared" si="0"/>
+    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="39">
+        <v>2022</v>
+      </c>
+      <c r="C28" s="40">
+        <v>10</v>
+      </c>
+      <c r="D28" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>414809.23100000003</v>
       </c>
-      <c r="D25" s="8">
+      <c r="E28" s="8">
         <v>412921.60700000002</v>
       </c>
-      <c r="E25" s="8">
+      <c r="F28" s="8">
         <v>1887.624</v>
       </c>
-      <c r="F25" s="8">
+      <c r="G28" s="8">
         <v>150805.27799999999</v>
       </c>
-      <c r="G25" s="8">
+      <c r="H28" s="8">
         <v>4853.9489999999996</v>
       </c>
-      <c r="H25" s="21">
+      <c r="I28" s="16">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
         <v>6708.0059999999994</v>
       </c>
-      <c r="I25" s="8">
+      <c r="J28" s="8">
         <v>6658.6229999999996</v>
       </c>
-      <c r="J25" s="10">
+      <c r="K28" s="10">
         <v>49.383000000000003</v>
       </c>
     </row>
-    <row r="26" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="12">
-        <v>44805</v>
-      </c>
-      <c r="C26" s="23">
-        <f t="shared" si="0"/>
+    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="41">
+        <v>2022</v>
+      </c>
+      <c r="C29" s="42">
+        <v>9</v>
+      </c>
+      <c r="D29" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>387372.408</v>
       </c>
-      <c r="D26" s="5">
+      <c r="E29" s="5">
         <v>385430.815</v>
       </c>
-      <c r="E26" s="5">
+      <c r="F29" s="5">
         <v>1941.5929999999998</v>
       </c>
-      <c r="F26" s="5">
+      <c r="G29" s="5">
         <v>146576.45300000001</v>
       </c>
-      <c r="G26" s="5">
+      <c r="H29" s="5">
         <v>3809.2310000000002</v>
       </c>
-      <c r="H26" s="20">
+      <c r="I29" s="15">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
         <v>5459.2980000000007</v>
       </c>
-      <c r="I26" s="5">
+      <c r="J29" s="5">
         <v>5409.8770000000004</v>
       </c>
-      <c r="J26" s="9">
+      <c r="K29" s="9">
         <v>49.420999999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="13">
-        <v>44774</v>
-      </c>
-      <c r="C27" s="24">
-        <f t="shared" si="0"/>
+    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="39">
+        <v>2022</v>
+      </c>
+      <c r="C30" s="40">
+        <v>8</v>
+      </c>
+      <c r="D30" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>436832.37699999998</v>
       </c>
-      <c r="D27" s="8">
+      <c r="E30" s="8">
         <v>434776.21399999998</v>
       </c>
-      <c r="E27" s="8">
+      <c r="F30" s="8">
         <v>2056.163</v>
       </c>
-      <c r="F27" s="8">
+      <c r="G30" s="8">
         <v>156853.56299999999</v>
       </c>
-      <c r="G27" s="8">
+      <c r="H30" s="8">
         <v>2564.7890000000002</v>
       </c>
-      <c r="H27" s="21">
+      <c r="I30" s="16">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
         <v>5460.4780000000001</v>
       </c>
-      <c r="I27" s="8">
+      <c r="J30" s="8">
         <v>5402.1080000000002</v>
       </c>
-      <c r="J27" s="10">
+      <c r="K30" s="10">
         <v>58.37</v>
       </c>
     </row>
-    <row r="28" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="12">
-        <v>44743</v>
-      </c>
-      <c r="C28" s="23">
-        <f t="shared" si="0"/>
+    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="41">
+        <v>2022</v>
+      </c>
+      <c r="C31" s="42">
+        <v>7</v>
+      </c>
+      <c r="D31" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>448351.97599999997</v>
       </c>
-      <c r="D28" s="5">
+      <c r="E31" s="5">
         <v>446503.61</v>
       </c>
-      <c r="E28" s="5">
+      <c r="F31" s="5">
         <v>1848.366</v>
       </c>
-      <c r="F28" s="5">
+      <c r="G31" s="5">
         <v>153622.307</v>
       </c>
-      <c r="G28" s="5">
+      <c r="H31" s="5">
         <v>1060.989</v>
       </c>
-      <c r="H28" s="20">
+      <c r="I31" s="15">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
         <v>5119.0199999999995</v>
       </c>
-      <c r="I28" s="5">
+      <c r="J31" s="5">
         <v>5070.4549999999999</v>
       </c>
-      <c r="J28" s="9">
+      <c r="K31" s="9">
         <v>48.564999999999998</v>
       </c>
     </row>
-    <row r="29" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="13">
-        <v>44713</v>
-      </c>
-      <c r="C29" s="24">
-        <f t="shared" si="0"/>
+    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="39">
+        <v>2022</v>
+      </c>
+      <c r="C32" s="40">
+        <v>6</v>
+      </c>
+      <c r="D32" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>416921.51799999998</v>
       </c>
-      <c r="D29" s="8">
+      <c r="E32" s="8">
         <v>414947.446</v>
       </c>
-      <c r="E29" s="8">
+      <c r="F32" s="8">
         <v>1974.0720000000001</v>
       </c>
-      <c r="F29" s="8">
+      <c r="G32" s="8">
         <v>140586.55600000001</v>
       </c>
-      <c r="G29" s="8">
+      <c r="H32" s="8">
         <v>853.44799999999998</v>
       </c>
-      <c r="H29" s="21">
+      <c r="I32" s="16">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
         <v>4541.9560000000001</v>
       </c>
-      <c r="I29" s="8">
+      <c r="J32" s="8">
         <v>4497.9610000000002</v>
       </c>
-      <c r="J29" s="10">
+      <c r="K32" s="10">
         <v>43.994999999999997</v>
       </c>
     </row>
-    <row r="30" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="12">
-        <v>44682</v>
-      </c>
-      <c r="C30" s="23">
-        <f t="shared" si="0"/>
+    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="41">
+        <v>2022</v>
+      </c>
+      <c r="C33" s="42">
+        <v>5</v>
+      </c>
+      <c r="D33" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>424375.26299999998</v>
       </c>
-      <c r="D30" s="5">
+      <c r="E33" s="5">
         <v>422374.98</v>
       </c>
-      <c r="E30" s="5">
+      <c r="F33" s="5">
         <v>2000.2830000000001</v>
       </c>
-      <c r="F30" s="5">
+      <c r="G33" s="5">
         <v>365</v>
       </c>
-      <c r="G30" s="40"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="9"/>
-    </row>
-    <row r="31" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="13">
-        <v>44652</v>
-      </c>
-      <c r="C31" s="24">
-        <f t="shared" si="0"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="39">
+        <v>2022</v>
+      </c>
+      <c r="C34" s="40">
+        <v>4</v>
+      </c>
+      <c r="D34" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>437218.36900000001</v>
       </c>
-      <c r="D31" s="8">
+      <c r="E34" s="8">
         <v>435084.44699999999</v>
       </c>
-      <c r="E31" s="8">
+      <c r="F34" s="8">
         <v>2133.922</v>
       </c>
-      <c r="F31" s="8">
+      <c r="G34" s="8">
         <v>352</v>
       </c>
-      <c r="H31" s="41"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="10"/>
-    </row>
-    <row r="32" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="12">
-        <v>44621</v>
-      </c>
-      <c r="C32" s="23">
-        <f t="shared" si="0"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="10"/>
+    </row>
+    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="41">
+        <v>2022</v>
+      </c>
+      <c r="C35" s="42">
+        <v>3</v>
+      </c>
+      <c r="D35" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>430084.12599999999</v>
       </c>
-      <c r="D32" s="5">
+      <c r="E35" s="5">
         <v>427583.05499999999</v>
       </c>
-      <c r="E32" s="5">
+      <c r="F35" s="5">
         <v>2501.0709999999999</v>
       </c>
-      <c r="F32" s="5">
+      <c r="G35" s="5">
         <v>134</v>
       </c>
-      <c r="G32" s="40"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="9"/>
-    </row>
-    <row r="33" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="13">
-        <v>44593</v>
-      </c>
-      <c r="C33" s="24">
-        <f t="shared" si="0"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="39">
+        <v>2022</v>
+      </c>
+      <c r="C36" s="40">
+        <v>2</v>
+      </c>
+      <c r="D36" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>358536.61100000003</v>
       </c>
-      <c r="D33" s="8">
+      <c r="E36" s="8">
         <v>356535.05300000001</v>
       </c>
-      <c r="E33" s="8">
+      <c r="F36" s="8">
         <v>2001.5580000000002</v>
       </c>
-      <c r="F33" s="8">
-        <v>0</v>
-      </c>
-      <c r="H33" s="41"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="10"/>
-    </row>
-    <row r="34" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="15">
-        <v>44562</v>
-      </c>
-      <c r="C34" s="25">
-        <f t="shared" si="0"/>
+      <c r="G36" s="8">
+        <v>0</v>
+      </c>
+      <c r="I36" s="29"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="10"/>
+    </row>
+    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="43">
+        <v>2022</v>
+      </c>
+      <c r="C37" s="44">
+        <v>1</v>
+      </c>
+      <c r="D37" s="20">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>401925.429</v>
       </c>
-      <c r="D34" s="7">
+      <c r="E37" s="7">
         <v>399729.82500000001</v>
       </c>
-      <c r="E34" s="7">
+      <c r="F37" s="7">
         <v>2195.6039999999998</v>
       </c>
-      <c r="F34" s="7">
-        <v>0</v>
-      </c>
-      <c r="G34" s="43"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="11"/>
-    </row>
-    <row r="35" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="33">
-        <v>44531</v>
-      </c>
-      <c r="C35" s="34">
-        <f t="shared" si="0"/>
+      <c r="G37" s="7">
+        <v>0</v>
+      </c>
+      <c r="H37" s="31"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="11"/>
+    </row>
+    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="45">
+        <v>2021</v>
+      </c>
+      <c r="C38" s="46">
+        <v>12</v>
+      </c>
+      <c r="D38" s="22">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>432897.13799999998</v>
       </c>
-      <c r="D35" s="35">
+      <c r="E38" s="23">
         <v>430707.82799999998</v>
       </c>
-      <c r="E35" s="35">
+      <c r="F38" s="23">
         <v>2189.31</v>
       </c>
-      <c r="F35" s="35">
-        <v>0</v>
-      </c>
-      <c r="G35" s="45"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="37"/>
-    </row>
-    <row r="36" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="12">
-        <v>44501</v>
-      </c>
-      <c r="C36" s="23">
-        <f t="shared" si="0"/>
+      <c r="G38" s="23">
+        <v>0</v>
+      </c>
+      <c r="H38" s="33"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="25"/>
+    </row>
+    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="41">
+        <v>2021</v>
+      </c>
+      <c r="C39" s="42">
+        <v>11</v>
+      </c>
+      <c r="D39" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>383033.76299999998</v>
       </c>
-      <c r="D36" s="5">
+      <c r="E39" s="5">
         <v>380922.15399999998</v>
       </c>
-      <c r="E36" s="5">
+      <c r="F39" s="5">
         <v>2111.6089999999999</v>
       </c>
-      <c r="F36" s="5">
-        <v>0</v>
-      </c>
-      <c r="G36" s="40"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="9"/>
-    </row>
-    <row r="37" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="13">
-        <v>44470</v>
-      </c>
-      <c r="C37" s="24">
-        <f t="shared" si="0"/>
+      <c r="G39" s="5">
+        <v>0</v>
+      </c>
+      <c r="H39" s="28"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="9"/>
+    </row>
+    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="39">
+        <v>2021</v>
+      </c>
+      <c r="C40" s="40">
+        <v>10</v>
+      </c>
+      <c r="D40" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>358842.80099999998</v>
       </c>
-      <c r="D37" s="8">
+      <c r="E40" s="8">
         <v>356760.12</v>
       </c>
-      <c r="E37" s="8">
+      <c r="F40" s="8">
         <v>2082.681</v>
       </c>
-      <c r="F37" s="8">
-        <v>0</v>
-      </c>
-      <c r="H37" s="41"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="10"/>
-    </row>
-    <row r="38" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="12">
-        <v>44440</v>
-      </c>
-      <c r="C38" s="23">
-        <f t="shared" ref="C38:C69" si="1">SUM(D38:E38)</f>
+      <c r="G40" s="8">
+        <v>0</v>
+      </c>
+      <c r="I40" s="29"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="10"/>
+    </row>
+    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="41">
+        <v>2021</v>
+      </c>
+      <c r="C41" s="42">
+        <v>9</v>
+      </c>
+      <c r="D41" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>321941.98300000001</v>
       </c>
-      <c r="D38" s="5">
+      <c r="E41" s="5">
         <v>319890.413</v>
       </c>
-      <c r="E38" s="5">
+      <c r="F41" s="5">
         <v>2051.5699999999997</v>
       </c>
-      <c r="F38" s="5">
-        <v>0</v>
-      </c>
-      <c r="G38" s="40"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="9"/>
-    </row>
-    <row r="39" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="13">
-        <v>44409</v>
-      </c>
-      <c r="C39" s="24">
-        <f t="shared" si="1"/>
+      <c r="G41" s="5">
+        <v>0</v>
+      </c>
+      <c r="H41" s="28"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="9"/>
+    </row>
+    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="39">
+        <v>2021</v>
+      </c>
+      <c r="C42" s="40">
+        <v>8</v>
+      </c>
+      <c r="D42" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>363960.13899999997</v>
       </c>
-      <c r="D39" s="8">
+      <c r="E42" s="8">
         <v>361966.45999999996</v>
       </c>
-      <c r="E39" s="8">
+      <c r="F42" s="8">
         <v>1993.6790000000001</v>
       </c>
-      <c r="F39" s="8">
-        <v>0</v>
-      </c>
-      <c r="H39" s="41"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="10"/>
-    </row>
-    <row r="40" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="12">
-        <v>44378</v>
-      </c>
-      <c r="C40" s="23">
-        <f t="shared" si="1"/>
+      <c r="G42" s="8">
+        <v>0</v>
+      </c>
+      <c r="I42" s="29"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="10"/>
+    </row>
+    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="41">
+        <v>2021</v>
+      </c>
+      <c r="C43" s="42">
+        <v>7</v>
+      </c>
+      <c r="D43" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>374695.174</v>
       </c>
-      <c r="D40" s="5">
+      <c r="E43" s="5">
         <v>372625.397</v>
       </c>
-      <c r="E40" s="5">
+      <c r="F43" s="5">
         <v>2069.777</v>
       </c>
-      <c r="F40" s="5">
-        <v>0</v>
-      </c>
-      <c r="G40" s="40"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="9"/>
-    </row>
-    <row r="41" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="13">
-        <v>44348</v>
-      </c>
-      <c r="C41" s="24">
-        <f t="shared" si="1"/>
+      <c r="G43" s="5">
+        <v>0</v>
+      </c>
+      <c r="H43" s="28"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="9"/>
+    </row>
+    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="39">
+        <v>2021</v>
+      </c>
+      <c r="C44" s="40">
+        <v>6</v>
+      </c>
+      <c r="D44" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>334517.39600000001</v>
       </c>
-      <c r="D41" s="8">
+      <c r="E44" s="8">
         <v>332552.66499999998</v>
       </c>
-      <c r="E41" s="8">
+      <c r="F44" s="8">
         <v>1964.731</v>
       </c>
-      <c r="F41" s="8">
-        <v>0</v>
-      </c>
-      <c r="H41" s="41"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="10"/>
-    </row>
-    <row r="42" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="12">
-        <v>44317</v>
-      </c>
-      <c r="C42" s="23">
-        <f t="shared" si="1"/>
+      <c r="G44" s="8">
+        <v>0</v>
+      </c>
+      <c r="I44" s="29"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="10"/>
+    </row>
+    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="41">
+        <v>2021</v>
+      </c>
+      <c r="C45" s="42">
+        <v>5</v>
+      </c>
+      <c r="D45" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>322630.61800000002</v>
       </c>
-      <c r="D42" s="5">
+      <c r="E45" s="5">
         <v>320400.96000000002</v>
       </c>
-      <c r="E42" s="5">
+      <c r="F45" s="5">
         <v>2229.6580000000004</v>
       </c>
-      <c r="F42" s="5">
-        <v>0</v>
-      </c>
-      <c r="G42" s="40"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="9"/>
-    </row>
-    <row r="43" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="13">
-        <v>44287</v>
-      </c>
-      <c r="C43" s="24">
-        <f t="shared" si="1"/>
+      <c r="G45" s="5">
+        <v>0</v>
+      </c>
+      <c r="H45" s="28"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="9"/>
+    </row>
+    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="39">
+        <v>2021</v>
+      </c>
+      <c r="C46" s="40">
+        <v>4</v>
+      </c>
+      <c r="D46" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>299222.027</v>
       </c>
-      <c r="D43" s="8">
+      <c r="E46" s="8">
         <v>296903.73</v>
       </c>
-      <c r="E43" s="8">
+      <c r="F46" s="8">
         <v>2318.297</v>
       </c>
-      <c r="F43" s="8">
-        <v>0</v>
-      </c>
-      <c r="H43" s="41"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="10"/>
-    </row>
-    <row r="44" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="12">
-        <v>44256</v>
-      </c>
-      <c r="C44" s="23">
-        <f t="shared" si="1"/>
+      <c r="G46" s="8">
+        <v>0</v>
+      </c>
+      <c r="I46" s="29"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="10"/>
+    </row>
+    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="41">
+        <v>2021</v>
+      </c>
+      <c r="C47" s="42">
+        <v>3</v>
+      </c>
+      <c r="D47" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>271328.42499999999</v>
       </c>
-      <c r="D44" s="5">
+      <c r="E47" s="5">
         <v>268651.59499999997</v>
       </c>
-      <c r="E44" s="5">
+      <c r="F47" s="5">
         <v>2676.83</v>
       </c>
-      <c r="F44" s="5">
-        <v>0</v>
-      </c>
-      <c r="G44" s="40"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="9"/>
-    </row>
-    <row r="45" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="13">
-        <v>44228</v>
-      </c>
-      <c r="C45" s="24">
-        <f t="shared" si="1"/>
+      <c r="G47" s="5">
+        <v>0</v>
+      </c>
+      <c r="H47" s="28"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="9"/>
+    </row>
+    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="39">
+        <v>2021</v>
+      </c>
+      <c r="C48" s="40">
+        <v>2</v>
+      </c>
+      <c r="D48" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>222215.03899999999</v>
       </c>
-      <c r="D45" s="8">
+      <c r="E48" s="8">
         <v>220246.12</v>
       </c>
-      <c r="E45" s="8">
+      <c r="F48" s="8">
         <v>1968.9190000000001</v>
       </c>
-      <c r="F45" s="8">
-        <v>0</v>
-      </c>
-      <c r="H45" s="41"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="10"/>
-    </row>
-    <row r="46" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="15">
-        <v>44197</v>
-      </c>
-      <c r="C46" s="25">
-        <f t="shared" si="1"/>
+      <c r="G48" s="8">
+        <v>0</v>
+      </c>
+      <c r="I48" s="29"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="10"/>
+    </row>
+    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="43">
+        <v>2021</v>
+      </c>
+      <c r="C49" s="44">
+        <v>1</v>
+      </c>
+      <c r="D49" s="20">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>272354.26800000004</v>
       </c>
-      <c r="D46" s="7">
+      <c r="E49" s="7">
         <v>270211.59100000001</v>
       </c>
-      <c r="E46" s="7">
+      <c r="F49" s="7">
         <v>2142.6770000000001</v>
       </c>
-      <c r="F46" s="7">
-        <v>0</v>
-      </c>
-      <c r="G46" s="43"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="11"/>
-    </row>
-    <row r="47" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="33">
-        <v>44166</v>
-      </c>
-      <c r="C47" s="34">
-        <f t="shared" si="1"/>
+      <c r="G49" s="7">
+        <v>0</v>
+      </c>
+      <c r="H49" s="31"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="11"/>
+    </row>
+    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C50" s="46">
+        <v>12</v>
+      </c>
+      <c r="D50" s="22">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>289863.19500000001</v>
       </c>
-      <c r="D47" s="35">
+      <c r="E50" s="23">
         <v>287659.50599999999</v>
       </c>
-      <c r="E47" s="35">
+      <c r="F50" s="23">
         <v>2203.6889999999999</v>
       </c>
-      <c r="F47" s="35">
-        <v>0</v>
-      </c>
-      <c r="G47" s="45"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="37"/>
-    </row>
-    <row r="48" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="12">
-        <v>44136</v>
-      </c>
-      <c r="C48" s="23">
-        <f t="shared" si="1"/>
+      <c r="G50" s="23">
+        <v>0</v>
+      </c>
+      <c r="H50" s="33"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="25"/>
+    </row>
+    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="41">
+        <v>2020</v>
+      </c>
+      <c r="C51" s="42">
+        <v>11</v>
+      </c>
+      <c r="D51" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>228379.71699999998</v>
       </c>
-      <c r="D48" s="5">
+      <c r="E51" s="5">
         <v>226637.46699999998</v>
       </c>
-      <c r="E48" s="5">
+      <c r="F51" s="5">
         <v>1742.25</v>
       </c>
-      <c r="F48" s="5">
-        <v>0</v>
-      </c>
-      <c r="G48" s="40"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="9"/>
-    </row>
-    <row r="49" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="13">
-        <v>44105</v>
-      </c>
-      <c r="C49" s="24">
-        <f t="shared" si="1"/>
+      <c r="G51" s="5">
+        <v>0</v>
+      </c>
+      <c r="H51" s="28"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="9"/>
+    </row>
+    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="39">
+        <v>2020</v>
+      </c>
+      <c r="C52" s="40">
+        <v>10</v>
+      </c>
+      <c r="D52" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>225796.75899999996</v>
       </c>
-      <c r="D49" s="8">
+      <c r="E52" s="8">
         <v>223656.52399999998</v>
       </c>
-      <c r="E49" s="8">
+      <c r="F52" s="8">
         <v>2140.2350000000001</v>
       </c>
-      <c r="F49" s="8">
-        <v>0</v>
-      </c>
-      <c r="H49" s="41"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="10"/>
-    </row>
-    <row r="50" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="12">
-        <v>44075</v>
-      </c>
-      <c r="C50" s="23">
-        <f t="shared" si="1"/>
+      <c r="G52" s="8">
+        <v>0</v>
+      </c>
+      <c r="I52" s="29"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="10"/>
+    </row>
+    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="41">
+        <v>2020</v>
+      </c>
+      <c r="C53" s="42">
+        <v>9</v>
+      </c>
+      <c r="D53" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>192359.82700000002</v>
       </c>
-      <c r="D50" s="5">
+      <c r="E53" s="5">
         <v>190331.43100000001</v>
       </c>
-      <c r="E50" s="5">
+      <c r="F53" s="5">
         <v>2028.396</v>
       </c>
-      <c r="F50" s="5">
-        <v>0</v>
-      </c>
-      <c r="G50" s="40"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="9"/>
-    </row>
-    <row r="51" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="13">
-        <v>44044</v>
-      </c>
-      <c r="C51" s="24">
-        <f t="shared" si="1"/>
+      <c r="G53" s="5">
+        <v>0</v>
+      </c>
+      <c r="H53" s="28"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="9"/>
+    </row>
+    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="39">
+        <v>2020</v>
+      </c>
+      <c r="C54" s="40">
+        <v>8</v>
+      </c>
+      <c r="D54" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>184495.08899999998</v>
       </c>
-      <c r="D51" s="8">
+      <c r="E54" s="8">
         <v>182519.18599999999</v>
       </c>
-      <c r="E51" s="8">
+      <c r="F54" s="8">
         <v>1975.903</v>
       </c>
-      <c r="F51" s="8">
-        <v>0</v>
-      </c>
-      <c r="H51" s="41"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="10"/>
-    </row>
-    <row r="52" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="12">
-        <v>44013</v>
-      </c>
-      <c r="C52" s="23">
-        <f t="shared" si="1"/>
+      <c r="G54" s="8">
+        <v>0</v>
+      </c>
+      <c r="I54" s="29"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="10"/>
+    </row>
+    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="41">
+        <v>2020</v>
+      </c>
+      <c r="C55" s="42">
+        <v>7</v>
+      </c>
+      <c r="D55" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>160167.435</v>
       </c>
-      <c r="D52" s="5">
+      <c r="E55" s="5">
         <v>158161.66200000001</v>
       </c>
-      <c r="E52" s="5">
+      <c r="F55" s="5">
         <v>2005.7730000000001</v>
       </c>
-      <c r="F52" s="5">
-        <v>0</v>
-      </c>
-      <c r="G52" s="40"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="9"/>
-    </row>
-    <row r="53" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="13">
-        <v>43983</v>
-      </c>
-      <c r="C53" s="24">
-        <f t="shared" si="1"/>
+      <c r="G55" s="5">
+        <v>0</v>
+      </c>
+      <c r="H55" s="28"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="9"/>
+    </row>
+    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="39">
+        <v>2020</v>
+      </c>
+      <c r="C56" s="40">
+        <v>6</v>
+      </c>
+      <c r="D56" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>105511.976</v>
       </c>
-      <c r="D53" s="8">
+      <c r="E56" s="8">
         <v>103802.962</v>
       </c>
-      <c r="E53" s="8">
+      <c r="F56" s="8">
         <v>1709.0140000000001</v>
       </c>
-      <c r="F53" s="8">
-        <v>0</v>
-      </c>
-      <c r="H53" s="41"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="10"/>
-    </row>
-    <row r="54" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="12">
-        <v>43952</v>
-      </c>
-      <c r="C54" s="23">
-        <f t="shared" si="1"/>
+      <c r="G56" s="8">
+        <v>0</v>
+      </c>
+      <c r="I56" s="29"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="10"/>
+    </row>
+    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="41">
+        <v>2020</v>
+      </c>
+      <c r="C57" s="42">
+        <v>5</v>
+      </c>
+      <c r="D57" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>69285.474000000002</v>
       </c>
-      <c r="D54" s="5">
+      <c r="E57" s="5">
         <v>67702.22</v>
       </c>
-      <c r="E54" s="5">
+      <c r="F57" s="5">
         <v>1583.2539999999999</v>
       </c>
-      <c r="F54" s="5">
-        <v>0</v>
-      </c>
-      <c r="G54" s="40"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="9"/>
-    </row>
-    <row r="55" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="13">
-        <v>43922</v>
-      </c>
-      <c r="C55" s="24">
-        <f t="shared" si="1"/>
+      <c r="G57" s="5">
+        <v>0</v>
+      </c>
+      <c r="H57" s="28"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="9"/>
+    </row>
+    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="39">
+        <v>2020</v>
+      </c>
+      <c r="C58" s="40">
+        <v>4</v>
+      </c>
+      <c r="D58" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>69532.992000000013</v>
       </c>
-      <c r="D55" s="8">
+      <c r="E58" s="8">
         <v>67898.813000000009</v>
       </c>
-      <c r="E55" s="8">
+      <c r="F58" s="8">
         <v>1634.1790000000001</v>
       </c>
-      <c r="F55" s="8">
-        <v>0</v>
-      </c>
-      <c r="H55" s="41"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="10"/>
-    </row>
-    <row r="56" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="12">
-        <v>43891</v>
-      </c>
-      <c r="C56" s="23">
-        <f t="shared" si="1"/>
+      <c r="G58" s="8">
+        <v>0</v>
+      </c>
+      <c r="I58" s="29"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="10"/>
+    </row>
+    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="41">
+        <v>2020</v>
+      </c>
+      <c r="C59" s="42">
+        <v>3</v>
+      </c>
+      <c r="D59" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>334769.408</v>
       </c>
-      <c r="D56" s="5">
+      <c r="E59" s="5">
         <v>332339.83399999997</v>
       </c>
-      <c r="E56" s="5">
+      <c r="F59" s="5">
         <v>2429.5740000000001</v>
       </c>
-      <c r="F56" s="5">
-        <v>0</v>
-      </c>
-      <c r="G56" s="40"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="9"/>
-    </row>
-    <row r="57" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="13">
-        <v>43862</v>
-      </c>
-      <c r="C57" s="24">
-        <f t="shared" si="1"/>
+      <c r="G59" s="5">
+        <v>0</v>
+      </c>
+      <c r="H59" s="28"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="9"/>
+    </row>
+    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="39">
+        <v>2020</v>
+      </c>
+      <c r="C60" s="40">
+        <v>2</v>
+      </c>
+      <c r="D60" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>400050.22200000001</v>
       </c>
-      <c r="D57" s="8">
+      <c r="E60" s="8">
         <v>397843.09899999999</v>
       </c>
-      <c r="E57" s="8">
+      <c r="F60" s="8">
         <v>2207.123</v>
       </c>
-      <c r="F57" s="8">
-        <v>0</v>
-      </c>
-      <c r="H57" s="41"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="10"/>
-    </row>
-    <row r="58" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="15">
-        <v>43831</v>
-      </c>
-      <c r="C58" s="25">
-        <f t="shared" si="1"/>
+      <c r="G60" s="8">
+        <v>0</v>
+      </c>
+      <c r="I60" s="29"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="10"/>
+    </row>
+    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="43">
+        <v>2020</v>
+      </c>
+      <c r="C61" s="44">
+        <v>1</v>
+      </c>
+      <c r="D61" s="20">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>439902.09</v>
       </c>
-      <c r="D58" s="7">
+      <c r="E61" s="7">
         <v>437506.02900000004</v>
       </c>
-      <c r="E58" s="7">
+      <c r="F61" s="7">
         <v>2396.0610000000001</v>
       </c>
-      <c r="F58" s="7">
-        <v>0</v>
-      </c>
-      <c r="G58" s="43"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="11"/>
-    </row>
-    <row r="59" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="33">
-        <v>43800</v>
-      </c>
-      <c r="C59" s="34">
-        <f t="shared" si="1"/>
+      <c r="G61" s="7">
+        <v>0</v>
+      </c>
+      <c r="H61" s="31"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="11"/>
+    </row>
+    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="45">
+        <v>2019</v>
+      </c>
+      <c r="C62" s="46">
+        <v>12</v>
+      </c>
+      <c r="D62" s="22">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>440800</v>
       </c>
-      <c r="D59" s="35">
+      <c r="E62" s="23">
         <v>438700</v>
       </c>
-      <c r="E59" s="35">
+      <c r="F62" s="23">
         <v>2100</v>
       </c>
-      <c r="F59" s="35">
-        <v>0</v>
-      </c>
-      <c r="G59" s="45"/>
-      <c r="H59" s="44"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="37"/>
-    </row>
-    <row r="60" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="12">
-        <v>43770</v>
-      </c>
-      <c r="C60" s="23">
-        <f t="shared" si="1"/>
+      <c r="G62" s="23">
+        <v>0</v>
+      </c>
+      <c r="H62" s="33"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="25"/>
+    </row>
+    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="41">
+        <v>2019</v>
+      </c>
+      <c r="C63" s="42">
+        <v>11</v>
+      </c>
+      <c r="D63" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>412300</v>
       </c>
-      <c r="D60" s="5">
+      <c r="E63" s="5">
         <v>410400</v>
       </c>
-      <c r="E60" s="5">
+      <c r="F63" s="5">
         <v>1900</v>
       </c>
-      <c r="F60" s="5">
-        <v>0</v>
-      </c>
-      <c r="G60" s="40"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="9"/>
-    </row>
-    <row r="61" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="13">
-        <v>43739</v>
-      </c>
-      <c r="C61" s="24">
-        <f t="shared" si="1"/>
+      <c r="G63" s="5">
+        <v>0</v>
+      </c>
+      <c r="H63" s="28"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="9"/>
+    </row>
+    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="39">
+        <v>2019</v>
+      </c>
+      <c r="C64" s="40">
+        <v>10</v>
+      </c>
+      <c r="D64" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>397000</v>
       </c>
-      <c r="D61" s="8">
+      <c r="E64" s="8">
         <v>395000</v>
       </c>
-      <c r="E61" s="8">
+      <c r="F64" s="8">
         <v>2000</v>
       </c>
-      <c r="F61" s="8">
-        <v>0</v>
-      </c>
-      <c r="H61" s="41"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="10"/>
-    </row>
-    <row r="62" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="12">
-        <v>43709</v>
-      </c>
-      <c r="C62" s="23">
-        <f t="shared" si="1"/>
+      <c r="G64" s="8">
+        <v>0</v>
+      </c>
+      <c r="I64" s="29"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="10"/>
+    </row>
+    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="41">
+        <v>2019</v>
+      </c>
+      <c r="C65" s="42">
+        <v>9</v>
+      </c>
+      <c r="D65" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>372500</v>
       </c>
-      <c r="D62" s="5">
+      <c r="E65" s="5">
         <v>370700</v>
       </c>
-      <c r="E62" s="5">
+      <c r="F65" s="5">
         <v>1800</v>
       </c>
-      <c r="F62" s="5">
-        <v>0</v>
-      </c>
-      <c r="G62" s="40"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="9"/>
-    </row>
-    <row r="63" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="13">
-        <v>43678</v>
-      </c>
-      <c r="C63" s="24">
-        <f t="shared" si="1"/>
+      <c r="G65" s="5">
+        <v>0</v>
+      </c>
+      <c r="H65" s="28"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="9"/>
+    </row>
+    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="39">
+        <v>2019</v>
+      </c>
+      <c r="C66" s="40">
+        <v>8</v>
+      </c>
+      <c r="D66" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>430200</v>
       </c>
-      <c r="D63" s="8">
+      <c r="E66" s="8">
         <v>428200</v>
       </c>
-      <c r="E63" s="8">
+      <c r="F66" s="8">
         <v>2000</v>
       </c>
-      <c r="F63" s="8">
-        <v>0</v>
-      </c>
-      <c r="H63" s="41"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="10"/>
-    </row>
-    <row r="64" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="12">
-        <v>43647</v>
-      </c>
-      <c r="C64" s="23">
-        <f t="shared" si="1"/>
+      <c r="G66" s="8">
+        <v>0</v>
+      </c>
+      <c r="I66" s="29"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="10"/>
+    </row>
+    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="41">
+        <v>2019</v>
+      </c>
+      <c r="C67" s="42">
+        <v>7</v>
+      </c>
+      <c r="D67" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>445000</v>
       </c>
-      <c r="D64" s="5">
+      <c r="E67" s="5">
         <v>442800</v>
       </c>
-      <c r="E64" s="5">
+      <c r="F67" s="5">
         <v>2200</v>
       </c>
-      <c r="F64" s="5">
-        <v>0</v>
-      </c>
-      <c r="G64" s="40"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="9"/>
-    </row>
-    <row r="65" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="13">
-        <v>43617</v>
-      </c>
-      <c r="C65" s="24">
-        <f t="shared" si="1"/>
+      <c r="G67" s="5">
+        <v>0</v>
+      </c>
+      <c r="H67" s="28"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="9"/>
+    </row>
+    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="39">
+        <v>2019</v>
+      </c>
+      <c r="C68" s="40">
+        <v>6</v>
+      </c>
+      <c r="D68" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>415300</v>
       </c>
-      <c r="D65" s="8">
+      <c r="E68" s="8">
         <v>413200</v>
       </c>
-      <c r="E65" s="8">
+      <c r="F68" s="8">
         <v>2100</v>
       </c>
-      <c r="F65" s="8">
-        <v>0</v>
-      </c>
-      <c r="H65" s="41"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="10"/>
-    </row>
-    <row r="66" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="12">
-        <v>43586</v>
-      </c>
-      <c r="C66" s="23">
-        <f t="shared" si="1"/>
+      <c r="G68" s="8">
+        <v>0</v>
+      </c>
+      <c r="I68" s="29"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="10"/>
+    </row>
+    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="41">
+        <v>2019</v>
+      </c>
+      <c r="C69" s="42">
+        <v>5</v>
+      </c>
+      <c r="D69" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>413700</v>
       </c>
-      <c r="D66" s="5">
+      <c r="E69" s="5">
         <v>411500</v>
       </c>
-      <c r="E66" s="5">
+      <c r="F69" s="5">
         <v>2200</v>
       </c>
-      <c r="F66" s="5">
-        <v>0</v>
-      </c>
-      <c r="G66" s="40"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="9"/>
-    </row>
-    <row r="67" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="13">
-        <v>43556</v>
-      </c>
-      <c r="C67" s="24">
-        <f t="shared" si="1"/>
+      <c r="G69" s="5">
+        <v>0</v>
+      </c>
+      <c r="H69" s="28"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="9"/>
+    </row>
+    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="39">
+        <v>2019</v>
+      </c>
+      <c r="C70" s="40">
+        <v>4</v>
+      </c>
+      <c r="D70" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>419400</v>
       </c>
-      <c r="D67" s="8">
+      <c r="E70" s="8">
         <v>417000</v>
       </c>
-      <c r="E67" s="8">
+      <c r="F70" s="8">
         <v>2400</v>
       </c>
-      <c r="F67" s="8">
-        <v>0</v>
-      </c>
-      <c r="H67" s="41"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="10"/>
-    </row>
-    <row r="68" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="12">
-        <v>43525</v>
-      </c>
-      <c r="C68" s="23">
-        <f t="shared" si="1"/>
+      <c r="G70" s="8">
+        <v>0</v>
+      </c>
+      <c r="I70" s="29"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="10"/>
+    </row>
+    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="41">
+        <v>2019</v>
+      </c>
+      <c r="C71" s="42">
+        <v>3</v>
+      </c>
+      <c r="D71" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>426800</v>
       </c>
-      <c r="D68" s="5">
+      <c r="E71" s="5">
         <v>420000</v>
       </c>
-      <c r="E68" s="5">
+      <c r="F71" s="5">
         <v>6800</v>
       </c>
-      <c r="F68" s="5">
-        <v>0</v>
-      </c>
-      <c r="G68" s="40"/>
-      <c r="H68" s="39"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="9"/>
-    </row>
-    <row r="69" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="13">
-        <v>43497</v>
-      </c>
-      <c r="C69" s="24">
-        <f t="shared" si="1"/>
+      <c r="G71" s="5">
+        <v>0</v>
+      </c>
+      <c r="H71" s="28"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="9"/>
+    </row>
+    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="39">
+        <v>2019</v>
+      </c>
+      <c r="C72" s="40">
+        <v>2</v>
+      </c>
+      <c r="D72" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>375100</v>
       </c>
-      <c r="D69" s="8">
+      <c r="E72" s="8">
         <v>372900</v>
       </c>
-      <c r="E69" s="8">
+      <c r="F72" s="8">
         <v>2200</v>
       </c>
-      <c r="F69" s="8">
-        <v>0</v>
-      </c>
-      <c r="H69" s="41"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="10"/>
-    </row>
-    <row r="70" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="15">
-        <v>43466</v>
-      </c>
-      <c r="C70" s="25">
-        <f t="shared" ref="C70:C82" si="2">SUM(D70:E70)</f>
+      <c r="G72" s="8">
+        <v>0</v>
+      </c>
+      <c r="I72" s="29"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="10"/>
+    </row>
+    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="43">
+        <v>2019</v>
+      </c>
+      <c r="C73" s="44">
+        <v>1</v>
+      </c>
+      <c r="D73" s="20">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>420900</v>
       </c>
-      <c r="D70" s="7">
+      <c r="E73" s="7">
         <v>418600</v>
       </c>
-      <c r="E70" s="7">
+      <c r="F73" s="7">
         <v>2300</v>
       </c>
-      <c r="F70" s="7">
-        <v>0</v>
-      </c>
-      <c r="G70" s="43"/>
-      <c r="H70" s="42"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="11"/>
-    </row>
-    <row r="71" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="14">
-        <v>43435</v>
-      </c>
-      <c r="C71" s="24">
-        <f t="shared" si="2"/>
+      <c r="G73" s="7">
+        <v>0</v>
+      </c>
+      <c r="H73" s="31"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="11"/>
+    </row>
+    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="40">
+        <v>2018</v>
+      </c>
+      <c r="C74" s="40">
+        <v>12</v>
+      </c>
+      <c r="D74" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>436100</v>
       </c>
-      <c r="D71" s="8">
+      <c r="E74" s="8">
         <v>434000</v>
       </c>
-      <c r="E71" s="8">
+      <c r="F74" s="8">
         <v>2100</v>
       </c>
-      <c r="F71" s="8">
-        <v>0</v>
-      </c>
-      <c r="H71" s="44"/>
-      <c r="I71" s="35"/>
-      <c r="J71" s="37"/>
-    </row>
-    <row r="72" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="19">
-        <v>43405</v>
-      </c>
-      <c r="C72" s="23">
-        <f t="shared" si="2"/>
+      <c r="G74" s="8">
+        <v>0</v>
+      </c>
+      <c r="I74" s="32"/>
+      <c r="J74" s="23"/>
+      <c r="K74" s="25"/>
+    </row>
+    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="42">
+        <v>2018</v>
+      </c>
+      <c r="C75" s="42">
+        <v>11</v>
+      </c>
+      <c r="D75" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>406900</v>
       </c>
-      <c r="D72" s="5">
+      <c r="E75" s="5">
         <v>404900</v>
       </c>
-      <c r="E72" s="5">
+      <c r="F75" s="5">
         <v>2000</v>
       </c>
-      <c r="F72" s="5">
-        <v>0</v>
-      </c>
-      <c r="G72" s="40"/>
-      <c r="H72" s="39"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="9"/>
-    </row>
-    <row r="73" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="14">
-        <v>43374</v>
-      </c>
-      <c r="C73" s="24">
-        <f t="shared" si="2"/>
+      <c r="G75" s="5">
+        <v>0</v>
+      </c>
+      <c r="H75" s="28"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="9"/>
+    </row>
+    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="40">
+        <v>2018</v>
+      </c>
+      <c r="C76" s="40">
+        <v>10</v>
+      </c>
+      <c r="D76" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>391100</v>
       </c>
-      <c r="D73" s="8">
+      <c r="E76" s="8">
         <v>389100</v>
       </c>
-      <c r="E73" s="8">
+      <c r="F76" s="8">
         <v>2000</v>
       </c>
-      <c r="F73" s="8">
-        <v>0</v>
-      </c>
-      <c r="H73" s="41"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="10"/>
-    </row>
-    <row r="74" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="19">
-        <v>43344</v>
-      </c>
-      <c r="C74" s="23">
-        <f t="shared" si="2"/>
+      <c r="G76" s="8">
+        <v>0</v>
+      </c>
+      <c r="I76" s="29"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="10"/>
+    </row>
+    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="42">
+        <v>2018</v>
+      </c>
+      <c r="C77" s="42">
+        <v>9</v>
+      </c>
+      <c r="D77" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>374300</v>
       </c>
-      <c r="D74" s="5">
+      <c r="E77" s="5">
         <v>372300</v>
       </c>
-      <c r="E74" s="5">
+      <c r="F77" s="5">
         <v>2000</v>
       </c>
-      <c r="F74" s="5">
-        <v>0</v>
-      </c>
-      <c r="G74" s="40"/>
-      <c r="H74" s="39"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="9"/>
-    </row>
-    <row r="75" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="14">
-        <v>43313</v>
-      </c>
-      <c r="C75" s="24">
-        <f t="shared" si="2"/>
+      <c r="G77" s="5">
+        <v>0</v>
+      </c>
+      <c r="H77" s="28"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="9"/>
+    </row>
+    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="40">
+        <v>2018</v>
+      </c>
+      <c r="C78" s="40">
+        <v>8</v>
+      </c>
+      <c r="D78" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>428800</v>
       </c>
-      <c r="D75" s="8">
+      <c r="E78" s="8">
         <v>426400</v>
       </c>
-      <c r="E75" s="8">
+      <c r="F78" s="8">
         <v>2400</v>
       </c>
-      <c r="F75" s="8">
-        <v>0</v>
-      </c>
-      <c r="H75" s="41"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="10"/>
-    </row>
-    <row r="76" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="19">
-        <v>43282</v>
-      </c>
-      <c r="C76" s="23">
-        <f t="shared" si="2"/>
+      <c r="G78" s="8">
+        <v>0</v>
+      </c>
+      <c r="I78" s="29"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="10"/>
+    </row>
+    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="42">
+        <v>2018</v>
+      </c>
+      <c r="C79" s="42">
+        <v>7</v>
+      </c>
+      <c r="D79" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>446300</v>
       </c>
-      <c r="D76" s="5">
+      <c r="E79" s="5">
         <v>444000</v>
       </c>
-      <c r="E76" s="5">
+      <c r="F79" s="5">
         <v>2300</v>
       </c>
-      <c r="F76" s="5">
-        <v>0</v>
-      </c>
-      <c r="G76" s="40"/>
-      <c r="H76" s="39"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="9"/>
-    </row>
-    <row r="77" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="14">
-        <v>43252</v>
-      </c>
-      <c r="C77" s="24">
-        <f t="shared" si="2"/>
+      <c r="G79" s="5">
+        <v>0</v>
+      </c>
+      <c r="H79" s="28"/>
+      <c r="I79" s="27"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="9"/>
+    </row>
+    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="40">
+        <v>2018</v>
+      </c>
+      <c r="C80" s="40">
+        <v>6</v>
+      </c>
+      <c r="D80" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>411400</v>
       </c>
-      <c r="D77" s="8">
+      <c r="E80" s="8">
         <v>409400</v>
       </c>
-      <c r="E77" s="8">
+      <c r="F80" s="8">
         <v>2000</v>
       </c>
-      <c r="F77" s="8">
-        <v>0</v>
-      </c>
-      <c r="H77" s="41"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="10"/>
-    </row>
-    <row r="78" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="19">
-        <v>43221</v>
-      </c>
-      <c r="C78" s="23">
-        <f t="shared" si="2"/>
+      <c r="G80" s="8">
+        <v>0</v>
+      </c>
+      <c r="I80" s="29"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="10"/>
+    </row>
+    <row r="81" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="42">
+        <v>2018</v>
+      </c>
+      <c r="C81" s="42">
+        <v>5</v>
+      </c>
+      <c r="D81" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>406200</v>
       </c>
-      <c r="D78" s="5">
+      <c r="E81" s="5">
         <v>403800</v>
       </c>
-      <c r="E78" s="5">
+      <c r="F81" s="5">
         <v>2400</v>
       </c>
-      <c r="F78" s="5">
-        <v>0</v>
-      </c>
-      <c r="G78" s="40"/>
-      <c r="H78" s="39"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="9"/>
-    </row>
-    <row r="79" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="14">
-        <v>43191</v>
-      </c>
-      <c r="C79" s="24">
-        <f t="shared" si="2"/>
+      <c r="G81" s="5">
+        <v>0</v>
+      </c>
+      <c r="H81" s="28"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="9"/>
+    </row>
+    <row r="82" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="40">
+        <v>2018</v>
+      </c>
+      <c r="C82" s="40">
+        <v>4</v>
+      </c>
+      <c r="D82" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>415400</v>
       </c>
-      <c r="D79" s="8">
+      <c r="E82" s="8">
         <v>413200</v>
       </c>
-      <c r="E79" s="8">
+      <c r="F82" s="8">
         <v>2200</v>
       </c>
-      <c r="F79" s="8">
-        <v>0</v>
-      </c>
-      <c r="H79" s="41"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="10"/>
-    </row>
-    <row r="80" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="19">
-        <v>43160</v>
-      </c>
-      <c r="C80" s="23">
-        <f t="shared" si="2"/>
+      <c r="G82" s="8">
+        <v>0</v>
+      </c>
+      <c r="I82" s="29"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="10"/>
+    </row>
+    <row r="83" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="42">
+        <v>2018</v>
+      </c>
+      <c r="C83" s="42">
+        <v>3</v>
+      </c>
+      <c r="D83" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>444600</v>
       </c>
-      <c r="D80" s="5">
+      <c r="E83" s="5">
         <v>442100</v>
       </c>
-      <c r="E80" s="5">
+      <c r="F83" s="5">
         <v>2500</v>
       </c>
-      <c r="F80" s="5">
-        <v>0</v>
-      </c>
-      <c r="G80" s="40"/>
-      <c r="H80" s="39"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="9"/>
-    </row>
-    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="14">
-        <v>43132</v>
-      </c>
-      <c r="C81" s="24">
-        <f t="shared" si="2"/>
+      <c r="G83" s="5">
+        <v>0</v>
+      </c>
+      <c r="H83" s="28"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="9"/>
+    </row>
+    <row r="84" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="40">
+        <v>2018</v>
+      </c>
+      <c r="C84" s="40">
+        <v>2</v>
+      </c>
+      <c r="D84" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>381500</v>
       </c>
-      <c r="D81" s="8">
+      <c r="E84" s="8">
         <v>379200</v>
       </c>
-      <c r="E81" s="8">
+      <c r="F84" s="8">
         <v>2300</v>
       </c>
-      <c r="F81" s="8">
-        <v>0</v>
-      </c>
-      <c r="H81" s="41"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="10"/>
-    </row>
-    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="19">
-        <v>43101</v>
-      </c>
-      <c r="C82" s="23">
-        <f t="shared" si="2"/>
+      <c r="G84" s="8">
+        <v>0</v>
+      </c>
+      <c r="I84" s="29"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="10"/>
+    </row>
+    <row r="85" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="42">
+        <v>2018</v>
+      </c>
+      <c r="C85" s="42">
+        <v>1</v>
+      </c>
+      <c r="D85" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
         <v>427700</v>
       </c>
-      <c r="D82" s="5">
+      <c r="E85" s="5">
         <v>425500</v>
       </c>
-      <c r="E82" s="5">
+      <c r="F85" s="5">
         <v>2200</v>
       </c>
-      <c r="F82" s="5">
-        <v>0</v>
-      </c>
-      <c r="G82" s="40"/>
-      <c r="H82" s="42"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="11"/>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B83" t="s">
+      <c r="G85" s="5">
+        <v>0</v>
+      </c>
+      <c r="H85" s="28"/>
+      <c r="I85" s="30"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="11"/>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H86" s="8"/>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
+        <v>16</v>
+      </c>
+      <c r="H87" s="8"/>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="H88" s="8"/>
+      <c r="K88" s="3"/>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B89" t="s">
+        <v>4</v>
+      </c>
+      <c r="H89" s="8"/>
+      <c r="K89" s="3"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B90" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H90" s="8"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B91" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" s="8"/>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B92" t="s">
+        <v>18</v>
+      </c>
+      <c r="H92" s="8"/>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B93" t="s">
         <v>19</v>
       </c>
-      <c r="G83" s="8"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B84" t="s">
-        <v>6</v>
-      </c>
-      <c r="G84" s="8"/>
-      <c r="J84" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B85" t="s">
-        <v>7</v>
-      </c>
-      <c r="G85" s="8"/>
-      <c r="J85" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B86" t="s">
+      <c r="H93" s="8"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B94" t="s">
         <v>20</v>
       </c>
-      <c r="G86" s="8"/>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B87" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" s="8"/>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B88" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" s="8"/>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B89" t="s">
-        <v>23</v>
-      </c>
-      <c r="G89" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="I4:K4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="C6:C82" formulaRange="1"/>
-  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/Combustuble_A.xlsx
+++ b/Combustuble_A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637D9E9D-7F42-44A6-8349-7992DACE087F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E24F97A-86C8-4D95-A24B-8C2D05154434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_29" sheetId="1" r:id="rId1"/>
@@ -430,15 +430,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -463,38 +454,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -553,11 +527,30 @@
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -567,6 +560,13 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -622,7 +622,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:K85" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:K85" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="B5:K85" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
@@ -632,20 +632,20 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{78678468-576B-4862-8C08-4E1669ACC699}" name="Mes" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Total" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{78678468-576B-4862-8C08-4E1669ACC699}" name="Mes" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Total" dataDxfId="7">
       <calculatedColumnFormula>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Turbosina" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Gasvión" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{921AEF46-65F7-4B2E-9910-D1C0A146F016}" name="Turbosina " dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{0680BCA2-BF30-4617-80D8-74DE92A39A09}" name=" Turbosina" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{BE50F8E5-4343-40AE-9892-E8B315F40375}" name="Total  " dataDxfId="5" dataCellStyle="20% - Énfasis5">
+    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Turbosina" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Gasvión" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{921AEF46-65F7-4B2E-9910-D1C0A146F016}" name="Turbosina " dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{0680BCA2-BF30-4617-80D8-74DE92A39A09}" name=" Turbosina" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{BE50F8E5-4343-40AE-9892-E8B315F40375}" name="Total  " dataDxfId="2" dataCellStyle="20% - Énfasis5">
       <calculatedColumnFormula>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{798C3AD8-B516-48F7-9335-369B01456921}" name="Turbosina  " dataDxfId="4" dataCellStyle="20% - Énfasis5"/>
-    <tableColumn id="13" xr3:uid="{A853E079-175B-4713-BAE5-790EA8F3405A}" name="Gasvión  " dataDxfId="3" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="12" xr3:uid="{798C3AD8-B516-48F7-9335-369B01456921}" name="Turbosina  " dataDxfId="1" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="13" xr3:uid="{A853E079-175B-4713-BAE5-790EA8F3405A}" name="Gasvión  " dataDxfId="0" dataCellStyle="20% - Énfasis5"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -907,22 +907,22 @@
     <row r="4" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="38"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="46"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B5" s="34" t="s">
@@ -957,10 +957,10 @@
       </c>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B6" s="39">
+      <c r="B6" s="36">
         <v>2024</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="37">
         <v>8</v>
       </c>
       <c r="D6" s="19">
@@ -993,10 +993,10 @@
       </c>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B7" s="41">
+      <c r="B7" s="38">
         <v>2024</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="39">
         <v>7</v>
       </c>
       <c r="D7" s="18">
@@ -1025,10 +1025,10 @@
       </c>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B8" s="39">
+      <c r="B8" s="36">
         <v>2024</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="37">
         <v>6</v>
       </c>
       <c r="D8" s="19">
@@ -1057,10 +1057,10 @@
       </c>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B9" s="41">
+      <c r="B9" s="38">
         <v>2024</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="39">
         <v>5</v>
       </c>
       <c r="D9" s="18">
@@ -1089,10 +1089,10 @@
       </c>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B10" s="39">
+      <c r="B10" s="36">
         <v>2024</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="37">
         <v>4</v>
       </c>
       <c r="D10" s="19">
@@ -1123,10 +1123,10 @@
       </c>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B11" s="41">
+      <c r="B11" s="38">
         <v>2024</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="39">
         <v>3</v>
       </c>
       <c r="D11" s="18">
@@ -1157,10 +1157,10 @@
       </c>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B12" s="39">
+      <c r="B12" s="36">
         <v>2024</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="37">
         <v>2</v>
       </c>
       <c r="D12" s="19">
@@ -1191,10 +1191,10 @@
       </c>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B13" s="43">
+      <c r="B13" s="40">
         <v>2024</v>
       </c>
-      <c r="C13" s="44">
+      <c r="C13" s="41">
         <v>1</v>
       </c>
       <c r="D13" s="20">
@@ -1225,10 +1225,10 @@
       </c>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B14" s="45">
+      <c r="B14" s="42">
         <v>2023</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="43">
         <v>12</v>
       </c>
       <c r="D14" s="22">
@@ -1259,10 +1259,10 @@
       </c>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B15" s="41">
+      <c r="B15" s="38">
         <v>2023</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="39">
         <v>11</v>
       </c>
       <c r="D15" s="18">
@@ -1293,10 +1293,10 @@
       </c>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B16" s="39">
+      <c r="B16" s="36">
         <v>2023</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C16" s="37">
         <v>10</v>
       </c>
       <c r="D16" s="19">
@@ -1327,10 +1327,10 @@
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B17" s="41">
+      <c r="B17" s="38">
         <v>2023</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="39">
         <v>9</v>
       </c>
       <c r="D17" s="18">
@@ -1361,10 +1361,10 @@
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B18" s="39">
+      <c r="B18" s="36">
         <v>2023</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="37">
         <v>8</v>
       </c>
       <c r="D18" s="19">
@@ -1395,10 +1395,10 @@
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B19" s="41">
+      <c r="B19" s="38">
         <v>2023</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="39">
         <v>7</v>
       </c>
       <c r="D19" s="18">
@@ -1429,10 +1429,10 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B20" s="39">
+      <c r="B20" s="36">
         <v>2023</v>
       </c>
-      <c r="C20" s="40">
+      <c r="C20" s="37">
         <v>6</v>
       </c>
       <c r="D20" s="19">
@@ -1463,10 +1463,10 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B21" s="41">
+      <c r="B21" s="38">
         <v>2023</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="39">
         <v>5</v>
       </c>
       <c r="D21" s="18">
@@ -1497,10 +1497,10 @@
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B22" s="39">
+      <c r="B22" s="36">
         <v>2023</v>
       </c>
-      <c r="C22" s="40">
+      <c r="C22" s="37">
         <v>4</v>
       </c>
       <c r="D22" s="19">
@@ -1531,10 +1531,10 @@
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B23" s="41">
+      <c r="B23" s="38">
         <v>2023</v>
       </c>
-      <c r="C23" s="42">
+      <c r="C23" s="39">
         <v>3</v>
       </c>
       <c r="D23" s="18">
@@ -1565,10 +1565,10 @@
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B24" s="39">
+      <c r="B24" s="36">
         <v>2023</v>
       </c>
-      <c r="C24" s="40">
+      <c r="C24" s="37">
         <v>2</v>
       </c>
       <c r="D24" s="19">
@@ -1599,10 +1599,10 @@
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B25" s="43">
+      <c r="B25" s="40">
         <v>2023</v>
       </c>
-      <c r="C25" s="44">
+      <c r="C25" s="41">
         <v>1</v>
       </c>
       <c r="D25" s="20">
@@ -1633,10 +1633,10 @@
       </c>
     </row>
     <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="45">
+      <c r="B26" s="42">
         <v>2022</v>
       </c>
-      <c r="C26" s="46">
+      <c r="C26" s="43">
         <v>12</v>
       </c>
       <c r="D26" s="22">
@@ -1667,10 +1667,10 @@
       </c>
     </row>
     <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="41">
+      <c r="B27" s="38">
         <v>2022</v>
       </c>
-      <c r="C27" s="42">
+      <c r="C27" s="39">
         <v>11</v>
       </c>
       <c r="D27" s="18">
@@ -1701,10 +1701,10 @@
       </c>
     </row>
     <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="39">
+      <c r="B28" s="36">
         <v>2022</v>
       </c>
-      <c r="C28" s="40">
+      <c r="C28" s="37">
         <v>10</v>
       </c>
       <c r="D28" s="19">
@@ -1735,10 +1735,10 @@
       </c>
     </row>
     <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="41">
+      <c r="B29" s="38">
         <v>2022</v>
       </c>
-      <c r="C29" s="42">
+      <c r="C29" s="39">
         <v>9</v>
       </c>
       <c r="D29" s="18">
@@ -1769,10 +1769,10 @@
       </c>
     </row>
     <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="39">
+      <c r="B30" s="36">
         <v>2022</v>
       </c>
-      <c r="C30" s="40">
+      <c r="C30" s="37">
         <v>8</v>
       </c>
       <c r="D30" s="19">
@@ -1803,10 +1803,10 @@
       </c>
     </row>
     <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="41">
+      <c r="B31" s="38">
         <v>2022</v>
       </c>
-      <c r="C31" s="42">
+      <c r="C31" s="39">
         <v>7</v>
       </c>
       <c r="D31" s="18">
@@ -1837,10 +1837,10 @@
       </c>
     </row>
     <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="39">
+      <c r="B32" s="36">
         <v>2022</v>
       </c>
-      <c r="C32" s="40">
+      <c r="C32" s="37">
         <v>6</v>
       </c>
       <c r="D32" s="19">
@@ -1871,10 +1871,10 @@
       </c>
     </row>
     <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="41">
+      <c r="B33" s="38">
         <v>2022</v>
       </c>
-      <c r="C33" s="42">
+      <c r="C33" s="39">
         <v>5</v>
       </c>
       <c r="D33" s="18">
@@ -1887,19 +1887,17 @@
       <c r="F33" s="5">
         <v>2000.2830000000001</v>
       </c>
-      <c r="G33" s="5">
-        <v>365</v>
-      </c>
+      <c r="G33" s="5"/>
       <c r="H33" s="28"/>
       <c r="I33" s="27"/>
       <c r="J33" s="5"/>
       <c r="K33" s="9"/>
     </row>
     <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="39">
+      <c r="B34" s="36">
         <v>2022</v>
       </c>
-      <c r="C34" s="40">
+      <c r="C34" s="37">
         <v>4</v>
       </c>
       <c r="D34" s="19">
@@ -1912,18 +1910,16 @@
       <c r="F34" s="8">
         <v>2133.922</v>
       </c>
-      <c r="G34" s="8">
-        <v>352</v>
-      </c>
+      <c r="G34" s="8"/>
       <c r="I34" s="29"/>
       <c r="J34" s="8"/>
       <c r="K34" s="10"/>
     </row>
     <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="41">
+      <c r="B35" s="38">
         <v>2022</v>
       </c>
-      <c r="C35" s="42">
+      <c r="C35" s="39">
         <v>3</v>
       </c>
       <c r="D35" s="18">
@@ -1936,19 +1932,17 @@
       <c r="F35" s="5">
         <v>2501.0709999999999</v>
       </c>
-      <c r="G35" s="5">
-        <v>134</v>
-      </c>
+      <c r="G35" s="5"/>
       <c r="H35" s="28"/>
       <c r="I35" s="27"/>
       <c r="J35" s="5"/>
       <c r="K35" s="9"/>
     </row>
     <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="39">
+      <c r="B36" s="36">
         <v>2022</v>
       </c>
-      <c r="C36" s="40">
+      <c r="C36" s="37">
         <v>2</v>
       </c>
       <c r="D36" s="19">
@@ -1961,18 +1955,16 @@
       <c r="F36" s="8">
         <v>2001.5580000000002</v>
       </c>
-      <c r="G36" s="8">
-        <v>0</v>
-      </c>
+      <c r="G36" s="8"/>
       <c r="I36" s="29"/>
       <c r="J36" s="8"/>
       <c r="K36" s="10"/>
     </row>
     <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="43">
+      <c r="B37" s="40">
         <v>2022</v>
       </c>
-      <c r="C37" s="44">
+      <c r="C37" s="41">
         <v>1</v>
       </c>
       <c r="D37" s="20">
@@ -1985,19 +1977,17 @@
       <c r="F37" s="7">
         <v>2195.6039999999998</v>
       </c>
-      <c r="G37" s="7">
-        <v>0</v>
-      </c>
+      <c r="G37" s="7"/>
       <c r="H37" s="31"/>
       <c r="I37" s="30"/>
       <c r="J37" s="7"/>
       <c r="K37" s="11"/>
     </row>
     <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="45">
+      <c r="B38" s="42">
         <v>2021</v>
       </c>
-      <c r="C38" s="46">
+      <c r="C38" s="43">
         <v>12</v>
       </c>
       <c r="D38" s="22">
@@ -2010,19 +2000,17 @@
       <c r="F38" s="23">
         <v>2189.31</v>
       </c>
-      <c r="G38" s="23">
-        <v>0</v>
-      </c>
+      <c r="G38" s="23"/>
       <c r="H38" s="33"/>
       <c r="I38" s="32"/>
       <c r="J38" s="23"/>
       <c r="K38" s="25"/>
     </row>
     <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="41">
+      <c r="B39" s="38">
         <v>2021</v>
       </c>
-      <c r="C39" s="42">
+      <c r="C39" s="39">
         <v>11</v>
       </c>
       <c r="D39" s="18">
@@ -2035,19 +2023,17 @@
       <c r="F39" s="5">
         <v>2111.6089999999999</v>
       </c>
-      <c r="G39" s="5">
-        <v>0</v>
-      </c>
+      <c r="G39" s="5"/>
       <c r="H39" s="28"/>
       <c r="I39" s="27"/>
       <c r="J39" s="5"/>
       <c r="K39" s="9"/>
     </row>
     <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="39">
+      <c r="B40" s="36">
         <v>2021</v>
       </c>
-      <c r="C40" s="40">
+      <c r="C40" s="37">
         <v>10</v>
       </c>
       <c r="D40" s="19">
@@ -2060,18 +2046,16 @@
       <c r="F40" s="8">
         <v>2082.681</v>
       </c>
-      <c r="G40" s="8">
-        <v>0</v>
-      </c>
+      <c r="G40" s="8"/>
       <c r="I40" s="29"/>
       <c r="J40" s="8"/>
       <c r="K40" s="10"/>
     </row>
     <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="41">
+      <c r="B41" s="38">
         <v>2021</v>
       </c>
-      <c r="C41" s="42">
+      <c r="C41" s="39">
         <v>9</v>
       </c>
       <c r="D41" s="18">
@@ -2084,19 +2068,17 @@
       <c r="F41" s="5">
         <v>2051.5699999999997</v>
       </c>
-      <c r="G41" s="5">
-        <v>0</v>
-      </c>
+      <c r="G41" s="5"/>
       <c r="H41" s="28"/>
       <c r="I41" s="27"/>
       <c r="J41" s="5"/>
       <c r="K41" s="9"/>
     </row>
     <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="39">
+      <c r="B42" s="36">
         <v>2021</v>
       </c>
-      <c r="C42" s="40">
+      <c r="C42" s="37">
         <v>8</v>
       </c>
       <c r="D42" s="19">
@@ -2109,18 +2091,16 @@
       <c r="F42" s="8">
         <v>1993.6790000000001</v>
       </c>
-      <c r="G42" s="8">
-        <v>0</v>
-      </c>
+      <c r="G42" s="8"/>
       <c r="I42" s="29"/>
       <c r="J42" s="8"/>
       <c r="K42" s="10"/>
     </row>
     <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="41">
+      <c r="B43" s="38">
         <v>2021</v>
       </c>
-      <c r="C43" s="42">
+      <c r="C43" s="39">
         <v>7</v>
       </c>
       <c r="D43" s="18">
@@ -2133,19 +2113,17 @@
       <c r="F43" s="5">
         <v>2069.777</v>
       </c>
-      <c r="G43" s="5">
-        <v>0</v>
-      </c>
+      <c r="G43" s="5"/>
       <c r="H43" s="28"/>
       <c r="I43" s="27"/>
       <c r="J43" s="5"/>
       <c r="K43" s="9"/>
     </row>
     <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="39">
+      <c r="B44" s="36">
         <v>2021</v>
       </c>
-      <c r="C44" s="40">
+      <c r="C44" s="37">
         <v>6</v>
       </c>
       <c r="D44" s="19">
@@ -2158,18 +2136,16 @@
       <c r="F44" s="8">
         <v>1964.731</v>
       </c>
-      <c r="G44" s="8">
-        <v>0</v>
-      </c>
+      <c r="G44" s="8"/>
       <c r="I44" s="29"/>
       <c r="J44" s="8"/>
       <c r="K44" s="10"/>
     </row>
     <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="41">
+      <c r="B45" s="38">
         <v>2021</v>
       </c>
-      <c r="C45" s="42">
+      <c r="C45" s="39">
         <v>5</v>
       </c>
       <c r="D45" s="18">
@@ -2182,19 +2158,17 @@
       <c r="F45" s="5">
         <v>2229.6580000000004</v>
       </c>
-      <c r="G45" s="5">
-        <v>0</v>
-      </c>
+      <c r="G45" s="5"/>
       <c r="H45" s="28"/>
       <c r="I45" s="27"/>
       <c r="J45" s="5"/>
       <c r="K45" s="9"/>
     </row>
     <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="39">
+      <c r="B46" s="36">
         <v>2021</v>
       </c>
-      <c r="C46" s="40">
+      <c r="C46" s="37">
         <v>4</v>
       </c>
       <c r="D46" s="19">
@@ -2207,18 +2181,16 @@
       <c r="F46" s="8">
         <v>2318.297</v>
       </c>
-      <c r="G46" s="8">
-        <v>0</v>
-      </c>
+      <c r="G46" s="8"/>
       <c r="I46" s="29"/>
       <c r="J46" s="8"/>
       <c r="K46" s="10"/>
     </row>
     <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="41">
+      <c r="B47" s="38">
         <v>2021</v>
       </c>
-      <c r="C47" s="42">
+      <c r="C47" s="39">
         <v>3</v>
       </c>
       <c r="D47" s="18">
@@ -2231,19 +2203,17 @@
       <c r="F47" s="5">
         <v>2676.83</v>
       </c>
-      <c r="G47" s="5">
-        <v>0</v>
-      </c>
+      <c r="G47" s="5"/>
       <c r="H47" s="28"/>
       <c r="I47" s="27"/>
       <c r="J47" s="5"/>
       <c r="K47" s="9"/>
     </row>
     <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="39">
+      <c r="B48" s="36">
         <v>2021</v>
       </c>
-      <c r="C48" s="40">
+      <c r="C48" s="37">
         <v>2</v>
       </c>
       <c r="D48" s="19">
@@ -2256,18 +2226,16 @@
       <c r="F48" s="8">
         <v>1968.9190000000001</v>
       </c>
-      <c r="G48" s="8">
-        <v>0</v>
-      </c>
+      <c r="G48" s="8"/>
       <c r="I48" s="29"/>
       <c r="J48" s="8"/>
       <c r="K48" s="10"/>
     </row>
     <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="43">
+      <c r="B49" s="40">
         <v>2021</v>
       </c>
-      <c r="C49" s="44">
+      <c r="C49" s="41">
         <v>1</v>
       </c>
       <c r="D49" s="20">
@@ -2280,19 +2248,17 @@
       <c r="F49" s="7">
         <v>2142.6770000000001</v>
       </c>
-      <c r="G49" s="7">
-        <v>0</v>
-      </c>
+      <c r="G49" s="7"/>
       <c r="H49" s="31"/>
       <c r="I49" s="30"/>
       <c r="J49" s="7"/>
       <c r="K49" s="11"/>
     </row>
     <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="45">
+      <c r="B50" s="42">
         <v>2020</v>
       </c>
-      <c r="C50" s="46">
+      <c r="C50" s="43">
         <v>12</v>
       </c>
       <c r="D50" s="22">
@@ -2305,19 +2271,17 @@
       <c r="F50" s="23">
         <v>2203.6889999999999</v>
       </c>
-      <c r="G50" s="23">
-        <v>0</v>
-      </c>
+      <c r="G50" s="23"/>
       <c r="H50" s="33"/>
       <c r="I50" s="32"/>
       <c r="J50" s="23"/>
       <c r="K50" s="25"/>
     </row>
     <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="41">
+      <c r="B51" s="38">
         <v>2020</v>
       </c>
-      <c r="C51" s="42">
+      <c r="C51" s="39">
         <v>11</v>
       </c>
       <c r="D51" s="18">
@@ -2330,19 +2294,17 @@
       <c r="F51" s="5">
         <v>1742.25</v>
       </c>
-      <c r="G51" s="5">
-        <v>0</v>
-      </c>
+      <c r="G51" s="5"/>
       <c r="H51" s="28"/>
       <c r="I51" s="27"/>
       <c r="J51" s="5"/>
       <c r="K51" s="9"/>
     </row>
     <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="39">
+      <c r="B52" s="36">
         <v>2020</v>
       </c>
-      <c r="C52" s="40">
+      <c r="C52" s="37">
         <v>10</v>
       </c>
       <c r="D52" s="19">
@@ -2355,18 +2317,16 @@
       <c r="F52" s="8">
         <v>2140.2350000000001</v>
       </c>
-      <c r="G52" s="8">
-        <v>0</v>
-      </c>
+      <c r="G52" s="8"/>
       <c r="I52" s="29"/>
       <c r="J52" s="8"/>
       <c r="K52" s="10"/>
     </row>
     <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="41">
+      <c r="B53" s="38">
         <v>2020</v>
       </c>
-      <c r="C53" s="42">
+      <c r="C53" s="39">
         <v>9</v>
       </c>
       <c r="D53" s="18">
@@ -2379,19 +2339,17 @@
       <c r="F53" s="5">
         <v>2028.396</v>
       </c>
-      <c r="G53" s="5">
-        <v>0</v>
-      </c>
+      <c r="G53" s="5"/>
       <c r="H53" s="28"/>
       <c r="I53" s="27"/>
       <c r="J53" s="5"/>
       <c r="K53" s="9"/>
     </row>
     <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="39">
+      <c r="B54" s="36">
         <v>2020</v>
       </c>
-      <c r="C54" s="40">
+      <c r="C54" s="37">
         <v>8</v>
       </c>
       <c r="D54" s="19">
@@ -2404,18 +2362,16 @@
       <c r="F54" s="8">
         <v>1975.903</v>
       </c>
-      <c r="G54" s="8">
-        <v>0</v>
-      </c>
+      <c r="G54" s="8"/>
       <c r="I54" s="29"/>
       <c r="J54" s="8"/>
       <c r="K54" s="10"/>
     </row>
     <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="41">
+      <c r="B55" s="38">
         <v>2020</v>
       </c>
-      <c r="C55" s="42">
+      <c r="C55" s="39">
         <v>7</v>
       </c>
       <c r="D55" s="18">
@@ -2428,19 +2384,17 @@
       <c r="F55" s="5">
         <v>2005.7730000000001</v>
       </c>
-      <c r="G55" s="5">
-        <v>0</v>
-      </c>
+      <c r="G55" s="5"/>
       <c r="H55" s="28"/>
       <c r="I55" s="27"/>
       <c r="J55" s="5"/>
       <c r="K55" s="9"/>
     </row>
     <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="39">
+      <c r="B56" s="36">
         <v>2020</v>
       </c>
-      <c r="C56" s="40">
+      <c r="C56" s="37">
         <v>6</v>
       </c>
       <c r="D56" s="19">
@@ -2453,18 +2407,16 @@
       <c r="F56" s="8">
         <v>1709.0140000000001</v>
       </c>
-      <c r="G56" s="8">
-        <v>0</v>
-      </c>
+      <c r="G56" s="8"/>
       <c r="I56" s="29"/>
       <c r="J56" s="8"/>
       <c r="K56" s="10"/>
     </row>
     <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="41">
+      <c r="B57" s="38">
         <v>2020</v>
       </c>
-      <c r="C57" s="42">
+      <c r="C57" s="39">
         <v>5</v>
       </c>
       <c r="D57" s="18">
@@ -2477,19 +2429,17 @@
       <c r="F57" s="5">
         <v>1583.2539999999999</v>
       </c>
-      <c r="G57" s="5">
-        <v>0</v>
-      </c>
+      <c r="G57" s="5"/>
       <c r="H57" s="28"/>
       <c r="I57" s="27"/>
       <c r="J57" s="5"/>
       <c r="K57" s="9"/>
     </row>
     <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="39">
+      <c r="B58" s="36">
         <v>2020</v>
       </c>
-      <c r="C58" s="40">
+      <c r="C58" s="37">
         <v>4</v>
       </c>
       <c r="D58" s="19">
@@ -2502,18 +2452,16 @@
       <c r="F58" s="8">
         <v>1634.1790000000001</v>
       </c>
-      <c r="G58" s="8">
-        <v>0</v>
-      </c>
+      <c r="G58" s="8"/>
       <c r="I58" s="29"/>
       <c r="J58" s="8"/>
       <c r="K58" s="10"/>
     </row>
     <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="41">
+      <c r="B59" s="38">
         <v>2020</v>
       </c>
-      <c r="C59" s="42">
+      <c r="C59" s="39">
         <v>3</v>
       </c>
       <c r="D59" s="18">
@@ -2526,19 +2474,17 @@
       <c r="F59" s="5">
         <v>2429.5740000000001</v>
       </c>
-      <c r="G59" s="5">
-        <v>0</v>
-      </c>
+      <c r="G59" s="5"/>
       <c r="H59" s="28"/>
       <c r="I59" s="27"/>
       <c r="J59" s="5"/>
       <c r="K59" s="9"/>
     </row>
     <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="39">
+      <c r="B60" s="36">
         <v>2020</v>
       </c>
-      <c r="C60" s="40">
+      <c r="C60" s="37">
         <v>2</v>
       </c>
       <c r="D60" s="19">
@@ -2551,18 +2497,16 @@
       <c r="F60" s="8">
         <v>2207.123</v>
       </c>
-      <c r="G60" s="8">
-        <v>0</v>
-      </c>
+      <c r="G60" s="8"/>
       <c r="I60" s="29"/>
       <c r="J60" s="8"/>
       <c r="K60" s="10"/>
     </row>
     <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="43">
+      <c r="B61" s="40">
         <v>2020</v>
       </c>
-      <c r="C61" s="44">
+      <c r="C61" s="41">
         <v>1</v>
       </c>
       <c r="D61" s="20">
@@ -2575,19 +2519,17 @@
       <c r="F61" s="7">
         <v>2396.0610000000001</v>
       </c>
-      <c r="G61" s="7">
-        <v>0</v>
-      </c>
+      <c r="G61" s="7"/>
       <c r="H61" s="31"/>
       <c r="I61" s="30"/>
       <c r="J61" s="7"/>
       <c r="K61" s="11"/>
     </row>
     <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="45">
+      <c r="B62" s="42">
         <v>2019</v>
       </c>
-      <c r="C62" s="46">
+      <c r="C62" s="43">
         <v>12</v>
       </c>
       <c r="D62" s="22">
@@ -2600,19 +2542,17 @@
       <c r="F62" s="23">
         <v>2100</v>
       </c>
-      <c r="G62" s="23">
-        <v>0</v>
-      </c>
+      <c r="G62" s="23"/>
       <c r="H62" s="33"/>
       <c r="I62" s="32"/>
       <c r="J62" s="23"/>
       <c r="K62" s="25"/>
     </row>
     <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="41">
+      <c r="B63" s="38">
         <v>2019</v>
       </c>
-      <c r="C63" s="42">
+      <c r="C63" s="39">
         <v>11</v>
       </c>
       <c r="D63" s="18">
@@ -2625,19 +2565,17 @@
       <c r="F63" s="5">
         <v>1900</v>
       </c>
-      <c r="G63" s="5">
-        <v>0</v>
-      </c>
+      <c r="G63" s="5"/>
       <c r="H63" s="28"/>
       <c r="I63" s="27"/>
       <c r="J63" s="5"/>
       <c r="K63" s="9"/>
     </row>
     <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="39">
+      <c r="B64" s="36">
         <v>2019</v>
       </c>
-      <c r="C64" s="40">
+      <c r="C64" s="37">
         <v>10</v>
       </c>
       <c r="D64" s="19">
@@ -2650,18 +2588,16 @@
       <c r="F64" s="8">
         <v>2000</v>
       </c>
-      <c r="G64" s="8">
-        <v>0</v>
-      </c>
+      <c r="G64" s="8"/>
       <c r="I64" s="29"/>
       <c r="J64" s="8"/>
       <c r="K64" s="10"/>
     </row>
     <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="41">
+      <c r="B65" s="38">
         <v>2019</v>
       </c>
-      <c r="C65" s="42">
+      <c r="C65" s="39">
         <v>9</v>
       </c>
       <c r="D65" s="18">
@@ -2674,19 +2610,17 @@
       <c r="F65" s="5">
         <v>1800</v>
       </c>
-      <c r="G65" s="5">
-        <v>0</v>
-      </c>
+      <c r="G65" s="5"/>
       <c r="H65" s="28"/>
       <c r="I65" s="27"/>
       <c r="J65" s="5"/>
       <c r="K65" s="9"/>
     </row>
     <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="39">
+      <c r="B66" s="36">
         <v>2019</v>
       </c>
-      <c r="C66" s="40">
+      <c r="C66" s="37">
         <v>8</v>
       </c>
       <c r="D66" s="19">
@@ -2699,18 +2633,16 @@
       <c r="F66" s="8">
         <v>2000</v>
       </c>
-      <c r="G66" s="8">
-        <v>0</v>
-      </c>
+      <c r="G66" s="8"/>
       <c r="I66" s="29"/>
       <c r="J66" s="8"/>
       <c r="K66" s="10"/>
     </row>
     <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="41">
+      <c r="B67" s="38">
         <v>2019</v>
       </c>
-      <c r="C67" s="42">
+      <c r="C67" s="39">
         <v>7</v>
       </c>
       <c r="D67" s="18">
@@ -2723,19 +2655,17 @@
       <c r="F67" s="5">
         <v>2200</v>
       </c>
-      <c r="G67" s="5">
-        <v>0</v>
-      </c>
+      <c r="G67" s="5"/>
       <c r="H67" s="28"/>
       <c r="I67" s="27"/>
       <c r="J67" s="5"/>
       <c r="K67" s="9"/>
     </row>
     <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="39">
+      <c r="B68" s="36">
         <v>2019</v>
       </c>
-      <c r="C68" s="40">
+      <c r="C68" s="37">
         <v>6</v>
       </c>
       <c r="D68" s="19">
@@ -2748,18 +2678,16 @@
       <c r="F68" s="8">
         <v>2100</v>
       </c>
-      <c r="G68" s="8">
-        <v>0</v>
-      </c>
+      <c r="G68" s="8"/>
       <c r="I68" s="29"/>
       <c r="J68" s="8"/>
       <c r="K68" s="10"/>
     </row>
     <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="41">
+      <c r="B69" s="38">
         <v>2019</v>
       </c>
-      <c r="C69" s="42">
+      <c r="C69" s="39">
         <v>5</v>
       </c>
       <c r="D69" s="18">
@@ -2772,19 +2700,17 @@
       <c r="F69" s="5">
         <v>2200</v>
       </c>
-      <c r="G69" s="5">
-        <v>0</v>
-      </c>
+      <c r="G69" s="5"/>
       <c r="H69" s="28"/>
       <c r="I69" s="27"/>
       <c r="J69" s="5"/>
       <c r="K69" s="9"/>
     </row>
     <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="39">
+      <c r="B70" s="36">
         <v>2019</v>
       </c>
-      <c r="C70" s="40">
+      <c r="C70" s="37">
         <v>4</v>
       </c>
       <c r="D70" s="19">
@@ -2797,18 +2723,16 @@
       <c r="F70" s="8">
         <v>2400</v>
       </c>
-      <c r="G70" s="8">
-        <v>0</v>
-      </c>
+      <c r="G70" s="8"/>
       <c r="I70" s="29"/>
       <c r="J70" s="8"/>
       <c r="K70" s="10"/>
     </row>
     <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="41">
+      <c r="B71" s="38">
         <v>2019</v>
       </c>
-      <c r="C71" s="42">
+      <c r="C71" s="39">
         <v>3</v>
       </c>
       <c r="D71" s="18">
@@ -2821,19 +2745,17 @@
       <c r="F71" s="5">
         <v>6800</v>
       </c>
-      <c r="G71" s="5">
-        <v>0</v>
-      </c>
+      <c r="G71" s="5"/>
       <c r="H71" s="28"/>
       <c r="I71" s="27"/>
       <c r="J71" s="5"/>
       <c r="K71" s="9"/>
     </row>
     <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="39">
+      <c r="B72" s="36">
         <v>2019</v>
       </c>
-      <c r="C72" s="40">
+      <c r="C72" s="37">
         <v>2</v>
       </c>
       <c r="D72" s="19">
@@ -2846,18 +2768,16 @@
       <c r="F72" s="8">
         <v>2200</v>
       </c>
-      <c r="G72" s="8">
-        <v>0</v>
-      </c>
+      <c r="G72" s="8"/>
       <c r="I72" s="29"/>
       <c r="J72" s="8"/>
       <c r="K72" s="10"/>
     </row>
     <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="43">
+      <c r="B73" s="40">
         <v>2019</v>
       </c>
-      <c r="C73" s="44">
+      <c r="C73" s="41">
         <v>1</v>
       </c>
       <c r="D73" s="20">
@@ -2870,19 +2790,17 @@
       <c r="F73" s="7">
         <v>2300</v>
       </c>
-      <c r="G73" s="7">
-        <v>0</v>
-      </c>
+      <c r="G73" s="7"/>
       <c r="H73" s="31"/>
       <c r="I73" s="30"/>
       <c r="J73" s="7"/>
       <c r="K73" s="11"/>
     </row>
     <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="40">
+      <c r="B74" s="37">
         <v>2018</v>
       </c>
-      <c r="C74" s="40">
+      <c r="C74" s="37">
         <v>12</v>
       </c>
       <c r="D74" s="19">
@@ -2895,18 +2813,16 @@
       <c r="F74" s="8">
         <v>2100</v>
       </c>
-      <c r="G74" s="8">
-        <v>0</v>
-      </c>
+      <c r="G74" s="8"/>
       <c r="I74" s="32"/>
       <c r="J74" s="23"/>
       <c r="K74" s="25"/>
     </row>
     <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="42">
+      <c r="B75" s="39">
         <v>2018</v>
       </c>
-      <c r="C75" s="42">
+      <c r="C75" s="39">
         <v>11</v>
       </c>
       <c r="D75" s="18">
@@ -2919,19 +2835,17 @@
       <c r="F75" s="5">
         <v>2000</v>
       </c>
-      <c r="G75" s="5">
-        <v>0</v>
-      </c>
+      <c r="G75" s="5"/>
       <c r="H75" s="28"/>
       <c r="I75" s="27"/>
       <c r="J75" s="5"/>
       <c r="K75" s="9"/>
     </row>
     <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="40">
+      <c r="B76" s="37">
         <v>2018</v>
       </c>
-      <c r="C76" s="40">
+      <c r="C76" s="37">
         <v>10</v>
       </c>
       <c r="D76" s="19">
@@ -2944,18 +2858,16 @@
       <c r="F76" s="8">
         <v>2000</v>
       </c>
-      <c r="G76" s="8">
-        <v>0</v>
-      </c>
+      <c r="G76" s="8"/>
       <c r="I76" s="29"/>
       <c r="J76" s="8"/>
       <c r="K76" s="10"/>
     </row>
     <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="42">
+      <c r="B77" s="39">
         <v>2018</v>
       </c>
-      <c r="C77" s="42">
+      <c r="C77" s="39">
         <v>9</v>
       </c>
       <c r="D77" s="18">
@@ -2968,19 +2880,17 @@
       <c r="F77" s="5">
         <v>2000</v>
       </c>
-      <c r="G77" s="5">
-        <v>0</v>
-      </c>
+      <c r="G77" s="5"/>
       <c r="H77" s="28"/>
       <c r="I77" s="27"/>
       <c r="J77" s="5"/>
       <c r="K77" s="9"/>
     </row>
     <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="40">
+      <c r="B78" s="37">
         <v>2018</v>
       </c>
-      <c r="C78" s="40">
+      <c r="C78" s="37">
         <v>8</v>
       </c>
       <c r="D78" s="19">
@@ -2993,18 +2903,16 @@
       <c r="F78" s="8">
         <v>2400</v>
       </c>
-      <c r="G78" s="8">
-        <v>0</v>
-      </c>
+      <c r="G78" s="8"/>
       <c r="I78" s="29"/>
       <c r="J78" s="8"/>
       <c r="K78" s="10"/>
     </row>
     <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="42">
+      <c r="B79" s="39">
         <v>2018</v>
       </c>
-      <c r="C79" s="42">
+      <c r="C79" s="39">
         <v>7</v>
       </c>
       <c r="D79" s="18">
@@ -3017,19 +2925,17 @@
       <c r="F79" s="5">
         <v>2300</v>
       </c>
-      <c r="G79" s="5">
-        <v>0</v>
-      </c>
+      <c r="G79" s="5"/>
       <c r="H79" s="28"/>
       <c r="I79" s="27"/>
       <c r="J79" s="5"/>
       <c r="K79" s="9"/>
     </row>
     <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="40">
+      <c r="B80" s="37">
         <v>2018</v>
       </c>
-      <c r="C80" s="40">
+      <c r="C80" s="37">
         <v>6</v>
       </c>
       <c r="D80" s="19">
@@ -3042,18 +2948,16 @@
       <c r="F80" s="8">
         <v>2000</v>
       </c>
-      <c r="G80" s="8">
-        <v>0</v>
-      </c>
+      <c r="G80" s="8"/>
       <c r="I80" s="29"/>
       <c r="J80" s="8"/>
       <c r="K80" s="10"/>
     </row>
     <row r="81" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="42">
+      <c r="B81" s="39">
         <v>2018</v>
       </c>
-      <c r="C81" s="42">
+      <c r="C81" s="39">
         <v>5</v>
       </c>
       <c r="D81" s="18">
@@ -3066,19 +2970,17 @@
       <c r="F81" s="5">
         <v>2400</v>
       </c>
-      <c r="G81" s="5">
-        <v>0</v>
-      </c>
+      <c r="G81" s="5"/>
       <c r="H81" s="28"/>
       <c r="I81" s="27"/>
       <c r="J81" s="5"/>
       <c r="K81" s="9"/>
     </row>
     <row r="82" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="40">
+      <c r="B82" s="37">
         <v>2018</v>
       </c>
-      <c r="C82" s="40">
+      <c r="C82" s="37">
         <v>4</v>
       </c>
       <c r="D82" s="19">
@@ -3091,18 +2993,16 @@
       <c r="F82" s="8">
         <v>2200</v>
       </c>
-      <c r="G82" s="8">
-        <v>0</v>
-      </c>
+      <c r="G82" s="8"/>
       <c r="I82" s="29"/>
       <c r="J82" s="8"/>
       <c r="K82" s="10"/>
     </row>
     <row r="83" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="42">
+      <c r="B83" s="39">
         <v>2018</v>
       </c>
-      <c r="C83" s="42">
+      <c r="C83" s="39">
         <v>3</v>
       </c>
       <c r="D83" s="18">
@@ -3115,19 +3015,17 @@
       <c r="F83" s="5">
         <v>2500</v>
       </c>
-      <c r="G83" s="5">
-        <v>0</v>
-      </c>
+      <c r="G83" s="5"/>
       <c r="H83" s="28"/>
       <c r="I83" s="27"/>
       <c r="J83" s="5"/>
       <c r="K83" s="9"/>
     </row>
     <row r="84" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="40">
+      <c r="B84" s="37">
         <v>2018</v>
       </c>
-      <c r="C84" s="40">
+      <c r="C84" s="37">
         <v>2</v>
       </c>
       <c r="D84" s="19">
@@ -3140,18 +3038,16 @@
       <c r="F84" s="8">
         <v>2300</v>
       </c>
-      <c r="G84" s="8">
-        <v>0</v>
-      </c>
+      <c r="G84" s="8"/>
       <c r="I84" s="29"/>
       <c r="J84" s="8"/>
       <c r="K84" s="10"/>
     </row>
     <row r="85" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="42">
+      <c r="B85" s="39">
         <v>2018</v>
       </c>
-      <c r="C85" s="42">
+      <c r="C85" s="39">
         <v>1</v>
       </c>
       <c r="D85" s="18">
@@ -3164,9 +3060,7 @@
       <c r="F85" s="5">
         <v>2200</v>
       </c>
-      <c r="G85" s="5">
-        <v>0</v>
-      </c>
+      <c r="G85" s="5"/>
       <c r="H85" s="28"/>
       <c r="I85" s="30"/>
       <c r="J85" s="7"/>

--- a/Combustuble_A.xlsx
+++ b/Combustuble_A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E24F97A-86C8-4D95-A24B-8C2D05154434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5260821A-C6D4-44AA-90F3-4954461694CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_29" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="37">
   <si>
     <t>AICM</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Turbosina</t>
   </si>
   <si>
-    <t>Gasvión</t>
-  </si>
-  <si>
     <t xml:space="preserve">Total  </t>
   </si>
   <si>
@@ -77,15 +74,9 @@
     <t xml:space="preserve">Turbosina  </t>
   </si>
   <si>
-    <t xml:space="preserve">Gasvión  </t>
-  </si>
-  <si>
     <t>(Miles de litros)</t>
   </si>
   <si>
-    <t>Consumo de combustible en los aeropuerts de ASA y grupo aeroportuarios</t>
-  </si>
-  <si>
     <t>Nota: El consumo en el centro del país, para los aeropuertos del AICM y el AIFA, Utiliza turbosina como combustible.</t>
   </si>
   <si>
@@ -98,9 +89,6 @@
     <t>AIT. Aeropuerto Internacional de Toluca.</t>
   </si>
   <si>
-    <t>Fuente: ASA. Aeropuertos y Servicios Auxiliares, litros y servicios por venta de combustibles. En: www.asa.gob.mx</t>
-  </si>
-  <si>
     <t>Mes</t>
   </si>
   <si>
@@ -111,6 +99,54 @@
   </si>
   <si>
     <t>Actualización: agosto 2024.</t>
+  </si>
+  <si>
+    <t>Ago.</t>
+  </si>
+  <si>
+    <t>Jul.</t>
+  </si>
+  <si>
+    <t>Jun.</t>
+  </si>
+  <si>
+    <t>May.</t>
+  </si>
+  <si>
+    <t>Abr.</t>
+  </si>
+  <si>
+    <t>Mar.</t>
+  </si>
+  <si>
+    <t>Feb.</t>
+  </si>
+  <si>
+    <t>Ene.</t>
+  </si>
+  <si>
+    <t>Dic.</t>
+  </si>
+  <si>
+    <t>Nov.</t>
+  </si>
+  <si>
+    <t>Oct.</t>
+  </si>
+  <si>
+    <t>Sep.</t>
+  </si>
+  <si>
+    <t>Consumo de combustible en los aeropuertos de ASA y grupo aeroportuarios</t>
+  </si>
+  <si>
+    <t>Gasavión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gasavión  </t>
+  </si>
+  <si>
+    <t>Fuente: ASA. Aeropuertos y Servicios Auxiliares, litros y servicios por venta de combustibles. En: www.asa.gob.mx.</t>
   </si>
 </sst>
 </file>
@@ -635,17 +671,17 @@
     <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="9"/>
     <tableColumn id="5" xr3:uid="{78678468-576B-4862-8C08-4E1669ACC699}" name="Mes" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Total" dataDxfId="7">
-      <calculatedColumnFormula>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Turbosina" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Gasvión" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Gasavión" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{921AEF46-65F7-4B2E-9910-D1C0A146F016}" name="Turbosina " dataDxfId="4"/>
     <tableColumn id="9" xr3:uid="{0680BCA2-BF30-4617-80D8-74DE92A39A09}" name=" Turbosina" dataDxfId="3"/>
     <tableColumn id="11" xr3:uid="{BE50F8E5-4343-40AE-9892-E8B315F40375}" name="Total  " dataDxfId="2" dataCellStyle="20% - Énfasis5">
-      <calculatedColumnFormula>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{798C3AD8-B516-48F7-9335-369B01456921}" name="Turbosina  " dataDxfId="1" dataCellStyle="20% - Énfasis5"/>
-    <tableColumn id="13" xr3:uid="{A853E079-175B-4713-BAE5-790EA8F3405A}" name="Gasvión  " dataDxfId="0" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="13" xr3:uid="{A853E079-175B-4713-BAE5-790EA8F3405A}" name="Gasavión  " dataDxfId="0" dataCellStyle="20% - Énfasis5"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -894,13 +930,13 @@
   <sheetData>
     <row r="2" spans="2:29" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -926,10 +962,10 @@
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B5" s="34" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>2</v>
@@ -938,33 +974,33 @@
         <v>7</v>
       </c>
       <c r="F5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="13" t="s">
+      <c r="J5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="26" t="s">
-        <v>12</v>
-      </c>
       <c r="K5" s="26" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B6" s="36">
         <v>2024</v>
       </c>
-      <c r="C6" s="37">
-        <v>8</v>
+      <c r="C6" s="37" t="s">
+        <v>21</v>
       </c>
       <c r="D6" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>410385.15499999997</v>
       </c>
       <c r="E6" s="8">
@@ -978,7 +1014,7 @@
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="16">
-        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7554.09</v>
       </c>
       <c r="J6" s="8">
@@ -996,11 +1032,11 @@
       <c r="B7" s="38">
         <v>2024</v>
       </c>
-      <c r="C7" s="39">
-        <v>7</v>
+      <c r="C7" s="39" t="s">
+        <v>22</v>
       </c>
       <c r="D7" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>425598.28600000002</v>
       </c>
       <c r="E7" s="5">
@@ -1014,7 +1050,7 @@
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="15">
-        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6892.0260000000007</v>
       </c>
       <c r="J7" s="5">
@@ -1028,11 +1064,11 @@
       <c r="B8" s="36">
         <v>2024</v>
       </c>
-      <c r="C8" s="37">
-        <v>6</v>
+      <c r="C8" s="37" t="s">
+        <v>23</v>
       </c>
       <c r="D8" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>402694.15900000004</v>
       </c>
       <c r="E8" s="8">
@@ -1046,7 +1082,7 @@
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="16">
-        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7673.4130000000005</v>
       </c>
       <c r="J8" s="8">
@@ -1060,11 +1096,11 @@
       <c r="B9" s="38">
         <v>2024</v>
       </c>
-      <c r="C9" s="39">
-        <v>5</v>
+      <c r="C9" s="39" t="s">
+        <v>24</v>
       </c>
       <c r="D9" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>420255.26899999997</v>
       </c>
       <c r="E9" s="5">
@@ -1078,7 +1114,7 @@
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="15">
-        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8118.799</v>
       </c>
       <c r="J9" s="5">
@@ -1092,11 +1128,11 @@
       <c r="B10" s="36">
         <v>2024</v>
       </c>
-      <c r="C10" s="37">
-        <v>4</v>
+      <c r="C10" s="37" t="s">
+        <v>25</v>
       </c>
       <c r="D10" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>439431.40099999995</v>
       </c>
       <c r="E10" s="8">
@@ -1112,7 +1148,7 @@
         <v>14608.594000000001</v>
       </c>
       <c r="I10" s="16">
-        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7934.7060000000001</v>
       </c>
       <c r="J10" s="8">
@@ -1126,11 +1162,11 @@
       <c r="B11" s="38">
         <v>2024</v>
       </c>
-      <c r="C11" s="39">
-        <v>3</v>
+      <c r="C11" s="39" t="s">
+        <v>26</v>
       </c>
       <c r="D11" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>484582.01799999992</v>
       </c>
       <c r="E11" s="5">
@@ -1146,7 +1182,7 @@
         <v>26118.722999999998</v>
       </c>
       <c r="I11" s="15">
-        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8232.1929999999993</v>
       </c>
       <c r="J11" s="5">
@@ -1160,11 +1196,11 @@
       <c r="B12" s="36">
         <v>2024</v>
       </c>
-      <c r="C12" s="37">
-        <v>2</v>
+      <c r="C12" s="37" t="s">
+        <v>27</v>
       </c>
       <c r="D12" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>439514.446</v>
       </c>
       <c r="E12" s="8">
@@ -1180,7 +1216,7 @@
         <v>23599.862999999998</v>
       </c>
       <c r="I12" s="16">
-        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7101.8710000000001</v>
       </c>
       <c r="J12" s="8">
@@ -1194,11 +1230,11 @@
       <c r="B13" s="40">
         <v>2024</v>
       </c>
-      <c r="C13" s="41">
-        <v>1</v>
+      <c r="C13" s="41" t="s">
+        <v>28</v>
       </c>
       <c r="D13" s="20">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>474317.27799999999</v>
       </c>
       <c r="E13" s="7">
@@ -1214,7 +1250,7 @@
         <v>24093.275999999998</v>
       </c>
       <c r="I13" s="17">
-        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6939.9099999999989</v>
       </c>
       <c r="J13" s="7">
@@ -1228,11 +1264,11 @@
       <c r="B14" s="42">
         <v>2023</v>
       </c>
-      <c r="C14" s="43">
-        <v>12</v>
+      <c r="C14" s="43" t="s">
+        <v>29</v>
       </c>
       <c r="D14" s="22">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>497130.734</v>
       </c>
       <c r="E14" s="23">
@@ -1248,7 +1284,7 @@
         <v>24233.223999999998</v>
       </c>
       <c r="I14" s="24">
-        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6935.0720000000001</v>
       </c>
       <c r="J14" s="23">
@@ -1262,11 +1298,11 @@
       <c r="B15" s="38">
         <v>2023</v>
       </c>
-      <c r="C15" s="39">
-        <v>11</v>
+      <c r="C15" s="39" t="s">
+        <v>30</v>
       </c>
       <c r="D15" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>448851.103</v>
       </c>
       <c r="E15" s="5">
@@ -1282,7 +1318,7 @@
         <v>22508.399000000001</v>
       </c>
       <c r="I15" s="15">
-        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7171.835</v>
       </c>
       <c r="J15" s="5">
@@ -1296,11 +1332,11 @@
       <c r="B16" s="36">
         <v>2023</v>
       </c>
-      <c r="C16" s="37">
-        <v>10</v>
+      <c r="C16" s="37" t="s">
+        <v>31</v>
       </c>
       <c r="D16" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>432477.60700000002</v>
       </c>
       <c r="E16" s="8">
@@ -1316,7 +1352,7 @@
         <v>22848.071</v>
       </c>
       <c r="I16" s="16">
-        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7518.7080000000005</v>
       </c>
       <c r="J16" s="8">
@@ -1330,11 +1366,11 @@
       <c r="B17" s="38">
         <v>2023</v>
       </c>
-      <c r="C17" s="39">
-        <v>9</v>
+      <c r="C17" s="39" t="s">
+        <v>32</v>
       </c>
       <c r="D17" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>403096.08900000004</v>
       </c>
       <c r="E17" s="5">
@@ -1350,7 +1386,7 @@
         <v>18583.999</v>
       </c>
       <c r="I17" s="15">
-        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6008.808</v>
       </c>
       <c r="J17" s="5">
@@ -1364,11 +1400,11 @@
       <c r="B18" s="36">
         <v>2023</v>
       </c>
-      <c r="C18" s="37">
-        <v>8</v>
+      <c r="C18" s="37" t="s">
+        <v>21</v>
       </c>
       <c r="D18" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>456592.212</v>
       </c>
       <c r="E18" s="8">
@@ -1384,7 +1420,7 @@
         <v>16745.141</v>
       </c>
       <c r="I18" s="16">
-        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6500.8150000000005</v>
       </c>
       <c r="J18" s="8">
@@ -1398,11 +1434,11 @@
       <c r="B19" s="38">
         <v>2023</v>
       </c>
-      <c r="C19" s="39">
-        <v>7</v>
+      <c r="C19" s="39" t="s">
+        <v>22</v>
       </c>
       <c r="D19" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>471958.52600000001</v>
       </c>
       <c r="E19" s="5">
@@ -1418,7 +1454,7 @@
         <v>11646.752</v>
       </c>
       <c r="I19" s="15">
-        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6100.8280000000004</v>
       </c>
       <c r="J19" s="5">
@@ -1432,11 +1468,11 @@
       <c r="B20" s="36">
         <v>2023</v>
       </c>
-      <c r="C20" s="37">
-        <v>6</v>
+      <c r="C20" s="37" t="s">
+        <v>23</v>
       </c>
       <c r="D20" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>445605.64600000001</v>
       </c>
       <c r="E20" s="8">
@@ -1452,7 +1488,7 @@
         <v>7161.2819999999992</v>
       </c>
       <c r="I20" s="16">
-        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6393.7270000000008</v>
       </c>
       <c r="J20" s="8">
@@ -1466,11 +1502,11 @@
       <c r="B21" s="38">
         <v>2023</v>
       </c>
-      <c r="C21" s="39">
-        <v>5</v>
+      <c r="C21" s="39" t="s">
+        <v>24</v>
       </c>
       <c r="D21" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>438617.83499999996</v>
       </c>
       <c r="E21" s="5">
@@ -1486,7 +1522,7 @@
         <v>6589.6929999999993</v>
       </c>
       <c r="I21" s="15">
-        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7134.3119999999999</v>
       </c>
       <c r="J21" s="5">
@@ -1500,11 +1536,11 @@
       <c r="B22" s="36">
         <v>2023</v>
       </c>
-      <c r="C22" s="37">
-        <v>4</v>
+      <c r="C22" s="37" t="s">
+        <v>25</v>
       </c>
       <c r="D22" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>452626.13400000002</v>
       </c>
       <c r="E22" s="8">
@@ -1520,7 +1556,7 @@
         <v>5892.4449999999997</v>
       </c>
       <c r="I22" s="16">
-        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6515.2709999999997</v>
       </c>
       <c r="J22" s="8">
@@ -1534,11 +1570,11 @@
       <c r="B23" s="38">
         <v>2023</v>
       </c>
-      <c r="C23" s="39">
-        <v>3</v>
+      <c r="C23" s="39" t="s">
+        <v>26</v>
       </c>
       <c r="D23" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>474025.5</v>
       </c>
       <c r="E23" s="5">
@@ -1554,7 +1590,7 @@
         <v>6186.35</v>
       </c>
       <c r="I23" s="15">
-        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7697.951</v>
       </c>
       <c r="J23" s="5">
@@ -1568,11 +1604,11 @@
       <c r="B24" s="36">
         <v>2023</v>
       </c>
-      <c r="C24" s="37">
-        <v>2</v>
+      <c r="C24" s="37" t="s">
+        <v>27</v>
       </c>
       <c r="D24" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>418819.08400000003</v>
       </c>
       <c r="E24" s="8">
@@ -1588,7 +1624,7 @@
         <v>4602.9769999999999</v>
       </c>
       <c r="I24" s="16">
-        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6457.866</v>
       </c>
       <c r="J24" s="8">
@@ -1602,11 +1638,11 @@
       <c r="B25" s="40">
         <v>2023</v>
       </c>
-      <c r="C25" s="41">
-        <v>1</v>
+      <c r="C25" s="41" t="s">
+        <v>28</v>
       </c>
       <c r="D25" s="20">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>461982.14700000006</v>
       </c>
       <c r="E25" s="7">
@@ -1622,7 +1658,7 @@
         <v>5197.7539999999999</v>
       </c>
       <c r="I25" s="17">
-        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6489.6009999999997</v>
       </c>
       <c r="J25" s="7">
@@ -1636,11 +1672,11 @@
       <c r="B26" s="42">
         <v>2022</v>
       </c>
-      <c r="C26" s="43">
-        <v>12</v>
+      <c r="C26" s="43" t="s">
+        <v>29</v>
       </c>
       <c r="D26" s="22">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>490826.32500000001</v>
       </c>
       <c r="E26" s="23">
@@ -1656,7 +1692,7 @@
         <v>4958.7839999999997</v>
       </c>
       <c r="I26" s="24">
-        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7356.5429999999997</v>
       </c>
       <c r="J26" s="23">
@@ -1670,11 +1706,11 @@
       <c r="B27" s="38">
         <v>2022</v>
       </c>
-      <c r="C27" s="39">
-        <v>11</v>
+      <c r="C27" s="39" t="s">
+        <v>30</v>
       </c>
       <c r="D27" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>443157.86400000006</v>
       </c>
       <c r="E27" s="5">
@@ -1690,7 +1726,7 @@
         <v>4915.8980000000001</v>
       </c>
       <c r="I27" s="15">
-        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7236.4110000000001</v>
       </c>
       <c r="J27" s="5">
@@ -1704,11 +1740,11 @@
       <c r="B28" s="36">
         <v>2022</v>
       </c>
-      <c r="C28" s="37">
-        <v>10</v>
+      <c r="C28" s="37" t="s">
+        <v>31</v>
       </c>
       <c r="D28" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>414809.23100000003</v>
       </c>
       <c r="E28" s="8">
@@ -1724,7 +1760,7 @@
         <v>4853.9489999999996</v>
       </c>
       <c r="I28" s="16">
-        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6708.0059999999994</v>
       </c>
       <c r="J28" s="8">
@@ -1738,11 +1774,11 @@
       <c r="B29" s="38">
         <v>2022</v>
       </c>
-      <c r="C29" s="39">
-        <v>9</v>
+      <c r="C29" s="39" t="s">
+        <v>32</v>
       </c>
       <c r="D29" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>387372.408</v>
       </c>
       <c r="E29" s="5">
@@ -1758,7 +1794,7 @@
         <v>3809.2310000000002</v>
       </c>
       <c r="I29" s="15">
-        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>5459.2980000000007</v>
       </c>
       <c r="J29" s="5">
@@ -1772,11 +1808,11 @@
       <c r="B30" s="36">
         <v>2022</v>
       </c>
-      <c r="C30" s="37">
-        <v>8</v>
+      <c r="C30" s="37" t="s">
+        <v>21</v>
       </c>
       <c r="D30" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>436832.37699999998</v>
       </c>
       <c r="E30" s="8">
@@ -1792,7 +1828,7 @@
         <v>2564.7890000000002</v>
       </c>
       <c r="I30" s="16">
-        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>5460.4780000000001</v>
       </c>
       <c r="J30" s="8">
@@ -1806,11 +1842,11 @@
       <c r="B31" s="38">
         <v>2022</v>
       </c>
-      <c r="C31" s="39">
-        <v>7</v>
+      <c r="C31" s="39" t="s">
+        <v>22</v>
       </c>
       <c r="D31" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>448351.97599999997</v>
       </c>
       <c r="E31" s="5">
@@ -1826,7 +1862,7 @@
         <v>1060.989</v>
       </c>
       <c r="I31" s="15">
-        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>5119.0199999999995</v>
       </c>
       <c r="J31" s="5">
@@ -1840,11 +1876,11 @@
       <c r="B32" s="36">
         <v>2022</v>
       </c>
-      <c r="C32" s="37">
-        <v>6</v>
+      <c r="C32" s="37" t="s">
+        <v>23</v>
       </c>
       <c r="D32" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>416921.51799999998</v>
       </c>
       <c r="E32" s="8">
@@ -1860,7 +1896,7 @@
         <v>853.44799999999998</v>
       </c>
       <c r="I32" s="16">
-        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasvión  ]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>4541.9560000000001</v>
       </c>
       <c r="J32" s="8">
@@ -1874,11 +1910,11 @@
       <c r="B33" s="38">
         <v>2022</v>
       </c>
-      <c r="C33" s="39">
-        <v>5</v>
+      <c r="C33" s="39" t="s">
+        <v>24</v>
       </c>
       <c r="D33" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>424375.26299999998</v>
       </c>
       <c r="E33" s="5">
@@ -1897,11 +1933,11 @@
       <c r="B34" s="36">
         <v>2022</v>
       </c>
-      <c r="C34" s="37">
-        <v>4</v>
+      <c r="C34" s="37" t="s">
+        <v>25</v>
       </c>
       <c r="D34" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>437218.36900000001</v>
       </c>
       <c r="E34" s="8">
@@ -1919,11 +1955,11 @@
       <c r="B35" s="38">
         <v>2022</v>
       </c>
-      <c r="C35" s="39">
-        <v>3</v>
+      <c r="C35" s="39" t="s">
+        <v>26</v>
       </c>
       <c r="D35" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>430084.12599999999</v>
       </c>
       <c r="E35" s="5">
@@ -1942,11 +1978,11 @@
       <c r="B36" s="36">
         <v>2022</v>
       </c>
-      <c r="C36" s="37">
-        <v>2</v>
+      <c r="C36" s="37" t="s">
+        <v>27</v>
       </c>
       <c r="D36" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>358536.61100000003</v>
       </c>
       <c r="E36" s="8">
@@ -1964,11 +2000,11 @@
       <c r="B37" s="40">
         <v>2022</v>
       </c>
-      <c r="C37" s="41">
-        <v>1</v>
+      <c r="C37" s="41" t="s">
+        <v>28</v>
       </c>
       <c r="D37" s="20">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>401925.429</v>
       </c>
       <c r="E37" s="7">
@@ -1987,11 +2023,11 @@
       <c r="B38" s="42">
         <v>2021</v>
       </c>
-      <c r="C38" s="43">
-        <v>12</v>
+      <c r="C38" s="43" t="s">
+        <v>29</v>
       </c>
       <c r="D38" s="22">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>432897.13799999998</v>
       </c>
       <c r="E38" s="23">
@@ -2010,11 +2046,11 @@
       <c r="B39" s="38">
         <v>2021</v>
       </c>
-      <c r="C39" s="39">
-        <v>11</v>
+      <c r="C39" s="39" t="s">
+        <v>30</v>
       </c>
       <c r="D39" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>383033.76299999998</v>
       </c>
       <c r="E39" s="5">
@@ -2033,11 +2069,11 @@
       <c r="B40" s="36">
         <v>2021</v>
       </c>
-      <c r="C40" s="37">
-        <v>10</v>
+      <c r="C40" s="37" t="s">
+        <v>31</v>
       </c>
       <c r="D40" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>358842.80099999998</v>
       </c>
       <c r="E40" s="8">
@@ -2055,11 +2091,11 @@
       <c r="B41" s="38">
         <v>2021</v>
       </c>
-      <c r="C41" s="39">
-        <v>9</v>
+      <c r="C41" s="39" t="s">
+        <v>32</v>
       </c>
       <c r="D41" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>321941.98300000001</v>
       </c>
       <c r="E41" s="5">
@@ -2078,11 +2114,11 @@
       <c r="B42" s="36">
         <v>2021</v>
       </c>
-      <c r="C42" s="37">
-        <v>8</v>
+      <c r="C42" s="37" t="s">
+        <v>21</v>
       </c>
       <c r="D42" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>363960.13899999997</v>
       </c>
       <c r="E42" s="8">
@@ -2100,11 +2136,11 @@
       <c r="B43" s="38">
         <v>2021</v>
       </c>
-      <c r="C43" s="39">
-        <v>7</v>
+      <c r="C43" s="39" t="s">
+        <v>22</v>
       </c>
       <c r="D43" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>374695.174</v>
       </c>
       <c r="E43" s="5">
@@ -2123,11 +2159,11 @@
       <c r="B44" s="36">
         <v>2021</v>
       </c>
-      <c r="C44" s="37">
-        <v>6</v>
+      <c r="C44" s="37" t="s">
+        <v>23</v>
       </c>
       <c r="D44" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>334517.39600000001</v>
       </c>
       <c r="E44" s="8">
@@ -2145,11 +2181,11 @@
       <c r="B45" s="38">
         <v>2021</v>
       </c>
-      <c r="C45" s="39">
-        <v>5</v>
+      <c r="C45" s="39" t="s">
+        <v>24</v>
       </c>
       <c r="D45" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>322630.61800000002</v>
       </c>
       <c r="E45" s="5">
@@ -2168,11 +2204,11 @@
       <c r="B46" s="36">
         <v>2021</v>
       </c>
-      <c r="C46" s="37">
-        <v>4</v>
+      <c r="C46" s="37" t="s">
+        <v>25</v>
       </c>
       <c r="D46" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>299222.027</v>
       </c>
       <c r="E46" s="8">
@@ -2190,11 +2226,11 @@
       <c r="B47" s="38">
         <v>2021</v>
       </c>
-      <c r="C47" s="39">
-        <v>3</v>
+      <c r="C47" s="39" t="s">
+        <v>26</v>
       </c>
       <c r="D47" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>271328.42499999999</v>
       </c>
       <c r="E47" s="5">
@@ -2213,11 +2249,11 @@
       <c r="B48" s="36">
         <v>2021</v>
       </c>
-      <c r="C48" s="37">
-        <v>2</v>
+      <c r="C48" s="37" t="s">
+        <v>27</v>
       </c>
       <c r="D48" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>222215.03899999999</v>
       </c>
       <c r="E48" s="8">
@@ -2235,11 +2271,11 @@
       <c r="B49" s="40">
         <v>2021</v>
       </c>
-      <c r="C49" s="41">
-        <v>1</v>
+      <c r="C49" s="41" t="s">
+        <v>28</v>
       </c>
       <c r="D49" s="20">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>272354.26800000004</v>
       </c>
       <c r="E49" s="7">
@@ -2258,11 +2294,11 @@
       <c r="B50" s="42">
         <v>2020</v>
       </c>
-      <c r="C50" s="43">
-        <v>12</v>
+      <c r="C50" s="43" t="s">
+        <v>29</v>
       </c>
       <c r="D50" s="22">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>289863.19500000001</v>
       </c>
       <c r="E50" s="23">
@@ -2281,11 +2317,11 @@
       <c r="B51" s="38">
         <v>2020</v>
       </c>
-      <c r="C51" s="39">
-        <v>11</v>
+      <c r="C51" s="39" t="s">
+        <v>30</v>
       </c>
       <c r="D51" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>228379.71699999998</v>
       </c>
       <c r="E51" s="5">
@@ -2304,11 +2340,11 @@
       <c r="B52" s="36">
         <v>2020</v>
       </c>
-      <c r="C52" s="37">
-        <v>10</v>
+      <c r="C52" s="37" t="s">
+        <v>31</v>
       </c>
       <c r="D52" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>225796.75899999996</v>
       </c>
       <c r="E52" s="8">
@@ -2326,11 +2362,11 @@
       <c r="B53" s="38">
         <v>2020</v>
       </c>
-      <c r="C53" s="39">
-        <v>9</v>
+      <c r="C53" s="39" t="s">
+        <v>32</v>
       </c>
       <c r="D53" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>192359.82700000002</v>
       </c>
       <c r="E53" s="5">
@@ -2349,11 +2385,11 @@
       <c r="B54" s="36">
         <v>2020</v>
       </c>
-      <c r="C54" s="37">
-        <v>8</v>
+      <c r="C54" s="37" t="s">
+        <v>21</v>
       </c>
       <c r="D54" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>184495.08899999998</v>
       </c>
       <c r="E54" s="8">
@@ -2371,11 +2407,11 @@
       <c r="B55" s="38">
         <v>2020</v>
       </c>
-      <c r="C55" s="39">
-        <v>7</v>
+      <c r="C55" s="39" t="s">
+        <v>22</v>
       </c>
       <c r="D55" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>160167.435</v>
       </c>
       <c r="E55" s="5">
@@ -2394,11 +2430,11 @@
       <c r="B56" s="36">
         <v>2020</v>
       </c>
-      <c r="C56" s="37">
-        <v>6</v>
+      <c r="C56" s="37" t="s">
+        <v>23</v>
       </c>
       <c r="D56" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>105511.976</v>
       </c>
       <c r="E56" s="8">
@@ -2416,11 +2452,11 @@
       <c r="B57" s="38">
         <v>2020</v>
       </c>
-      <c r="C57" s="39">
-        <v>5</v>
+      <c r="C57" s="39" t="s">
+        <v>24</v>
       </c>
       <c r="D57" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>69285.474000000002</v>
       </c>
       <c r="E57" s="5">
@@ -2439,11 +2475,11 @@
       <c r="B58" s="36">
         <v>2020</v>
       </c>
-      <c r="C58" s="37">
-        <v>4</v>
+      <c r="C58" s="37" t="s">
+        <v>25</v>
       </c>
       <c r="D58" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>69532.992000000013</v>
       </c>
       <c r="E58" s="8">
@@ -2461,11 +2497,11 @@
       <c r="B59" s="38">
         <v>2020</v>
       </c>
-      <c r="C59" s="39">
-        <v>3</v>
+      <c r="C59" s="39" t="s">
+        <v>26</v>
       </c>
       <c r="D59" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>334769.408</v>
       </c>
       <c r="E59" s="5">
@@ -2484,11 +2520,11 @@
       <c r="B60" s="36">
         <v>2020</v>
       </c>
-      <c r="C60" s="37">
-        <v>2</v>
+      <c r="C60" s="37" t="s">
+        <v>27</v>
       </c>
       <c r="D60" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>400050.22200000001</v>
       </c>
       <c r="E60" s="8">
@@ -2506,11 +2542,11 @@
       <c r="B61" s="40">
         <v>2020</v>
       </c>
-      <c r="C61" s="41">
-        <v>1</v>
+      <c r="C61" s="41" t="s">
+        <v>28</v>
       </c>
       <c r="D61" s="20">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>439902.09</v>
       </c>
       <c r="E61" s="7">
@@ -2529,11 +2565,11 @@
       <c r="B62" s="42">
         <v>2019</v>
       </c>
-      <c r="C62" s="43">
-        <v>12</v>
+      <c r="C62" s="43" t="s">
+        <v>29</v>
       </c>
       <c r="D62" s="22">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>440800</v>
       </c>
       <c r="E62" s="23">
@@ -2552,11 +2588,11 @@
       <c r="B63" s="38">
         <v>2019</v>
       </c>
-      <c r="C63" s="39">
-        <v>11</v>
+      <c r="C63" s="39" t="s">
+        <v>30</v>
       </c>
       <c r="D63" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>412300</v>
       </c>
       <c r="E63" s="5">
@@ -2575,11 +2611,11 @@
       <c r="B64" s="36">
         <v>2019</v>
       </c>
-      <c r="C64" s="37">
-        <v>10</v>
+      <c r="C64" s="37" t="s">
+        <v>31</v>
       </c>
       <c r="D64" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>397000</v>
       </c>
       <c r="E64" s="8">
@@ -2597,11 +2633,11 @@
       <c r="B65" s="38">
         <v>2019</v>
       </c>
-      <c r="C65" s="39">
-        <v>9</v>
+      <c r="C65" s="39" t="s">
+        <v>32</v>
       </c>
       <c r="D65" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>372500</v>
       </c>
       <c r="E65" s="5">
@@ -2620,11 +2656,11 @@
       <c r="B66" s="36">
         <v>2019</v>
       </c>
-      <c r="C66" s="37">
-        <v>8</v>
+      <c r="C66" s="37" t="s">
+        <v>21</v>
       </c>
       <c r="D66" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>430200</v>
       </c>
       <c r="E66" s="8">
@@ -2642,11 +2678,11 @@
       <c r="B67" s="38">
         <v>2019</v>
       </c>
-      <c r="C67" s="39">
-        <v>7</v>
+      <c r="C67" s="39" t="s">
+        <v>22</v>
       </c>
       <c r="D67" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>445000</v>
       </c>
       <c r="E67" s="5">
@@ -2665,11 +2701,11 @@
       <c r="B68" s="36">
         <v>2019</v>
       </c>
-      <c r="C68" s="37">
-        <v>6</v>
+      <c r="C68" s="37" t="s">
+        <v>23</v>
       </c>
       <c r="D68" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>415300</v>
       </c>
       <c r="E68" s="8">
@@ -2687,11 +2723,11 @@
       <c r="B69" s="38">
         <v>2019</v>
       </c>
-      <c r="C69" s="39">
-        <v>5</v>
+      <c r="C69" s="39" t="s">
+        <v>24</v>
       </c>
       <c r="D69" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>413700</v>
       </c>
       <c r="E69" s="5">
@@ -2710,11 +2746,11 @@
       <c r="B70" s="36">
         <v>2019</v>
       </c>
-      <c r="C70" s="37">
-        <v>4</v>
+      <c r="C70" s="37" t="s">
+        <v>25</v>
       </c>
       <c r="D70" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>419400</v>
       </c>
       <c r="E70" s="8">
@@ -2732,11 +2768,11 @@
       <c r="B71" s="38">
         <v>2019</v>
       </c>
-      <c r="C71" s="39">
-        <v>3</v>
+      <c r="C71" s="39" t="s">
+        <v>26</v>
       </c>
       <c r="D71" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>426800</v>
       </c>
       <c r="E71" s="5">
@@ -2755,11 +2791,11 @@
       <c r="B72" s="36">
         <v>2019</v>
       </c>
-      <c r="C72" s="37">
-        <v>2</v>
+      <c r="C72" s="37" t="s">
+        <v>27</v>
       </c>
       <c r="D72" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>375100</v>
       </c>
       <c r="E72" s="8">
@@ -2777,11 +2813,11 @@
       <c r="B73" s="40">
         <v>2019</v>
       </c>
-      <c r="C73" s="41">
-        <v>1</v>
+      <c r="C73" s="41" t="s">
+        <v>28</v>
       </c>
       <c r="D73" s="20">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>420900</v>
       </c>
       <c r="E73" s="7">
@@ -2800,11 +2836,11 @@
       <c r="B74" s="37">
         <v>2018</v>
       </c>
-      <c r="C74" s="37">
-        <v>12</v>
+      <c r="C74" s="37" t="s">
+        <v>29</v>
       </c>
       <c r="D74" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>436100</v>
       </c>
       <c r="E74" s="8">
@@ -2822,11 +2858,11 @@
       <c r="B75" s="39">
         <v>2018</v>
       </c>
-      <c r="C75" s="39">
-        <v>11</v>
+      <c r="C75" s="39" t="s">
+        <v>30</v>
       </c>
       <c r="D75" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>406900</v>
       </c>
       <c r="E75" s="5">
@@ -2845,11 +2881,11 @@
       <c r="B76" s="37">
         <v>2018</v>
       </c>
-      <c r="C76" s="37">
-        <v>10</v>
+      <c r="C76" s="37" t="s">
+        <v>31</v>
       </c>
       <c r="D76" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>391100</v>
       </c>
       <c r="E76" s="8">
@@ -2867,11 +2903,11 @@
       <c r="B77" s="39">
         <v>2018</v>
       </c>
-      <c r="C77" s="39">
-        <v>9</v>
+      <c r="C77" s="39" t="s">
+        <v>32</v>
       </c>
       <c r="D77" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>374300</v>
       </c>
       <c r="E77" s="5">
@@ -2890,11 +2926,11 @@
       <c r="B78" s="37">
         <v>2018</v>
       </c>
-      <c r="C78" s="37">
-        <v>8</v>
+      <c r="C78" s="37" t="s">
+        <v>21</v>
       </c>
       <c r="D78" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>428800</v>
       </c>
       <c r="E78" s="8">
@@ -2912,11 +2948,11 @@
       <c r="B79" s="39">
         <v>2018</v>
       </c>
-      <c r="C79" s="39">
-        <v>7</v>
+      <c r="C79" s="39" t="s">
+        <v>22</v>
       </c>
       <c r="D79" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>446300</v>
       </c>
       <c r="E79" s="5">
@@ -2935,11 +2971,11 @@
       <c r="B80" s="37">
         <v>2018</v>
       </c>
-      <c r="C80" s="37">
-        <v>6</v>
+      <c r="C80" s="37" t="s">
+        <v>23</v>
       </c>
       <c r="D80" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>411400</v>
       </c>
       <c r="E80" s="8">
@@ -2957,11 +2993,11 @@
       <c r="B81" s="39">
         <v>2018</v>
       </c>
-      <c r="C81" s="39">
-        <v>5</v>
+      <c r="C81" s="39" t="s">
+        <v>24</v>
       </c>
       <c r="D81" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>406200</v>
       </c>
       <c r="E81" s="5">
@@ -2980,11 +3016,11 @@
       <c r="B82" s="37">
         <v>2018</v>
       </c>
-      <c r="C82" s="37">
-        <v>4</v>
+      <c r="C82" s="37" t="s">
+        <v>25</v>
       </c>
       <c r="D82" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>415400</v>
       </c>
       <c r="E82" s="8">
@@ -3002,11 +3038,11 @@
       <c r="B83" s="39">
         <v>2018</v>
       </c>
-      <c r="C83" s="39">
-        <v>3</v>
+      <c r="C83" s="39" t="s">
+        <v>26</v>
       </c>
       <c r="D83" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>444600</v>
       </c>
       <c r="E83" s="5">
@@ -3025,11 +3061,11 @@
       <c r="B84" s="37">
         <v>2018</v>
       </c>
-      <c r="C84" s="37">
-        <v>2</v>
+      <c r="C84" s="37" t="s">
+        <v>27</v>
       </c>
       <c r="D84" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>381500</v>
       </c>
       <c r="E84" s="8">
@@ -3047,11 +3083,11 @@
       <c r="B85" s="39">
         <v>2018</v>
       </c>
-      <c r="C85" s="39">
-        <v>1</v>
+      <c r="C85" s="39" t="s">
+        <v>28</v>
       </c>
       <c r="D85" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasvión]])</f>
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>427700</v>
       </c>
       <c r="E85" s="5">
@@ -3068,13 +3104,13 @@
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H86" s="8"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H87" s="8"/>
     </row>
@@ -3094,31 +3130,31 @@
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B90" s="35" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H90" s="8"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H91" s="8"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H92" s="8"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H93" s="8"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Combustuble_A.xlsx
+++ b/Combustuble_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5260821A-C6D4-44AA-90F3-4954461694CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A155060-2807-4EC3-8951-FBDE9654B22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="38">
   <si>
     <t>AICM</t>
   </si>
@@ -98,9 +98,6 @@
     <t xml:space="preserve">  Para el concepto AIFA, A partir del mes de mayo, no se cuenta con la información, debido al cambio del prestador de servicios.</t>
   </si>
   <si>
-    <t>Actualización: agosto 2024.</t>
-  </si>
-  <si>
     <t>Ago.</t>
   </si>
   <si>
@@ -147,6 +144,12 @@
   </si>
   <si>
     <t>Fuente: ASA. Aeropuertos y Servicios Auxiliares, litros y servicios por venta de combustibles. En: www.asa.gob.mx.</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>Actualización: septiembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -389,7 +392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -499,6 +502,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -590,12 +599,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -603,6 +606,12 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -658,8 +667,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:K85" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="B5:K85" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:K86" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="B5:K86" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2023"/>
@@ -910,7 +919,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:AC94"/>
+  <dimension ref="B2:AB95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -928,19 +937,19 @@
     <col min="10" max="10" width="12.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:29" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:28" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="44" t="s">
@@ -960,7 +969,7 @@
       <c r="J4" s="45"/>
       <c r="K4" s="46"/>
     </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B5" s="34" t="s">
         <v>18</v>
       </c>
@@ -974,7 +983,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>9</v>
@@ -989,2172 +998,2214 @@
         <v>11</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B6" s="36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B6" s="38">
         <v>2024</v>
       </c>
-      <c r="C6" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="19">
+      <c r="C6" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>355217.31699999998</v>
+      </c>
+      <c r="E6" s="5">
+        <v>353694.88099999999</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1522.4359999999999</v>
+      </c>
+      <c r="G6" s="5">
+        <v>123427.23999999999</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="15">
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
+        <v>8123.1509999999998</v>
+      </c>
+      <c r="J6" s="5">
+        <v>8080.4319999999998</v>
+      </c>
+      <c r="K6" s="5">
+        <v>42.719000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B7" s="36">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>410385.15499999997</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E7" s="8">
         <v>408646.99599999998</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F7" s="8">
         <v>1738.1590000000001</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G7" s="8">
         <v>134271.14299999998</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="16">
+      <c r="H7" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="16">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7554.09</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J7" s="8">
         <v>7485.5810000000001</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K7" s="8">
         <v>68.509</v>
       </c>
-      <c r="AC6" t="e">
+      <c r="AB7" t="e">
         <f>#REF!*1000</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B7" s="38">
+    <row r="8" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B8" s="38">
         <v>2024</v>
       </c>
-      <c r="C7" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="18">
+      <c r="C8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>425598.28600000002</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E8" s="5">
         <v>423719.45600000001</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F8" s="5">
         <v>1878.83</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G8" s="5">
         <v>134103.45499999999</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="15">
+      <c r="H8" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="15">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6892.0260000000007</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J8" s="5">
         <v>6846.5480000000007</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K8" s="9">
         <v>45.477999999999994</v>
       </c>
     </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B8" s="36">
+    <row r="9" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B9" s="36">
         <v>2024</v>
       </c>
-      <c r="C8" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="19">
+      <c r="C9" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>402694.15900000004</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E9" s="8">
         <v>401228.58</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F9" s="8">
         <v>1465.579</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G9" s="8">
         <v>130346.13999999998</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="16">
+      <c r="H9" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="16">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7673.4130000000005</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J9" s="8">
         <v>7627.335</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K9" s="10">
         <v>46.078000000000003</v>
       </c>
     </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B9" s="38">
+    <row r="10" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B10" s="38">
         <v>2024</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="18">
+      <c r="C10" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>420255.26899999997</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E10" s="5">
         <v>418249.16899999999</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F10" s="5">
         <v>2006.1</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G10" s="5">
         <v>132414.008</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="15">
+      <c r="H10" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="15">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8118.799</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J10" s="5">
         <v>8068.768</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K10" s="9">
         <v>50.030999999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B10" s="36">
+    <row r="11" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B11" s="36">
         <v>2024</v>
       </c>
-      <c r="C10" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="19">
+      <c r="C11" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>439431.40099999995</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E11" s="8">
         <v>437628.61099999998</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F11" s="8">
         <v>1802.79</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G11" s="8">
         <v>128736.15699999999</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H11" s="8">
         <v>14608.594000000001</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I11" s="16">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7934.7060000000001</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J11" s="8">
         <v>7869.5050000000001</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K11" s="10">
         <v>65.200999999999993</v>
       </c>
     </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B11" s="38">
+    <row r="12" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B12" s="38">
         <v>2024</v>
       </c>
-      <c r="C11" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="18">
+      <c r="C12" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>484582.01799999992</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E12" s="5">
         <v>482370.14599999995</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F12" s="5">
         <v>2211.8719999999998</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G12" s="5">
         <v>132127.88800000001</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H12" s="5">
         <v>26118.722999999998</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I12" s="15">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8232.1929999999993</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J12" s="5">
         <v>8188.4409999999989</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K12" s="9">
         <v>43.752000000000002</v>
       </c>
     </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B12" s="36">
+    <row r="13" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B13" s="36">
         <v>2024</v>
       </c>
-      <c r="C12" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="19">
+      <c r="C13" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>439514.446</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E13" s="8">
         <v>437434.21399999998</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F13" s="8">
         <v>2080.232</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G13" s="8">
         <v>121792.711</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H13" s="8">
         <v>23599.862999999998</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I13" s="16">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7101.8710000000001</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J13" s="8">
         <v>7037.6580000000004</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K13" s="10">
         <v>64.213000000000008</v>
       </c>
     </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B13" s="40">
+    <row r="14" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B14" s="40">
         <v>2024</v>
       </c>
-      <c r="C13" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="20">
+      <c r="C14" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="20">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>474317.27799999999</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E14" s="7">
         <v>472107.52999999997</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F14" s="7">
         <v>2209.748</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G14" s="7">
         <v>133551.829</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H14" s="7">
         <v>24093.275999999998</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I14" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6939.9099999999989</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J14" s="7">
         <v>6885.6349999999993</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K14" s="11">
         <v>54.274999999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B14" s="42">
+    <row r="15" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B15" s="42">
         <v>2023</v>
       </c>
-      <c r="C14" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="22">
+      <c r="C15" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="22">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>497130.734</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E15" s="23">
         <v>495355.598</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F15" s="23">
         <v>1775.136</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G15" s="23">
         <v>141052.152</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H15" s="23">
         <v>24233.223999999998</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I15" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6935.0720000000001</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J15" s="23">
         <v>6907.192</v>
       </c>
-      <c r="K14" s="25">
+      <c r="K15" s="25">
         <v>27.88</v>
       </c>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B15" s="38">
+    <row r="16" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B16" s="38">
         <v>2023</v>
       </c>
-      <c r="C15" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="18">
+      <c r="C16" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>448851.103</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E16" s="5">
         <v>447174.89500000002</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F16" s="5">
         <v>1676.2079999999999</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G16" s="5">
         <v>133555.97700000001</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H16" s="5">
         <v>22508.399000000001</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I16" s="15">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7171.835</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J16" s="5">
         <v>7125.1350000000002</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K16" s="9">
         <v>46.7</v>
       </c>
     </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B16" s="36">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B17" s="36">
         <v>2023</v>
       </c>
-      <c r="C16" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="19">
+      <c r="C17" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>432477.60700000002</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E17" s="8">
         <v>430760.484</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F17" s="8">
         <v>1717.123</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G17" s="8">
         <v>135949.88099999999</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H17" s="8">
         <v>22848.071</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I17" s="16">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7518.7080000000005</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J17" s="8">
         <v>7461.4880000000003</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K17" s="10">
         <v>57.22</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B17" s="38">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B18" s="38">
         <v>2023</v>
       </c>
-      <c r="C17" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="18">
+      <c r="C18" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>403096.08900000004</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E18" s="5">
         <v>401473.96300000005</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F18" s="5">
         <v>1622.126</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G18" s="5">
         <v>130099.94800000002</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H18" s="5">
         <v>18583.999</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I18" s="15">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6008.808</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J18" s="5">
         <v>5967.9129999999996</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K18" s="9">
         <v>40.895000000000003</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B18" s="36">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B19" s="36">
         <v>2023</v>
       </c>
-      <c r="C18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="19">
+      <c r="C19" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>456592.212</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E19" s="8">
         <v>454830.98300000001</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F19" s="8">
         <v>1761.229</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G19" s="8">
         <v>143391.905</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H19" s="8">
         <v>16745.141</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I19" s="16">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6500.8150000000005</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J19" s="8">
         <v>6459.5010000000002</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K19" s="10">
         <v>41.314</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B19" s="38">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B20" s="38">
         <v>2023</v>
       </c>
-      <c r="C19" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="18">
+      <c r="C20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>471958.52600000001</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E20" s="5">
         <v>470075.826</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F20" s="5">
         <v>1882.7</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G20" s="5">
         <v>148684.78200000001</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H20" s="5">
         <v>11646.752</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I20" s="15">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6100.8280000000004</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J20" s="5">
         <v>6053.3130000000001</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K20" s="9">
         <v>47.515000000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B20" s="36">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B21" s="36">
         <v>2023</v>
       </c>
-      <c r="C20" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="19">
+      <c r="C21" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>445605.64600000001</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E21" s="8">
         <v>443787.57799999998</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F21" s="8">
         <v>1818.068</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G21" s="8">
         <v>146831.476</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H21" s="8">
         <v>7161.2819999999992</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I21" s="16">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6393.7270000000008</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J21" s="8">
         <v>6324.5640000000003</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K21" s="10">
         <v>69.163000000000011</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B21" s="38">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B22" s="38">
         <v>2023</v>
       </c>
-      <c r="C21" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="18">
+      <c r="C22" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>438617.83499999996</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E22" s="5">
         <v>436653.87099999998</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F22" s="5">
         <v>1963.9639999999999</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G22" s="5">
         <v>146066.30300000001</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H22" s="5">
         <v>6589.6929999999993</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I22" s="15">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7134.3119999999999</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J22" s="5">
         <v>7076.7709999999997</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K22" s="9">
         <v>57.540999999999997</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B22" s="36">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B23" s="36">
         <v>2023</v>
       </c>
-      <c r="C22" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="19">
+      <c r="C23" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>452626.13400000002</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E23" s="8">
         <v>450773.85800000001</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F23" s="8">
         <v>1852.2760000000001</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G23" s="8">
         <v>142422.533</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H23" s="8">
         <v>5892.4449999999997</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I23" s="16">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6515.2709999999997</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J23" s="8">
         <v>6469.5959999999995</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K23" s="10">
         <v>45.674999999999997</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B23" s="38">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B24" s="38">
         <v>2023</v>
       </c>
-      <c r="C23" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="18">
+      <c r="C24" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>474025.5</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E24" s="5">
         <v>471373.67300000001</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F24" s="5">
         <v>2651.8269999999998</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G24" s="5">
         <v>147034.883</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H24" s="5">
         <v>6186.35</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I24" s="15">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7697.951</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J24" s="5">
         <v>7624.7790000000005</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K24" s="9">
         <v>73.171999999999997</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B24" s="36">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B25" s="36">
         <v>2023</v>
       </c>
-      <c r="C24" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="19">
+      <c r="C25" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>418819.08400000003</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E25" s="8">
         <v>416951.092</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F25" s="8">
         <v>1867.9920000000002</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G25" s="8">
         <v>132657.08799999999</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H25" s="8">
         <v>4602.9769999999999</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I25" s="16">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6457.866</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J25" s="8">
         <v>6410.7969999999996</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K25" s="10">
         <v>47.069000000000003</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B25" s="40">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B26" s="40">
         <v>2023</v>
       </c>
-      <c r="C25" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="20">
+      <c r="C26" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="20">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>461982.14700000006</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E26" s="7">
         <v>459918.04600000003</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F26" s="7">
         <v>2064.1010000000001</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G26" s="7">
         <v>149629.198</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H26" s="7">
         <v>5197.7539999999999</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I26" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6489.6009999999997</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J26" s="7">
         <v>6439.6379999999999</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K26" s="11">
         <v>49.963000000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="42">
+    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="42">
         <v>2022</v>
       </c>
-      <c r="C26" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="22">
+      <c r="C27" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="22">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>490826.32500000001</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E27" s="23">
         <v>489000.86</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F27" s="23">
         <v>1825.4649999999999</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G27" s="23">
         <v>157413.09299999999</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H27" s="23">
         <v>4958.7839999999997</v>
       </c>
-      <c r="I26" s="24">
+      <c r="I27" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7356.5429999999997</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J27" s="23">
         <v>7305.0450000000001</v>
       </c>
-      <c r="K26" s="25">
+      <c r="K27" s="25">
         <v>51.497999999999998</v>
       </c>
     </row>
-    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="38">
+    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="38">
         <v>2022</v>
       </c>
-      <c r="C27" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="18">
+      <c r="C28" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>443157.86400000006</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E28" s="5">
         <v>441195.48500000004</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F28" s="5">
         <v>1962.3790000000001</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G28" s="5">
         <v>150891.29999999999</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H28" s="5">
         <v>4915.8980000000001</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I28" s="15">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7236.4110000000001</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J28" s="5">
         <v>7161.7529999999997</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K28" s="9">
         <v>74.658000000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="36">
+    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="36">
         <v>2022</v>
       </c>
-      <c r="C28" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="19">
+      <c r="C29" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>414809.23100000003</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E29" s="8">
         <v>412921.60700000002</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F29" s="8">
         <v>1887.624</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G29" s="8">
         <v>150805.27799999999</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H29" s="8">
         <v>4853.9489999999996</v>
       </c>
-      <c r="I28" s="16">
+      <c r="I29" s="16">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6708.0059999999994</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J29" s="8">
         <v>6658.6229999999996</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K29" s="10">
         <v>49.383000000000003</v>
       </c>
     </row>
-    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="38">
+    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="38">
         <v>2022</v>
       </c>
-      <c r="C29" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="18">
+      <c r="C30" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>387372.408</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E30" s="5">
         <v>385430.815</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F30" s="5">
         <v>1941.5929999999998</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G30" s="5">
         <v>146576.45300000001</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H30" s="5">
         <v>3809.2310000000002</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I30" s="15">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>5459.2980000000007</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J30" s="5">
         <v>5409.8770000000004</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K30" s="9">
         <v>49.420999999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="36">
+    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="36">
         <v>2022</v>
       </c>
-      <c r="C30" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="19">
+      <c r="C31" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>436832.37699999998</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E31" s="8">
         <v>434776.21399999998</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F31" s="8">
         <v>2056.163</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G31" s="8">
         <v>156853.56299999999</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H31" s="8">
         <v>2564.7890000000002</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I31" s="16">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>5460.4780000000001</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J31" s="8">
         <v>5402.1080000000002</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K31" s="10">
         <v>58.37</v>
       </c>
     </row>
-    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="38">
+    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="38">
         <v>2022</v>
       </c>
-      <c r="C31" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="18">
+      <c r="C32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>448351.97599999997</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E32" s="5">
         <v>446503.61</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F32" s="5">
         <v>1848.366</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G32" s="5">
         <v>153622.307</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H32" s="5">
         <v>1060.989</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I32" s="15">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>5119.0199999999995</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J32" s="5">
         <v>5070.4549999999999</v>
       </c>
-      <c r="K31" s="9">
+      <c r="K32" s="9">
         <v>48.564999999999998</v>
       </c>
     </row>
-    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="36">
+    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="36">
         <v>2022</v>
       </c>
-      <c r="C32" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="19">
+      <c r="C33" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>416921.51799999998</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E33" s="8">
         <v>414947.446</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F33" s="8">
         <v>1974.0720000000001</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G33" s="8">
         <v>140586.55600000001</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H33" s="8">
         <v>853.44799999999998</v>
       </c>
-      <c r="I32" s="16">
+      <c r="I33" s="16">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>4541.9560000000001</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J33" s="8">
         <v>4497.9610000000002</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K33" s="10">
         <v>43.994999999999997</v>
       </c>
     </row>
-    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="38">
+    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="38">
         <v>2022</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C34" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>424375.26299999998</v>
+      </c>
+      <c r="E34" s="5">
+        <v>422374.98</v>
+      </c>
+      <c r="F34" s="5">
+        <v>2000.2830000000001</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="36">
+        <v>2022</v>
+      </c>
+      <c r="C35" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>424375.26299999998</v>
-      </c>
-      <c r="E33" s="5">
-        <v>422374.98</v>
-      </c>
-      <c r="F33" s="5">
-        <v>2000.2830000000001</v>
-      </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="9"/>
-    </row>
-    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="36">
+      <c r="D35" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>437218.36900000001</v>
+      </c>
+      <c r="E35" s="8">
+        <v>435084.44699999999</v>
+      </c>
+      <c r="F35" s="8">
+        <v>2133.922</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="10"/>
+    </row>
+    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="38">
         <v>2022</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C36" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>437218.36900000001</v>
-      </c>
-      <c r="E34" s="8">
-        <v>435084.44699999999</v>
-      </c>
-      <c r="F34" s="8">
-        <v>2133.922</v>
-      </c>
-      <c r="G34" s="8"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="10"/>
-    </row>
-    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="38">
+      <c r="D36" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>430084.12599999999</v>
+      </c>
+      <c r="E36" s="5">
+        <v>427583.05499999999</v>
+      </c>
+      <c r="F36" s="5">
+        <v>2501.0709999999999</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="9"/>
+    </row>
+    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="36">
         <v>2022</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C37" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>430084.12599999999</v>
-      </c>
-      <c r="E35" s="5">
-        <v>427583.05499999999</v>
-      </c>
-      <c r="F35" s="5">
-        <v>2501.0709999999999</v>
-      </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="9"/>
-    </row>
-    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="36">
+      <c r="D37" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>358536.61100000003</v>
+      </c>
+      <c r="E37" s="8">
+        <v>356535.05300000001</v>
+      </c>
+      <c r="F37" s="8">
+        <v>2001.5580000000002</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="10"/>
+    </row>
+    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="40">
         <v>2022</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C38" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>358536.61100000003</v>
-      </c>
-      <c r="E36" s="8">
-        <v>356535.05300000001</v>
-      </c>
-      <c r="F36" s="8">
-        <v>2001.5580000000002</v>
-      </c>
-      <c r="G36" s="8"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="10"/>
-    </row>
-    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="40">
-        <v>2022</v>
-      </c>
-      <c r="C37" s="41" t="s">
+      <c r="D38" s="20">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>401925.429</v>
+      </c>
+      <c r="E38" s="7">
+        <v>399729.82500000001</v>
+      </c>
+      <c r="F38" s="7">
+        <v>2195.6039999999998</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="11"/>
+    </row>
+    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="42">
+        <v>2021</v>
+      </c>
+      <c r="C39" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="20">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>401925.429</v>
-      </c>
-      <c r="E37" s="7">
-        <v>399729.82500000001</v>
-      </c>
-      <c r="F37" s="7">
-        <v>2195.6039999999998</v>
-      </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="11"/>
-    </row>
-    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="42">
+      <c r="D39" s="22">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>432897.13799999998</v>
+      </c>
+      <c r="E39" s="23">
+        <v>430707.82799999998</v>
+      </c>
+      <c r="F39" s="23">
+        <v>2189.31</v>
+      </c>
+      <c r="G39" s="23"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="25"/>
+    </row>
+    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="38">
         <v>2021</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C40" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="22">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>432897.13799999998</v>
-      </c>
-      <c r="E38" s="23">
-        <v>430707.82799999998</v>
-      </c>
-      <c r="F38" s="23">
-        <v>2189.31</v>
-      </c>
-      <c r="G38" s="23"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="25"/>
-    </row>
-    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="38">
+      <c r="D40" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>383033.76299999998</v>
+      </c>
+      <c r="E40" s="5">
+        <v>380922.15399999998</v>
+      </c>
+      <c r="F40" s="5">
+        <v>2111.6089999999999</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="9"/>
+    </row>
+    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="36">
         <v>2021</v>
       </c>
-      <c r="C39" s="39" t="s">
+      <c r="C41" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>383033.76299999998</v>
-      </c>
-      <c r="E39" s="5">
-        <v>380922.15399999998</v>
-      </c>
-      <c r="F39" s="5">
-        <v>2111.6089999999999</v>
-      </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="9"/>
-    </row>
-    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="36">
+      <c r="D41" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>358842.80099999998</v>
+      </c>
+      <c r="E41" s="8">
+        <v>356760.12</v>
+      </c>
+      <c r="F41" s="8">
+        <v>2082.681</v>
+      </c>
+      <c r="G41" s="8"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="10"/>
+    </row>
+    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="38">
         <v>2021</v>
       </c>
-      <c r="C40" s="37" t="s">
+      <c r="C42" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>358842.80099999998</v>
-      </c>
-      <c r="E40" s="8">
-        <v>356760.12</v>
-      </c>
-      <c r="F40" s="8">
-        <v>2082.681</v>
-      </c>
-      <c r="G40" s="8"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="10"/>
-    </row>
-    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="38">
+      <c r="D42" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>321941.98300000001</v>
+      </c>
+      <c r="E42" s="5">
+        <v>319890.413</v>
+      </c>
+      <c r="F42" s="5">
+        <v>2051.5699999999997</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="9"/>
+    </row>
+    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="36">
         <v>2021</v>
       </c>
-      <c r="C41" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>321941.98300000001</v>
-      </c>
-      <c r="E41" s="5">
-        <v>319890.413</v>
-      </c>
-      <c r="F41" s="5">
-        <v>2051.5699999999997</v>
-      </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="9"/>
-    </row>
-    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="36">
+      <c r="C43" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>363960.13899999997</v>
+      </c>
+      <c r="E43" s="8">
+        <v>361966.45999999996</v>
+      </c>
+      <c r="F43" s="8">
+        <v>1993.6790000000001</v>
+      </c>
+      <c r="G43" s="8"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="10"/>
+    </row>
+    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="38">
         <v>2021</v>
       </c>
-      <c r="C42" s="37" t="s">
+      <c r="C44" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>363960.13899999997</v>
-      </c>
-      <c r="E42" s="8">
-        <v>361966.45999999996</v>
-      </c>
-      <c r="F42" s="8">
-        <v>1993.6790000000001</v>
-      </c>
-      <c r="G42" s="8"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="10"/>
-    </row>
-    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="38">
+      <c r="D44" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>374695.174</v>
+      </c>
+      <c r="E44" s="5">
+        <v>372625.397</v>
+      </c>
+      <c r="F44" s="5">
+        <v>2069.777</v>
+      </c>
+      <c r="G44" s="5"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="9"/>
+    </row>
+    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="36">
         <v>2021</v>
       </c>
-      <c r="C43" s="39" t="s">
+      <c r="C45" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>374695.174</v>
-      </c>
-      <c r="E43" s="5">
-        <v>372625.397</v>
-      </c>
-      <c r="F43" s="5">
-        <v>2069.777</v>
-      </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="9"/>
-    </row>
-    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="36">
+      <c r="D45" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>334517.39600000001</v>
+      </c>
+      <c r="E45" s="8">
+        <v>332552.66499999998</v>
+      </c>
+      <c r="F45" s="8">
+        <v>1964.731</v>
+      </c>
+      <c r="G45" s="8"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="10"/>
+    </row>
+    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="38">
         <v>2021</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="C46" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>334517.39600000001</v>
-      </c>
-      <c r="E44" s="8">
-        <v>332552.66499999998</v>
-      </c>
-      <c r="F44" s="8">
-        <v>1964.731</v>
-      </c>
-      <c r="G44" s="8"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="10"/>
-    </row>
-    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="38">
+      <c r="D46" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>322630.61800000002</v>
+      </c>
+      <c r="E46" s="5">
+        <v>320400.96000000002</v>
+      </c>
+      <c r="F46" s="5">
+        <v>2229.6580000000004</v>
+      </c>
+      <c r="G46" s="5"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="9"/>
+    </row>
+    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="36">
         <v>2021</v>
       </c>
-      <c r="C45" s="39" t="s">
+      <c r="C47" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>322630.61800000002</v>
-      </c>
-      <c r="E45" s="5">
-        <v>320400.96000000002</v>
-      </c>
-      <c r="F45" s="5">
-        <v>2229.6580000000004</v>
-      </c>
-      <c r="G45" s="5"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="9"/>
-    </row>
-    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="36">
+      <c r="D47" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>299222.027</v>
+      </c>
+      <c r="E47" s="8">
+        <v>296903.73</v>
+      </c>
+      <c r="F47" s="8">
+        <v>2318.297</v>
+      </c>
+      <c r="G47" s="8"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="10"/>
+    </row>
+    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="38">
         <v>2021</v>
       </c>
-      <c r="C46" s="37" t="s">
+      <c r="C48" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>299222.027</v>
-      </c>
-      <c r="E46" s="8">
-        <v>296903.73</v>
-      </c>
-      <c r="F46" s="8">
-        <v>2318.297</v>
-      </c>
-      <c r="G46" s="8"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="10"/>
-    </row>
-    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="38">
+      <c r="D48" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>271328.42499999999</v>
+      </c>
+      <c r="E48" s="5">
+        <v>268651.59499999997</v>
+      </c>
+      <c r="F48" s="5">
+        <v>2676.83</v>
+      </c>
+      <c r="G48" s="5"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="9"/>
+    </row>
+    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="36">
         <v>2021</v>
       </c>
-      <c r="C47" s="39" t="s">
+      <c r="C49" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>271328.42499999999</v>
-      </c>
-      <c r="E47" s="5">
-        <v>268651.59499999997</v>
-      </c>
-      <c r="F47" s="5">
-        <v>2676.83</v>
-      </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="9"/>
-    </row>
-    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="36">
+      <c r="D49" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>222215.03899999999</v>
+      </c>
+      <c r="E49" s="8">
+        <v>220246.12</v>
+      </c>
+      <c r="F49" s="8">
+        <v>1968.9190000000001</v>
+      </c>
+      <c r="G49" s="8"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="10"/>
+    </row>
+    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="40">
         <v>2021</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C50" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>222215.03899999999</v>
-      </c>
-      <c r="E48" s="8">
-        <v>220246.12</v>
-      </c>
-      <c r="F48" s="8">
-        <v>1968.9190000000001</v>
-      </c>
-      <c r="G48" s="8"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="10"/>
-    </row>
-    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="40">
-        <v>2021</v>
-      </c>
-      <c r="C49" s="41" t="s">
+      <c r="D50" s="20">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>272354.26800000004</v>
+      </c>
+      <c r="E50" s="7">
+        <v>270211.59100000001</v>
+      </c>
+      <c r="F50" s="7">
+        <v>2142.6770000000001</v>
+      </c>
+      <c r="G50" s="7"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="11"/>
+    </row>
+    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="42">
+        <v>2020</v>
+      </c>
+      <c r="C51" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="20">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>272354.26800000004</v>
-      </c>
-      <c r="E49" s="7">
-        <v>270211.59100000001</v>
-      </c>
-      <c r="F49" s="7">
-        <v>2142.6770000000001</v>
-      </c>
-      <c r="G49" s="7"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="11"/>
-    </row>
-    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="42">
+      <c r="D51" s="22">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>289863.19500000001</v>
+      </c>
+      <c r="E51" s="23">
+        <v>287659.50599999999</v>
+      </c>
+      <c r="F51" s="23">
+        <v>2203.6889999999999</v>
+      </c>
+      <c r="G51" s="23"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="25"/>
+    </row>
+    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="38">
         <v>2020</v>
       </c>
-      <c r="C50" s="43" t="s">
+      <c r="C52" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="22">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>289863.19500000001</v>
-      </c>
-      <c r="E50" s="23">
-        <v>287659.50599999999</v>
-      </c>
-      <c r="F50" s="23">
-        <v>2203.6889999999999</v>
-      </c>
-      <c r="G50" s="23"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="25"/>
-    </row>
-    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="38">
+      <c r="D52" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>228379.71699999998</v>
+      </c>
+      <c r="E52" s="5">
+        <v>226637.46699999998</v>
+      </c>
+      <c r="F52" s="5">
+        <v>1742.25</v>
+      </c>
+      <c r="G52" s="5"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="9"/>
+    </row>
+    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="36">
         <v>2020</v>
       </c>
-      <c r="C51" s="39" t="s">
+      <c r="C53" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>228379.71699999998</v>
-      </c>
-      <c r="E51" s="5">
-        <v>226637.46699999998</v>
-      </c>
-      <c r="F51" s="5">
-        <v>1742.25</v>
-      </c>
-      <c r="G51" s="5"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="9"/>
-    </row>
-    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="36">
+      <c r="D53" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>225796.75899999996</v>
+      </c>
+      <c r="E53" s="8">
+        <v>223656.52399999998</v>
+      </c>
+      <c r="F53" s="8">
+        <v>2140.2350000000001</v>
+      </c>
+      <c r="G53" s="8"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="10"/>
+    </row>
+    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="38">
         <v>2020</v>
       </c>
-      <c r="C52" s="37" t="s">
+      <c r="C54" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>225796.75899999996</v>
-      </c>
-      <c r="E52" s="8">
-        <v>223656.52399999998</v>
-      </c>
-      <c r="F52" s="8">
-        <v>2140.2350000000001</v>
-      </c>
-      <c r="G52" s="8"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="10"/>
-    </row>
-    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="38">
+      <c r="D54" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>192359.82700000002</v>
+      </c>
+      <c r="E54" s="5">
+        <v>190331.43100000001</v>
+      </c>
+      <c r="F54" s="5">
+        <v>2028.396</v>
+      </c>
+      <c r="G54" s="5"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="9"/>
+    </row>
+    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="36">
         <v>2020</v>
       </c>
-      <c r="C53" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>192359.82700000002</v>
-      </c>
-      <c r="E53" s="5">
-        <v>190331.43100000001</v>
-      </c>
-      <c r="F53" s="5">
-        <v>2028.396</v>
-      </c>
-      <c r="G53" s="5"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="9"/>
-    </row>
-    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="36">
+      <c r="C55" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>184495.08899999998</v>
+      </c>
+      <c r="E55" s="8">
+        <v>182519.18599999999</v>
+      </c>
+      <c r="F55" s="8">
+        <v>1975.903</v>
+      </c>
+      <c r="G55" s="8"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="10"/>
+    </row>
+    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="38">
         <v>2020</v>
       </c>
-      <c r="C54" s="37" t="s">
+      <c r="C56" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>184495.08899999998</v>
-      </c>
-      <c r="E54" s="8">
-        <v>182519.18599999999</v>
-      </c>
-      <c r="F54" s="8">
-        <v>1975.903</v>
-      </c>
-      <c r="G54" s="8"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="10"/>
-    </row>
-    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="38">
+      <c r="D56" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>160167.435</v>
+      </c>
+      <c r="E56" s="5">
+        <v>158161.66200000001</v>
+      </c>
+      <c r="F56" s="5">
+        <v>2005.7730000000001</v>
+      </c>
+      <c r="G56" s="5"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="9"/>
+    </row>
+    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="36">
         <v>2020</v>
       </c>
-      <c r="C55" s="39" t="s">
+      <c r="C57" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>160167.435</v>
-      </c>
-      <c r="E55" s="5">
-        <v>158161.66200000001</v>
-      </c>
-      <c r="F55" s="5">
-        <v>2005.7730000000001</v>
-      </c>
-      <c r="G55" s="5"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="9"/>
-    </row>
-    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="36">
+      <c r="D57" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>105511.976</v>
+      </c>
+      <c r="E57" s="8">
+        <v>103802.962</v>
+      </c>
+      <c r="F57" s="8">
+        <v>1709.0140000000001</v>
+      </c>
+      <c r="G57" s="8"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="10"/>
+    </row>
+    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="38">
         <v>2020</v>
       </c>
-      <c r="C56" s="37" t="s">
+      <c r="C58" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>105511.976</v>
-      </c>
-      <c r="E56" s="8">
-        <v>103802.962</v>
-      </c>
-      <c r="F56" s="8">
-        <v>1709.0140000000001</v>
-      </c>
-      <c r="G56" s="8"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="10"/>
-    </row>
-    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="38">
+      <c r="D58" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>69285.474000000002</v>
+      </c>
+      <c r="E58" s="5">
+        <v>67702.22</v>
+      </c>
+      <c r="F58" s="5">
+        <v>1583.2539999999999</v>
+      </c>
+      <c r="G58" s="5"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="9"/>
+    </row>
+    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="36">
         <v>2020</v>
       </c>
-      <c r="C57" s="39" t="s">
+      <c r="C59" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D57" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>69285.474000000002</v>
-      </c>
-      <c r="E57" s="5">
-        <v>67702.22</v>
-      </c>
-      <c r="F57" s="5">
-        <v>1583.2539999999999</v>
-      </c>
-      <c r="G57" s="5"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="9"/>
-    </row>
-    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="36">
+      <c r="D59" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>69532.992000000013</v>
+      </c>
+      <c r="E59" s="8">
+        <v>67898.813000000009</v>
+      </c>
+      <c r="F59" s="8">
+        <v>1634.1790000000001</v>
+      </c>
+      <c r="G59" s="8"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="10"/>
+    </row>
+    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="38">
         <v>2020</v>
       </c>
-      <c r="C58" s="37" t="s">
+      <c r="C60" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D58" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>69532.992000000013</v>
-      </c>
-      <c r="E58" s="8">
-        <v>67898.813000000009</v>
-      </c>
-      <c r="F58" s="8">
-        <v>1634.1790000000001</v>
-      </c>
-      <c r="G58" s="8"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="10"/>
-    </row>
-    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="38">
+      <c r="D60" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>334769.408</v>
+      </c>
+      <c r="E60" s="5">
+        <v>332339.83399999997</v>
+      </c>
+      <c r="F60" s="5">
+        <v>2429.5740000000001</v>
+      </c>
+      <c r="G60" s="5"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="9"/>
+    </row>
+    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="36">
         <v>2020</v>
       </c>
-      <c r="C59" s="39" t="s">
+      <c r="C61" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D59" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>334769.408</v>
-      </c>
-      <c r="E59" s="5">
-        <v>332339.83399999997</v>
-      </c>
-      <c r="F59" s="5">
-        <v>2429.5740000000001</v>
-      </c>
-      <c r="G59" s="5"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="9"/>
-    </row>
-    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="36">
+      <c r="D61" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>400050.22200000001</v>
+      </c>
+      <c r="E61" s="8">
+        <v>397843.09899999999</v>
+      </c>
+      <c r="F61" s="8">
+        <v>2207.123</v>
+      </c>
+      <c r="G61" s="8"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="10"/>
+    </row>
+    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="40">
         <v>2020</v>
       </c>
-      <c r="C60" s="37" t="s">
+      <c r="C62" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D60" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>400050.22200000001</v>
-      </c>
-      <c r="E60" s="8">
-        <v>397843.09899999999</v>
-      </c>
-      <c r="F60" s="8">
-        <v>2207.123</v>
-      </c>
-      <c r="G60" s="8"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="10"/>
-    </row>
-    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="40">
-        <v>2020</v>
-      </c>
-      <c r="C61" s="41" t="s">
+      <c r="D62" s="20">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>439902.09</v>
+      </c>
+      <c r="E62" s="7">
+        <v>437506.02900000004</v>
+      </c>
+      <c r="F62" s="7">
+        <v>2396.0610000000001</v>
+      </c>
+      <c r="G62" s="7"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="11"/>
+    </row>
+    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="42">
+        <v>2019</v>
+      </c>
+      <c r="C63" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D61" s="20">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>439902.09</v>
-      </c>
-      <c r="E61" s="7">
-        <v>437506.02900000004</v>
-      </c>
-      <c r="F61" s="7">
-        <v>2396.0610000000001</v>
-      </c>
-      <c r="G61" s="7"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="11"/>
-    </row>
-    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="42">
+      <c r="D63" s="22">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>440800</v>
+      </c>
+      <c r="E63" s="23">
+        <v>438700</v>
+      </c>
+      <c r="F63" s="23">
+        <v>2100</v>
+      </c>
+      <c r="G63" s="23"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="25"/>
+    </row>
+    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="38">
         <v>2019</v>
       </c>
-      <c r="C62" s="43" t="s">
+      <c r="C64" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D62" s="22">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>440800</v>
-      </c>
-      <c r="E62" s="23">
-        <v>438700</v>
-      </c>
-      <c r="F62" s="23">
+      <c r="D64" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>412300</v>
+      </c>
+      <c r="E64" s="5">
+        <v>410400</v>
+      </c>
+      <c r="F64" s="5">
+        <v>1900</v>
+      </c>
+      <c r="G64" s="5"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="9"/>
+    </row>
+    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="36">
+        <v>2019</v>
+      </c>
+      <c r="C65" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>397000</v>
+      </c>
+      <c r="E65" s="8">
+        <v>395000</v>
+      </c>
+      <c r="F65" s="8">
+        <v>2000</v>
+      </c>
+      <c r="G65" s="8"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="10"/>
+    </row>
+    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="38">
+        <v>2019</v>
+      </c>
+      <c r="C66" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D66" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>372500</v>
+      </c>
+      <c r="E66" s="5">
+        <v>370700</v>
+      </c>
+      <c r="F66" s="5">
+        <v>1800</v>
+      </c>
+      <c r="G66" s="5"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="9"/>
+    </row>
+    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="36">
+        <v>2019</v>
+      </c>
+      <c r="C67" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>430200</v>
+      </c>
+      <c r="E67" s="8">
+        <v>428200</v>
+      </c>
+      <c r="F67" s="8">
+        <v>2000</v>
+      </c>
+      <c r="G67" s="8"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="10"/>
+    </row>
+    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="38">
+        <v>2019</v>
+      </c>
+      <c r="C68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>445000</v>
+      </c>
+      <c r="E68" s="5">
+        <v>442800</v>
+      </c>
+      <c r="F68" s="5">
+        <v>2200</v>
+      </c>
+      <c r="G68" s="5"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="9"/>
+    </row>
+    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="36">
+        <v>2019</v>
+      </c>
+      <c r="C69" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>415300</v>
+      </c>
+      <c r="E69" s="8">
+        <v>413200</v>
+      </c>
+      <c r="F69" s="8">
         <v>2100</v>
       </c>
-      <c r="G62" s="23"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="32"/>
-      <c r="J62" s="23"/>
-      <c r="K62" s="25"/>
-    </row>
-    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="38">
+      <c r="G69" s="8"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="10"/>
+    </row>
+    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="38">
         <v>2019</v>
       </c>
-      <c r="C63" s="39" t="s">
+      <c r="C70" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>413700</v>
+      </c>
+      <c r="E70" s="5">
+        <v>411500</v>
+      </c>
+      <c r="F70" s="5">
+        <v>2200</v>
+      </c>
+      <c r="G70" s="5"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="9"/>
+    </row>
+    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="36">
+        <v>2019</v>
+      </c>
+      <c r="C71" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>419400</v>
+      </c>
+      <c r="E71" s="8">
+        <v>417000</v>
+      </c>
+      <c r="F71" s="8">
+        <v>2400</v>
+      </c>
+      <c r="G71" s="8"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="10"/>
+    </row>
+    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="38">
+        <v>2019</v>
+      </c>
+      <c r="C72" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>426800</v>
+      </c>
+      <c r="E72" s="5">
+        <v>420000</v>
+      </c>
+      <c r="F72" s="5">
+        <v>6800</v>
+      </c>
+      <c r="G72" s="5"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="9"/>
+    </row>
+    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="36">
+        <v>2019</v>
+      </c>
+      <c r="C73" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>375100</v>
+      </c>
+      <c r="E73" s="8">
+        <v>372900</v>
+      </c>
+      <c r="F73" s="8">
+        <v>2200</v>
+      </c>
+      <c r="G73" s="8"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="10"/>
+    </row>
+    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="40">
+        <v>2019</v>
+      </c>
+      <c r="C74" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D74" s="20">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>420900</v>
+      </c>
+      <c r="E74" s="7">
+        <v>418600</v>
+      </c>
+      <c r="F74" s="7">
+        <v>2300</v>
+      </c>
+      <c r="G74" s="7"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="11"/>
+    </row>
+    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="37">
+        <v>2018</v>
+      </c>
+      <c r="C75" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>436100</v>
+      </c>
+      <c r="E75" s="8">
+        <v>434000</v>
+      </c>
+      <c r="F75" s="8">
+        <v>2100</v>
+      </c>
+      <c r="G75" s="8"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="23"/>
+      <c r="K75" s="25"/>
+    </row>
+    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="39">
+        <v>2018</v>
+      </c>
+      <c r="C76" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>406900</v>
+      </c>
+      <c r="E76" s="5">
+        <v>404900</v>
+      </c>
+      <c r="F76" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G76" s="5"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="9"/>
+    </row>
+    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="37">
+        <v>2018</v>
+      </c>
+      <c r="C77" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D63" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>412300</v>
-      </c>
-      <c r="E63" s="5">
-        <v>410400</v>
-      </c>
-      <c r="F63" s="5">
-        <v>1900</v>
-      </c>
-      <c r="G63" s="5"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="9"/>
-    </row>
-    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="36">
-        <v>2019</v>
-      </c>
-      <c r="C64" s="37" t="s">
+      <c r="D77" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>391100</v>
+      </c>
+      <c r="E77" s="8">
+        <v>389100</v>
+      </c>
+      <c r="F77" s="8">
+        <v>2000</v>
+      </c>
+      <c r="G77" s="8"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="10"/>
+    </row>
+    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="39">
+        <v>2018</v>
+      </c>
+      <c r="C78" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D64" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>397000</v>
-      </c>
-      <c r="E64" s="8">
-        <v>395000</v>
-      </c>
-      <c r="F64" s="8">
+      <c r="D78" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>374300</v>
+      </c>
+      <c r="E78" s="5">
+        <v>372300</v>
+      </c>
+      <c r="F78" s="5">
         <v>2000</v>
       </c>
-      <c r="G64" s="8"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="10"/>
-    </row>
-    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="38">
-        <v>2019</v>
-      </c>
-      <c r="C65" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D65" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>372500</v>
-      </c>
-      <c r="E65" s="5">
-        <v>370700</v>
-      </c>
-      <c r="F65" s="5">
-        <v>1800</v>
-      </c>
-      <c r="G65" s="5"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="9"/>
-    </row>
-    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="36">
-        <v>2019</v>
-      </c>
-      <c r="C66" s="37" t="s">
+      <c r="G78" s="5"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="9"/>
+    </row>
+    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="37">
+        <v>2018</v>
+      </c>
+      <c r="C79" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>428800</v>
+      </c>
+      <c r="E79" s="8">
+        <v>426400</v>
+      </c>
+      <c r="F79" s="8">
+        <v>2400</v>
+      </c>
+      <c r="G79" s="8"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="10"/>
+    </row>
+    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="39">
+        <v>2018</v>
+      </c>
+      <c r="C80" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D66" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>430200</v>
-      </c>
-      <c r="E66" s="8">
-        <v>428200</v>
-      </c>
-      <c r="F66" s="8">
+      <c r="D80" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>446300</v>
+      </c>
+      <c r="E80" s="5">
+        <v>444000</v>
+      </c>
+      <c r="F80" s="5">
+        <v>2300</v>
+      </c>
+      <c r="G80" s="5"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="9"/>
+    </row>
+    <row r="81" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="37">
+        <v>2018</v>
+      </c>
+      <c r="C81" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>411400</v>
+      </c>
+      <c r="E81" s="8">
+        <v>409400</v>
+      </c>
+      <c r="F81" s="8">
         <v>2000</v>
       </c>
-      <c r="G66" s="8"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="10"/>
-    </row>
-    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="38">
-        <v>2019</v>
-      </c>
-      <c r="C67" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>445000</v>
-      </c>
-      <c r="E67" s="5">
-        <v>442800</v>
-      </c>
-      <c r="F67" s="5">
+      <c r="G81" s="8"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="10"/>
+    </row>
+    <row r="82" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="39">
+        <v>2018</v>
+      </c>
+      <c r="C82" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>406200</v>
+      </c>
+      <c r="E82" s="5">
+        <v>403800</v>
+      </c>
+      <c r="F82" s="5">
+        <v>2400</v>
+      </c>
+      <c r="G82" s="5"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="27"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="9"/>
+    </row>
+    <row r="83" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="37">
+        <v>2018</v>
+      </c>
+      <c r="C83" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D83" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>415400</v>
+      </c>
+      <c r="E83" s="8">
+        <v>413200</v>
+      </c>
+      <c r="F83" s="8">
         <v>2200</v>
       </c>
-      <c r="G67" s="5"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="9"/>
-    </row>
-    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="36">
-        <v>2019</v>
-      </c>
-      <c r="C68" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="D68" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>415300</v>
-      </c>
-      <c r="E68" s="8">
-        <v>413200</v>
-      </c>
-      <c r="F68" s="8">
-        <v>2100</v>
-      </c>
-      <c r="G68" s="8"/>
-      <c r="I68" s="29"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="10"/>
-    </row>
-    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="38">
-        <v>2019</v>
-      </c>
-      <c r="C69" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="D69" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>413700</v>
-      </c>
-      <c r="E69" s="5">
-        <v>411500</v>
-      </c>
-      <c r="F69" s="5">
+      <c r="G83" s="8"/>
+      <c r="I83" s="29"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="10"/>
+    </row>
+    <row r="84" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="39">
+        <v>2018</v>
+      </c>
+      <c r="C84" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>444600</v>
+      </c>
+      <c r="E84" s="5">
+        <v>442100</v>
+      </c>
+      <c r="F84" s="5">
+        <v>2500</v>
+      </c>
+      <c r="G84" s="5"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="27"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="9"/>
+    </row>
+    <row r="85" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="37">
+        <v>2018</v>
+      </c>
+      <c r="C85" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D85" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>381500</v>
+      </c>
+      <c r="E85" s="8">
+        <v>379200</v>
+      </c>
+      <c r="F85" s="8">
+        <v>2300</v>
+      </c>
+      <c r="G85" s="8"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="10"/>
+    </row>
+    <row r="86" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="39">
+        <v>2018</v>
+      </c>
+      <c r="C86" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D86" s="18">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>427700</v>
+      </c>
+      <c r="E86" s="5">
+        <v>425500</v>
+      </c>
+      <c r="F86" s="5">
         <v>2200</v>
       </c>
-      <c r="G69" s="5"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="9"/>
-    </row>
-    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="36">
-        <v>2019</v>
-      </c>
-      <c r="C70" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D70" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>419400</v>
-      </c>
-      <c r="E70" s="8">
-        <v>417000</v>
-      </c>
-      <c r="F70" s="8">
-        <v>2400</v>
-      </c>
-      <c r="G70" s="8"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="10"/>
-    </row>
-    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="38">
-        <v>2019</v>
-      </c>
-      <c r="C71" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="D71" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>426800</v>
-      </c>
-      <c r="E71" s="5">
-        <v>420000</v>
-      </c>
-      <c r="F71" s="5">
-        <v>6800</v>
-      </c>
-      <c r="G71" s="5"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="9"/>
-    </row>
-    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="36">
-        <v>2019</v>
-      </c>
-      <c r="C72" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D72" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>375100</v>
-      </c>
-      <c r="E72" s="8">
-        <v>372900</v>
-      </c>
-      <c r="F72" s="8">
-        <v>2200</v>
-      </c>
-      <c r="G72" s="8"/>
-      <c r="I72" s="29"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="10"/>
-    </row>
-    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="40">
-        <v>2019</v>
-      </c>
-      <c r="C73" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="D73" s="20">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>420900</v>
-      </c>
-      <c r="E73" s="7">
-        <v>418600</v>
-      </c>
-      <c r="F73" s="7">
-        <v>2300</v>
-      </c>
-      <c r="G73" s="7"/>
-      <c r="H73" s="31"/>
-      <c r="I73" s="30"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="11"/>
-    </row>
-    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="37">
-        <v>2018</v>
-      </c>
-      <c r="C74" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="D74" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>436100</v>
-      </c>
-      <c r="E74" s="8">
-        <v>434000</v>
-      </c>
-      <c r="F74" s="8">
-        <v>2100</v>
-      </c>
-      <c r="G74" s="8"/>
-      <c r="I74" s="32"/>
-      <c r="J74" s="23"/>
-      <c r="K74" s="25"/>
-    </row>
-    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="39">
-        <v>2018</v>
-      </c>
-      <c r="C75" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="D75" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>406900</v>
-      </c>
-      <c r="E75" s="5">
-        <v>404900</v>
-      </c>
-      <c r="F75" s="5">
-        <v>2000</v>
-      </c>
-      <c r="G75" s="5"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="27"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="9"/>
-    </row>
-    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="37">
-        <v>2018</v>
-      </c>
-      <c r="C76" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D76" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>391100</v>
-      </c>
-      <c r="E76" s="8">
-        <v>389100</v>
-      </c>
-      <c r="F76" s="8">
-        <v>2000</v>
-      </c>
-      <c r="G76" s="8"/>
-      <c r="I76" s="29"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="10"/>
-    </row>
-    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="39">
-        <v>2018</v>
-      </c>
-      <c r="C77" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D77" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>374300</v>
-      </c>
-      <c r="E77" s="5">
-        <v>372300</v>
-      </c>
-      <c r="F77" s="5">
-        <v>2000</v>
-      </c>
-      <c r="G77" s="5"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="27"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="9"/>
-    </row>
-    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="37">
-        <v>2018</v>
-      </c>
-      <c r="C78" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D78" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>428800</v>
-      </c>
-      <c r="E78" s="8">
-        <v>426400</v>
-      </c>
-      <c r="F78" s="8">
-        <v>2400</v>
-      </c>
-      <c r="G78" s="8"/>
-      <c r="I78" s="29"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="10"/>
-    </row>
-    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="39">
-        <v>2018</v>
-      </c>
-      <c r="C79" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D79" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>446300</v>
-      </c>
-      <c r="E79" s="5">
-        <v>444000</v>
-      </c>
-      <c r="F79" s="5">
-        <v>2300</v>
-      </c>
-      <c r="G79" s="5"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="27"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="9"/>
-    </row>
-    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="37">
-        <v>2018</v>
-      </c>
-      <c r="C80" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="D80" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>411400</v>
-      </c>
-      <c r="E80" s="8">
-        <v>409400</v>
-      </c>
-      <c r="F80" s="8">
-        <v>2000</v>
-      </c>
-      <c r="G80" s="8"/>
-      <c r="I80" s="29"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="10"/>
-    </row>
-    <row r="81" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="39">
-        <v>2018</v>
-      </c>
-      <c r="C81" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="D81" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>406200</v>
-      </c>
-      <c r="E81" s="5">
-        <v>403800</v>
-      </c>
-      <c r="F81" s="5">
-        <v>2400</v>
-      </c>
-      <c r="G81" s="5"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="27"/>
-      <c r="J81" s="5"/>
-      <c r="K81" s="9"/>
-    </row>
-    <row r="82" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="37">
-        <v>2018</v>
-      </c>
-      <c r="C82" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D82" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>415400</v>
-      </c>
-      <c r="E82" s="8">
-        <v>413200</v>
-      </c>
-      <c r="F82" s="8">
-        <v>2200</v>
-      </c>
-      <c r="G82" s="8"/>
-      <c r="I82" s="29"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="10"/>
-    </row>
-    <row r="83" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="39">
-        <v>2018</v>
-      </c>
-      <c r="C83" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="D83" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>444600</v>
-      </c>
-      <c r="E83" s="5">
-        <v>442100</v>
-      </c>
-      <c r="F83" s="5">
-        <v>2500</v>
-      </c>
-      <c r="G83" s="5"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="27"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="9"/>
-    </row>
-    <row r="84" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="37">
-        <v>2018</v>
-      </c>
-      <c r="C84" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D84" s="19">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>381500</v>
-      </c>
-      <c r="E84" s="8">
-        <v>379200</v>
-      </c>
-      <c r="F84" s="8">
-        <v>2300</v>
-      </c>
-      <c r="G84" s="8"/>
-      <c r="I84" s="29"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="10"/>
-    </row>
-    <row r="85" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="39">
-        <v>2018</v>
-      </c>
-      <c r="C85" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D85" s="18">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>427700</v>
-      </c>
-      <c r="E85" s="5">
-        <v>425500</v>
-      </c>
-      <c r="F85" s="5">
-        <v>2200</v>
-      </c>
-      <c r="G85" s="5"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="30"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="11"/>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B86" t="s">
-        <v>20</v>
-      </c>
-      <c r="H86" s="8"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="30"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="11"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="H87" s="8"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H88" s="8"/>
-      <c r="K88" s="3"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H89" s="8"/>
       <c r="K89" s="3"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B90" s="35" t="s">
+      <c r="B90" t="s">
+        <v>4</v>
+      </c>
+      <c r="H90" s="8"/>
+      <c r="K90" s="3"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B91" s="35" t="s">
         <v>19</v>
-      </c>
-      <c r="H90" s="8"/>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B91" t="s">
-        <v>14</v>
       </c>
       <c r="H91" s="8"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H92" s="8"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H93" s="8"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
-        <v>36</v>
+        <v>16</v>
+      </c>
+      <c r="H94" s="8"/>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B95" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Combustuble_A.xlsx
+++ b/Combustuble_A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A155060-2807-4EC3-8951-FBDE9654B22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F77DACC-6A5C-486B-9B07-FFEF815BE1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_29" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="38">
   <si>
     <t>AICM</t>
   </si>
@@ -149,7 +149,7 @@
     <t>ND</t>
   </si>
   <si>
-    <t>Actualización: septiembre 2024.</t>
+    <t>Actualización: Octubre 2024.</t>
   </si>
 </sst>
 </file>
@@ -163,40 +163,40 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -204,7 +204,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -392,7 +392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -502,10 +502,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -584,7 +587,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
@@ -630,7 +633,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
@@ -667,8 +670,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:K86" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
-  <autoFilter ref="B5:K86" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:K87" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="B5:K87" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2023"/>
@@ -699,7 +702,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="INSTITUCIONAL">
+    <a:clrScheme name="Intitucional 2025">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -707,28 +710,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="9F2241"/>
+        <a:srgbClr val="9B2247"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BC955C"/>
+        <a:srgbClr val="C39326"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="235B4E"/>
+        <a:srgbClr val="806B4A"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="98989A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="DDC9A3"/>
+        <a:srgbClr val="E6D194"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="691C32"/>
+        <a:srgbClr val="611232"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="6F7271"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="10312B"/>
+        <a:srgbClr val="7E664A"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="4E4E4E"/>
@@ -737,14 +740,14 @@
         <a:srgbClr val="808080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="INSTITUCIONAL">
+    <a:fontScheme name="Personalizado 1">
       <a:majorFont>
-        <a:latin typeface="Montserrat"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Montserrat Medium"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -919,37 +922,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:AB95"/>
+  <dimension ref="B2:Z96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="7.3984375" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.3984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="6.75" customWidth="1"/>
+    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:28" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="44" t="s">
@@ -969,7 +974,7 @@
       <c r="J4" s="45"/>
       <c r="K4" s="46"/>
     </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="34" t="s">
         <v>18</v>
       </c>
@@ -1001,2210 +1006,2244 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B6" s="38">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="36">
         <v>2024</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="19">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>382292.66800000001</v>
+      </c>
+      <c r="E6" s="8">
+        <v>380502.94699999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1789.721</v>
+      </c>
+      <c r="G6" s="8">
+        <v>127339.47199999999</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="16">
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
+        <v>8275.6580000000013</v>
+      </c>
+      <c r="J6" s="8">
+        <v>8207.1910000000007</v>
+      </c>
+      <c r="K6" s="10">
+        <v>68.466999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B7" s="38">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D7" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>355217.31699999998</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E7" s="5">
         <v>353694.88099999999</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F7" s="5">
         <v>1522.4359999999999</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G7" s="5">
         <v>123427.23999999999</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H7" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I7" s="15">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8123.1509999999998</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J7" s="5">
         <v>8080.4319999999998</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K7" s="5">
         <v>42.719000000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B7" s="36">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B8" s="36">
         <v>2024</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D8" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>410385.15499999997</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E8" s="8">
         <v>408646.99599999998</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F8" s="8">
         <v>1738.1590000000001</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G8" s="8">
         <v>134271.14299999998</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H8" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I8" s="16">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7554.09</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J8" s="8">
         <v>7485.5810000000001</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K8" s="8">
         <v>68.509</v>
       </c>
-      <c r="AB7" t="e">
+      <c r="Z8" t="e">
         <f>#REF!*1000</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B8" s="38">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B9" s="38">
         <v>2024</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C9" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D9" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>425598.28600000002</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E9" s="5">
         <v>423719.45600000001</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F9" s="5">
         <v>1878.83</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G9" s="5">
         <v>134103.45499999999</v>
       </c>
-      <c r="H8" s="47" t="s">
+      <c r="H9" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I9" s="15">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6892.0260000000007</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J9" s="5">
         <v>6846.5480000000007</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K9" s="9">
         <v>45.477999999999994</v>
       </c>
     </row>
-    <row r="9" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B9" s="36">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B10" s="36">
         <v>2024</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C10" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D10" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>402694.15900000004</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E10" s="8">
         <v>401228.58</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F10" s="8">
         <v>1465.579</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G10" s="8">
         <v>130346.13999999998</v>
       </c>
-      <c r="H9" s="48" t="s">
+      <c r="H10" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I10" s="16">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7673.4130000000005</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J10" s="8">
         <v>7627.335</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K10" s="10">
         <v>46.078000000000003</v>
       </c>
     </row>
-    <row r="10" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B10" s="38">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B11" s="38">
         <v>2024</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C11" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D11" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>420255.26899999997</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E11" s="5">
         <v>418249.16899999999</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F11" s="5">
         <v>2006.1</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G11" s="5">
         <v>132414.008</v>
       </c>
-      <c r="H10" s="47" t="s">
+      <c r="H11" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I11" s="15">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8118.799</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J11" s="5">
         <v>8068.768</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K11" s="9">
         <v>50.030999999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B11" s="36">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B12" s="36">
         <v>2024</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C12" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D12" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>439431.40099999995</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E12" s="8">
         <v>437628.61099999998</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F12" s="8">
         <v>1802.79</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G12" s="8">
         <v>128736.15699999999</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H12" s="8">
         <v>14608.594000000001</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I12" s="16">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7934.7060000000001</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J12" s="8">
         <v>7869.5050000000001</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K12" s="10">
         <v>65.200999999999993</v>
       </c>
     </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B12" s="38">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B13" s="38">
         <v>2024</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C13" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D13" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>484582.01799999992</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E13" s="5">
         <v>482370.14599999995</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F13" s="5">
         <v>2211.8719999999998</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G13" s="5">
         <v>132127.88800000001</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H13" s="5">
         <v>26118.722999999998</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I13" s="15">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8232.1929999999993</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J13" s="5">
         <v>8188.4409999999989</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K13" s="9">
         <v>43.752000000000002</v>
       </c>
     </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B13" s="36">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B14" s="36">
         <v>2024</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C14" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D14" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>439514.446</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E14" s="8">
         <v>437434.21399999998</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F14" s="8">
         <v>2080.232</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G14" s="8">
         <v>121792.711</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H14" s="8">
         <v>23599.862999999998</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I14" s="16">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7101.8710000000001</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J14" s="8">
         <v>7037.6580000000004</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K14" s="10">
         <v>64.213000000000008</v>
       </c>
     </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B14" s="40">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B15" s="40">
         <v>2024</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C15" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D15" s="20">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>474317.27799999999</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E15" s="7">
         <v>472107.52999999997</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F15" s="7">
         <v>2209.748</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G15" s="7">
         <v>133551.829</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H15" s="7">
         <v>24093.275999999998</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I15" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6939.9099999999989</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J15" s="7">
         <v>6885.6349999999993</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K15" s="11">
         <v>54.274999999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B15" s="42">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B16" s="42">
         <v>2023</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C16" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D16" s="22">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>497130.734</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E16" s="23">
         <v>495355.598</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F16" s="23">
         <v>1775.136</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G16" s="23">
         <v>141052.152</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H16" s="23">
         <v>24233.223999999998</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I16" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6935.0720000000001</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J16" s="23">
         <v>6907.192</v>
       </c>
-      <c r="K15" s="25">
+      <c r="K16" s="25">
         <v>27.88</v>
       </c>
     </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B16" s="38">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="38">
         <v>2023</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C17" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D17" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>448851.103</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E17" s="5">
         <v>447174.89500000002</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F17" s="5">
         <v>1676.2079999999999</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G17" s="5">
         <v>133555.97700000001</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H17" s="5">
         <v>22508.399000000001</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I17" s="15">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7171.835</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J17" s="5">
         <v>7125.1350000000002</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K17" s="9">
         <v>46.7</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B17" s="36">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="36">
         <v>2023</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C18" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D18" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>432477.60700000002</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E18" s="8">
         <v>430760.484</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F18" s="8">
         <v>1717.123</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G18" s="8">
         <v>135949.88099999999</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H18" s="8">
         <v>22848.071</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I18" s="16">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7518.7080000000005</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J18" s="8">
         <v>7461.4880000000003</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K18" s="10">
         <v>57.22</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B18" s="38">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="38">
         <v>2023</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C19" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D19" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>403096.08900000004</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E19" s="5">
         <v>401473.96300000005</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F19" s="5">
         <v>1622.126</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G19" s="5">
         <v>130099.94800000002</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H19" s="5">
         <v>18583.999</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I19" s="15">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6008.808</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J19" s="5">
         <v>5967.9129999999996</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K19" s="9">
         <v>40.895000000000003</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B19" s="36">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="36">
         <v>2023</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C20" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D20" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>456592.212</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E20" s="8">
         <v>454830.98300000001</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F20" s="8">
         <v>1761.229</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G20" s="8">
         <v>143391.905</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H20" s="8">
         <v>16745.141</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I20" s="16">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6500.8150000000005</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J20" s="8">
         <v>6459.5010000000002</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K20" s="10">
         <v>41.314</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B20" s="38">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="38">
         <v>2023</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C21" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D21" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>471958.52600000001</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E21" s="5">
         <v>470075.826</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F21" s="5">
         <v>1882.7</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G21" s="5">
         <v>148684.78200000001</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H21" s="5">
         <v>11646.752</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I21" s="15">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6100.8280000000004</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J21" s="5">
         <v>6053.3130000000001</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K21" s="9">
         <v>47.515000000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B21" s="36">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="36">
         <v>2023</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C22" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D22" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>445605.64600000001</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E22" s="8">
         <v>443787.57799999998</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F22" s="8">
         <v>1818.068</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G22" s="8">
         <v>146831.476</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H22" s="8">
         <v>7161.2819999999992</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I22" s="16">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6393.7270000000008</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J22" s="8">
         <v>6324.5640000000003</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K22" s="10">
         <v>69.163000000000011</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B22" s="38">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="38">
         <v>2023</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C23" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D23" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>438617.83499999996</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E23" s="5">
         <v>436653.87099999998</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F23" s="5">
         <v>1963.9639999999999</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G23" s="5">
         <v>146066.30300000001</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H23" s="5">
         <v>6589.6929999999993</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I23" s="15">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7134.3119999999999</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J23" s="5">
         <v>7076.7709999999997</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K23" s="9">
         <v>57.540999999999997</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B23" s="36">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="36">
         <v>2023</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C24" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D24" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>452626.13400000002</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E24" s="8">
         <v>450773.85800000001</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F24" s="8">
         <v>1852.2760000000001</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G24" s="8">
         <v>142422.533</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H24" s="8">
         <v>5892.4449999999997</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I24" s="16">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6515.2709999999997</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J24" s="8">
         <v>6469.5959999999995</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K24" s="10">
         <v>45.674999999999997</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B24" s="38">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="38">
         <v>2023</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C25" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D25" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>474025.5</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E25" s="5">
         <v>471373.67300000001</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F25" s="5">
         <v>2651.8269999999998</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G25" s="5">
         <v>147034.883</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H25" s="5">
         <v>6186.35</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I25" s="15">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7697.951</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J25" s="5">
         <v>7624.7790000000005</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K25" s="9">
         <v>73.171999999999997</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B25" s="36">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="36">
         <v>2023</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C26" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D26" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>418819.08400000003</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E26" s="8">
         <v>416951.092</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F26" s="8">
         <v>1867.9920000000002</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G26" s="8">
         <v>132657.08799999999</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H26" s="8">
         <v>4602.9769999999999</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I26" s="16">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6457.866</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J26" s="8">
         <v>6410.7969999999996</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K26" s="10">
         <v>47.069000000000003</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B26" s="40">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="40">
         <v>2023</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C27" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D27" s="20">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>461982.14700000006</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E27" s="7">
         <v>459918.04600000003</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F27" s="7">
         <v>2064.1010000000001</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G27" s="7">
         <v>149629.198</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H27" s="7">
         <v>5197.7539999999999</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I27" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6489.6009999999997</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J27" s="7">
         <v>6439.6379999999999</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K27" s="11">
         <v>49.963000000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="42">
+    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="42">
         <v>2022</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C28" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D28" s="22">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>490826.32500000001</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E28" s="23">
         <v>489000.86</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F28" s="23">
         <v>1825.4649999999999</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G28" s="23">
         <v>157413.09299999999</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H28" s="23">
         <v>4958.7839999999997</v>
       </c>
-      <c r="I27" s="24">
+      <c r="I28" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7356.5429999999997</v>
       </c>
-      <c r="J27" s="23">
+      <c r="J28" s="23">
         <v>7305.0450000000001</v>
       </c>
-      <c r="K27" s="25">
+      <c r="K28" s="25">
         <v>51.497999999999998</v>
       </c>
     </row>
-    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="38">
+    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="38">
         <v>2022</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C29" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D29" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>443157.86400000006</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E29" s="5">
         <v>441195.48500000004</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F29" s="5">
         <v>1962.3790000000001</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G29" s="5">
         <v>150891.29999999999</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H29" s="5">
         <v>4915.8980000000001</v>
       </c>
-      <c r="I28" s="15">
+      <c r="I29" s="15">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7236.4110000000001</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J29" s="5">
         <v>7161.7529999999997</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K29" s="9">
         <v>74.658000000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="36">
+    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="36">
         <v>2022</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C30" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D30" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>414809.23100000003</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E30" s="8">
         <v>412921.60700000002</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F30" s="8">
         <v>1887.624</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G30" s="8">
         <v>150805.27799999999</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H30" s="8">
         <v>4853.9489999999996</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I30" s="16">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6708.0059999999994</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J30" s="8">
         <v>6658.6229999999996</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K30" s="10">
         <v>49.383000000000003</v>
       </c>
     </row>
-    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="38">
+    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="38">
         <v>2022</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C31" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D31" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>387372.408</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E31" s="5">
         <v>385430.815</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F31" s="5">
         <v>1941.5929999999998</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G31" s="5">
         <v>146576.45300000001</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H31" s="5">
         <v>3809.2310000000002</v>
       </c>
-      <c r="I30" s="15">
+      <c r="I31" s="15">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>5459.2980000000007</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J31" s="5">
         <v>5409.8770000000004</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K31" s="9">
         <v>49.420999999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="36">
+    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="36">
         <v>2022</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C32" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D32" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>436832.37699999998</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E32" s="8">
         <v>434776.21399999998</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F32" s="8">
         <v>2056.163</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G32" s="8">
         <v>156853.56299999999</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H32" s="8">
         <v>2564.7890000000002</v>
       </c>
-      <c r="I31" s="16">
+      <c r="I32" s="16">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>5460.4780000000001</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J32" s="8">
         <v>5402.1080000000002</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K32" s="10">
         <v>58.37</v>
       </c>
     </row>
-    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="38">
+    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="38">
         <v>2022</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="C33" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D33" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>448351.97599999997</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E33" s="5">
         <v>446503.61</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F33" s="5">
         <v>1848.366</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G33" s="5">
         <v>153622.307</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H33" s="5">
         <v>1060.989</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I33" s="15">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>5119.0199999999995</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J33" s="5">
         <v>5070.4549999999999</v>
       </c>
-      <c r="K32" s="9">
+      <c r="K33" s="9">
         <v>48.564999999999998</v>
       </c>
     </row>
-    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="36">
+    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="36">
         <v>2022</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C34" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D34" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>416921.51799999998</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E34" s="8">
         <v>414947.446</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F34" s="8">
         <v>1974.0720000000001</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G34" s="8">
         <v>140586.55600000001</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H34" s="8">
         <v>853.44799999999998</v>
       </c>
-      <c r="I33" s="16">
+      <c r="I34" s="16">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>4541.9560000000001</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J34" s="8">
         <v>4497.9610000000002</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K34" s="10">
         <v>43.994999999999997</v>
       </c>
     </row>
-    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="38">
+    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="38">
         <v>2022</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C35" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D35" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>424375.26299999998</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E35" s="5">
         <v>422374.98</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F35" s="5">
         <v>2000.2830000000001</v>
       </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="9"/>
-    </row>
-    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="36">
+      <c r="G35" s="5"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="36">
         <v>2022</v>
       </c>
-      <c r="C35" s="37" t="s">
+      <c r="C36" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D36" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>437218.36900000001</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E36" s="8">
         <v>435084.44699999999</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F36" s="8">
         <v>2133.922</v>
       </c>
-      <c r="G35" s="8"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="10"/>
-    </row>
-    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="38">
+      <c r="G36" s="8"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="10"/>
+    </row>
+    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="38">
         <v>2022</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="C37" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D37" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>430084.12599999999</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E37" s="5">
         <v>427583.05499999999</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F37" s="5">
         <v>2501.0709999999999</v>
       </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="9"/>
-    </row>
-    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="36">
+      <c r="G37" s="5"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="9"/>
+    </row>
+    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="36">
         <v>2022</v>
       </c>
-      <c r="C37" s="37" t="s">
+      <c r="C38" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D38" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>358536.61100000003</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E38" s="8">
         <v>356535.05300000001</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F38" s="8">
         <v>2001.5580000000002</v>
       </c>
-      <c r="G37" s="8"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="10"/>
-    </row>
-    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="40">
+      <c r="G38" s="8"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="10"/>
+    </row>
+    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="40">
         <v>2022</v>
       </c>
-      <c r="C38" s="41" t="s">
+      <c r="C39" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="20">
+      <c r="D39" s="20">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>401925.429</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E39" s="7">
         <v>399729.82500000001</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F39" s="7">
         <v>2195.6039999999998</v>
       </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="11"/>
-    </row>
-    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="42">
+      <c r="G39" s="7"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="11"/>
+    </row>
+    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="42">
         <v>2021</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C40" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D40" s="22">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>432897.13799999998</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E40" s="23">
         <v>430707.82799999998</v>
       </c>
-      <c r="F39" s="23">
+      <c r="F40" s="23">
         <v>2189.31</v>
       </c>
-      <c r="G39" s="23"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="25"/>
-    </row>
-    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="38">
+      <c r="G40" s="23"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="25"/>
+    </row>
+    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="38">
         <v>2021</v>
       </c>
-      <c r="C40" s="39" t="s">
+      <c r="C41" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D41" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>383033.76299999998</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E41" s="5">
         <v>380922.15399999998</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F41" s="5">
         <v>2111.6089999999999</v>
       </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="9"/>
-    </row>
-    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="36">
+      <c r="G41" s="5"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="9"/>
+    </row>
+    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="36">
         <v>2021</v>
       </c>
-      <c r="C41" s="37" t="s">
+      <c r="C42" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D42" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>358842.80099999998</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E42" s="8">
         <v>356760.12</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F42" s="8">
         <v>2082.681</v>
       </c>
-      <c r="G41" s="8"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="10"/>
-    </row>
-    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="38">
+      <c r="G42" s="8"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="10"/>
+    </row>
+    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="38">
         <v>2021</v>
       </c>
-      <c r="C42" s="39" t="s">
+      <c r="C43" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D43" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>321941.98300000001</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E43" s="5">
         <v>319890.413</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F43" s="5">
         <v>2051.5699999999997</v>
       </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="9"/>
-    </row>
-    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="36">
+      <c r="G43" s="5"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="9"/>
+    </row>
+    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="36">
         <v>2021</v>
       </c>
-      <c r="C43" s="37" t="s">
+      <c r="C44" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D44" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>363960.13899999997</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E44" s="8">
         <v>361966.45999999996</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F44" s="8">
         <v>1993.6790000000001</v>
       </c>
-      <c r="G43" s="8"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="10"/>
-    </row>
-    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="38">
+      <c r="G44" s="8"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="10"/>
+    </row>
+    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="38">
         <v>2021</v>
       </c>
-      <c r="C44" s="39" t="s">
+      <c r="C45" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="18">
+      <c r="D45" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>374695.174</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E45" s="5">
         <v>372625.397</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F45" s="5">
         <v>2069.777</v>
       </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="9"/>
-    </row>
-    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="36">
+      <c r="G45" s="5"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="9"/>
+    </row>
+    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="36">
         <v>2021</v>
       </c>
-      <c r="C45" s="37" t="s">
+      <c r="C46" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="19">
+      <c r="D46" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>334517.39600000001</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E46" s="8">
         <v>332552.66499999998</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F46" s="8">
         <v>1964.731</v>
       </c>
-      <c r="G45" s="8"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="10"/>
-    </row>
-    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="38">
+      <c r="G46" s="8"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="10"/>
+    </row>
+    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="38">
         <v>2021</v>
       </c>
-      <c r="C46" s="39" t="s">
+      <c r="C47" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D47" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>322630.61800000002</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E47" s="5">
         <v>320400.96000000002</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F47" s="5">
         <v>2229.6580000000004</v>
       </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="9"/>
-    </row>
-    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="36">
+      <c r="G47" s="5"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="9"/>
+    </row>
+    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="36">
         <v>2021</v>
       </c>
-      <c r="C47" s="37" t="s">
+      <c r="C48" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D48" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>299222.027</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E48" s="8">
         <v>296903.73</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F48" s="8">
         <v>2318.297</v>
       </c>
-      <c r="G47" s="8"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="10"/>
-    </row>
-    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="38">
+      <c r="G48" s="8"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="10"/>
+    </row>
+    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="38">
         <v>2021</v>
       </c>
-      <c r="C48" s="39" t="s">
+      <c r="C49" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="18">
+      <c r="D49" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>271328.42499999999</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E49" s="5">
         <v>268651.59499999997</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F49" s="5">
         <v>2676.83</v>
       </c>
-      <c r="G48" s="5"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="9"/>
-    </row>
-    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="36">
+      <c r="G49" s="5"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="9"/>
+    </row>
+    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="36">
         <v>2021</v>
       </c>
-      <c r="C49" s="37" t="s">
+      <c r="C50" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D50" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>222215.03899999999</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E50" s="8">
         <v>220246.12</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F50" s="8">
         <v>1968.9190000000001</v>
       </c>
-      <c r="G49" s="8"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="10"/>
-    </row>
-    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="40">
+      <c r="G50" s="8"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="10"/>
+    </row>
+    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="40">
         <v>2021</v>
       </c>
-      <c r="C50" s="41" t="s">
+      <c r="C51" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D51" s="20">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>272354.26800000004</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E51" s="7">
         <v>270211.59100000001</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F51" s="7">
         <v>2142.6770000000001</v>
       </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="11"/>
-    </row>
-    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="42">
+      <c r="G51" s="7"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="11"/>
+    </row>
+    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="42">
         <v>2020</v>
       </c>
-      <c r="C51" s="43" t="s">
+      <c r="C52" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D51" s="22">
+      <c r="D52" s="22">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>289863.19500000001</v>
       </c>
-      <c r="E51" s="23">
+      <c r="E52" s="23">
         <v>287659.50599999999</v>
       </c>
-      <c r="F51" s="23">
+      <c r="F52" s="23">
         <v>2203.6889999999999</v>
       </c>
-      <c r="G51" s="23"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="25"/>
-    </row>
-    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="38">
+      <c r="G52" s="23"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="25"/>
+    </row>
+    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="38">
         <v>2020</v>
       </c>
-      <c r="C52" s="39" t="s">
+      <c r="C53" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D52" s="18">
+      <c r="D53" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>228379.71699999998</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E53" s="5">
         <v>226637.46699999998</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F53" s="5">
         <v>1742.25</v>
       </c>
-      <c r="G52" s="5"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="9"/>
-    </row>
-    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="36">
+      <c r="G53" s="5"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="9"/>
+    </row>
+    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="36">
         <v>2020</v>
       </c>
-      <c r="C53" s="37" t="s">
+      <c r="C54" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D53" s="19">
+      <c r="D54" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>225796.75899999996</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E54" s="8">
         <v>223656.52399999998</v>
       </c>
-      <c r="F53" s="8">
+      <c r="F54" s="8">
         <v>2140.2350000000001</v>
       </c>
-      <c r="G53" s="8"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="10"/>
-    </row>
-    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="38">
+      <c r="G54" s="8"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="10"/>
+    </row>
+    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="38">
         <v>2020</v>
       </c>
-      <c r="C54" s="39" t="s">
+      <c r="C55" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D54" s="18">
+      <c r="D55" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>192359.82700000002</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E55" s="5">
         <v>190331.43100000001</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F55" s="5">
         <v>2028.396</v>
       </c>
-      <c r="G54" s="5"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="9"/>
-    </row>
-    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="36">
+      <c r="G55" s="5"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="9"/>
+    </row>
+    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="36">
         <v>2020</v>
       </c>
-      <c r="C55" s="37" t="s">
+      <c r="C56" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D56" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>184495.08899999998</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E56" s="8">
         <v>182519.18599999999</v>
       </c>
-      <c r="F55" s="8">
+      <c r="F56" s="8">
         <v>1975.903</v>
       </c>
-      <c r="G55" s="8"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="10"/>
-    </row>
-    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="38">
+      <c r="G56" s="8"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="10"/>
+    </row>
+    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="38">
         <v>2020</v>
       </c>
-      <c r="C56" s="39" t="s">
+      <c r="C57" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="18">
+      <c r="D57" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>160167.435</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E57" s="5">
         <v>158161.66200000001</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F57" s="5">
         <v>2005.7730000000001</v>
       </c>
-      <c r="G56" s="5"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="9"/>
-    </row>
-    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="36">
+      <c r="G57" s="5"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="9"/>
+    </row>
+    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="36">
         <v>2020</v>
       </c>
-      <c r="C57" s="37" t="s">
+      <c r="C58" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="19">
+      <c r="D58" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>105511.976</v>
       </c>
-      <c r="E57" s="8">
+      <c r="E58" s="8">
         <v>103802.962</v>
       </c>
-      <c r="F57" s="8">
+      <c r="F58" s="8">
         <v>1709.0140000000001</v>
       </c>
-      <c r="G57" s="8"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="10"/>
-    </row>
-    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="38">
+      <c r="G58" s="8"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="10"/>
+    </row>
+    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="38">
         <v>2020</v>
       </c>
-      <c r="C58" s="39" t="s">
+      <c r="C59" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="18">
+      <c r="D59" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>69285.474000000002</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E59" s="5">
         <v>67702.22</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F59" s="5">
         <v>1583.2539999999999</v>
       </c>
-      <c r="G58" s="5"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="9"/>
-    </row>
-    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="36">
+      <c r="G59" s="5"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="9"/>
+    </row>
+    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="36">
         <v>2020</v>
       </c>
-      <c r="C59" s="37" t="s">
+      <c r="C60" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D59" s="19">
+      <c r="D60" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>69532.992000000013</v>
       </c>
-      <c r="E59" s="8">
+      <c r="E60" s="8">
         <v>67898.813000000009</v>
       </c>
-      <c r="F59" s="8">
+      <c r="F60" s="8">
         <v>1634.1790000000001</v>
       </c>
-      <c r="G59" s="8"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="10"/>
-    </row>
-    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="38">
+      <c r="G60" s="8"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="10"/>
+    </row>
+    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="38">
         <v>2020</v>
       </c>
-      <c r="C60" s="39" t="s">
+      <c r="C61" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D60" s="18">
+      <c r="D61" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>334769.408</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E61" s="5">
         <v>332339.83399999997</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F61" s="5">
         <v>2429.5740000000001</v>
       </c>
-      <c r="G60" s="5"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="9"/>
-    </row>
-    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="36">
+      <c r="G61" s="5"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="9"/>
+    </row>
+    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="36">
         <v>2020</v>
       </c>
-      <c r="C61" s="37" t="s">
+      <c r="C62" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D61" s="19">
+      <c r="D62" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>400050.22200000001</v>
       </c>
-      <c r="E61" s="8">
+      <c r="E62" s="8">
         <v>397843.09899999999</v>
       </c>
-      <c r="F61" s="8">
+      <c r="F62" s="8">
         <v>2207.123</v>
       </c>
-      <c r="G61" s="8"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="10"/>
-    </row>
-    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="40">
+      <c r="G62" s="8"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="10"/>
+    </row>
+    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="40">
         <v>2020</v>
       </c>
-      <c r="C62" s="41" t="s">
+      <c r="C63" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D62" s="20">
+      <c r="D63" s="20">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>439902.09</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E63" s="7">
         <v>437506.02900000004</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F63" s="7">
         <v>2396.0610000000001</v>
       </c>
-      <c r="G62" s="7"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="11"/>
-    </row>
-    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="42">
+      <c r="G63" s="7"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="11"/>
+    </row>
+    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="42">
         <v>2019</v>
       </c>
-      <c r="C63" s="43" t="s">
+      <c r="C64" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="22">
+      <c r="D64" s="22">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>440800</v>
       </c>
-      <c r="E63" s="23">
+      <c r="E64" s="23">
         <v>438700</v>
       </c>
-      <c r="F63" s="23">
+      <c r="F64" s="23">
         <v>2100</v>
       </c>
-      <c r="G63" s="23"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="32"/>
-      <c r="J63" s="23"/>
-      <c r="K63" s="25"/>
-    </row>
-    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="38">
+      <c r="G64" s="23"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="25"/>
+    </row>
+    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="38">
         <v>2019</v>
       </c>
-      <c r="C64" s="39" t="s">
+      <c r="C65" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D64" s="18">
+      <c r="D65" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>412300</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E65" s="5">
         <v>410400</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F65" s="5">
         <v>1900</v>
       </c>
-      <c r="G64" s="5"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="9"/>
-    </row>
-    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="36">
+      <c r="G65" s="5"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="9"/>
+    </row>
+    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="36">
         <v>2019</v>
       </c>
-      <c r="C65" s="37" t="s">
+      <c r="C66" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D65" s="19">
+      <c r="D66" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>397000</v>
       </c>
-      <c r="E65" s="8">
+      <c r="E66" s="8">
         <v>395000</v>
       </c>
-      <c r="F65" s="8">
+      <c r="F66" s="8">
         <v>2000</v>
       </c>
-      <c r="G65" s="8"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="10"/>
-    </row>
-    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="38">
+      <c r="G66" s="8"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="10"/>
+    </row>
+    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="38">
         <v>2019</v>
       </c>
-      <c r="C66" s="39" t="s">
+      <c r="C67" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D66" s="18">
+      <c r="D67" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>372500</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E67" s="5">
         <v>370700</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F67" s="5">
         <v>1800</v>
       </c>
-      <c r="G66" s="5"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="9"/>
-    </row>
-    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="36">
+      <c r="G67" s="5"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="9"/>
+    </row>
+    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="36">
         <v>2019</v>
       </c>
-      <c r="C67" s="37" t="s">
+      <c r="C68" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="19">
+      <c r="D68" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>430200</v>
       </c>
-      <c r="E67" s="8">
+      <c r="E68" s="8">
         <v>428200</v>
       </c>
-      <c r="F67" s="8">
+      <c r="F68" s="8">
         <v>2000</v>
       </c>
-      <c r="G67" s="8"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="10"/>
-    </row>
-    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="38">
+      <c r="G68" s="8"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="10"/>
+    </row>
+    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="38">
         <v>2019</v>
       </c>
-      <c r="C68" s="39" t="s">
+      <c r="C69" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D68" s="18">
+      <c r="D69" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>445000</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E69" s="5">
         <v>442800</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F69" s="5">
         <v>2200</v>
       </c>
-      <c r="G68" s="5"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="9"/>
-    </row>
-    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="36">
+      <c r="G69" s="5"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="9"/>
+    </row>
+    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="36">
         <v>2019</v>
       </c>
-      <c r="C69" s="37" t="s">
+      <c r="C70" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D69" s="19">
+      <c r="D70" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>415300</v>
       </c>
-      <c r="E69" s="8">
+      <c r="E70" s="8">
         <v>413200</v>
       </c>
-      <c r="F69" s="8">
+      <c r="F70" s="8">
         <v>2100</v>
       </c>
-      <c r="G69" s="8"/>
-      <c r="I69" s="29"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="10"/>
-    </row>
-    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="38">
+      <c r="G70" s="8"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="10"/>
+    </row>
+    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="38">
         <v>2019</v>
       </c>
-      <c r="C70" s="39" t="s">
+      <c r="C71" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D70" s="18">
+      <c r="D71" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>413700</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E71" s="5">
         <v>411500</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F71" s="5">
         <v>2200</v>
       </c>
-      <c r="G70" s="5"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="9"/>
-    </row>
-    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="36">
+      <c r="G71" s="5"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="9"/>
+    </row>
+    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="36">
         <v>2019</v>
       </c>
-      <c r="C71" s="37" t="s">
+      <c r="C72" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D71" s="19">
+      <c r="D72" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>419400</v>
       </c>
-      <c r="E71" s="8">
+      <c r="E72" s="8">
         <v>417000</v>
       </c>
-      <c r="F71" s="8">
+      <c r="F72" s="8">
         <v>2400</v>
       </c>
-      <c r="G71" s="8"/>
-      <c r="I71" s="29"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="10"/>
-    </row>
-    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="38">
+      <c r="G72" s="8"/>
+      <c r="I72" s="29"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="10"/>
+    </row>
+    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="38">
         <v>2019</v>
       </c>
-      <c r="C72" s="39" t="s">
+      <c r="C73" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D72" s="18">
+      <c r="D73" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>426800</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E73" s="5">
         <v>420000</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F73" s="5">
         <v>6800</v>
       </c>
-      <c r="G72" s="5"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="27"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="9"/>
-    </row>
-    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="36">
+      <c r="G73" s="5"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="9"/>
+    </row>
+    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="36">
         <v>2019</v>
       </c>
-      <c r="C73" s="37" t="s">
+      <c r="C74" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D73" s="19">
+      <c r="D74" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>375100</v>
       </c>
-      <c r="E73" s="8">
+      <c r="E74" s="8">
         <v>372900</v>
       </c>
-      <c r="F73" s="8">
+      <c r="F74" s="8">
         <v>2200</v>
       </c>
-      <c r="G73" s="8"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="10"/>
-    </row>
-    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="40">
+      <c r="G74" s="8"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="10"/>
+    </row>
+    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="40">
         <v>2019</v>
       </c>
-      <c r="C74" s="41" t="s">
+      <c r="C75" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D74" s="20">
+      <c r="D75" s="20">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>420900</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E75" s="7">
         <v>418600</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F75" s="7">
         <v>2300</v>
       </c>
-      <c r="G74" s="7"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="30"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="11"/>
-    </row>
-    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="37">
+      <c r="G75" s="7"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="11"/>
+    </row>
+    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="37">
         <v>2018</v>
       </c>
-      <c r="C75" s="37" t="s">
+      <c r="C76" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D75" s="19">
+      <c r="D76" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>436100</v>
       </c>
-      <c r="E75" s="8">
+      <c r="E76" s="8">
         <v>434000</v>
       </c>
-      <c r="F75" s="8">
+      <c r="F76" s="8">
         <v>2100</v>
       </c>
-      <c r="G75" s="8"/>
-      <c r="I75" s="32"/>
-      <c r="J75" s="23"/>
-      <c r="K75" s="25"/>
-    </row>
-    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="39">
+      <c r="G76" s="8"/>
+      <c r="I76" s="32"/>
+      <c r="J76" s="23"/>
+      <c r="K76" s="25"/>
+    </row>
+    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="39">
         <v>2018</v>
       </c>
-      <c r="C76" s="39" t="s">
+      <c r="C77" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D76" s="18">
+      <c r="D77" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>406900</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E77" s="5">
         <v>404900</v>
       </c>
-      <c r="F76" s="5">
+      <c r="F77" s="5">
         <v>2000</v>
       </c>
-      <c r="G76" s="5"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="27"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="9"/>
-    </row>
-    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="37">
+      <c r="G77" s="5"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="9"/>
+    </row>
+    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="37">
         <v>2018</v>
       </c>
-      <c r="C77" s="37" t="s">
+      <c r="C78" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D77" s="19">
+      <c r="D78" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>391100</v>
       </c>
-      <c r="E77" s="8">
+      <c r="E78" s="8">
         <v>389100</v>
       </c>
-      <c r="F77" s="8">
+      <c r="F78" s="8">
         <v>2000</v>
       </c>
-      <c r="G77" s="8"/>
-      <c r="I77" s="29"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="10"/>
-    </row>
-    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="39">
+      <c r="G78" s="8"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="10"/>
+    </row>
+    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="39">
         <v>2018</v>
       </c>
-      <c r="C78" s="39" t="s">
+      <c r="C79" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D78" s="18">
+      <c r="D79" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>374300</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E79" s="5">
         <v>372300</v>
       </c>
-      <c r="F78" s="5">
+      <c r="F79" s="5">
         <v>2000</v>
       </c>
-      <c r="G78" s="5"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="9"/>
-    </row>
-    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="37">
+      <c r="G79" s="5"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="27"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="9"/>
+    </row>
+    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="37">
         <v>2018</v>
       </c>
-      <c r="C79" s="37" t="s">
+      <c r="C80" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D79" s="19">
+      <c r="D80" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>428800</v>
       </c>
-      <c r="E79" s="8">
+      <c r="E80" s="8">
         <v>426400</v>
       </c>
-      <c r="F79" s="8">
+      <c r="F80" s="8">
         <v>2400</v>
       </c>
-      <c r="G79" s="8"/>
-      <c r="I79" s="29"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="10"/>
-    </row>
-    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="39">
+      <c r="G80" s="8"/>
+      <c r="I80" s="29"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="10"/>
+    </row>
+    <row r="81" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="39">
         <v>2018</v>
       </c>
-      <c r="C80" s="39" t="s">
+      <c r="C81" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D80" s="18">
+      <c r="D81" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>446300</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E81" s="5">
         <v>444000</v>
       </c>
-      <c r="F80" s="5">
+      <c r="F81" s="5">
         <v>2300</v>
       </c>
-      <c r="G80" s="5"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="27"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="9"/>
-    </row>
-    <row r="81" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="37">
+      <c r="G81" s="5"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="9"/>
+    </row>
+    <row r="82" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="37">
         <v>2018</v>
       </c>
-      <c r="C81" s="37" t="s">
+      <c r="C82" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D81" s="19">
+      <c r="D82" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>411400</v>
       </c>
-      <c r="E81" s="8">
+      <c r="E82" s="8">
         <v>409400</v>
       </c>
-      <c r="F81" s="8">
+      <c r="F82" s="8">
         <v>2000</v>
       </c>
-      <c r="G81" s="8"/>
-      <c r="I81" s="29"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="10"/>
-    </row>
-    <row r="82" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="39">
+      <c r="G82" s="8"/>
+      <c r="I82" s="29"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="10"/>
+    </row>
+    <row r="83" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="39">
         <v>2018</v>
       </c>
-      <c r="C82" s="39" t="s">
+      <c r="C83" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D82" s="18">
+      <c r="D83" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>406200</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E83" s="5">
         <v>403800</v>
       </c>
-      <c r="F82" s="5">
+      <c r="F83" s="5">
         <v>2400</v>
       </c>
-      <c r="G82" s="5"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="27"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="9"/>
-    </row>
-    <row r="83" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="37">
+      <c r="G83" s="5"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="9"/>
+    </row>
+    <row r="84" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="37">
         <v>2018</v>
       </c>
-      <c r="C83" s="37" t="s">
+      <c r="C84" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D83" s="19">
+      <c r="D84" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>415400</v>
       </c>
-      <c r="E83" s="8">
+      <c r="E84" s="8">
         <v>413200</v>
       </c>
-      <c r="F83" s="8">
+      <c r="F84" s="8">
         <v>2200</v>
       </c>
-      <c r="G83" s="8"/>
-      <c r="I83" s="29"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="10"/>
-    </row>
-    <row r="84" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="39">
+      <c r="G84" s="8"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="10"/>
+    </row>
+    <row r="85" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="39">
         <v>2018</v>
       </c>
-      <c r="C84" s="39" t="s">
+      <c r="C85" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D84" s="18">
+      <c r="D85" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>444600</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E85" s="5">
         <v>442100</v>
       </c>
-      <c r="F84" s="5">
+      <c r="F85" s="5">
         <v>2500</v>
       </c>
-      <c r="G84" s="5"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="27"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="9"/>
-    </row>
-    <row r="85" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="37">
+      <c r="G85" s="5"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="27"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="9"/>
+    </row>
+    <row r="86" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="37">
         <v>2018</v>
       </c>
-      <c r="C85" s="37" t="s">
+      <c r="C86" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D85" s="19">
+      <c r="D86" s="19">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>381500</v>
       </c>
-      <c r="E85" s="8">
+      <c r="E86" s="8">
         <v>379200</v>
       </c>
-      <c r="F85" s="8">
+      <c r="F86" s="8">
         <v>2300</v>
       </c>
-      <c r="G85" s="8"/>
-      <c r="I85" s="29"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="10"/>
-    </row>
-    <row r="86" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="39">
+      <c r="G86" s="8"/>
+      <c r="I86" s="29"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="10"/>
+    </row>
+    <row r="87" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="39">
         <v>2018</v>
       </c>
-      <c r="C86" s="39" t="s">
+      <c r="C87" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D86" s="18">
+      <c r="D87" s="18">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>427700</v>
       </c>
-      <c r="E86" s="5">
+      <c r="E87" s="5">
         <v>425500</v>
       </c>
-      <c r="F86" s="5">
+      <c r="F87" s="5">
         <v>2200</v>
       </c>
-      <c r="G86" s="5"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="30"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="11"/>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B87" t="s">
+      <c r="G87" s="5"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="30"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="11"/>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
         <v>37</v>
       </c>
-      <c r="H87" s="8"/>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B88" t="s">
+      <c r="H88" s="8"/>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>13</v>
       </c>
-      <c r="H88" s="8"/>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B89" t="s">
+      <c r="H89" s="8"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
         <v>3</v>
-      </c>
-      <c r="H89" s="8"/>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B90" t="s">
-        <v>4</v>
       </c>
       <c r="H90" s="8"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B91" s="35" t="s">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="8"/>
+      <c r="K91" s="3"/>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B92" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="H91" s="8"/>
-    </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B92" t="s">
+      <c r="H92" s="8"/>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
         <v>14</v>
       </c>
-      <c r="H92" s="8"/>
-    </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B93" t="s">
+      <c r="H93" s="8"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
         <v>15</v>
       </c>
-      <c r="H93" s="8"/>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B94" t="s">
+      <c r="H94" s="8"/>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
         <v>16</v>
       </c>
-      <c r="H94" s="8"/>
-    </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B95" t="s">
+      <c r="H95" s="8"/>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
         <v>35</v>
       </c>
     </row>

--- a/Combustuble_A.xlsx
+++ b/Combustuble_A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F77DACC-6A5C-486B-9B07-FFEF815BE1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E998B2CC-FBAE-47BD-9FE9-B51588B8175B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_29" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="38">
   <si>
     <t>AICM</t>
   </si>
@@ -149,7 +149,7 @@
     <t>ND</t>
   </si>
   <si>
-    <t>Actualización: Octubre 2024.</t>
+    <t>Actualización: Noviembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -168,19 +168,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Geomanist"/>
       <family val="2"/>
@@ -194,18 +181,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Geomanist"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="minor"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -390,108 +393,22 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -502,24 +419,119 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -528,50 +540,108 @@
           <color indexed="64"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <font>
         <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
@@ -587,16 +657,40 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Geomanist"/>
-        <scheme val="minor"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -622,6 +716,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -633,9 +740,10 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Geomanist"/>
+        <name val="Noto Sans"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
@@ -670,11 +778,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:K87" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
-  <autoFilter ref="B5:K87" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:K88" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="B5:K88" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
-        <filter val="2023"/>
         <filter val="2024"/>
       </filters>
     </filterColumn>
@@ -922,72 +1029,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:Z96"/>
+  <dimension ref="B2:Z97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="6.75" customWidth="1"/>
-    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:26" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="44" t="s">
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="4" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="46"/>
-    </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="J4" s="7"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G5" s="13" t="s">
@@ -996,2254 +1104,2288 @@
       <c r="H5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="36">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B6" s="22">
         <v>2024</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="24">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>414979.28399999999</v>
+      </c>
+      <c r="E6" s="25">
+        <v>413228.45</v>
+      </c>
+      <c r="F6" s="25">
+        <v>1750.8340000000001</v>
+      </c>
+      <c r="G6" s="25">
+        <v>126056.84700000001</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="27">
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
+        <v>8715.9350000000013</v>
+      </c>
+      <c r="J6" s="25">
+        <v>8658.853000000001</v>
+      </c>
+      <c r="K6" s="25">
+        <v>57.082000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B7" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D7" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>382292.66800000001</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E7" s="18">
         <v>380502.94699999999</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F7" s="18">
         <v>1789.721</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G7" s="18">
         <v>127339.47199999999</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H7" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I7" s="20">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8275.6580000000013</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J7" s="18">
         <v>8207.1910000000007</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K7" s="21">
         <v>68.466999999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="38">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B8" s="22">
         <v>2024</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C8" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D8" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>355217.31699999998</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E8" s="25">
         <v>353694.88099999999</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F8" s="25">
         <v>1522.4359999999999</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G8" s="25">
         <v>123427.23999999999</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H8" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I8" s="27">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8123.1509999999998</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J8" s="25">
         <v>8080.4319999999998</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K8" s="25">
         <v>42.719000000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="36">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B9" s="15">
         <v>2024</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D9" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>410385.15499999997</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E9" s="18">
         <v>408646.99599999998</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F9" s="18">
         <v>1738.1590000000001</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G9" s="18">
         <v>134271.14299999998</v>
       </c>
-      <c r="H8" s="48" t="s">
+      <c r="H9" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I9" s="20">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7554.09</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J9" s="18">
         <v>7485.5810000000001</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K9" s="18">
         <v>68.509</v>
       </c>
-      <c r="Z8" t="e">
+      <c r="Z9" s="3" t="e">
         <f>#REF!*1000</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="38">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B10" s="22">
         <v>2024</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C10" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D10" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>425598.28600000002</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E10" s="25">
         <v>423719.45600000001</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F10" s="25">
         <v>1878.83</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G10" s="25">
         <v>134103.45499999999</v>
       </c>
-      <c r="H9" s="47" t="s">
+      <c r="H10" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I10" s="27">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6892.0260000000007</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J10" s="25">
         <v>6846.5480000000007</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K10" s="28">
         <v>45.477999999999994</v>
       </c>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="36">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B11" s="15">
         <v>2024</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D11" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>402694.15900000004</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E11" s="18">
         <v>401228.58</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F11" s="18">
         <v>1465.579</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G11" s="18">
         <v>130346.13999999998</v>
       </c>
-      <c r="H10" s="48" t="s">
+      <c r="H11" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I11" s="20">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7673.4130000000005</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J11" s="18">
         <v>7627.335</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K11" s="21">
         <v>46.078000000000003</v>
       </c>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="38">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B12" s="22">
         <v>2024</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D12" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>420255.26899999997</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E12" s="25">
         <v>418249.16899999999</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F12" s="25">
         <v>2006.1</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G12" s="25">
         <v>132414.008</v>
       </c>
-      <c r="H11" s="47" t="s">
+      <c r="H12" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I12" s="27">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8118.799</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J12" s="25">
         <v>8068.768</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K12" s="28">
         <v>50.030999999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="36">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B13" s="15">
         <v>2024</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D13" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>439431.40099999995</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E13" s="18">
         <v>437628.61099999998</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F13" s="18">
         <v>1802.79</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G13" s="18">
         <v>128736.15699999999</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H13" s="18">
         <v>14608.594000000001</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I13" s="20">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7934.7060000000001</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J13" s="18">
         <v>7869.5050000000001</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K13" s="21">
         <v>65.200999999999993</v>
       </c>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="38">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B14" s="22">
         <v>2024</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C14" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D14" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>484582.01799999992</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E14" s="25">
         <v>482370.14599999995</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F14" s="25">
         <v>2211.8719999999998</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G14" s="25">
         <v>132127.88800000001</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H14" s="25">
         <v>26118.722999999998</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I14" s="27">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8232.1929999999993</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J14" s="25">
         <v>8188.4409999999989</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K14" s="28">
         <v>43.752000000000002</v>
       </c>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B14" s="36">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B15" s="15">
         <v>2024</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D15" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>439514.446</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E15" s="18">
         <v>437434.21399999998</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F15" s="18">
         <v>2080.232</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G15" s="18">
         <v>121792.711</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H15" s="18">
         <v>23599.862999999998</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I15" s="20">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7101.8710000000001</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J15" s="18">
         <v>7037.6580000000004</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K15" s="21">
         <v>64.213000000000008</v>
       </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="40">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B16" s="29">
         <v>2024</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C16" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D16" s="31">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>474317.27799999999</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E16" s="32">
         <v>472107.52999999997</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F16" s="32">
         <v>2209.748</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G16" s="32">
         <v>133551.829</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H16" s="32">
         <v>24093.275999999998</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I16" s="33">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6939.9099999999989</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J16" s="32">
         <v>6885.6349999999993</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K16" s="34">
         <v>54.274999999999999</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="42">
+    <row r="17" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="35">
         <v>2023</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C17" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D17" s="37">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>497130.734</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E17" s="38">
         <v>495355.598</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F17" s="38">
         <v>1775.136</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G17" s="38">
         <v>141052.152</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H17" s="38">
         <v>24233.223999999998</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I17" s="39">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6935.0720000000001</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J17" s="38">
         <v>6907.192</v>
       </c>
-      <c r="K16" s="25">
+      <c r="K17" s="40">
         <v>27.88</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="38">
+    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="22">
         <v>2023</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C18" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D18" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>448851.103</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E18" s="25">
         <v>447174.89500000002</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F18" s="25">
         <v>1676.2079999999999</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G18" s="25">
         <v>133555.97700000001</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H18" s="25">
         <v>22508.399000000001</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I18" s="27">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7171.835</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J18" s="25">
         <v>7125.1350000000002</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K18" s="28">
         <v>46.7</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="36">
+    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="15">
         <v>2023</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C19" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D19" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>432477.60700000002</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E19" s="18">
         <v>430760.484</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F19" s="18">
         <v>1717.123</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G19" s="18">
         <v>135949.88099999999</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H19" s="18">
         <v>22848.071</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I19" s="20">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7518.7080000000005</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J19" s="18">
         <v>7461.4880000000003</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K19" s="21">
         <v>57.22</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="38">
+    <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="22">
         <v>2023</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C20" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D20" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>403096.08900000004</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E20" s="25">
         <v>401473.96300000005</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F20" s="25">
         <v>1622.126</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G20" s="25">
         <v>130099.94800000002</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H20" s="25">
         <v>18583.999</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I20" s="27">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6008.808</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J20" s="25">
         <v>5967.9129999999996</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K20" s="28">
         <v>40.895000000000003</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="36">
+    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="15">
         <v>2023</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D21" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>456592.212</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E21" s="18">
         <v>454830.98300000001</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F21" s="18">
         <v>1761.229</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G21" s="18">
         <v>143391.905</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H21" s="18">
         <v>16745.141</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I21" s="20">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6500.8150000000005</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J21" s="18">
         <v>6459.5010000000002</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K21" s="21">
         <v>41.314</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="38">
+    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="22">
         <v>2023</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C22" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D22" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>471958.52600000001</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E22" s="25">
         <v>470075.826</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F22" s="25">
         <v>1882.7</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G22" s="25">
         <v>148684.78200000001</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H22" s="25">
         <v>11646.752</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I22" s="27">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6100.8280000000004</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J22" s="25">
         <v>6053.3130000000001</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K22" s="28">
         <v>47.515000000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="36">
+    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="15">
         <v>2023</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C23" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D23" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>445605.64600000001</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E23" s="18">
         <v>443787.57799999998</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F23" s="18">
         <v>1818.068</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G23" s="18">
         <v>146831.476</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H23" s="18">
         <v>7161.2819999999992</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I23" s="20">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6393.7270000000008</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J23" s="18">
         <v>6324.5640000000003</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K23" s="21">
         <v>69.163000000000011</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="38">
+    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="22">
         <v>2023</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C24" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D24" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>438617.83499999996</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E24" s="25">
         <v>436653.87099999998</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F24" s="25">
         <v>1963.9639999999999</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G24" s="25">
         <v>146066.30300000001</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H24" s="25">
         <v>6589.6929999999993</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I24" s="27">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7134.3119999999999</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J24" s="25">
         <v>7076.7709999999997</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K24" s="28">
         <v>57.540999999999997</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="36">
+    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="15">
         <v>2023</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C25" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D25" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>452626.13400000002</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E25" s="18">
         <v>450773.85800000001</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F25" s="18">
         <v>1852.2760000000001</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G25" s="18">
         <v>142422.533</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H25" s="18">
         <v>5892.4449999999997</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I25" s="20">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6515.2709999999997</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J25" s="18">
         <v>6469.5959999999995</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K25" s="21">
         <v>45.674999999999997</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="38">
+    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="22">
         <v>2023</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C26" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D26" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>474025.5</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E26" s="25">
         <v>471373.67300000001</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F26" s="25">
         <v>2651.8269999999998</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G26" s="25">
         <v>147034.883</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H26" s="25">
         <v>6186.35</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I26" s="27">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7697.951</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J26" s="25">
         <v>7624.7790000000005</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K26" s="28">
         <v>73.171999999999997</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="36">
+    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="15">
         <v>2023</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C27" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D27" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>418819.08400000003</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E27" s="18">
         <v>416951.092</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F27" s="18">
         <v>1867.9920000000002</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G27" s="18">
         <v>132657.08799999999</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H27" s="18">
         <v>4602.9769999999999</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I27" s="20">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6457.866</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J27" s="18">
         <v>6410.7969999999996</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K27" s="21">
         <v>47.069000000000003</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="40">
+    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="29">
         <v>2023</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C28" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D28" s="31">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>461982.14700000006</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E28" s="32">
         <v>459918.04600000003</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F28" s="32">
         <v>2064.1010000000001</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G28" s="32">
         <v>149629.198</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H28" s="32">
         <v>5197.7539999999999</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I28" s="33">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6489.6009999999997</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J28" s="32">
         <v>6439.6379999999999</v>
       </c>
-      <c r="K27" s="11">
+      <c r="K28" s="34">
         <v>49.963000000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="42">
+    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="35">
         <v>2022</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C29" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D29" s="37">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>490826.32500000001</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E29" s="38">
         <v>489000.86</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F29" s="38">
         <v>1825.4649999999999</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G29" s="38">
         <v>157413.09299999999</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H29" s="38">
         <v>4958.7839999999997</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I29" s="39">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7356.5429999999997</v>
       </c>
-      <c r="J28" s="23">
+      <c r="J29" s="38">
         <v>7305.0450000000001</v>
       </c>
-      <c r="K28" s="25">
+      <c r="K29" s="40">
         <v>51.497999999999998</v>
       </c>
     </row>
-    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="38">
+    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="22">
         <v>2022</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C30" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D30" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>443157.86400000006</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E30" s="25">
         <v>441195.48500000004</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F30" s="25">
         <v>1962.3790000000001</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G30" s="25">
         <v>150891.29999999999</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H30" s="25">
         <v>4915.8980000000001</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I30" s="27">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7236.4110000000001</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J30" s="25">
         <v>7161.7529999999997</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K30" s="28">
         <v>74.658000000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="36">
+    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="15">
         <v>2022</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C31" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D31" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>414809.23100000003</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E31" s="18">
         <v>412921.60700000002</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F31" s="18">
         <v>1887.624</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G31" s="18">
         <v>150805.27799999999</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H31" s="18">
         <v>4853.9489999999996</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I31" s="20">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6708.0059999999994</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J31" s="18">
         <v>6658.6229999999996</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K31" s="21">
         <v>49.383000000000003</v>
       </c>
     </row>
-    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="38">
+    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="22">
         <v>2022</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C32" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D32" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>387372.408</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E32" s="25">
         <v>385430.815</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F32" s="25">
         <v>1941.5929999999998</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G32" s="25">
         <v>146576.45300000001</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H32" s="25">
         <v>3809.2310000000002</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I32" s="27">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>5459.2980000000007</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J32" s="25">
         <v>5409.8770000000004</v>
       </c>
-      <c r="K31" s="9">
+      <c r="K32" s="28">
         <v>49.420999999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="36">
+    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="15">
         <v>2022</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C33" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D33" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>436832.37699999998</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E33" s="18">
         <v>434776.21399999998</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F33" s="18">
         <v>2056.163</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G33" s="18">
         <v>156853.56299999999</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H33" s="18">
         <v>2564.7890000000002</v>
       </c>
-      <c r="I32" s="16">
+      <c r="I33" s="20">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>5460.4780000000001</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J33" s="18">
         <v>5402.1080000000002</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K33" s="21">
         <v>58.37</v>
       </c>
     </row>
-    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="38">
+    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="22">
         <v>2022</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C34" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D34" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>448351.97599999997</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E34" s="25">
         <v>446503.61</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F34" s="25">
         <v>1848.366</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G34" s="25">
         <v>153622.307</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H34" s="25">
         <v>1060.989</v>
       </c>
-      <c r="I33" s="15">
+      <c r="I34" s="27">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>5119.0199999999995</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J34" s="25">
         <v>5070.4549999999999</v>
       </c>
-      <c r="K33" s="9">
+      <c r="K34" s="28">
         <v>48.564999999999998</v>
       </c>
     </row>
-    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="36">
+    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="15">
         <v>2022</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C35" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D35" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>416921.51799999998</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E35" s="18">
         <v>414947.446</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F35" s="18">
         <v>1974.0720000000001</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G35" s="18">
         <v>140586.55600000001</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H35" s="18">
         <v>853.44799999999998</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I35" s="20">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>4541.9560000000001</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J35" s="18">
         <v>4497.9610000000002</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K35" s="21">
         <v>43.994999999999997</v>
       </c>
     </row>
-    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="38">
+    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="22">
         <v>2022</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C36" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D36" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>424375.26299999998</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E36" s="25">
         <v>422374.98</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F36" s="25">
         <v>2000.2830000000001</v>
       </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="9"/>
-    </row>
-    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="36">
+      <c r="G36" s="25"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="28"/>
+    </row>
+    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="15">
         <v>2022</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C37" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D37" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>437218.36900000001</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E37" s="18">
         <v>435084.44699999999</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F37" s="18">
         <v>2133.922</v>
       </c>
-      <c r="G36" s="8"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="10"/>
-    </row>
-    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="38">
+      <c r="G37" s="18"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="21"/>
+    </row>
+    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="22">
         <v>2022</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C38" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D38" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>430084.12599999999</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E38" s="25">
         <v>427583.05499999999</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F38" s="25">
         <v>2501.0709999999999</v>
       </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="9"/>
-    </row>
-    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="36">
+      <c r="G38" s="25"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="28"/>
+    </row>
+    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="15">
         <v>2022</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="C39" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D39" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>358536.61100000003</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E39" s="18">
         <v>356535.05300000001</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F39" s="18">
         <v>2001.5580000000002</v>
       </c>
-      <c r="G38" s="8"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="10"/>
-    </row>
-    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="40">
+      <c r="G39" s="18"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="21"/>
+    </row>
+    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="29">
         <v>2022</v>
       </c>
-      <c r="C39" s="41" t="s">
+      <c r="C40" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D40" s="31">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>401925.429</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E40" s="32">
         <v>399729.82500000001</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F40" s="32">
         <v>2195.6039999999998</v>
       </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="11"/>
-    </row>
-    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="42">
+      <c r="G40" s="32"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="34"/>
+    </row>
+    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="35">
         <v>2021</v>
       </c>
-      <c r="C40" s="43" t="s">
+      <c r="C41" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D41" s="37">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>432897.13799999998</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E41" s="38">
         <v>430707.82799999998</v>
       </c>
-      <c r="F40" s="23">
+      <c r="F41" s="38">
         <v>2189.31</v>
       </c>
-      <c r="G40" s="23"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="25"/>
-    </row>
-    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="38">
+      <c r="G41" s="38"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="40"/>
+    </row>
+    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="22">
         <v>2021</v>
       </c>
-      <c r="C41" s="39" t="s">
+      <c r="C42" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="18">
+      <c r="D42" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>383033.76299999998</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E42" s="25">
         <v>380922.15399999998</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F42" s="25">
         <v>2111.6089999999999</v>
       </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="9"/>
-    </row>
-    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="36">
+      <c r="G42" s="25"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="28"/>
+    </row>
+    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="15">
         <v>2021</v>
       </c>
-      <c r="C42" s="37" t="s">
+      <c r="C43" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D43" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>358842.80099999998</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E43" s="18">
         <v>356760.12</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F43" s="18">
         <v>2082.681</v>
       </c>
-      <c r="G42" s="8"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="10"/>
-    </row>
-    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="38">
+      <c r="G43" s="18"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="21"/>
+    </row>
+    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="22">
         <v>2021</v>
       </c>
-      <c r="C43" s="39" t="s">
+      <c r="C44" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D44" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>321941.98300000001</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E44" s="25">
         <v>319890.413</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F44" s="25">
         <v>2051.5699999999997</v>
       </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="9"/>
-    </row>
-    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="36">
+      <c r="G44" s="25"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="28"/>
+    </row>
+    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="15">
         <v>2021</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="C45" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D45" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>363960.13899999997</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E45" s="18">
         <v>361966.45999999996</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F45" s="18">
         <v>1993.6790000000001</v>
       </c>
-      <c r="G44" s="8"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="10"/>
-    </row>
-    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="38">
+      <c r="G45" s="18"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="21"/>
+    </row>
+    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="22">
         <v>2021</v>
       </c>
-      <c r="C45" s="39" t="s">
+      <c r="C46" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D46" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>374695.174</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E46" s="25">
         <v>372625.397</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F46" s="25">
         <v>2069.777</v>
       </c>
-      <c r="G45" s="5"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="9"/>
-    </row>
-    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="36">
+      <c r="G46" s="25"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="28"/>
+    </row>
+    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="15">
         <v>2021</v>
       </c>
-      <c r="C46" s="37" t="s">
+      <c r="C47" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D47" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>334517.39600000001</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E47" s="18">
         <v>332552.66499999998</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F47" s="18">
         <v>1964.731</v>
       </c>
-      <c r="G46" s="8"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="10"/>
-    </row>
-    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="38">
+      <c r="G47" s="18"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="21"/>
+    </row>
+    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="22">
         <v>2021</v>
       </c>
-      <c r="C47" s="39" t="s">
+      <c r="C48" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D47" s="18">
+      <c r="D48" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>322630.61800000002</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E48" s="25">
         <v>320400.96000000002</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F48" s="25">
         <v>2229.6580000000004</v>
       </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="9"/>
-    </row>
-    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="36">
+      <c r="G48" s="25"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="28"/>
+    </row>
+    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="15">
         <v>2021</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C49" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D49" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>299222.027</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E49" s="18">
         <v>296903.73</v>
       </c>
-      <c r="F48" s="8">
+      <c r="F49" s="18">
         <v>2318.297</v>
       </c>
-      <c r="G48" s="8"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="10"/>
-    </row>
-    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="38">
+      <c r="G49" s="18"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="21"/>
+    </row>
+    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="22">
         <v>2021</v>
       </c>
-      <c r="C49" s="39" t="s">
+      <c r="C50" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D50" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>271328.42499999999</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E50" s="25">
         <v>268651.59499999997</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F50" s="25">
         <v>2676.83</v>
       </c>
-      <c r="G49" s="5"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="9"/>
-    </row>
-    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="36">
+      <c r="G50" s="25"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="28"/>
+    </row>
+    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="15">
         <v>2021</v>
       </c>
-      <c r="C50" s="37" t="s">
+      <c r="C51" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D51" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>222215.03899999999</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E51" s="18">
         <v>220246.12</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F51" s="18">
         <v>1968.9190000000001</v>
       </c>
-      <c r="G50" s="8"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="10"/>
-    </row>
-    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="40">
+      <c r="G51" s="18"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="21"/>
+    </row>
+    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="29">
         <v>2021</v>
       </c>
-      <c r="C51" s="41" t="s">
+      <c r="C52" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D51" s="20">
+      <c r="D52" s="31">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>272354.26800000004</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E52" s="32">
         <v>270211.59100000001</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F52" s="32">
         <v>2142.6770000000001</v>
       </c>
-      <c r="G51" s="7"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="11"/>
-    </row>
-    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="42">
+      <c r="G52" s="32"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="34"/>
+    </row>
+    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="35">
         <v>2020</v>
       </c>
-      <c r="C52" s="43" t="s">
+      <c r="C53" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D52" s="22">
+      <c r="D53" s="37">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>289863.19500000001</v>
       </c>
-      <c r="E52" s="23">
+      <c r="E53" s="38">
         <v>287659.50599999999</v>
       </c>
-      <c r="F52" s="23">
+      <c r="F53" s="38">
         <v>2203.6889999999999</v>
       </c>
-      <c r="G52" s="23"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="25"/>
-    </row>
-    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="38">
+      <c r="G53" s="38"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="40"/>
+    </row>
+    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="22">
         <v>2020</v>
       </c>
-      <c r="C53" s="39" t="s">
+      <c r="C54" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D53" s="18">
+      <c r="D54" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>228379.71699999998</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E54" s="25">
         <v>226637.46699999998</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F54" s="25">
         <v>1742.25</v>
       </c>
-      <c r="G53" s="5"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="9"/>
-    </row>
-    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="36">
+      <c r="G54" s="25"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="28"/>
+    </row>
+    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="15">
         <v>2020</v>
       </c>
-      <c r="C54" s="37" t="s">
+      <c r="C55" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D54" s="19">
+      <c r="D55" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>225796.75899999996</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E55" s="18">
         <v>223656.52399999998</v>
       </c>
-      <c r="F54" s="8">
+      <c r="F55" s="18">
         <v>2140.2350000000001</v>
       </c>
-      <c r="G54" s="8"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="10"/>
-    </row>
-    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="38">
+      <c r="G55" s="18"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="21"/>
+    </row>
+    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="22">
         <v>2020</v>
       </c>
-      <c r="C55" s="39" t="s">
+      <c r="C56" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D55" s="18">
+      <c r="D56" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>192359.82700000002</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E56" s="25">
         <v>190331.43100000001</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F56" s="25">
         <v>2028.396</v>
       </c>
-      <c r="G55" s="5"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="9"/>
-    </row>
-    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="36">
+      <c r="G56" s="25"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="28"/>
+    </row>
+    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="15">
         <v>2020</v>
       </c>
-      <c r="C56" s="37" t="s">
+      <c r="C57" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="19">
+      <c r="D57" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>184495.08899999998</v>
       </c>
-      <c r="E56" s="8">
+      <c r="E57" s="18">
         <v>182519.18599999999</v>
       </c>
-      <c r="F56" s="8">
+      <c r="F57" s="18">
         <v>1975.903</v>
       </c>
-      <c r="G56" s="8"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="10"/>
-    </row>
-    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="38">
+      <c r="G57" s="18"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="21"/>
+    </row>
+    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="22">
         <v>2020</v>
       </c>
-      <c r="C57" s="39" t="s">
+      <c r="C58" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D57" s="18">
+      <c r="D58" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>160167.435</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E58" s="25">
         <v>158161.66200000001</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F58" s="25">
         <v>2005.7730000000001</v>
       </c>
-      <c r="G57" s="5"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="9"/>
-    </row>
-    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="36">
+      <c r="G58" s="25"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="28"/>
+    </row>
+    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="15">
         <v>2020</v>
       </c>
-      <c r="C58" s="37" t="s">
+      <c r="C59" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="19">
+      <c r="D59" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>105511.976</v>
       </c>
-      <c r="E58" s="8">
+      <c r="E59" s="18">
         <v>103802.962</v>
       </c>
-      <c r="F58" s="8">
+      <c r="F59" s="18">
         <v>1709.0140000000001</v>
       </c>
-      <c r="G58" s="8"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="10"/>
-    </row>
-    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="38">
+      <c r="G59" s="18"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="21"/>
+    </row>
+    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="22">
         <v>2020</v>
       </c>
-      <c r="C59" s="39" t="s">
+      <c r="C60" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D59" s="18">
+      <c r="D60" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>69285.474000000002</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E60" s="25">
         <v>67702.22</v>
       </c>
-      <c r="F59" s="5">
+      <c r="F60" s="25">
         <v>1583.2539999999999</v>
       </c>
-      <c r="G59" s="5"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="9"/>
-    </row>
-    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="36">
+      <c r="G60" s="25"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="28"/>
+    </row>
+    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="15">
         <v>2020</v>
       </c>
-      <c r="C60" s="37" t="s">
+      <c r="C61" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D60" s="19">
+      <c r="D61" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>69532.992000000013</v>
       </c>
-      <c r="E60" s="8">
+      <c r="E61" s="18">
         <v>67898.813000000009</v>
       </c>
-      <c r="F60" s="8">
+      <c r="F61" s="18">
         <v>1634.1790000000001</v>
       </c>
-      <c r="G60" s="8"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="10"/>
-    </row>
-    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="38">
+      <c r="G61" s="18"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="21"/>
+    </row>
+    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="22">
         <v>2020</v>
       </c>
-      <c r="C61" s="39" t="s">
+      <c r="C62" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D61" s="18">
+      <c r="D62" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>334769.408</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E62" s="25">
         <v>332339.83399999997</v>
       </c>
-      <c r="F61" s="5">
+      <c r="F62" s="25">
         <v>2429.5740000000001</v>
       </c>
-      <c r="G61" s="5"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="9"/>
-    </row>
-    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="36">
+      <c r="G62" s="25"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="28"/>
+    </row>
+    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="15">
         <v>2020</v>
       </c>
-      <c r="C62" s="37" t="s">
+      <c r="C63" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D62" s="19">
+      <c r="D63" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>400050.22200000001</v>
       </c>
-      <c r="E62" s="8">
+      <c r="E63" s="18">
         <v>397843.09899999999</v>
       </c>
-      <c r="F62" s="8">
+      <c r="F63" s="18">
         <v>2207.123</v>
       </c>
-      <c r="G62" s="8"/>
-      <c r="I62" s="29"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="10"/>
-    </row>
-    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="40">
+      <c r="G63" s="18"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="21"/>
+    </row>
+    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="29">
         <v>2020</v>
       </c>
-      <c r="C63" s="41" t="s">
+      <c r="C64" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D63" s="20">
+      <c r="D64" s="31">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>439902.09</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E64" s="32">
         <v>437506.02900000004</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F64" s="32">
         <v>2396.0610000000001</v>
       </c>
-      <c r="G63" s="7"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="11"/>
-    </row>
-    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="42">
+      <c r="G64" s="32"/>
+      <c r="H64" s="44"/>
+      <c r="I64" s="45"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="34"/>
+    </row>
+    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="35">
         <v>2019</v>
       </c>
-      <c r="C64" s="43" t="s">
+      <c r="C65" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="22">
+      <c r="D65" s="37">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>440800</v>
       </c>
-      <c r="E64" s="23">
+      <c r="E65" s="38">
         <v>438700</v>
       </c>
-      <c r="F64" s="23">
+      <c r="F65" s="38">
         <v>2100</v>
       </c>
-      <c r="G64" s="23"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="32"/>
-      <c r="J64" s="23"/>
-      <c r="K64" s="25"/>
-    </row>
-    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="38">
+      <c r="G65" s="38"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="47"/>
+      <c r="J65" s="38"/>
+      <c r="K65" s="40"/>
+    </row>
+    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="22">
         <v>2019</v>
       </c>
-      <c r="C65" s="39" t="s">
+      <c r="C66" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D65" s="18">
+      <c r="D66" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>412300</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E66" s="25">
         <v>410400</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F66" s="25">
         <v>1900</v>
       </c>
-      <c r="G65" s="5"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="9"/>
-    </row>
-    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="36">
+      <c r="G66" s="25"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="28"/>
+    </row>
+    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="15">
         <v>2019</v>
       </c>
-      <c r="C66" s="37" t="s">
+      <c r="C67" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D66" s="19">
+      <c r="D67" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>397000</v>
       </c>
-      <c r="E66" s="8">
+      <c r="E67" s="18">
         <v>395000</v>
       </c>
-      <c r="F66" s="8">
+      <c r="F67" s="18">
         <v>2000</v>
       </c>
-      <c r="G66" s="8"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="10"/>
-    </row>
-    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="38">
+      <c r="G67" s="18"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="21"/>
+    </row>
+    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="22">
         <v>2019</v>
       </c>
-      <c r="C67" s="39" t="s">
+      <c r="C68" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D67" s="18">
+      <c r="D68" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>372500</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E68" s="25">
         <v>370700</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F68" s="25">
         <v>1800</v>
       </c>
-      <c r="G67" s="5"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="9"/>
-    </row>
-    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="36">
+      <c r="G68" s="25"/>
+      <c r="H68" s="41"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="28"/>
+    </row>
+    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="15">
         <v>2019</v>
       </c>
-      <c r="C68" s="37" t="s">
+      <c r="C69" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D68" s="19">
+      <c r="D69" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>430200</v>
       </c>
-      <c r="E68" s="8">
+      <c r="E69" s="18">
         <v>428200</v>
       </c>
-      <c r="F68" s="8">
+      <c r="F69" s="18">
         <v>2000</v>
       </c>
-      <c r="G68" s="8"/>
-      <c r="I68" s="29"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="10"/>
-    </row>
-    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="38">
+      <c r="G69" s="18"/>
+      <c r="I69" s="43"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="21"/>
+    </row>
+    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="22">
         <v>2019</v>
       </c>
-      <c r="C69" s="39" t="s">
+      <c r="C70" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D69" s="18">
+      <c r="D70" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>445000</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E70" s="25">
         <v>442800</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F70" s="25">
         <v>2200</v>
       </c>
-      <c r="G69" s="5"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="9"/>
-    </row>
-    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="36">
+      <c r="G70" s="25"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="28"/>
+    </row>
+    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="15">
         <v>2019</v>
       </c>
-      <c r="C70" s="37" t="s">
+      <c r="C71" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="19">
+      <c r="D71" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>415300</v>
       </c>
-      <c r="E70" s="8">
+      <c r="E71" s="18">
         <v>413200</v>
       </c>
-      <c r="F70" s="8">
+      <c r="F71" s="18">
         <v>2100</v>
       </c>
-      <c r="G70" s="8"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="10"/>
-    </row>
-    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="38">
+      <c r="G71" s="18"/>
+      <c r="I71" s="43"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="21"/>
+    </row>
+    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="22">
         <v>2019</v>
       </c>
-      <c r="C71" s="39" t="s">
+      <c r="C72" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D71" s="18">
+      <c r="D72" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>413700</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E72" s="25">
         <v>411500</v>
       </c>
-      <c r="F71" s="5">
+      <c r="F72" s="25">
         <v>2200</v>
       </c>
-      <c r="G71" s="5"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="9"/>
-    </row>
-    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="36">
+      <c r="G72" s="25"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="28"/>
+    </row>
+    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="15">
         <v>2019</v>
       </c>
-      <c r="C72" s="37" t="s">
+      <c r="C73" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D72" s="19">
+      <c r="D73" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>419400</v>
       </c>
-      <c r="E72" s="8">
+      <c r="E73" s="18">
         <v>417000</v>
       </c>
-      <c r="F72" s="8">
+      <c r="F73" s="18">
         <v>2400</v>
       </c>
-      <c r="G72" s="8"/>
-      <c r="I72" s="29"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="10"/>
-    </row>
-    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="38">
+      <c r="G73" s="18"/>
+      <c r="I73" s="43"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="21"/>
+    </row>
+    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="22">
         <v>2019</v>
       </c>
-      <c r="C73" s="39" t="s">
+      <c r="C74" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D73" s="18">
+      <c r="D74" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>426800</v>
       </c>
-      <c r="E73" s="5">
+      <c r="E74" s="25">
         <v>420000</v>
       </c>
-      <c r="F73" s="5">
+      <c r="F74" s="25">
         <v>6800</v>
       </c>
-      <c r="G73" s="5"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="27"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="9"/>
-    </row>
-    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="36">
+      <c r="G74" s="25"/>
+      <c r="H74" s="41"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="28"/>
+    </row>
+    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="15">
         <v>2019</v>
       </c>
-      <c r="C74" s="37" t="s">
+      <c r="C75" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="19">
+      <c r="D75" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>375100</v>
       </c>
-      <c r="E74" s="8">
+      <c r="E75" s="18">
         <v>372900</v>
       </c>
-      <c r="F74" s="8">
+      <c r="F75" s="18">
         <v>2200</v>
       </c>
-      <c r="G74" s="8"/>
-      <c r="I74" s="29"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="10"/>
-    </row>
-    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="40">
+      <c r="G75" s="18"/>
+      <c r="I75" s="43"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="21"/>
+    </row>
+    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="29">
         <v>2019</v>
       </c>
-      <c r="C75" s="41" t="s">
+      <c r="C76" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="20">
+      <c r="D76" s="31">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>420900</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E76" s="32">
         <v>418600</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F76" s="32">
         <v>2300</v>
       </c>
-      <c r="G75" s="7"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="30"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="11"/>
-    </row>
-    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="37">
+      <c r="G76" s="32"/>
+      <c r="H76" s="44"/>
+      <c r="I76" s="45"/>
+      <c r="J76" s="32"/>
+      <c r="K76" s="34"/>
+    </row>
+    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="16">
         <v>2018</v>
       </c>
-      <c r="C76" s="37" t="s">
+      <c r="C77" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="19">
+      <c r="D77" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>436100</v>
       </c>
-      <c r="E76" s="8">
+      <c r="E77" s="18">
         <v>434000</v>
       </c>
-      <c r="F76" s="8">
+      <c r="F77" s="18">
         <v>2100</v>
       </c>
-      <c r="G76" s="8"/>
-      <c r="I76" s="32"/>
-      <c r="J76" s="23"/>
-      <c r="K76" s="25"/>
-    </row>
-    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="39">
+      <c r="G77" s="18"/>
+      <c r="I77" s="47"/>
+      <c r="J77" s="38"/>
+      <c r="K77" s="40"/>
+    </row>
+    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="23">
         <v>2018</v>
       </c>
-      <c r="C77" s="39" t="s">
+      <c r="C78" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="18">
+      <c r="D78" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>406900</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E78" s="25">
         <v>404900</v>
       </c>
-      <c r="F77" s="5">
+      <c r="F78" s="25">
         <v>2000</v>
       </c>
-      <c r="G77" s="5"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="27"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="9"/>
-    </row>
-    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="37">
+      <c r="G78" s="25"/>
+      <c r="H78" s="41"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="25"/>
+      <c r="K78" s="28"/>
+    </row>
+    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="16">
         <v>2018</v>
       </c>
-      <c r="C78" s="37" t="s">
+      <c r="C79" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="19">
+      <c r="D79" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>391100</v>
       </c>
-      <c r="E78" s="8">
+      <c r="E79" s="18">
         <v>389100</v>
       </c>
-      <c r="F78" s="8">
+      <c r="F79" s="18">
         <v>2000</v>
       </c>
-      <c r="G78" s="8"/>
-      <c r="I78" s="29"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="10"/>
-    </row>
-    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="39">
+      <c r="G79" s="18"/>
+      <c r="I79" s="43"/>
+      <c r="J79" s="18"/>
+      <c r="K79" s="21"/>
+    </row>
+    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="23">
         <v>2018</v>
       </c>
-      <c r="C79" s="39" t="s">
+      <c r="C80" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="18">
+      <c r="D80" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>374300</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E80" s="25">
         <v>372300</v>
       </c>
-      <c r="F79" s="5">
+      <c r="F80" s="25">
         <v>2000</v>
       </c>
-      <c r="G79" s="5"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="27"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="9"/>
-    </row>
-    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="37">
+      <c r="G80" s="25"/>
+      <c r="H80" s="41"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="25"/>
+      <c r="K80" s="28"/>
+    </row>
+    <row r="81" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="16">
         <v>2018</v>
       </c>
-      <c r="C80" s="37" t="s">
+      <c r="C81" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D80" s="19">
+      <c r="D81" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>428800</v>
       </c>
-      <c r="E80" s="8">
+      <c r="E81" s="18">
         <v>426400</v>
       </c>
-      <c r="F80" s="8">
+      <c r="F81" s="18">
         <v>2400</v>
       </c>
-      <c r="G80" s="8"/>
-      <c r="I80" s="29"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="10"/>
-    </row>
-    <row r="81" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="39">
+      <c r="G81" s="18"/>
+      <c r="I81" s="43"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="21"/>
+    </row>
+    <row r="82" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="23">
         <v>2018</v>
       </c>
-      <c r="C81" s="39" t="s">
+      <c r="C82" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D81" s="18">
+      <c r="D82" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>446300</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E82" s="25">
         <v>444000</v>
       </c>
-      <c r="F81" s="5">
+      <c r="F82" s="25">
         <v>2300</v>
       </c>
-      <c r="G81" s="5"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="27"/>
-      <c r="J81" s="5"/>
-      <c r="K81" s="9"/>
-    </row>
-    <row r="82" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="37">
+      <c r="G82" s="25"/>
+      <c r="H82" s="41"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="25"/>
+      <c r="K82" s="28"/>
+    </row>
+    <row r="83" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="16">
         <v>2018</v>
       </c>
-      <c r="C82" s="37" t="s">
+      <c r="C83" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D82" s="19">
+      <c r="D83" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>411400</v>
       </c>
-      <c r="E82" s="8">
+      <c r="E83" s="18">
         <v>409400</v>
       </c>
-      <c r="F82" s="8">
+      <c r="F83" s="18">
         <v>2000</v>
       </c>
-      <c r="G82" s="8"/>
-      <c r="I82" s="29"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="10"/>
-    </row>
-    <row r="83" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="39">
+      <c r="G83" s="18"/>
+      <c r="I83" s="43"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="21"/>
+    </row>
+    <row r="84" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="23">
         <v>2018</v>
       </c>
-      <c r="C83" s="39" t="s">
+      <c r="C84" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D83" s="18">
+      <c r="D84" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>406200</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E84" s="25">
         <v>403800</v>
       </c>
-      <c r="F83" s="5">
+      <c r="F84" s="25">
         <v>2400</v>
       </c>
-      <c r="G83" s="5"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="27"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="9"/>
-    </row>
-    <row r="84" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="37">
+      <c r="G84" s="25"/>
+      <c r="H84" s="41"/>
+      <c r="I84" s="42"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="28"/>
+    </row>
+    <row r="85" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="16">
         <v>2018</v>
       </c>
-      <c r="C84" s="37" t="s">
+      <c r="C85" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D84" s="19">
+      <c r="D85" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>415400</v>
       </c>
-      <c r="E84" s="8">
+      <c r="E85" s="18">
         <v>413200</v>
       </c>
-      <c r="F84" s="8">
+      <c r="F85" s="18">
         <v>2200</v>
       </c>
-      <c r="G84" s="8"/>
-      <c r="I84" s="29"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="10"/>
-    </row>
-    <row r="85" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="39">
+      <c r="G85" s="18"/>
+      <c r="I85" s="43"/>
+      <c r="J85" s="18"/>
+      <c r="K85" s="21"/>
+    </row>
+    <row r="86" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="23">
         <v>2018</v>
       </c>
-      <c r="C85" s="39" t="s">
+      <c r="C86" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D85" s="18">
+      <c r="D86" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>444600</v>
       </c>
-      <c r="E85" s="5">
+      <c r="E86" s="25">
         <v>442100</v>
       </c>
-      <c r="F85" s="5">
+      <c r="F86" s="25">
         <v>2500</v>
       </c>
-      <c r="G85" s="5"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="27"/>
-      <c r="J85" s="5"/>
-      <c r="K85" s="9"/>
-    </row>
-    <row r="86" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="37">
+      <c r="G86" s="25"/>
+      <c r="H86" s="41"/>
+      <c r="I86" s="42"/>
+      <c r="J86" s="25"/>
+      <c r="K86" s="28"/>
+    </row>
+    <row r="87" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="16">
         <v>2018</v>
       </c>
-      <c r="C86" s="37" t="s">
+      <c r="C87" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D86" s="19">
+      <c r="D87" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>381500</v>
       </c>
-      <c r="E86" s="8">
+      <c r="E87" s="18">
         <v>379200</v>
       </c>
-      <c r="F86" s="8">
+      <c r="F87" s="18">
         <v>2300</v>
       </c>
-      <c r="G86" s="8"/>
-      <c r="I86" s="29"/>
-      <c r="J86" s="8"/>
-      <c r="K86" s="10"/>
-    </row>
-    <row r="87" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="39">
+      <c r="G87" s="18"/>
+      <c r="I87" s="43"/>
+      <c r="J87" s="18"/>
+      <c r="K87" s="21"/>
+    </row>
+    <row r="88" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="23">
         <v>2018</v>
       </c>
-      <c r="C87" s="39" t="s">
+      <c r="C88" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D87" s="18">
+      <c r="D88" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>427700</v>
       </c>
-      <c r="E87" s="5">
+      <c r="E88" s="25">
         <v>425500</v>
       </c>
-      <c r="F87" s="5">
+      <c r="F88" s="25">
         <v>2200</v>
       </c>
-      <c r="G87" s="5"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="30"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="11"/>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+      <c r="G88" s="25"/>
+      <c r="H88" s="41"/>
+      <c r="I88" s="45"/>
+      <c r="J88" s="32"/>
+      <c r="K88" s="34"/>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B89" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H88" s="8"/>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+      <c r="H89" s="18"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B90" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H89" s="8"/>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+      <c r="H90" s="18"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H90" s="8"/>
-      <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
+      <c r="H91" s="18"/>
+      <c r="K91" s="48"/>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B92" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="8"/>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B92" s="35" t="s">
+      <c r="H92" s="18"/>
+      <c r="K92" s="48"/>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B93" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="H92" s="8"/>
-    </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
+      <c r="H93" s="18"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B94" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H93" s="8"/>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
+      <c r="H94" s="18"/>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B95" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H94" s="8"/>
-    </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
+      <c r="H95" s="18"/>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B96" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H95" s="8"/>
-    </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
+      <c r="H96" s="18"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B97" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3252,7 +3394,7 @@
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="I4:K4"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Combustuble_A.xlsx
+++ b/Combustuble_A.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E998B2CC-FBAE-47BD-9FE9-B51588B8175B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DA3151-5EFC-4431-AD3D-68CFA8B62CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="39">
   <si>
     <t>AICM</t>
   </si>
@@ -149,7 +149,10 @@
     <t>ND</t>
   </si>
   <si>
-    <t>Actualización: Noviembre 2024.</t>
+    <t>ND No Disponible.</t>
+  </si>
+  <si>
+    <t>Actualización: Enero 2025.</t>
   </si>
 </sst>
 </file>
@@ -395,7 +398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -410,19 +413,10 @@
     <xf numFmtId="1" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -511,6 +505,32 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -778,8 +798,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:K88" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
-  <autoFilter ref="B5:K88" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:K90" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="B5:K90" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -1029,7 +1049,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:Z97"/>
+  <dimension ref="B2:Z100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1065,2327 +1085,2401 @@
     <row r="4" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9" t="s">
+      <c r="E4" s="48"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="8"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B6" s="22">
+      <c r="B6" s="51">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="53">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>438408.533</v>
+      </c>
+      <c r="E6" s="54">
+        <v>436339.908</v>
+      </c>
+      <c r="F6" s="54">
+        <v>2068.625</v>
+      </c>
+      <c r="G6" s="54">
+        <v>128458.55</v>
+      </c>
+      <c r="H6" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="56">
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
+        <v>8286.9150000000009</v>
+      </c>
+      <c r="J6" s="54">
+        <v>8219.5570000000007</v>
+      </c>
+      <c r="K6" s="54">
+        <v>67.358000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B7" s="12">
         <v>2024</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="14">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>449342.43200000003</v>
+      </c>
+      <c r="E7" s="15">
+        <v>447545.49900000001</v>
+      </c>
+      <c r="F7" s="15">
+        <v>1796.933</v>
+      </c>
+      <c r="G7" s="15">
+        <v>130985.44000000002</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="17">
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
+        <v>8869.9179999999997</v>
+      </c>
+      <c r="J7" s="15">
+        <v>8814.67</v>
+      </c>
+      <c r="K7" s="18">
+        <v>55.247999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B8" s="19">
+        <v>2024</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D8" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>414979.28399999999</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E8" s="22">
         <v>413228.45</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F8" s="22">
         <v>1750.8340000000001</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G8" s="22">
         <v>126056.84700000001</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H8" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I8" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8715.9350000000013</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J8" s="22">
         <v>8658.853000000001</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K8" s="22">
         <v>57.082000000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B7" s="15">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B9" s="12">
         <v>2024</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D9" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>382292.66800000001</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E9" s="15">
         <v>380502.94699999999</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F9" s="15">
         <v>1789.721</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G9" s="15">
         <v>127339.47199999999</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H9" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I9" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8275.6580000000013</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J9" s="15">
         <v>8207.1910000000007</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K9" s="18">
         <v>68.466999999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B8" s="22">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B10" s="19">
         <v>2024</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D10" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>355217.31699999998</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E10" s="22">
         <v>353694.88099999999</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F10" s="22">
         <v>1522.4359999999999</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G10" s="22">
         <v>123427.23999999999</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H10" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I10" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8123.1509999999998</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J10" s="22">
         <v>8080.4319999999998</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K10" s="22">
         <v>42.719000000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B9" s="15">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B11" s="12">
         <v>2024</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D11" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>410385.15499999997</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E11" s="15">
         <v>408646.99599999998</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F11" s="15">
         <v>1738.1590000000001</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G11" s="15">
         <v>134271.14299999998</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H11" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I11" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7554.09</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J11" s="15">
         <v>7485.5810000000001</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K11" s="15">
         <v>68.509</v>
       </c>
-      <c r="Z9" s="3" t="e">
+      <c r="Z11" s="3" t="e">
         <f>#REF!*1000</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B10" s="22">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B12" s="19">
         <v>2024</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D12" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>425598.28600000002</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E12" s="22">
         <v>423719.45600000001</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F12" s="22">
         <v>1878.83</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G12" s="22">
         <v>134103.45499999999</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H12" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I12" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6892.0260000000007</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J12" s="22">
         <v>6846.5480000000007</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K12" s="25">
         <v>45.477999999999994</v>
       </c>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B11" s="15">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B13" s="12">
         <v>2024</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D13" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>402694.15900000004</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E13" s="15">
         <v>401228.58</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F13" s="15">
         <v>1465.579</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G13" s="15">
         <v>130346.13999999998</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H13" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I13" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7673.4130000000005</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J13" s="15">
         <v>7627.335</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K13" s="18">
         <v>46.078000000000003</v>
       </c>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B12" s="22">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B14" s="19">
         <v>2024</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C14" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D14" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>420255.26899999997</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E14" s="22">
         <v>418249.16899999999</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F14" s="22">
         <v>2006.1</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G14" s="22">
         <v>132414.008</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="H14" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I14" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8118.799</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J14" s="22">
         <v>8068.768</v>
       </c>
-      <c r="K12" s="28">
+      <c r="K14" s="25">
         <v>50.030999999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B13" s="15">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B15" s="12">
         <v>2024</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D15" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>439431.40099999995</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E15" s="15">
         <v>437628.61099999998</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F15" s="15">
         <v>1802.79</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G15" s="15">
         <v>128736.15699999999</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H15" s="15">
         <v>14608.594000000001</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I15" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7934.7060000000001</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J15" s="15">
         <v>7869.5050000000001</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K15" s="18">
         <v>65.200999999999993</v>
       </c>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B14" s="22">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B16" s="19">
         <v>2024</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C16" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D16" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>484582.01799999992</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E16" s="22">
         <v>482370.14599999995</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F16" s="22">
         <v>2211.8719999999998</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G16" s="22">
         <v>132127.88800000001</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H16" s="22">
         <v>26118.722999999998</v>
       </c>
-      <c r="I14" s="27">
+      <c r="I16" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8232.1929999999993</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J16" s="22">
         <v>8188.4409999999989</v>
       </c>
-      <c r="K14" s="28">
+      <c r="K16" s="25">
         <v>43.752000000000002</v>
       </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B15" s="15">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B17" s="12">
         <v>2024</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D17" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>439514.446</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E17" s="15">
         <v>437434.21399999998</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F17" s="15">
         <v>2080.232</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G17" s="15">
         <v>121792.711</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H17" s="15">
         <v>23599.862999999998</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I17" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7101.8710000000001</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J17" s="15">
         <v>7037.6580000000004</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K17" s="18">
         <v>64.213000000000008</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B16" s="29">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B18" s="26">
         <v>2024</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C18" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D18" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>474317.27799999999</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E18" s="29">
         <v>472107.52999999997</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F18" s="29">
         <v>2209.748</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G18" s="29">
         <v>133551.829</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H18" s="29">
         <v>24093.275999999998</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I18" s="30">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6939.9099999999989</v>
       </c>
-      <c r="J16" s="32">
+      <c r="J18" s="29">
         <v>6885.6349999999993</v>
       </c>
-      <c r="K16" s="34">
+      <c r="K18" s="31">
         <v>54.274999999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="35">
+    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="32">
         <v>2023</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C19" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D19" s="34">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>497130.734</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E19" s="35">
         <v>495355.598</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F19" s="35">
         <v>1775.136</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G19" s="35">
         <v>141052.152</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H19" s="35">
         <v>24233.223999999998</v>
       </c>
-      <c r="I17" s="39">
+      <c r="I19" s="36">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6935.0720000000001</v>
       </c>
-      <c r="J17" s="38">
+      <c r="J19" s="35">
         <v>6907.192</v>
       </c>
-      <c r="K17" s="40">
+      <c r="K19" s="37">
         <v>27.88</v>
       </c>
     </row>
-    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="22">
+    <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="19">
         <v>2023</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C20" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D20" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>448851.103</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E20" s="22">
         <v>447174.89500000002</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F20" s="22">
         <v>1676.2079999999999</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G20" s="22">
         <v>133555.97700000001</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H20" s="22">
         <v>22508.399000000001</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I20" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7171.835</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J20" s="22">
         <v>7125.1350000000002</v>
       </c>
-      <c r="K18" s="28">
+      <c r="K20" s="25">
         <v>46.7</v>
       </c>
     </row>
-    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="15">
+    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="12">
         <v>2023</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C21" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D21" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>432477.60700000002</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E21" s="15">
         <v>430760.484</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F21" s="15">
         <v>1717.123</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G21" s="15">
         <v>135949.88099999999</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H21" s="15">
         <v>22848.071</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I21" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7518.7080000000005</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J21" s="15">
         <v>7461.4880000000003</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K21" s="18">
         <v>57.22</v>
       </c>
     </row>
-    <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="22">
+    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="19">
         <v>2023</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C22" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D22" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>403096.08900000004</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E22" s="22">
         <v>401473.96300000005</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F22" s="22">
         <v>1622.126</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G22" s="22">
         <v>130099.94800000002</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H22" s="22">
         <v>18583.999</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I22" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6008.808</v>
       </c>
-      <c r="J20" s="25">
+      <c r="J22" s="22">
         <v>5967.9129999999996</v>
       </c>
-      <c r="K20" s="28">
+      <c r="K22" s="25">
         <v>40.895000000000003</v>
       </c>
     </row>
-    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="15">
+    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="12">
         <v>2023</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C23" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D23" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>456592.212</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E23" s="15">
         <v>454830.98300000001</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F23" s="15">
         <v>1761.229</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G23" s="15">
         <v>143391.905</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H23" s="15">
         <v>16745.141</v>
       </c>
-      <c r="I21" s="20">
+      <c r="I23" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6500.8150000000005</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J23" s="15">
         <v>6459.5010000000002</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K23" s="18">
         <v>41.314</v>
       </c>
     </row>
-    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="22">
+    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="19">
         <v>2023</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C24" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D24" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>471958.52600000001</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E24" s="22">
         <v>470075.826</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F24" s="22">
         <v>1882.7</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G24" s="22">
         <v>148684.78200000001</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H24" s="22">
         <v>11646.752</v>
       </c>
-      <c r="I22" s="27">
+      <c r="I24" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6100.8280000000004</v>
       </c>
-      <c r="J22" s="25">
+      <c r="J24" s="22">
         <v>6053.3130000000001</v>
       </c>
-      <c r="K22" s="28">
+      <c r="K24" s="25">
         <v>47.515000000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="15">
+    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="12">
         <v>2023</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C25" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D25" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>445605.64600000001</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E25" s="15">
         <v>443787.57799999998</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F25" s="15">
         <v>1818.068</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G25" s="15">
         <v>146831.476</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H25" s="15">
         <v>7161.2819999999992</v>
       </c>
-      <c r="I23" s="20">
+      <c r="I25" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6393.7270000000008</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J25" s="15">
         <v>6324.5640000000003</v>
       </c>
-      <c r="K23" s="21">
+      <c r="K25" s="18">
         <v>69.163000000000011</v>
       </c>
     </row>
-    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="22">
+    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="19">
         <v>2023</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C26" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D26" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>438617.83499999996</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E26" s="22">
         <v>436653.87099999998</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F26" s="22">
         <v>1963.9639999999999</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G26" s="22">
         <v>146066.30300000001</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H26" s="22">
         <v>6589.6929999999993</v>
       </c>
-      <c r="I24" s="27">
+      <c r="I26" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7134.3119999999999</v>
       </c>
-      <c r="J24" s="25">
+      <c r="J26" s="22">
         <v>7076.7709999999997</v>
       </c>
-      <c r="K24" s="28">
+      <c r="K26" s="25">
         <v>57.540999999999997</v>
       </c>
     </row>
-    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="15">
+    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="12">
         <v>2023</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C27" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D27" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>452626.13400000002</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E27" s="15">
         <v>450773.85800000001</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F27" s="15">
         <v>1852.2760000000001</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G27" s="15">
         <v>142422.533</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H27" s="15">
         <v>5892.4449999999997</v>
       </c>
-      <c r="I25" s="20">
+      <c r="I27" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6515.2709999999997</v>
       </c>
-      <c r="J25" s="18">
+      <c r="J27" s="15">
         <v>6469.5959999999995</v>
       </c>
-      <c r="K25" s="21">
+      <c r="K27" s="18">
         <v>45.674999999999997</v>
       </c>
     </row>
-    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="22">
+    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="19">
         <v>2023</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C28" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D28" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>474025.5</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E28" s="22">
         <v>471373.67300000001</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F28" s="22">
         <v>2651.8269999999998</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G28" s="22">
         <v>147034.883</v>
       </c>
-      <c r="H26" s="25">
+      <c r="H28" s="22">
         <v>6186.35</v>
       </c>
-      <c r="I26" s="27">
+      <c r="I28" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7697.951</v>
       </c>
-      <c r="J26" s="25">
+      <c r="J28" s="22">
         <v>7624.7790000000005</v>
       </c>
-      <c r="K26" s="28">
+      <c r="K28" s="25">
         <v>73.171999999999997</v>
       </c>
     </row>
-    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="15">
+    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="12">
         <v>2023</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C29" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D29" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>418819.08400000003</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E29" s="15">
         <v>416951.092</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F29" s="15">
         <v>1867.9920000000002</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G29" s="15">
         <v>132657.08799999999</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H29" s="15">
         <v>4602.9769999999999</v>
       </c>
-      <c r="I27" s="20">
+      <c r="I29" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6457.866</v>
       </c>
-      <c r="J27" s="18">
+      <c r="J29" s="15">
         <v>6410.7969999999996</v>
       </c>
-      <c r="K27" s="21">
+      <c r="K29" s="18">
         <v>47.069000000000003</v>
       </c>
     </row>
-    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="29">
+    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="26">
         <v>2023</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C30" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="31">
+      <c r="D30" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>461982.14700000006</v>
       </c>
-      <c r="E28" s="32">
+      <c r="E30" s="29">
         <v>459918.04600000003</v>
       </c>
-      <c r="F28" s="32">
+      <c r="F30" s="29">
         <v>2064.1010000000001</v>
       </c>
-      <c r="G28" s="32">
+      <c r="G30" s="29">
         <v>149629.198</v>
       </c>
-      <c r="H28" s="32">
+      <c r="H30" s="29">
         <v>5197.7539999999999</v>
       </c>
-      <c r="I28" s="33">
+      <c r="I30" s="30">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6489.6009999999997</v>
       </c>
-      <c r="J28" s="32">
+      <c r="J30" s="29">
         <v>6439.6379999999999</v>
       </c>
-      <c r="K28" s="34">
+      <c r="K30" s="31">
         <v>49.963000000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="35">
+    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="32">
         <v>2022</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C31" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="37">
+      <c r="D31" s="34">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>490826.32500000001</v>
       </c>
-      <c r="E29" s="38">
+      <c r="E31" s="35">
         <v>489000.86</v>
       </c>
-      <c r="F29" s="38">
+      <c r="F31" s="35">
         <v>1825.4649999999999</v>
       </c>
-      <c r="G29" s="38">
+      <c r="G31" s="35">
         <v>157413.09299999999</v>
       </c>
-      <c r="H29" s="38">
+      <c r="H31" s="35">
         <v>4958.7839999999997</v>
       </c>
-      <c r="I29" s="39">
+      <c r="I31" s="36">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7356.5429999999997</v>
       </c>
-      <c r="J29" s="38">
+      <c r="J31" s="35">
         <v>7305.0450000000001</v>
       </c>
-      <c r="K29" s="40">
+      <c r="K31" s="37">
         <v>51.497999999999998</v>
       </c>
     </row>
-    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="22">
+    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="19">
         <v>2022</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C32" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D32" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>443157.86400000006</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E32" s="22">
         <v>441195.48500000004</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F32" s="22">
         <v>1962.3790000000001</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G32" s="22">
         <v>150891.29999999999</v>
       </c>
-      <c r="H30" s="25">
+      <c r="H32" s="22">
         <v>4915.8980000000001</v>
       </c>
-      <c r="I30" s="27">
+      <c r="I32" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7236.4110000000001</v>
       </c>
-      <c r="J30" s="25">
+      <c r="J32" s="22">
         <v>7161.7529999999997</v>
       </c>
-      <c r="K30" s="28">
+      <c r="K32" s="25">
         <v>74.658000000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="15">
+    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="12">
         <v>2022</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C33" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D33" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>414809.23100000003</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E33" s="15">
         <v>412921.60700000002</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F33" s="15">
         <v>1887.624</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G33" s="15">
         <v>150805.27799999999</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H33" s="15">
         <v>4853.9489999999996</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I33" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6708.0059999999994</v>
       </c>
-      <c r="J31" s="18">
+      <c r="J33" s="15">
         <v>6658.6229999999996</v>
       </c>
-      <c r="K31" s="21">
+      <c r="K33" s="18">
         <v>49.383000000000003</v>
       </c>
     </row>
-    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="22">
+    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="19">
         <v>2022</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C34" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D34" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>387372.408</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E34" s="22">
         <v>385430.815</v>
       </c>
-      <c r="F32" s="25">
+      <c r="F34" s="22">
         <v>1941.5929999999998</v>
       </c>
-      <c r="G32" s="25">
+      <c r="G34" s="22">
         <v>146576.45300000001</v>
       </c>
-      <c r="H32" s="25">
+      <c r="H34" s="22">
         <v>3809.2310000000002</v>
       </c>
-      <c r="I32" s="27">
+      <c r="I34" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>5459.2980000000007</v>
       </c>
-      <c r="J32" s="25">
+      <c r="J34" s="22">
         <v>5409.8770000000004</v>
       </c>
-      <c r="K32" s="28">
+      <c r="K34" s="25">
         <v>49.420999999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="15">
+    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="12">
         <v>2022</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C35" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D35" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>436832.37699999998</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E35" s="15">
         <v>434776.21399999998</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F35" s="15">
         <v>2056.163</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G35" s="15">
         <v>156853.56299999999</v>
       </c>
-      <c r="H33" s="18">
+      <c r="H35" s="15">
         <v>2564.7890000000002</v>
       </c>
-      <c r="I33" s="20">
+      <c r="I35" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>5460.4780000000001</v>
       </c>
-      <c r="J33" s="18">
+      <c r="J35" s="15">
         <v>5402.1080000000002</v>
       </c>
-      <c r="K33" s="21">
+      <c r="K35" s="18">
         <v>58.37</v>
       </c>
     </row>
-    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="22">
+    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="19">
         <v>2022</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C36" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D36" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>448351.97599999997</v>
       </c>
-      <c r="E34" s="25">
+      <c r="E36" s="22">
         <v>446503.61</v>
       </c>
-      <c r="F34" s="25">
+      <c r="F36" s="22">
         <v>1848.366</v>
       </c>
-      <c r="G34" s="25">
+      <c r="G36" s="22">
         <v>153622.307</v>
       </c>
-      <c r="H34" s="25">
+      <c r="H36" s="22">
         <v>1060.989</v>
       </c>
-      <c r="I34" s="27">
+      <c r="I36" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>5119.0199999999995</v>
       </c>
-      <c r="J34" s="25">
+      <c r="J36" s="22">
         <v>5070.4549999999999</v>
       </c>
-      <c r="K34" s="28">
+      <c r="K36" s="25">
         <v>48.564999999999998</v>
       </c>
     </row>
-    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="15">
+    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="12">
         <v>2022</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C37" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D37" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>416921.51799999998</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E37" s="15">
         <v>414947.446</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F37" s="15">
         <v>1974.0720000000001</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G37" s="15">
         <v>140586.55600000001</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H37" s="15">
         <v>853.44799999999998</v>
       </c>
-      <c r="I35" s="20">
+      <c r="I37" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>4541.9560000000001</v>
       </c>
-      <c r="J35" s="18">
+      <c r="J37" s="15">
         <v>4497.9610000000002</v>
       </c>
-      <c r="K35" s="21">
+      <c r="K37" s="18">
         <v>43.994999999999997</v>
       </c>
     </row>
-    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="22">
+    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="19">
         <v>2022</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C38" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="24">
+      <c r="D38" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>424375.26299999998</v>
       </c>
-      <c r="E36" s="25">
+      <c r="E38" s="22">
         <v>422374.98</v>
       </c>
-      <c r="F36" s="25">
+      <c r="F38" s="22">
         <v>2000.2830000000001</v>
       </c>
-      <c r="G36" s="25"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="28"/>
-    </row>
-    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="15">
+      <c r="G38" s="22"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="25"/>
+    </row>
+    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="12">
         <v>2022</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C39" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D39" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>437218.36900000001</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E39" s="15">
         <v>435084.44699999999</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F39" s="15">
         <v>2133.922</v>
       </c>
-      <c r="G37" s="18"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="21"/>
-    </row>
-    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="22">
+      <c r="G39" s="15"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="18"/>
+    </row>
+    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="19">
         <v>2022</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C40" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="24">
+      <c r="D40" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>430084.12599999999</v>
       </c>
-      <c r="E38" s="25">
+      <c r="E40" s="22">
         <v>427583.05499999999</v>
       </c>
-      <c r="F38" s="25">
+      <c r="F40" s="22">
         <v>2501.0709999999999</v>
       </c>
-      <c r="G38" s="25"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="28"/>
-    </row>
-    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="15">
+      <c r="G40" s="22"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="25"/>
+    </row>
+    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="12">
         <v>2022</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C41" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D41" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>358536.61100000003</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E41" s="15">
         <v>356535.05300000001</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F41" s="15">
         <v>2001.5580000000002</v>
       </c>
-      <c r="G39" s="18"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="21"/>
-    </row>
-    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="29">
+      <c r="G41" s="15"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="18"/>
+    </row>
+    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="26">
         <v>2022</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="C42" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="31">
+      <c r="D42" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>401925.429</v>
       </c>
-      <c r="E40" s="32">
+      <c r="E42" s="29">
         <v>399729.82500000001</v>
       </c>
-      <c r="F40" s="32">
+      <c r="F42" s="29">
         <v>2195.6039999999998</v>
       </c>
-      <c r="G40" s="32"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="34"/>
-    </row>
-    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="35">
-        <v>2021</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41" s="37">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>432897.13799999998</v>
-      </c>
-      <c r="E41" s="38">
-        <v>430707.82799999998</v>
-      </c>
-      <c r="F41" s="38">
-        <v>2189.31</v>
-      </c>
-      <c r="G41" s="38"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="40"/>
-    </row>
-    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="22">
-        <v>2021</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" s="24">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>383033.76299999998</v>
-      </c>
-      <c r="E42" s="25">
-        <v>380922.15399999998</v>
-      </c>
-      <c r="F42" s="25">
-        <v>2111.6089999999999</v>
-      </c>
-      <c r="G42" s="25"/>
+      <c r="G42" s="29"/>
       <c r="H42" s="41"/>
       <c r="I42" s="42"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="28"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="31"/>
     </row>
     <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="15">
+      <c r="B43" s="32">
         <v>2021</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="34">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>432897.13799999998</v>
+      </c>
+      <c r="E43" s="35">
+        <v>430707.82799999998</v>
+      </c>
+      <c r="F43" s="35">
+        <v>2189.31</v>
+      </c>
+      <c r="G43" s="35"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="37"/>
+    </row>
+    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="19">
+        <v>2021</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="21">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>383033.76299999998</v>
+      </c>
+      <c r="E44" s="22">
+        <v>380922.15399999998</v>
+      </c>
+      <c r="F44" s="22">
+        <v>2111.6089999999999</v>
+      </c>
+      <c r="G44" s="22"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="25"/>
+    </row>
+    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="12">
+        <v>2021</v>
+      </c>
+      <c r="C45" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D45" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>358842.80099999998</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E45" s="15">
         <v>356760.12</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F45" s="15">
         <v>2082.681</v>
       </c>
-      <c r="G43" s="18"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="21"/>
-    </row>
-    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="22">
+      <c r="G45" s="15"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="18"/>
+    </row>
+    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="19">
         <v>2021</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C46" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="24">
+      <c r="D46" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>321941.98300000001</v>
       </c>
-      <c r="E44" s="25">
+      <c r="E46" s="22">
         <v>319890.413</v>
       </c>
-      <c r="F44" s="25">
+      <c r="F46" s="22">
         <v>2051.5699999999997</v>
       </c>
-      <c r="G44" s="25"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="28"/>
-    </row>
-    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="15">
+      <c r="G46" s="22"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="25"/>
+    </row>
+    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="12">
         <v>2021</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C47" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D47" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>363960.13899999997</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E47" s="15">
         <v>361966.45999999996</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F47" s="15">
         <v>1993.6790000000001</v>
       </c>
-      <c r="G45" s="18"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="21"/>
-    </row>
-    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="22">
+      <c r="G47" s="15"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="18"/>
+    </row>
+    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="19">
         <v>2021</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C48" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="24">
+      <c r="D48" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>374695.174</v>
       </c>
-      <c r="E46" s="25">
+      <c r="E48" s="22">
         <v>372625.397</v>
       </c>
-      <c r="F46" s="25">
+      <c r="F48" s="22">
         <v>2069.777</v>
       </c>
-      <c r="G46" s="25"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="28"/>
-    </row>
-    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="15">
+      <c r="G48" s="22"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="25"/>
+    </row>
+    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="12">
         <v>2021</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C49" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D49" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>334517.39600000001</v>
       </c>
-      <c r="E47" s="18">
+      <c r="E49" s="15">
         <v>332552.66499999998</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F49" s="15">
         <v>1964.731</v>
       </c>
-      <c r="G47" s="18"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="21"/>
-    </row>
-    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="22">
+      <c r="G49" s="15"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="18"/>
+    </row>
+    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="19">
         <v>2021</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C50" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="24">
+      <c r="D50" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>322630.61800000002</v>
       </c>
-      <c r="E48" s="25">
+      <c r="E50" s="22">
         <v>320400.96000000002</v>
       </c>
-      <c r="F48" s="25">
+      <c r="F50" s="22">
         <v>2229.6580000000004</v>
       </c>
-      <c r="G48" s="25"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="28"/>
-    </row>
-    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="15">
+      <c r="G50" s="22"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="25"/>
+    </row>
+    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="12">
         <v>2021</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C51" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D51" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>299222.027</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E51" s="15">
         <v>296903.73</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F51" s="15">
         <v>2318.297</v>
       </c>
-      <c r="G49" s="18"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="21"/>
-    </row>
-    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="22">
+      <c r="G51" s="15"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="18"/>
+    </row>
+    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="19">
         <v>2021</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C52" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D50" s="24">
+      <c r="D52" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>271328.42499999999</v>
       </c>
-      <c r="E50" s="25">
+      <c r="E52" s="22">
         <v>268651.59499999997</v>
       </c>
-      <c r="F50" s="25">
+      <c r="F52" s="22">
         <v>2676.83</v>
       </c>
-      <c r="G50" s="25"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="28"/>
-    </row>
-    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="15">
+      <c r="G52" s="22"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="25"/>
+    </row>
+    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="12">
         <v>2021</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C53" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D51" s="17">
+      <c r="D53" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>222215.03899999999</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E53" s="15">
         <v>220246.12</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F53" s="15">
         <v>1968.9190000000001</v>
       </c>
-      <c r="G51" s="18"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="21"/>
-    </row>
-    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="29">
+      <c r="G53" s="15"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="18"/>
+    </row>
+    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="26">
         <v>2021</v>
       </c>
-      <c r="C52" s="30" t="s">
+      <c r="C54" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D52" s="31">
+      <c r="D54" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>272354.26800000004</v>
       </c>
-      <c r="E52" s="32">
+      <c r="E54" s="29">
         <v>270211.59100000001</v>
       </c>
-      <c r="F52" s="32">
+      <c r="F54" s="29">
         <v>2142.6770000000001</v>
       </c>
-      <c r="G52" s="32"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="45"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="34"/>
-    </row>
-    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="35">
-        <v>2020</v>
-      </c>
-      <c r="C53" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="D53" s="37">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>289863.19500000001</v>
-      </c>
-      <c r="E53" s="38">
-        <v>287659.50599999999</v>
-      </c>
-      <c r="F53" s="38">
-        <v>2203.6889999999999</v>
-      </c>
-      <c r="G53" s="38"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="40"/>
-    </row>
-    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="22">
-        <v>2020</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D54" s="24">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>228379.71699999998</v>
-      </c>
-      <c r="E54" s="25">
-        <v>226637.46699999998</v>
-      </c>
-      <c r="F54" s="25">
-        <v>1742.25</v>
-      </c>
-      <c r="G54" s="25"/>
+      <c r="G54" s="29"/>
       <c r="H54" s="41"/>
       <c r="I54" s="42"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="28"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="31"/>
     </row>
     <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="15">
+      <c r="B55" s="32">
         <v>2020</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="34">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>289863.19500000001</v>
+      </c>
+      <c r="E55" s="35">
+        <v>287659.50599999999</v>
+      </c>
+      <c r="F55" s="35">
+        <v>2203.6889999999999</v>
+      </c>
+      <c r="G55" s="35"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="37"/>
+    </row>
+    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="19">
+        <v>2020</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" s="21">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>228379.71699999998</v>
+      </c>
+      <c r="E56" s="22">
+        <v>226637.46699999998</v>
+      </c>
+      <c r="F56" s="22">
+        <v>1742.25</v>
+      </c>
+      <c r="G56" s="22"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="25"/>
+    </row>
+    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="12">
+        <v>2020</v>
+      </c>
+      <c r="C57" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D57" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>225796.75899999996</v>
       </c>
-      <c r="E55" s="18">
+      <c r="E57" s="15">
         <v>223656.52399999998</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F57" s="15">
         <v>2140.2350000000001</v>
       </c>
-      <c r="G55" s="18"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="21"/>
-    </row>
-    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="22">
+      <c r="G57" s="15"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="18"/>
+    </row>
+    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="19">
         <v>2020</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C58" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D56" s="24">
+      <c r="D58" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>192359.82700000002</v>
       </c>
-      <c r="E56" s="25">
+      <c r="E58" s="22">
         <v>190331.43100000001</v>
       </c>
-      <c r="F56" s="25">
+      <c r="F58" s="22">
         <v>2028.396</v>
       </c>
-      <c r="G56" s="25"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="28"/>
-    </row>
-    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="15">
+      <c r="G58" s="22"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="25"/>
+    </row>
+    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="12">
         <v>2020</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C59" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="17">
+      <c r="D59" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>184495.08899999998</v>
       </c>
-      <c r="E57" s="18">
+      <c r="E59" s="15">
         <v>182519.18599999999</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F59" s="15">
         <v>1975.903</v>
       </c>
-      <c r="G57" s="18"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="21"/>
-    </row>
-    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="22">
+      <c r="G59" s="15"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="18"/>
+    </row>
+    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="19">
         <v>2020</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C60" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D58" s="24">
+      <c r="D60" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>160167.435</v>
       </c>
-      <c r="E58" s="25">
+      <c r="E60" s="22">
         <v>158161.66200000001</v>
       </c>
-      <c r="F58" s="25">
+      <c r="F60" s="22">
         <v>2005.7730000000001</v>
       </c>
-      <c r="G58" s="25"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="28"/>
-    </row>
-    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="15">
+      <c r="G60" s="22"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="25"/>
+    </row>
+    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="12">
         <v>2020</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C61" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="17">
+      <c r="D61" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>105511.976</v>
       </c>
-      <c r="E59" s="18">
+      <c r="E61" s="15">
         <v>103802.962</v>
       </c>
-      <c r="F59" s="18">
+      <c r="F61" s="15">
         <v>1709.0140000000001</v>
       </c>
-      <c r="G59" s="18"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="21"/>
-    </row>
-    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="22">
+      <c r="G61" s="15"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="18"/>
+    </row>
+    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="19">
         <v>2020</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="C62" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D60" s="24">
+      <c r="D62" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>69285.474000000002</v>
       </c>
-      <c r="E60" s="25">
+      <c r="E62" s="22">
         <v>67702.22</v>
       </c>
-      <c r="F60" s="25">
+      <c r="F62" s="22">
         <v>1583.2539999999999</v>
       </c>
-      <c r="G60" s="25"/>
-      <c r="H60" s="41"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="28"/>
-    </row>
-    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="15">
+      <c r="G62" s="22"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="25"/>
+    </row>
+    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="12">
         <v>2020</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C63" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D61" s="17">
+      <c r="D63" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>69532.992000000013</v>
       </c>
-      <c r="E61" s="18">
+      <c r="E63" s="15">
         <v>67898.813000000009</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F63" s="15">
         <v>1634.1790000000001</v>
       </c>
-      <c r="G61" s="18"/>
-      <c r="I61" s="43"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="21"/>
-    </row>
-    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="22">
+      <c r="G63" s="15"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="18"/>
+    </row>
+    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="19">
         <v>2020</v>
       </c>
-      <c r="C62" s="23" t="s">
+      <c r="C64" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D62" s="24">
+      <c r="D64" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>334769.408</v>
       </c>
-      <c r="E62" s="25">
+      <c r="E64" s="22">
         <v>332339.83399999997</v>
       </c>
-      <c r="F62" s="25">
+      <c r="F64" s="22">
         <v>2429.5740000000001</v>
       </c>
-      <c r="G62" s="25"/>
-      <c r="H62" s="41"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="28"/>
-    </row>
-    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="15">
+      <c r="G64" s="22"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="25"/>
+    </row>
+    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="12">
         <v>2020</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C65" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D63" s="17">
+      <c r="D65" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>400050.22200000001</v>
       </c>
-      <c r="E63" s="18">
+      <c r="E65" s="15">
         <v>397843.09899999999</v>
       </c>
-      <c r="F63" s="18">
+      <c r="F65" s="15">
         <v>2207.123</v>
       </c>
-      <c r="G63" s="18"/>
-      <c r="I63" s="43"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="21"/>
-    </row>
-    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="29">
+      <c r="G65" s="15"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="18"/>
+    </row>
+    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="26">
         <v>2020</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="C66" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D64" s="31">
+      <c r="D66" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>439902.09</v>
       </c>
-      <c r="E64" s="32">
+      <c r="E66" s="29">
         <v>437506.02900000004</v>
       </c>
-      <c r="F64" s="32">
+      <c r="F66" s="29">
         <v>2396.0610000000001</v>
       </c>
-      <c r="G64" s="32"/>
-      <c r="H64" s="44"/>
-      <c r="I64" s="45"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="34"/>
-    </row>
-    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="35">
-        <v>2019</v>
-      </c>
-      <c r="C65" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="D65" s="37">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>440800</v>
-      </c>
-      <c r="E65" s="38">
-        <v>438700</v>
-      </c>
-      <c r="F65" s="38">
-        <v>2100</v>
-      </c>
-      <c r="G65" s="38"/>
-      <c r="H65" s="46"/>
-      <c r="I65" s="47"/>
-      <c r="J65" s="38"/>
-      <c r="K65" s="40"/>
-    </row>
-    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="22">
-        <v>2019</v>
-      </c>
-      <c r="C66" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D66" s="24">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>412300</v>
-      </c>
-      <c r="E66" s="25">
-        <v>410400</v>
-      </c>
-      <c r="F66" s="25">
-        <v>1900</v>
-      </c>
-      <c r="G66" s="25"/>
+      <c r="G66" s="29"/>
       <c r="H66" s="41"/>
       <c r="I66" s="42"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="28"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="31"/>
     </row>
     <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="15">
+      <c r="B67" s="32">
         <v>2019</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67" s="34">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>440800</v>
+      </c>
+      <c r="E67" s="35">
+        <v>438700</v>
+      </c>
+      <c r="F67" s="35">
+        <v>2100</v>
+      </c>
+      <c r="G67" s="35"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="44"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="37"/>
+    </row>
+    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="19">
+        <v>2019</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68" s="21">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>412300</v>
+      </c>
+      <c r="E68" s="22">
+        <v>410400</v>
+      </c>
+      <c r="F68" s="22">
+        <v>1900</v>
+      </c>
+      <c r="G68" s="22"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="25"/>
+    </row>
+    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C69" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D67" s="17">
+      <c r="D69" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>397000</v>
       </c>
-      <c r="E67" s="18">
+      <c r="E69" s="15">
         <v>395000</v>
       </c>
-      <c r="F67" s="18">
+      <c r="F69" s="15">
         <v>2000</v>
       </c>
-      <c r="G67" s="18"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="21"/>
-    </row>
-    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="22">
+      <c r="G69" s="15"/>
+      <c r="I69" s="40"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="18"/>
+    </row>
+    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="19">
         <v>2019</v>
       </c>
-      <c r="C68" s="23" t="s">
+      <c r="C70" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D68" s="24">
+      <c r="D70" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>372500</v>
       </c>
-      <c r="E68" s="25">
+      <c r="E70" s="22">
         <v>370700</v>
       </c>
-      <c r="F68" s="25">
+      <c r="F70" s="22">
         <v>1800</v>
       </c>
-      <c r="G68" s="25"/>
-      <c r="H68" s="41"/>
-      <c r="I68" s="42"/>
-      <c r="J68" s="25"/>
-      <c r="K68" s="28"/>
-    </row>
-    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="15">
+      <c r="G70" s="22"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="25"/>
+    </row>
+    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="12">
         <v>2019</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C71" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D69" s="17">
+      <c r="D71" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>430200</v>
       </c>
-      <c r="E69" s="18">
+      <c r="E71" s="15">
         <v>428200</v>
       </c>
-      <c r="F69" s="18">
+      <c r="F71" s="15">
         <v>2000</v>
       </c>
-      <c r="G69" s="18"/>
-      <c r="I69" s="43"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="21"/>
-    </row>
-    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="22">
+      <c r="G71" s="15"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="18"/>
+    </row>
+    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="19">
         <v>2019</v>
       </c>
-      <c r="C70" s="23" t="s">
+      <c r="C72" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D70" s="24">
+      <c r="D72" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>445000</v>
       </c>
-      <c r="E70" s="25">
+      <c r="E72" s="22">
         <v>442800</v>
       </c>
-      <c r="F70" s="25">
+      <c r="F72" s="22">
         <v>2200</v>
       </c>
-      <c r="G70" s="25"/>
-      <c r="H70" s="41"/>
-      <c r="I70" s="42"/>
-      <c r="J70" s="25"/>
-      <c r="K70" s="28"/>
-    </row>
-    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="15">
+      <c r="G72" s="22"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="39"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="25"/>
+    </row>
+    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="12">
         <v>2019</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C73" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D71" s="17">
+      <c r="D73" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>415300</v>
       </c>
-      <c r="E71" s="18">
+      <c r="E73" s="15">
         <v>413200</v>
       </c>
-      <c r="F71" s="18">
+      <c r="F73" s="15">
         <v>2100</v>
       </c>
-      <c r="G71" s="18"/>
-      <c r="I71" s="43"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="21"/>
-    </row>
-    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="22">
+      <c r="G73" s="15"/>
+      <c r="I73" s="40"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="18"/>
+    </row>
+    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="19">
         <v>2019</v>
       </c>
-      <c r="C72" s="23" t="s">
+      <c r="C74" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D72" s="24">
+      <c r="D74" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>413700</v>
       </c>
-      <c r="E72" s="25">
+      <c r="E74" s="22">
         <v>411500</v>
       </c>
-      <c r="F72" s="25">
+      <c r="F74" s="22">
         <v>2200</v>
       </c>
-      <c r="G72" s="25"/>
-      <c r="H72" s="41"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="28"/>
-    </row>
-    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="15">
+      <c r="G74" s="22"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="39"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="25"/>
+    </row>
+    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="12">
         <v>2019</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C75" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D73" s="17">
+      <c r="D75" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>419400</v>
       </c>
-      <c r="E73" s="18">
+      <c r="E75" s="15">
         <v>417000</v>
       </c>
-      <c r="F73" s="18">
+      <c r="F75" s="15">
         <v>2400</v>
       </c>
-      <c r="G73" s="18"/>
-      <c r="I73" s="43"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="21"/>
-    </row>
-    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="22">
+      <c r="G75" s="15"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="18"/>
+    </row>
+    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="19">
         <v>2019</v>
       </c>
-      <c r="C74" s="23" t="s">
+      <c r="C76" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D74" s="24">
+      <c r="D76" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>426800</v>
       </c>
-      <c r="E74" s="25">
+      <c r="E76" s="22">
         <v>420000</v>
       </c>
-      <c r="F74" s="25">
+      <c r="F76" s="22">
         <v>6800</v>
       </c>
-      <c r="G74" s="25"/>
-      <c r="H74" s="41"/>
-      <c r="I74" s="42"/>
-      <c r="J74" s="25"/>
-      <c r="K74" s="28"/>
-    </row>
-    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="15">
+      <c r="G76" s="22"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="39"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="25"/>
+    </row>
+    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="12">
         <v>2019</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C77" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D75" s="17">
+      <c r="D77" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>375100</v>
       </c>
-      <c r="E75" s="18">
+      <c r="E77" s="15">
         <v>372900</v>
       </c>
-      <c r="F75" s="18">
+      <c r="F77" s="15">
         <v>2200</v>
       </c>
-      <c r="G75" s="18"/>
-      <c r="I75" s="43"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="21"/>
-    </row>
-    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="29">
+      <c r="G77" s="15"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="18"/>
+    </row>
+    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="26">
         <v>2019</v>
       </c>
-      <c r="C76" s="30" t="s">
+      <c r="C78" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D76" s="31">
+      <c r="D78" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>420900</v>
       </c>
-      <c r="E76" s="32">
+      <c r="E78" s="29">
         <v>418600</v>
       </c>
-      <c r="F76" s="32">
+      <c r="F78" s="29">
         <v>2300</v>
       </c>
-      <c r="G76" s="32"/>
-      <c r="H76" s="44"/>
-      <c r="I76" s="45"/>
-      <c r="J76" s="32"/>
-      <c r="K76" s="34"/>
-    </row>
-    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="16">
-        <v>2018</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D77" s="17">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>436100</v>
-      </c>
-      <c r="E77" s="18">
-        <v>434000</v>
-      </c>
-      <c r="F77" s="18">
-        <v>2100</v>
-      </c>
-      <c r="G77" s="18"/>
-      <c r="I77" s="47"/>
-      <c r="J77" s="38"/>
-      <c r="K77" s="40"/>
-    </row>
-    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="23">
-        <v>2018</v>
-      </c>
-      <c r="C78" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D78" s="24">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>406900</v>
-      </c>
-      <c r="E78" s="25">
-        <v>404900</v>
-      </c>
-      <c r="F78" s="25">
-        <v>2000</v>
-      </c>
-      <c r="G78" s="25"/>
+      <c r="G78" s="29"/>
       <c r="H78" s="41"/>
       <c r="I78" s="42"/>
-      <c r="J78" s="25"/>
-      <c r="K78" s="28"/>
+      <c r="J78" s="29"/>
+      <c r="K78" s="31"/>
     </row>
     <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="16">
+      <c r="B79" s="13">
         <v>2018</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="C79" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" s="14">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>436100</v>
+      </c>
+      <c r="E79" s="15">
+        <v>434000</v>
+      </c>
+      <c r="F79" s="15">
+        <v>2100</v>
+      </c>
+      <c r="G79" s="15"/>
+      <c r="I79" s="44"/>
+      <c r="J79" s="35"/>
+      <c r="K79" s="37"/>
+    </row>
+    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="20">
+        <v>2018</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80" s="21">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>406900</v>
+      </c>
+      <c r="E80" s="22">
+        <v>404900</v>
+      </c>
+      <c r="F80" s="22">
+        <v>2000</v>
+      </c>
+      <c r="G80" s="22"/>
+      <c r="H80" s="38"/>
+      <c r="I80" s="39"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="25"/>
+    </row>
+    <row r="81" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="13">
+        <v>2018</v>
+      </c>
+      <c r="C81" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D79" s="17">
+      <c r="D81" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>391100</v>
       </c>
-      <c r="E79" s="18">
+      <c r="E81" s="15">
         <v>389100</v>
       </c>
-      <c r="F79" s="18">
+      <c r="F81" s="15">
         <v>2000</v>
       </c>
-      <c r="G79" s="18"/>
-      <c r="I79" s="43"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="21"/>
-    </row>
-    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="23">
+      <c r="G81" s="15"/>
+      <c r="I81" s="40"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="18"/>
+    </row>
+    <row r="82" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="20">
         <v>2018</v>
       </c>
-      <c r="C80" s="23" t="s">
+      <c r="C82" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D80" s="24">
+      <c r="D82" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>374300</v>
       </c>
-      <c r="E80" s="25">
+      <c r="E82" s="22">
         <v>372300</v>
       </c>
-      <c r="F80" s="25">
+      <c r="F82" s="22">
         <v>2000</v>
       </c>
-      <c r="G80" s="25"/>
-      <c r="H80" s="41"/>
-      <c r="I80" s="42"/>
-      <c r="J80" s="25"/>
-      <c r="K80" s="28"/>
-    </row>
-    <row r="81" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="16">
+      <c r="G82" s="22"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="39"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="25"/>
+    </row>
+    <row r="83" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="13">
         <v>2018</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C83" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D81" s="17">
+      <c r="D83" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>428800</v>
       </c>
-      <c r="E81" s="18">
+      <c r="E83" s="15">
         <v>426400</v>
       </c>
-      <c r="F81" s="18">
+      <c r="F83" s="15">
         <v>2400</v>
       </c>
-      <c r="G81" s="18"/>
-      <c r="I81" s="43"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="21"/>
-    </row>
-    <row r="82" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="23">
+      <c r="G83" s="15"/>
+      <c r="I83" s="40"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="18"/>
+    </row>
+    <row r="84" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="20">
         <v>2018</v>
       </c>
-      <c r="C82" s="23" t="s">
+      <c r="C84" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D82" s="24">
+      <c r="D84" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>446300</v>
       </c>
-      <c r="E82" s="25">
+      <c r="E84" s="22">
         <v>444000</v>
       </c>
-      <c r="F82" s="25">
+      <c r="F84" s="22">
         <v>2300</v>
       </c>
-      <c r="G82" s="25"/>
-      <c r="H82" s="41"/>
-      <c r="I82" s="42"/>
-      <c r="J82" s="25"/>
-      <c r="K82" s="28"/>
-    </row>
-    <row r="83" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="16">
+      <c r="G84" s="22"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="25"/>
+    </row>
+    <row r="85" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="13">
         <v>2018</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C85" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D83" s="17">
+      <c r="D85" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>411400</v>
       </c>
-      <c r="E83" s="18">
+      <c r="E85" s="15">
         <v>409400</v>
       </c>
-      <c r="F83" s="18">
+      <c r="F85" s="15">
         <v>2000</v>
       </c>
-      <c r="G83" s="18"/>
-      <c r="I83" s="43"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="21"/>
-    </row>
-    <row r="84" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="23">
+      <c r="G85" s="15"/>
+      <c r="I85" s="40"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="18"/>
+    </row>
+    <row r="86" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="20">
         <v>2018</v>
       </c>
-      <c r="C84" s="23" t="s">
+      <c r="C86" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D84" s="24">
+      <c r="D86" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>406200</v>
       </c>
-      <c r="E84" s="25">
+      <c r="E86" s="22">
         <v>403800</v>
       </c>
-      <c r="F84" s="25">
+      <c r="F86" s="22">
         <v>2400</v>
       </c>
-      <c r="G84" s="25"/>
-      <c r="H84" s="41"/>
-      <c r="I84" s="42"/>
-      <c r="J84" s="25"/>
-      <c r="K84" s="28"/>
-    </row>
-    <row r="85" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="16">
+      <c r="G86" s="22"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="39"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="25"/>
+    </row>
+    <row r="87" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="13">
         <v>2018</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C87" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D85" s="17">
+      <c r="D87" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>415400</v>
       </c>
-      <c r="E85" s="18">
+      <c r="E87" s="15">
         <v>413200</v>
       </c>
-      <c r="F85" s="18">
+      <c r="F87" s="15">
         <v>2200</v>
       </c>
-      <c r="G85" s="18"/>
-      <c r="I85" s="43"/>
-      <c r="J85" s="18"/>
-      <c r="K85" s="21"/>
-    </row>
-    <row r="86" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="23">
+      <c r="G87" s="15"/>
+      <c r="I87" s="40"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="18"/>
+    </row>
+    <row r="88" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="20">
         <v>2018</v>
       </c>
-      <c r="C86" s="23" t="s">
+      <c r="C88" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D86" s="24">
+      <c r="D88" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>444600</v>
       </c>
-      <c r="E86" s="25">
+      <c r="E88" s="22">
         <v>442100</v>
       </c>
-      <c r="F86" s="25">
+      <c r="F88" s="22">
         <v>2500</v>
       </c>
-      <c r="G86" s="25"/>
-      <c r="H86" s="41"/>
-      <c r="I86" s="42"/>
-      <c r="J86" s="25"/>
-      <c r="K86" s="28"/>
-    </row>
-    <row r="87" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="16">
+      <c r="G88" s="22"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="39"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="25"/>
+    </row>
+    <row r="89" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="13">
         <v>2018</v>
       </c>
-      <c r="C87" s="16" t="s">
+      <c r="C89" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D87" s="17">
+      <c r="D89" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>381500</v>
       </c>
-      <c r="E87" s="18">
+      <c r="E89" s="15">
         <v>379200</v>
       </c>
-      <c r="F87" s="18">
+      <c r="F89" s="15">
         <v>2300</v>
       </c>
-      <c r="G87" s="18"/>
-      <c r="I87" s="43"/>
-      <c r="J87" s="18"/>
-      <c r="K87" s="21"/>
-    </row>
-    <row r="88" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="23">
+      <c r="G89" s="15"/>
+      <c r="I89" s="40"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="18"/>
+    </row>
+    <row r="90" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B90" s="20">
         <v>2018</v>
       </c>
-      <c r="C88" s="23" t="s">
+      <c r="C90" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D88" s="24">
+      <c r="D90" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>427700</v>
       </c>
-      <c r="E88" s="25">
+      <c r="E90" s="22">
         <v>425500</v>
       </c>
-      <c r="F88" s="25">
+      <c r="F90" s="22">
         <v>2200</v>
       </c>
-      <c r="G88" s="25"/>
-      <c r="H88" s="41"/>
-      <c r="I88" s="45"/>
-      <c r="J88" s="32"/>
-      <c r="K88" s="34"/>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B89" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H89" s="18"/>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B90" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H90" s="18"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="42"/>
+      <c r="J90" s="29"/>
+      <c r="K90" s="31"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="18"/>
-      <c r="K91" s="48"/>
+        <v>38</v>
+      </c>
+      <c r="H91" s="15"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B92" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H92" s="18"/>
-      <c r="K92" s="48"/>
+        <v>13</v>
+      </c>
+      <c r="H92" s="15"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B93" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="H93" s="18"/>
+      <c r="B93" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="K93" s="45"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="K94" s="45"/>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B95" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H95" s="15"/>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B96" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="H96" s="15"/>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B97" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H94" s="18"/>
-    </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B95" s="3" t="s">
+      <c r="H97" s="15"/>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B98" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H95" s="18"/>
-    </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B96" s="3" t="s">
+      <c r="H98" s="15"/>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B99" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H96" s="18"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B97" s="3" t="s">
+      <c r="H99" s="15"/>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B100" s="3" t="s">
         <v>35</v>
       </c>
     </row>

--- a/Combustuble_A.xlsx
+++ b/Combustuble_A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DA3151-5EFC-4431-AD3D-68CFA8B62CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B817319E-3195-4EFC-8C28-6137A4A6A846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_29" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="39">
   <si>
     <t>AICM</t>
   </si>
@@ -152,7 +152,7 @@
     <t>ND No Disponible.</t>
   </si>
   <si>
-    <t>Actualización: Enero 2025.</t>
+    <t>Actualización: Febrero 2025.</t>
   </si>
 </sst>
 </file>
@@ -162,7 +162,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,6 +506,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -515,21 +518,18 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -715,7 +715,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -798,8 +798,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:K90" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
-  <autoFilter ref="B5:K90" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:K91" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="B5:K91" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -1049,13 +1049,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:Z100"/>
+  <dimension ref="B2:Z101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5" style="3" customWidth="1"/>
     <col min="2" max="2" width="6.75" style="3" customWidth="1"/>
@@ -1070,39 +1070,39 @@
     <col min="12" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:26" ht="18">
       <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:26">
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:26">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="50"/>
       <c r="G4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
-    </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="J4" s="49"/>
+      <c r="K4" s="50"/>
+    </row>
+    <row r="5" spans="2:26">
       <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
@@ -1134,2352 +1134,2386 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B6" s="51">
+    <row r="6" spans="2:26">
+      <c r="B6" s="52">
         <v>2025</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="53">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>438408.533</v>
+        <v>389847.54699999996</v>
       </c>
       <c r="E6" s="54">
-        <v>436339.908</v>
+        <v>387924.35699999996</v>
       </c>
       <c r="F6" s="54">
-        <v>2068.625</v>
+        <v>1923.19</v>
       </c>
       <c r="G6" s="54">
-        <v>128458.55</v>
+        <v>114153.624</v>
       </c>
       <c r="H6" s="55" t="s">
         <v>36</v>
       </c>
       <c r="I6" s="56">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
+        <v>7441.6539999999995</v>
+      </c>
+      <c r="J6" s="54">
+        <v>7369.1719999999996</v>
+      </c>
+      <c r="K6" s="54">
+        <v>72.481999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26">
+      <c r="B7" s="26">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="28">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>438408.533</v>
+      </c>
+      <c r="E7" s="29">
+        <v>436339.908</v>
+      </c>
+      <c r="F7" s="29">
+        <v>2068.625</v>
+      </c>
+      <c r="G7" s="29">
+        <v>128458.55</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="30">
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8286.9150000000009</v>
       </c>
-      <c r="J6" s="54">
+      <c r="J7" s="29">
         <v>8219.5570000000007</v>
       </c>
-      <c r="K6" s="54">
+      <c r="K7" s="29">
         <v>67.358000000000004</v>
       </c>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B7" s="12">
+    <row r="8" spans="2:26">
+      <c r="B8" s="12">
         <v>2024</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D8" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>449342.43200000003</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E8" s="15">
         <v>447545.49900000001</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F8" s="15">
         <v>1796.933</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G8" s="15">
         <v>130985.44000000002</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H8" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I8" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8869.9179999999997</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J8" s="15">
         <v>8814.67</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K8" s="18">
         <v>55.247999999999998</v>
       </c>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B8" s="19">
+    <row r="9" spans="2:26">
+      <c r="B9" s="19">
         <v>2024</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C9" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D9" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>414979.28399999999</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E9" s="22">
         <v>413228.45</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F9" s="22">
         <v>1750.8340000000001</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G9" s="22">
         <v>126056.84700000001</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H9" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I9" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8715.9350000000013</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J9" s="22">
         <v>8658.853000000001</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K9" s="22">
         <v>57.082000000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B9" s="12">
+    <row r="10" spans="2:26">
+      <c r="B10" s="12">
         <v>2024</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D10" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>382292.66800000001</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E10" s="15">
         <v>380502.94699999999</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F10" s="15">
         <v>1789.721</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G10" s="15">
         <v>127339.47199999999</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H10" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I10" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8275.6580000000013</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J10" s="15">
         <v>8207.1910000000007</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K10" s="18">
         <v>68.466999999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B10" s="19">
+    <row r="11" spans="2:26">
+      <c r="B11" s="19">
         <v>2024</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D11" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>355217.31699999998</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E11" s="22">
         <v>353694.88099999999</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F11" s="22">
         <v>1522.4359999999999</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G11" s="22">
         <v>123427.23999999999</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H11" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I11" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8123.1509999999998</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J11" s="22">
         <v>8080.4319999999998</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K11" s="22">
         <v>42.719000000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B11" s="12">
+    <row r="12" spans="2:26">
+      <c r="B12" s="12">
         <v>2024</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D12" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>410385.15499999997</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E12" s="15">
         <v>408646.99599999998</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F12" s="15">
         <v>1738.1590000000001</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G12" s="15">
         <v>134271.14299999998</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H12" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I12" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7554.09</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J12" s="15">
         <v>7485.5810000000001</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K12" s="15">
         <v>68.509</v>
       </c>
-      <c r="Z11" s="3" t="e">
+      <c r="Z12" s="3" t="e">
         <f>#REF!*1000</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B12" s="19">
+    <row r="13" spans="2:26">
+      <c r="B13" s="19">
         <v>2024</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D13" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>425598.28600000002</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E13" s="22">
         <v>423719.45600000001</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F13" s="22">
         <v>1878.83</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G13" s="22">
         <v>134103.45499999999</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H13" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I13" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6892.0260000000007</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J13" s="22">
         <v>6846.5480000000007</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K13" s="25">
         <v>45.477999999999994</v>
       </c>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B13" s="12">
+    <row r="14" spans="2:26">
+      <c r="B14" s="12">
         <v>2024</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D14" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>402694.15900000004</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E14" s="15">
         <v>401228.58</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F14" s="15">
         <v>1465.579</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G14" s="15">
         <v>130346.13999999998</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I14" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7673.4130000000005</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J14" s="15">
         <v>7627.335</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K14" s="18">
         <v>46.078000000000003</v>
       </c>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B14" s="19">
+    <row r="15" spans="2:26">
+      <c r="B15" s="19">
         <v>2024</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C15" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D15" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>420255.26899999997</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E15" s="22">
         <v>418249.16899999999</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F15" s="22">
         <v>2006.1</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G15" s="22">
         <v>132414.008</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H15" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I15" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8118.799</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J15" s="22">
         <v>8068.768</v>
       </c>
-      <c r="K14" s="25">
+      <c r="K15" s="25">
         <v>50.030999999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B15" s="12">
+    <row r="16" spans="2:26">
+      <c r="B16" s="12">
         <v>2024</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D16" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>439431.40099999995</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E16" s="15">
         <v>437628.61099999998</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F16" s="15">
         <v>1802.79</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G16" s="15">
         <v>128736.15699999999</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H16" s="15">
         <v>14608.594000000001</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I16" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7934.7060000000001</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J16" s="15">
         <v>7869.5050000000001</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K16" s="18">
         <v>65.200999999999993</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B16" s="19">
+    <row r="17" spans="2:11">
+      <c r="B17" s="19">
         <v>2024</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C17" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D17" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>484582.01799999992</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E17" s="22">
         <v>482370.14599999995</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F17" s="22">
         <v>2211.8719999999998</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G17" s="22">
         <v>132127.88800000001</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H17" s="22">
         <v>26118.722999999998</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I17" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8232.1929999999993</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J17" s="22">
         <v>8188.4409999999989</v>
       </c>
-      <c r="K16" s="25">
+      <c r="K17" s="25">
         <v>43.752000000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B17" s="12">
+    <row r="18" spans="2:11">
+      <c r="B18" s="12">
         <v>2024</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D18" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>439514.446</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E18" s="15">
         <v>437434.21399999998</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F18" s="15">
         <v>2080.232</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G18" s="15">
         <v>121792.711</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H18" s="15">
         <v>23599.862999999998</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I18" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7101.8710000000001</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J18" s="15">
         <v>7037.6580000000004</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K18" s="18">
         <v>64.213000000000008</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B18" s="26">
+    <row r="19" spans="2:11">
+      <c r="B19" s="26">
         <v>2024</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C19" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D19" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>474317.27799999999</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E19" s="29">
         <v>472107.52999999997</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F19" s="29">
         <v>2209.748</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G19" s="29">
         <v>133551.829</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H19" s="29">
         <v>24093.275999999998</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I19" s="30">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6939.9099999999989</v>
       </c>
-      <c r="J18" s="29">
+      <c r="J19" s="29">
         <v>6885.6349999999993</v>
       </c>
-      <c r="K18" s="31">
+      <c r="K19" s="31">
         <v>54.274999999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="32">
+    <row r="20" spans="2:11" hidden="1">
+      <c r="B20" s="32">
         <v>2023</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C20" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D20" s="34">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>497130.734</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E20" s="35">
         <v>495355.598</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F20" s="35">
         <v>1775.136</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G20" s="35">
         <v>141052.152</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H20" s="35">
         <v>24233.223999999998</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I20" s="36">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6935.0720000000001</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J20" s="35">
         <v>6907.192</v>
       </c>
-      <c r="K19" s="37">
+      <c r="K20" s="37">
         <v>27.88</v>
       </c>
     </row>
-    <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="19">
+    <row r="21" spans="2:11" hidden="1">
+      <c r="B21" s="19">
         <v>2023</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C21" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D21" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>448851.103</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E21" s="22">
         <v>447174.89500000002</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F21" s="22">
         <v>1676.2079999999999</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G21" s="22">
         <v>133555.97700000001</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H21" s="22">
         <v>22508.399000000001</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I21" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7171.835</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J21" s="22">
         <v>7125.1350000000002</v>
       </c>
-      <c r="K20" s="25">
+      <c r="K21" s="25">
         <v>46.7</v>
       </c>
     </row>
-    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="12">
+    <row r="22" spans="2:11" hidden="1">
+      <c r="B22" s="12">
         <v>2023</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C22" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D22" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>432477.60700000002</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E22" s="15">
         <v>430760.484</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F22" s="15">
         <v>1717.123</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G22" s="15">
         <v>135949.88099999999</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H22" s="15">
         <v>22848.071</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I22" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7518.7080000000005</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J22" s="15">
         <v>7461.4880000000003</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K22" s="18">
         <v>57.22</v>
       </c>
     </row>
-    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="19">
+    <row r="23" spans="2:11" hidden="1">
+      <c r="B23" s="19">
         <v>2023</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C23" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D23" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>403096.08900000004</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E23" s="22">
         <v>401473.96300000005</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F23" s="22">
         <v>1622.126</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G23" s="22">
         <v>130099.94800000002</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H23" s="22">
         <v>18583.999</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I23" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6008.808</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J23" s="22">
         <v>5967.9129999999996</v>
       </c>
-      <c r="K22" s="25">
+      <c r="K23" s="25">
         <v>40.895000000000003</v>
       </c>
     </row>
-    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="12">
+    <row r="24" spans="2:11" hidden="1">
+      <c r="B24" s="12">
         <v>2023</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D24" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>456592.212</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E24" s="15">
         <v>454830.98300000001</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F24" s="15">
         <v>1761.229</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G24" s="15">
         <v>143391.905</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H24" s="15">
         <v>16745.141</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I24" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6500.8150000000005</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J24" s="15">
         <v>6459.5010000000002</v>
       </c>
-      <c r="K23" s="18">
+      <c r="K24" s="18">
         <v>41.314</v>
       </c>
     </row>
-    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="19">
+    <row r="25" spans="2:11" hidden="1">
+      <c r="B25" s="19">
         <v>2023</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C25" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D25" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>471958.52600000001</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E25" s="22">
         <v>470075.826</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F25" s="22">
         <v>1882.7</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G25" s="22">
         <v>148684.78200000001</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H25" s="22">
         <v>11646.752</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I25" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6100.8280000000004</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J25" s="22">
         <v>6053.3130000000001</v>
       </c>
-      <c r="K24" s="25">
+      <c r="K25" s="25">
         <v>47.515000000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="12">
+    <row r="26" spans="2:11" hidden="1">
+      <c r="B26" s="12">
         <v>2023</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C26" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D26" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>445605.64600000001</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E26" s="15">
         <v>443787.57799999998</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F26" s="15">
         <v>1818.068</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G26" s="15">
         <v>146831.476</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H26" s="15">
         <v>7161.2819999999992</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I26" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6393.7270000000008</v>
       </c>
-      <c r="J25" s="15">
+      <c r="J26" s="15">
         <v>6324.5640000000003</v>
       </c>
-      <c r="K25" s="18">
+      <c r="K26" s="18">
         <v>69.163000000000011</v>
       </c>
     </row>
-    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="19">
+    <row r="27" spans="2:11" hidden="1">
+      <c r="B27" s="19">
         <v>2023</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C27" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D27" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>438617.83499999996</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E27" s="22">
         <v>436653.87099999998</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F27" s="22">
         <v>1963.9639999999999</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G27" s="22">
         <v>146066.30300000001</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H27" s="22">
         <v>6589.6929999999993</v>
       </c>
-      <c r="I26" s="24">
+      <c r="I27" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7134.3119999999999</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J27" s="22">
         <v>7076.7709999999997</v>
       </c>
-      <c r="K26" s="25">
+      <c r="K27" s="25">
         <v>57.540999999999997</v>
       </c>
     </row>
-    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="12">
+    <row r="28" spans="2:11" hidden="1">
+      <c r="B28" s="12">
         <v>2023</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C28" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D28" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>452626.13400000002</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E28" s="15">
         <v>450773.85800000001</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F28" s="15">
         <v>1852.2760000000001</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G28" s="15">
         <v>142422.533</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H28" s="15">
         <v>5892.4449999999997</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I28" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6515.2709999999997</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J28" s="15">
         <v>6469.5959999999995</v>
       </c>
-      <c r="K27" s="18">
+      <c r="K28" s="18">
         <v>45.674999999999997</v>
       </c>
     </row>
-    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="19">
+    <row r="29" spans="2:11" hidden="1">
+      <c r="B29" s="19">
         <v>2023</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C29" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D29" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>474025.5</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E29" s="22">
         <v>471373.67300000001</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F29" s="22">
         <v>2651.8269999999998</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G29" s="22">
         <v>147034.883</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H29" s="22">
         <v>6186.35</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I29" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7697.951</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J29" s="22">
         <v>7624.7790000000005</v>
       </c>
-      <c r="K28" s="25">
+      <c r="K29" s="25">
         <v>73.171999999999997</v>
       </c>
     </row>
-    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="12">
+    <row r="30" spans="2:11" hidden="1">
+      <c r="B30" s="12">
         <v>2023</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C30" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D30" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>418819.08400000003</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E30" s="15">
         <v>416951.092</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F30" s="15">
         <v>1867.9920000000002</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G30" s="15">
         <v>132657.08799999999</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H30" s="15">
         <v>4602.9769999999999</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I30" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6457.866</v>
       </c>
-      <c r="J29" s="15">
+      <c r="J30" s="15">
         <v>6410.7969999999996</v>
       </c>
-      <c r="K29" s="18">
+      <c r="K30" s="18">
         <v>47.069000000000003</v>
       </c>
     </row>
-    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="26">
+    <row r="31" spans="2:11" hidden="1">
+      <c r="B31" s="26">
         <v>2023</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C31" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="28">
+      <c r="D31" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>461982.14700000006</v>
       </c>
-      <c r="E30" s="29">
+      <c r="E31" s="29">
         <v>459918.04600000003</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F31" s="29">
         <v>2064.1010000000001</v>
       </c>
-      <c r="G30" s="29">
+      <c r="G31" s="29">
         <v>149629.198</v>
       </c>
-      <c r="H30" s="29">
+      <c r="H31" s="29">
         <v>5197.7539999999999</v>
       </c>
-      <c r="I30" s="30">
+      <c r="I31" s="30">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6489.6009999999997</v>
       </c>
-      <c r="J30" s="29">
+      <c r="J31" s="29">
         <v>6439.6379999999999</v>
       </c>
-      <c r="K30" s="31">
+      <c r="K31" s="31">
         <v>49.963000000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="32">
+    <row r="32" spans="2:11" hidden="1">
+      <c r="B32" s="32">
         <v>2022</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C32" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D32" s="34">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>490826.32500000001</v>
       </c>
-      <c r="E31" s="35">
+      <c r="E32" s="35">
         <v>489000.86</v>
       </c>
-      <c r="F31" s="35">
+      <c r="F32" s="35">
         <v>1825.4649999999999</v>
       </c>
-      <c r="G31" s="35">
+      <c r="G32" s="35">
         <v>157413.09299999999</v>
       </c>
-      <c r="H31" s="35">
+      <c r="H32" s="35">
         <v>4958.7839999999997</v>
       </c>
-      <c r="I31" s="36">
+      <c r="I32" s="36">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7356.5429999999997</v>
       </c>
-      <c r="J31" s="35">
+      <c r="J32" s="35">
         <v>7305.0450000000001</v>
       </c>
-      <c r="K31" s="37">
+      <c r="K32" s="37">
         <v>51.497999999999998</v>
       </c>
     </row>
-    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="19">
+    <row r="33" spans="2:11" hidden="1">
+      <c r="B33" s="19">
         <v>2022</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C33" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D33" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>443157.86400000006</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E33" s="22">
         <v>441195.48500000004</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F33" s="22">
         <v>1962.3790000000001</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G33" s="22">
         <v>150891.29999999999</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H33" s="22">
         <v>4915.8980000000001</v>
       </c>
-      <c r="I32" s="24">
+      <c r="I33" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7236.4110000000001</v>
       </c>
-      <c r="J32" s="22">
+      <c r="J33" s="22">
         <v>7161.7529999999997</v>
       </c>
-      <c r="K32" s="25">
+      <c r="K33" s="25">
         <v>74.658000000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="12">
+    <row r="34" spans="2:11" hidden="1">
+      <c r="B34" s="12">
         <v>2022</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C34" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D34" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>414809.23100000003</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E34" s="15">
         <v>412921.60700000002</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F34" s="15">
         <v>1887.624</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G34" s="15">
         <v>150805.27799999999</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H34" s="15">
         <v>4853.9489999999996</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I34" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6708.0059999999994</v>
       </c>
-      <c r="J33" s="15">
+      <c r="J34" s="15">
         <v>6658.6229999999996</v>
       </c>
-      <c r="K33" s="18">
+      <c r="K34" s="18">
         <v>49.383000000000003</v>
       </c>
     </row>
-    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="19">
+    <row r="35" spans="2:11" hidden="1">
+      <c r="B35" s="19">
         <v>2022</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C35" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D35" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>387372.408</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E35" s="22">
         <v>385430.815</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F35" s="22">
         <v>1941.5929999999998</v>
       </c>
-      <c r="G34" s="22">
+      <c r="G35" s="22">
         <v>146576.45300000001</v>
       </c>
-      <c r="H34" s="22">
+      <c r="H35" s="22">
         <v>3809.2310000000002</v>
       </c>
-      <c r="I34" s="24">
+      <c r="I35" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>5459.2980000000007</v>
       </c>
-      <c r="J34" s="22">
+      <c r="J35" s="22">
         <v>5409.8770000000004</v>
       </c>
-      <c r="K34" s="25">
+      <c r="K35" s="25">
         <v>49.420999999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="12">
+    <row r="36" spans="2:11" hidden="1">
+      <c r="B36" s="12">
         <v>2022</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C36" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D36" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>436832.37699999998</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E36" s="15">
         <v>434776.21399999998</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F36" s="15">
         <v>2056.163</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G36" s="15">
         <v>156853.56299999999</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H36" s="15">
         <v>2564.7890000000002</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I36" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>5460.4780000000001</v>
       </c>
-      <c r="J35" s="15">
+      <c r="J36" s="15">
         <v>5402.1080000000002</v>
       </c>
-      <c r="K35" s="18">
+      <c r="K36" s="18">
         <v>58.37</v>
       </c>
     </row>
-    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="19">
+    <row r="37" spans="2:11" hidden="1">
+      <c r="B37" s="19">
         <v>2022</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C37" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D37" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>448351.97599999997</v>
       </c>
-      <c r="E36" s="22">
+      <c r="E37" s="22">
         <v>446503.61</v>
       </c>
-      <c r="F36" s="22">
+      <c r="F37" s="22">
         <v>1848.366</v>
       </c>
-      <c r="G36" s="22">
+      <c r="G37" s="22">
         <v>153622.307</v>
       </c>
-      <c r="H36" s="22">
+      <c r="H37" s="22">
         <v>1060.989</v>
       </c>
-      <c r="I36" s="24">
+      <c r="I37" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>5119.0199999999995</v>
       </c>
-      <c r="J36" s="22">
+      <c r="J37" s="22">
         <v>5070.4549999999999</v>
       </c>
-      <c r="K36" s="25">
+      <c r="K37" s="25">
         <v>48.564999999999998</v>
       </c>
     </row>
-    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="12">
+    <row r="38" spans="2:11" hidden="1">
+      <c r="B38" s="12">
         <v>2022</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C38" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D38" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>416921.51799999998</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E38" s="15">
         <v>414947.446</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F38" s="15">
         <v>1974.0720000000001</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G38" s="15">
         <v>140586.55600000001</v>
       </c>
-      <c r="H37" s="15">
+      <c r="H38" s="15">
         <v>853.44799999999998</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I38" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>4541.9560000000001</v>
       </c>
-      <c r="J37" s="15">
+      <c r="J38" s="15">
         <v>4497.9610000000002</v>
       </c>
-      <c r="K37" s="18">
+      <c r="K38" s="18">
         <v>43.994999999999997</v>
       </c>
     </row>
-    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="19">
+    <row r="39" spans="2:11" hidden="1">
+      <c r="B39" s="19">
         <v>2022</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C39" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D39" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>424375.26299999998</v>
       </c>
-      <c r="E38" s="22">
+      <c r="E39" s="22">
         <v>422374.98</v>
       </c>
-      <c r="F38" s="22">
+      <c r="F39" s="22">
         <v>2000.2830000000001</v>
       </c>
-      <c r="G38" s="22"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="25"/>
-    </row>
-    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="12">
+      <c r="G39" s="22"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="25"/>
+    </row>
+    <row r="40" spans="2:11" hidden="1">
+      <c r="B40" s="12">
         <v>2022</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C40" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D40" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>437218.36900000001</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E40" s="15">
         <v>435084.44699999999</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F40" s="15">
         <v>2133.922</v>
       </c>
-      <c r="G39" s="15"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="18"/>
-    </row>
-    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="19">
+      <c r="G40" s="15"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="18"/>
+    </row>
+    <row r="41" spans="2:11" hidden="1">
+      <c r="B41" s="19">
         <v>2022</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C41" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D41" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>430084.12599999999</v>
       </c>
-      <c r="E40" s="22">
+      <c r="E41" s="22">
         <v>427583.05499999999</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F41" s="22">
         <v>2501.0709999999999</v>
       </c>
-      <c r="G40" s="22"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="25"/>
-    </row>
-    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="12">
+      <c r="G41" s="22"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="25"/>
+    </row>
+    <row r="42" spans="2:11" hidden="1">
+      <c r="B42" s="12">
         <v>2022</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C42" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D42" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>358536.61100000003</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E42" s="15">
         <v>356535.05300000001</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F42" s="15">
         <v>2001.5580000000002</v>
       </c>
-      <c r="G41" s="15"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="18"/>
-    </row>
-    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="26">
+      <c r="G42" s="15"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="18"/>
+    </row>
+    <row r="43" spans="2:11" hidden="1">
+      <c r="B43" s="26">
         <v>2022</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C43" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="28">
+      <c r="D43" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>401925.429</v>
       </c>
-      <c r="E42" s="29">
+      <c r="E43" s="29">
         <v>399729.82500000001</v>
       </c>
-      <c r="F42" s="29">
+      <c r="F43" s="29">
         <v>2195.6039999999998</v>
       </c>
-      <c r="G42" s="29"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="31"/>
-    </row>
-    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="32">
+      <c r="G43" s="29"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="31"/>
+    </row>
+    <row r="44" spans="2:11" hidden="1">
+      <c r="B44" s="32">
         <v>2021</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C44" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="34">
+      <c r="D44" s="34">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>432897.13799999998</v>
       </c>
-      <c r="E43" s="35">
+      <c r="E44" s="35">
         <v>430707.82799999998</v>
       </c>
-      <c r="F43" s="35">
+      <c r="F44" s="35">
         <v>2189.31</v>
       </c>
-      <c r="G43" s="35"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="37"/>
-    </row>
-    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="19">
+      <c r="G44" s="35"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="37"/>
+    </row>
+    <row r="45" spans="2:11" hidden="1">
+      <c r="B45" s="19">
         <v>2021</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C45" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D45" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>383033.76299999998</v>
       </c>
-      <c r="E44" s="22">
+      <c r="E45" s="22">
         <v>380922.15399999998</v>
       </c>
-      <c r="F44" s="22">
+      <c r="F45" s="22">
         <v>2111.6089999999999</v>
       </c>
-      <c r="G44" s="22"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="25"/>
-    </row>
-    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="12">
+      <c r="G45" s="22"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="25"/>
+    </row>
+    <row r="46" spans="2:11" hidden="1">
+      <c r="B46" s="12">
         <v>2021</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C46" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D46" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>358842.80099999998</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E46" s="15">
         <v>356760.12</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F46" s="15">
         <v>2082.681</v>
       </c>
-      <c r="G45" s="15"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="18"/>
-    </row>
-    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="19">
+      <c r="G46" s="15"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="18"/>
+    </row>
+    <row r="47" spans="2:11" hidden="1">
+      <c r="B47" s="19">
         <v>2021</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C47" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D47" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>321941.98300000001</v>
       </c>
-      <c r="E46" s="22">
+      <c r="E47" s="22">
         <v>319890.413</v>
       </c>
-      <c r="F46" s="22">
+      <c r="F47" s="22">
         <v>2051.5699999999997</v>
       </c>
-      <c r="G46" s="22"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="25"/>
-    </row>
-    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="12">
+      <c r="G47" s="22"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="25"/>
+    </row>
+    <row r="48" spans="2:11" hidden="1">
+      <c r="B48" s="12">
         <v>2021</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C48" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D48" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>363960.13899999997</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E48" s="15">
         <v>361966.45999999996</v>
       </c>
-      <c r="F47" s="15">
+      <c r="F48" s="15">
         <v>1993.6790000000001</v>
       </c>
-      <c r="G47" s="15"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="18"/>
-    </row>
-    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="19">
+      <c r="G48" s="15"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="18"/>
+    </row>
+    <row r="49" spans="2:11" hidden="1">
+      <c r="B49" s="19">
         <v>2021</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C49" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="21">
+      <c r="D49" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>374695.174</v>
       </c>
-      <c r="E48" s="22">
+      <c r="E49" s="22">
         <v>372625.397</v>
       </c>
-      <c r="F48" s="22">
+      <c r="F49" s="22">
         <v>2069.777</v>
       </c>
-      <c r="G48" s="22"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="25"/>
-    </row>
-    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="12">
+      <c r="G49" s="22"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="25"/>
+    </row>
+    <row r="50" spans="2:11" hidden="1">
+      <c r="B50" s="12">
         <v>2021</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C50" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D50" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>334517.39600000001</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E50" s="15">
         <v>332552.66499999998</v>
       </c>
-      <c r="F49" s="15">
+      <c r="F50" s="15">
         <v>1964.731</v>
       </c>
-      <c r="G49" s="15"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="18"/>
-    </row>
-    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="19">
+      <c r="G50" s="15"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="18"/>
+    </row>
+    <row r="51" spans="2:11" hidden="1">
+      <c r="B51" s="19">
         <v>2021</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C51" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="21">
+      <c r="D51" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>322630.61800000002</v>
       </c>
-      <c r="E50" s="22">
+      <c r="E51" s="22">
         <v>320400.96000000002</v>
       </c>
-      <c r="F50" s="22">
+      <c r="F51" s="22">
         <v>2229.6580000000004</v>
       </c>
-      <c r="G50" s="22"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="25"/>
-    </row>
-    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="12">
+      <c r="G51" s="22"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="25"/>
+    </row>
+    <row r="52" spans="2:11" hidden="1">
+      <c r="B52" s="12">
         <v>2021</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C52" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D52" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>299222.027</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E52" s="15">
         <v>296903.73</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F52" s="15">
         <v>2318.297</v>
       </c>
-      <c r="G51" s="15"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="18"/>
-    </row>
-    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="19">
+      <c r="G52" s="15"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="18"/>
+    </row>
+    <row r="53" spans="2:11" hidden="1">
+      <c r="B53" s="19">
         <v>2021</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C53" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="21">
+      <c r="D53" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>271328.42499999999</v>
       </c>
-      <c r="E52" s="22">
+      <c r="E53" s="22">
         <v>268651.59499999997</v>
       </c>
-      <c r="F52" s="22">
+      <c r="F53" s="22">
         <v>2676.83</v>
       </c>
-      <c r="G52" s="22"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="25"/>
-    </row>
-    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="12">
+      <c r="G53" s="22"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="25"/>
+    </row>
+    <row r="54" spans="2:11" hidden="1">
+      <c r="B54" s="12">
         <v>2021</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C54" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D54" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>222215.03899999999</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E54" s="15">
         <v>220246.12</v>
       </c>
-      <c r="F53" s="15">
+      <c r="F54" s="15">
         <v>1968.9190000000001</v>
       </c>
-      <c r="G53" s="15"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="18"/>
-    </row>
-    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="26">
+      <c r="G54" s="15"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="18"/>
+    </row>
+    <row r="55" spans="2:11" hidden="1">
+      <c r="B55" s="26">
         <v>2021</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="C55" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D54" s="28">
+      <c r="D55" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>272354.26800000004</v>
       </c>
-      <c r="E54" s="29">
+      <c r="E55" s="29">
         <v>270211.59100000001</v>
       </c>
-      <c r="F54" s="29">
+      <c r="F55" s="29">
         <v>2142.6770000000001</v>
       </c>
-      <c r="G54" s="29"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="31"/>
-    </row>
-    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="32">
+      <c r="G55" s="29"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="31"/>
+    </row>
+    <row r="56" spans="2:11" hidden="1">
+      <c r="B56" s="32">
         <v>2020</v>
       </c>
-      <c r="C55" s="33" t="s">
+      <c r="C56" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D55" s="34">
+      <c r="D56" s="34">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>289863.19500000001</v>
       </c>
-      <c r="E55" s="35">
+      <c r="E56" s="35">
         <v>287659.50599999999</v>
       </c>
-      <c r="F55" s="35">
+      <c r="F56" s="35">
         <v>2203.6889999999999</v>
       </c>
-      <c r="G55" s="35"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="44"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="37"/>
-    </row>
-    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="19">
+      <c r="G56" s="35"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="37"/>
+    </row>
+    <row r="57" spans="2:11" hidden="1">
+      <c r="B57" s="19">
         <v>2020</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C57" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D56" s="21">
+      <c r="D57" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>228379.71699999998</v>
       </c>
-      <c r="E56" s="22">
+      <c r="E57" s="22">
         <v>226637.46699999998</v>
       </c>
-      <c r="F56" s="22">
+      <c r="F57" s="22">
         <v>1742.25</v>
       </c>
-      <c r="G56" s="22"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="25"/>
-    </row>
-    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="12">
+      <c r="G57" s="22"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="25"/>
+    </row>
+    <row r="58" spans="2:11" hidden="1">
+      <c r="B58" s="12">
         <v>2020</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C58" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D58" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>225796.75899999996</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E58" s="15">
         <v>223656.52399999998</v>
       </c>
-      <c r="F57" s="15">
+      <c r="F58" s="15">
         <v>2140.2350000000001</v>
       </c>
-      <c r="G57" s="15"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="18"/>
-    </row>
-    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="19">
+      <c r="G58" s="15"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="18"/>
+    </row>
+    <row r="59" spans="2:11" hidden="1">
+      <c r="B59" s="19">
         <v>2020</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C59" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D58" s="21">
+      <c r="D59" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>192359.82700000002</v>
       </c>
-      <c r="E58" s="22">
+      <c r="E59" s="22">
         <v>190331.43100000001</v>
       </c>
-      <c r="F58" s="22">
+      <c r="F59" s="22">
         <v>2028.396</v>
       </c>
-      <c r="G58" s="22"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="25"/>
-    </row>
-    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="12">
+      <c r="G59" s="22"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="25"/>
+    </row>
+    <row r="60" spans="2:11" hidden="1">
+      <c r="B60" s="12">
         <v>2020</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C60" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D60" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>184495.08899999998</v>
       </c>
-      <c r="E59" s="15">
+      <c r="E60" s="15">
         <v>182519.18599999999</v>
       </c>
-      <c r="F59" s="15">
+      <c r="F60" s="15">
         <v>1975.903</v>
       </c>
-      <c r="G59" s="15"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="18"/>
-    </row>
-    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="19">
+      <c r="G60" s="15"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="18"/>
+    </row>
+    <row r="61" spans="2:11" hidden="1">
+      <c r="B61" s="19">
         <v>2020</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C61" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D60" s="21">
+      <c r="D61" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>160167.435</v>
       </c>
-      <c r="E60" s="22">
+      <c r="E61" s="22">
         <v>158161.66200000001</v>
       </c>
-      <c r="F60" s="22">
+      <c r="F61" s="22">
         <v>2005.7730000000001</v>
       </c>
-      <c r="G60" s="22"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="25"/>
-    </row>
-    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="12">
+      <c r="G61" s="22"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="25"/>
+    </row>
+    <row r="62" spans="2:11" hidden="1">
+      <c r="B62" s="12">
         <v>2020</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C62" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="14">
+      <c r="D62" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>105511.976</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E62" s="15">
         <v>103802.962</v>
       </c>
-      <c r="F61" s="15">
+      <c r="F62" s="15">
         <v>1709.0140000000001</v>
       </c>
-      <c r="G61" s="15"/>
-      <c r="I61" s="40"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="18"/>
-    </row>
-    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="19">
+      <c r="G62" s="15"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="18"/>
+    </row>
+    <row r="63" spans="2:11" hidden="1">
+      <c r="B63" s="19">
         <v>2020</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C63" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D62" s="21">
+      <c r="D63" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>69285.474000000002</v>
       </c>
-      <c r="E62" s="22">
+      <c r="E63" s="22">
         <v>67702.22</v>
       </c>
-      <c r="F62" s="22">
+      <c r="F63" s="22">
         <v>1583.2539999999999</v>
       </c>
-      <c r="G62" s="22"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="39"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="25"/>
-    </row>
-    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="12">
+      <c r="G63" s="22"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="25"/>
+    </row>
+    <row r="64" spans="2:11" hidden="1">
+      <c r="B64" s="12">
         <v>2020</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C64" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D63" s="14">
+      <c r="D64" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>69532.992000000013</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E64" s="15">
         <v>67898.813000000009</v>
       </c>
-      <c r="F63" s="15">
+      <c r="F64" s="15">
         <v>1634.1790000000001</v>
       </c>
-      <c r="G63" s="15"/>
-      <c r="I63" s="40"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="18"/>
-    </row>
-    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="19">
+      <c r="G64" s="15"/>
+      <c r="I64" s="40"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="18"/>
+    </row>
+    <row r="65" spans="2:11" hidden="1">
+      <c r="B65" s="19">
         <v>2020</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C65" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D64" s="21">
+      <c r="D65" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>334769.408</v>
       </c>
-      <c r="E64" s="22">
+      <c r="E65" s="22">
         <v>332339.83399999997</v>
       </c>
-      <c r="F64" s="22">
+      <c r="F65" s="22">
         <v>2429.5740000000001</v>
       </c>
-      <c r="G64" s="22"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="25"/>
-    </row>
-    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="12">
+      <c r="G65" s="22"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="25"/>
+    </row>
+    <row r="66" spans="2:11" hidden="1">
+      <c r="B66" s="12">
         <v>2020</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C66" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="14">
+      <c r="D66" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>400050.22200000001</v>
       </c>
-      <c r="E65" s="15">
+      <c r="E66" s="15">
         <v>397843.09899999999</v>
       </c>
-      <c r="F65" s="15">
+      <c r="F66" s="15">
         <v>2207.123</v>
       </c>
-      <c r="G65" s="15"/>
-      <c r="I65" s="40"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="18"/>
-    </row>
-    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="26">
+      <c r="G66" s="15"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="18"/>
+    </row>
+    <row r="67" spans="2:11" hidden="1">
+      <c r="B67" s="26">
         <v>2020</v>
       </c>
-      <c r="C66" s="27" t="s">
+      <c r="C67" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="28">
+      <c r="D67" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>439902.09</v>
       </c>
-      <c r="E66" s="29">
+      <c r="E67" s="29">
         <v>437506.02900000004</v>
       </c>
-      <c r="F66" s="29">
+      <c r="F67" s="29">
         <v>2396.0610000000001</v>
       </c>
-      <c r="G66" s="29"/>
-      <c r="H66" s="41"/>
-      <c r="I66" s="42"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="31"/>
-    </row>
-    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="32">
+      <c r="G67" s="29"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="31"/>
+    </row>
+    <row r="68" spans="2:11" hidden="1">
+      <c r="B68" s="32">
         <v>2019</v>
       </c>
-      <c r="C67" s="33" t="s">
+      <c r="C68" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="34">
+      <c r="D68" s="34">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>440800</v>
       </c>
-      <c r="E67" s="35">
+      <c r="E68" s="35">
         <v>438700</v>
       </c>
-      <c r="F67" s="35">
+      <c r="F68" s="35">
         <v>2100</v>
       </c>
-      <c r="G67" s="35"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="44"/>
-      <c r="J67" s="35"/>
-      <c r="K67" s="37"/>
-    </row>
-    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="19">
+      <c r="G68" s="35"/>
+      <c r="H68" s="43"/>
+      <c r="I68" s="44"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="37"/>
+    </row>
+    <row r="69" spans="2:11" hidden="1">
+      <c r="B69" s="19">
         <v>2019</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C69" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="21">
+      <c r="D69" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>412300</v>
       </c>
-      <c r="E68" s="22">
+      <c r="E69" s="22">
         <v>410400</v>
       </c>
-      <c r="F68" s="22">
+      <c r="F69" s="22">
         <v>1900</v>
       </c>
-      <c r="G68" s="22"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="39"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="25"/>
-    </row>
-    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="12">
+      <c r="G69" s="22"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="25"/>
+    </row>
+    <row r="70" spans="2:11" hidden="1">
+      <c r="B70" s="12">
         <v>2019</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C70" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="14">
+      <c r="D70" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>397000</v>
       </c>
-      <c r="E69" s="15">
+      <c r="E70" s="15">
         <v>395000</v>
       </c>
-      <c r="F69" s="15">
+      <c r="F70" s="15">
         <v>2000</v>
       </c>
-      <c r="G69" s="15"/>
-      <c r="I69" s="40"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="18"/>
-    </row>
-    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="19">
+      <c r="G70" s="15"/>
+      <c r="I70" s="40"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="18"/>
+    </row>
+    <row r="71" spans="2:11" hidden="1">
+      <c r="B71" s="19">
         <v>2019</v>
       </c>
-      <c r="C70" s="20" t="s">
+      <c r="C71" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="21">
+      <c r="D71" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>372500</v>
       </c>
-      <c r="E70" s="22">
+      <c r="E71" s="22">
         <v>370700</v>
       </c>
-      <c r="F70" s="22">
+      <c r="F71" s="22">
         <v>1800</v>
       </c>
-      <c r="G70" s="22"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="39"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="25"/>
-    </row>
-    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="12">
+      <c r="G71" s="22"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="39"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="25"/>
+    </row>
+    <row r="72" spans="2:11" hidden="1">
+      <c r="B72" s="12">
         <v>2019</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C72" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D71" s="14">
+      <c r="D72" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>430200</v>
       </c>
-      <c r="E71" s="15">
+      <c r="E72" s="15">
         <v>428200</v>
       </c>
-      <c r="F71" s="15">
+      <c r="F72" s="15">
         <v>2000</v>
       </c>
-      <c r="G71" s="15"/>
-      <c r="I71" s="40"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="18"/>
-    </row>
-    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="19">
+      <c r="G72" s="15"/>
+      <c r="I72" s="40"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="18"/>
+    </row>
+    <row r="73" spans="2:11" hidden="1">
+      <c r="B73" s="19">
         <v>2019</v>
       </c>
-      <c r="C72" s="20" t="s">
+      <c r="C73" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D72" s="21">
+      <c r="D73" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>445000</v>
       </c>
-      <c r="E72" s="22">
+      <c r="E73" s="22">
         <v>442800</v>
       </c>
-      <c r="F72" s="22">
+      <c r="F73" s="22">
         <v>2200</v>
       </c>
-      <c r="G72" s="22"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="39"/>
-      <c r="J72" s="22"/>
-      <c r="K72" s="25"/>
-    </row>
-    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="12">
+      <c r="G73" s="22"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="39"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="25"/>
+    </row>
+    <row r="74" spans="2:11" hidden="1">
+      <c r="B74" s="12">
         <v>2019</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C74" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="14">
+      <c r="D74" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>415300</v>
       </c>
-      <c r="E73" s="15">
+      <c r="E74" s="15">
         <v>413200</v>
       </c>
-      <c r="F73" s="15">
+      <c r="F74" s="15">
         <v>2100</v>
       </c>
-      <c r="G73" s="15"/>
-      <c r="I73" s="40"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="18"/>
-    </row>
-    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="19">
+      <c r="G74" s="15"/>
+      <c r="I74" s="40"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="18"/>
+    </row>
+    <row r="75" spans="2:11" hidden="1">
+      <c r="B75" s="19">
         <v>2019</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="C75" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="21">
+      <c r="D75" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>413700</v>
       </c>
-      <c r="E74" s="22">
+      <c r="E75" s="22">
         <v>411500</v>
       </c>
-      <c r="F74" s="22">
+      <c r="F75" s="22">
         <v>2200</v>
       </c>
-      <c r="G74" s="22"/>
-      <c r="H74" s="38"/>
-      <c r="I74" s="39"/>
-      <c r="J74" s="22"/>
-      <c r="K74" s="25"/>
-    </row>
-    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="12">
+      <c r="G75" s="22"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="39"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="25"/>
+    </row>
+    <row r="76" spans="2:11" hidden="1">
+      <c r="B76" s="12">
         <v>2019</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C76" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D75" s="14">
+      <c r="D76" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>419400</v>
       </c>
-      <c r="E75" s="15">
+      <c r="E76" s="15">
         <v>417000</v>
       </c>
-      <c r="F75" s="15">
+      <c r="F76" s="15">
         <v>2400</v>
       </c>
-      <c r="G75" s="15"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="18"/>
-    </row>
-    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="19">
+      <c r="G76" s="15"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="18"/>
+    </row>
+    <row r="77" spans="2:11" hidden="1">
+      <c r="B77" s="19">
         <v>2019</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C77" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D76" s="21">
+      <c r="D77" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>426800</v>
       </c>
-      <c r="E76" s="22">
+      <c r="E77" s="22">
         <v>420000</v>
       </c>
-      <c r="F76" s="22">
+      <c r="F77" s="22">
         <v>6800</v>
       </c>
-      <c r="G76" s="22"/>
-      <c r="H76" s="38"/>
-      <c r="I76" s="39"/>
-      <c r="J76" s="22"/>
-      <c r="K76" s="25"/>
-    </row>
-    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="12">
+      <c r="G77" s="22"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="39"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="25"/>
+    </row>
+    <row r="78" spans="2:11" hidden="1">
+      <c r="B78" s="12">
         <v>2019</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C78" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D77" s="14">
+      <c r="D78" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>375100</v>
       </c>
-      <c r="E77" s="15">
+      <c r="E78" s="15">
         <v>372900</v>
       </c>
-      <c r="F77" s="15">
+      <c r="F78" s="15">
         <v>2200</v>
       </c>
-      <c r="G77" s="15"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="18"/>
-    </row>
-    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="26">
+      <c r="G78" s="15"/>
+      <c r="I78" s="40"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="18"/>
+    </row>
+    <row r="79" spans="2:11" hidden="1">
+      <c r="B79" s="26">
         <v>2019</v>
       </c>
-      <c r="C78" s="27" t="s">
+      <c r="C79" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D78" s="28">
+      <c r="D79" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>420900</v>
       </c>
-      <c r="E78" s="29">
+      <c r="E79" s="29">
         <v>418600</v>
       </c>
-      <c r="F78" s="29">
+      <c r="F79" s="29">
         <v>2300</v>
       </c>
-      <c r="G78" s="29"/>
-      <c r="H78" s="41"/>
-      <c r="I78" s="42"/>
-      <c r="J78" s="29"/>
-      <c r="K78" s="31"/>
-    </row>
-    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="13">
+      <c r="G79" s="29"/>
+      <c r="H79" s="41"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="29"/>
+      <c r="K79" s="31"/>
+    </row>
+    <row r="80" spans="2:11" hidden="1">
+      <c r="B80" s="13">
         <v>2018</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C80" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="14">
+      <c r="D80" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>436100</v>
       </c>
-      <c r="E79" s="15">
+      <c r="E80" s="15">
         <v>434000</v>
       </c>
-      <c r="F79" s="15">
+      <c r="F80" s="15">
         <v>2100</v>
       </c>
-      <c r="G79" s="15"/>
-      <c r="I79" s="44"/>
-      <c r="J79" s="35"/>
-      <c r="K79" s="37"/>
-    </row>
-    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="20">
+      <c r="G80" s="15"/>
+      <c r="I80" s="44"/>
+      <c r="J80" s="35"/>
+      <c r="K80" s="37"/>
+    </row>
+    <row r="81" spans="2:11" hidden="1">
+      <c r="B81" s="20">
         <v>2018</v>
       </c>
-      <c r="C80" s="20" t="s">
+      <c r="C81" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D80" s="21">
+      <c r="D81" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>406900</v>
       </c>
-      <c r="E80" s="22">
+      <c r="E81" s="22">
         <v>404900</v>
       </c>
-      <c r="F80" s="22">
+      <c r="F81" s="22">
         <v>2000</v>
       </c>
-      <c r="G80" s="22"/>
-      <c r="H80" s="38"/>
-      <c r="I80" s="39"/>
-      <c r="J80" s="22"/>
-      <c r="K80" s="25"/>
-    </row>
-    <row r="81" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="13">
+      <c r="G81" s="22"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="25"/>
+    </row>
+    <row r="82" spans="2:11" hidden="1">
+      <c r="B82" s="13">
         <v>2018</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C82" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D81" s="14">
+      <c r="D82" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>391100</v>
       </c>
-      <c r="E81" s="15">
+      <c r="E82" s="15">
         <v>389100</v>
       </c>
-      <c r="F81" s="15">
+      <c r="F82" s="15">
         <v>2000</v>
       </c>
-      <c r="G81" s="15"/>
-      <c r="I81" s="40"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="18"/>
-    </row>
-    <row r="82" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="20">
+      <c r="G82" s="15"/>
+      <c r="I82" s="40"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="18"/>
+    </row>
+    <row r="83" spans="2:11" hidden="1">
+      <c r="B83" s="20">
         <v>2018</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="C83" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D82" s="21">
+      <c r="D83" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>374300</v>
       </c>
-      <c r="E82" s="22">
+      <c r="E83" s="22">
         <v>372300</v>
       </c>
-      <c r="F82" s="22">
+      <c r="F83" s="22">
         <v>2000</v>
       </c>
-      <c r="G82" s="22"/>
-      <c r="H82" s="38"/>
-      <c r="I82" s="39"/>
-      <c r="J82" s="22"/>
-      <c r="K82" s="25"/>
-    </row>
-    <row r="83" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="13">
+      <c r="G83" s="22"/>
+      <c r="H83" s="38"/>
+      <c r="I83" s="39"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="25"/>
+    </row>
+    <row r="84" spans="2:11" hidden="1">
+      <c r="B84" s="13">
         <v>2018</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C84" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D83" s="14">
+      <c r="D84" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>428800</v>
       </c>
-      <c r="E83" s="15">
+      <c r="E84" s="15">
         <v>426400</v>
       </c>
-      <c r="F83" s="15">
+      <c r="F84" s="15">
         <v>2400</v>
       </c>
-      <c r="G83" s="15"/>
-      <c r="I83" s="40"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="18"/>
-    </row>
-    <row r="84" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="20">
+      <c r="G84" s="15"/>
+      <c r="I84" s="40"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="18"/>
+    </row>
+    <row r="85" spans="2:11" hidden="1">
+      <c r="B85" s="20">
         <v>2018</v>
       </c>
-      <c r="C84" s="20" t="s">
+      <c r="C85" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D84" s="21">
+      <c r="D85" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>446300</v>
       </c>
-      <c r="E84" s="22">
+      <c r="E85" s="22">
         <v>444000</v>
       </c>
-      <c r="F84" s="22">
+      <c r="F85" s="22">
         <v>2300</v>
       </c>
-      <c r="G84" s="22"/>
-      <c r="H84" s="38"/>
-      <c r="I84" s="39"/>
-      <c r="J84" s="22"/>
-      <c r="K84" s="25"/>
-    </row>
-    <row r="85" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="13">
+      <c r="G85" s="22"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="39"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="25"/>
+    </row>
+    <row r="86" spans="2:11" hidden="1">
+      <c r="B86" s="13">
         <v>2018</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C86" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D85" s="14">
+      <c r="D86" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>411400</v>
       </c>
-      <c r="E85" s="15">
+      <c r="E86" s="15">
         <v>409400</v>
       </c>
-      <c r="F85" s="15">
+      <c r="F86" s="15">
         <v>2000</v>
       </c>
-      <c r="G85" s="15"/>
-      <c r="I85" s="40"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="18"/>
-    </row>
-    <row r="86" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="20">
+      <c r="G86" s="15"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="18"/>
+    </row>
+    <row r="87" spans="2:11" hidden="1">
+      <c r="B87" s="20">
         <v>2018</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="C87" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D86" s="21">
+      <c r="D87" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>406200</v>
       </c>
-      <c r="E86" s="22">
+      <c r="E87" s="22">
         <v>403800</v>
       </c>
-      <c r="F86" s="22">
+      <c r="F87" s="22">
         <v>2400</v>
       </c>
-      <c r="G86" s="22"/>
-      <c r="H86" s="38"/>
-      <c r="I86" s="39"/>
-      <c r="J86" s="22"/>
-      <c r="K86" s="25"/>
-    </row>
-    <row r="87" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="13">
+      <c r="G87" s="22"/>
+      <c r="H87" s="38"/>
+      <c r="I87" s="39"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="25"/>
+    </row>
+    <row r="88" spans="2:11" hidden="1">
+      <c r="B88" s="13">
         <v>2018</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C88" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D87" s="14">
+      <c r="D88" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>415400</v>
       </c>
-      <c r="E87" s="15">
+      <c r="E88" s="15">
         <v>413200</v>
       </c>
-      <c r="F87" s="15">
+      <c r="F88" s="15">
         <v>2200</v>
       </c>
-      <c r="G87" s="15"/>
-      <c r="I87" s="40"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="18"/>
-    </row>
-    <row r="88" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="20">
+      <c r="G88" s="15"/>
+      <c r="I88" s="40"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="18"/>
+    </row>
+    <row r="89" spans="2:11" hidden="1">
+      <c r="B89" s="20">
         <v>2018</v>
       </c>
-      <c r="C88" s="20" t="s">
+      <c r="C89" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D88" s="21">
+      <c r="D89" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>444600</v>
       </c>
-      <c r="E88" s="22">
+      <c r="E89" s="22">
         <v>442100</v>
       </c>
-      <c r="F88" s="22">
+      <c r="F89" s="22">
         <v>2500</v>
       </c>
-      <c r="G88" s="22"/>
-      <c r="H88" s="38"/>
-      <c r="I88" s="39"/>
-      <c r="J88" s="22"/>
-      <c r="K88" s="25"/>
-    </row>
-    <row r="89" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="13">
+      <c r="G89" s="22"/>
+      <c r="H89" s="38"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="25"/>
+    </row>
+    <row r="90" spans="2:11" hidden="1">
+      <c r="B90" s="13">
         <v>2018</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C90" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D89" s="14">
+      <c r="D90" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>381500</v>
       </c>
-      <c r="E89" s="15">
+      <c r="E90" s="15">
         <v>379200</v>
       </c>
-      <c r="F89" s="15">
+      <c r="F90" s="15">
         <v>2300</v>
       </c>
-      <c r="G89" s="15"/>
-      <c r="I89" s="40"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="18"/>
-    </row>
-    <row r="90" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B90" s="20">
+      <c r="G90" s="15"/>
+      <c r="I90" s="40"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="18"/>
+    </row>
+    <row r="91" spans="2:11" hidden="1">
+      <c r="B91" s="20">
         <v>2018</v>
       </c>
-      <c r="C90" s="20" t="s">
+      <c r="C91" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D90" s="21">
+      <c r="D91" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>427700</v>
       </c>
-      <c r="E90" s="22">
+      <c r="E91" s="22">
         <v>425500</v>
       </c>
-      <c r="F90" s="22">
+      <c r="F91" s="22">
         <v>2200</v>
       </c>
-      <c r="G90" s="22"/>
-      <c r="H90" s="38"/>
-      <c r="I90" s="42"/>
-      <c r="J90" s="29"/>
-      <c r="K90" s="31"/>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B91" s="3" t="s">
+      <c r="G91" s="22"/>
+      <c r="H91" s="38"/>
+      <c r="I91" s="42"/>
+      <c r="J91" s="29"/>
+      <c r="K91" s="31"/>
+    </row>
+    <row r="92" spans="2:11">
+      <c r="B92" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H91" s="15"/>
-    </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B92" s="3" t="s">
+      <c r="H92" s="15"/>
+    </row>
+    <row r="93" spans="2:11">
+      <c r="B93" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H92" s="15"/>
-    </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B93" s="3" t="s">
+      <c r="H93" s="15"/>
+    </row>
+    <row r="94" spans="2:11">
+      <c r="B94" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="H93" s="15"/>
-      <c r="K93" s="45"/>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B94" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="H94" s="15"/>
       <c r="K94" s="45"/>
     </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B95" s="46" t="s">
+    <row r="95" spans="2:11">
+      <c r="B95" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="K95" s="45"/>
+    </row>
+    <row r="96" spans="2:11">
+      <c r="B96" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="H95" s="15"/>
-    </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B96" s="50" t="s">
+      <c r="H96" s="15"/>
+    </row>
+    <row r="97" spans="2:8">
+      <c r="B97" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="H96" s="15"/>
-    </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B97" s="3" t="s">
+      <c r="H97" s="15"/>
+    </row>
+    <row r="98" spans="2:8">
+      <c r="B98" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H97" s="15"/>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B98" s="3" t="s">
+      <c r="H98" s="15"/>
+    </row>
+    <row r="99" spans="2:8">
+      <c r="B99" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H98" s="15"/>
-    </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B99" s="3" t="s">
+      <c r="H99" s="15"/>
+    </row>
+    <row r="100" spans="2:8">
+      <c r="B100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H99" s="15"/>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B100" s="3" t="s">
+      <c r="H100" s="15"/>
+    </row>
+    <row r="101" spans="2:8">
+      <c r="B101" s="3" t="s">
         <v>35</v>
       </c>
     </row>

--- a/Combustuble_A.xlsx
+++ b/Combustuble_A.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B817319E-3195-4EFC-8C28-6137A4A6A846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD42648-9B7A-40CB-A024-79DA0A1F01B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="39">
   <si>
     <t>AICM</t>
   </si>
@@ -152,7 +152,7 @@
     <t>ND No Disponible.</t>
   </si>
   <si>
-    <t>Actualización: Febrero 2025.</t>
+    <t>Actualización: Marzo 2025.</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -509,6 +509,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -517,20 +520,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -798,11 +787,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:K91" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
-  <autoFilter ref="B5:K91" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:K92" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="B5:K92" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
+        <filter val="2025"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1049,7 +1039,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:Z101"/>
+  <dimension ref="B2:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1070,39 +1060,39 @@
     <col min="12" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" ht="18">
+    <row r="2" spans="2:22" ht="18">
       <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="2:26">
+    <row r="3" spans="2:22">
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="2:26">
+    <row r="4" spans="2:22">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="51"/>
       <c r="G4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="49"/>
-      <c r="K4" s="50"/>
-    </row>
-    <row r="5" spans="2:26">
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
+    </row>
+    <row r="5" spans="2:22">
       <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
@@ -1134,2386 +1124,2418 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:26">
-      <c r="B6" s="52">
+    <row r="6" spans="2:22">
+      <c r="B6" s="19">
         <v>2025</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="21">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>454566.74799999996</v>
+      </c>
+      <c r="E6" s="22">
+        <v>452691.04199999996</v>
+      </c>
+      <c r="F6" s="22">
+        <v>1875.7060000000001</v>
+      </c>
+      <c r="G6" s="22">
+        <v>130469.94799999999</v>
+      </c>
+      <c r="H6" s="23"/>
+      <c r="I6" s="24">
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
+        <v>9538.9540000000015</v>
+      </c>
+      <c r="J6" s="22">
+        <v>9476.7290000000012</v>
+      </c>
+      <c r="K6" s="22">
+        <v>62.225000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22">
+      <c r="B7" s="13">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D7" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>389847.54699999996</v>
       </c>
-      <c r="E6" s="54">
+      <c r="E7" s="15">
         <v>387924.35699999996</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F7" s="15">
         <v>1923.19</v>
       </c>
-      <c r="G6" s="54">
+      <c r="G7" s="15">
         <v>114153.624</v>
       </c>
-      <c r="H6" s="55" t="s">
+      <c r="H7" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="56">
+      <c r="I7" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
-        <v>7441.6539999999995</v>
-      </c>
-      <c r="J6" s="54">
-        <v>7369.1719999999996</v>
-      </c>
-      <c r="K6" s="54">
-        <v>72.481999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:26">
-      <c r="B7" s="26">
+        <v>7439.2119999999995</v>
+      </c>
+      <c r="J7" s="15">
+        <v>7369.0519999999997</v>
+      </c>
+      <c r="K7" s="15">
+        <v>70.16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22">
+      <c r="B8" s="26">
         <v>2025</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C8" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D8" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>438408.533</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E8" s="29">
         <v>436339.908</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F8" s="29">
         <v>2068.625</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G8" s="29">
         <v>128458.55</v>
       </c>
-      <c r="H7" s="51" t="s">
+      <c r="H8" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I8" s="30">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8286.9150000000009</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J8" s="29">
         <v>8219.5570000000007</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K8" s="29">
         <v>67.358000000000004</v>
       </c>
     </row>
-    <row r="8" spans="2:26">
-      <c r="B8" s="12">
+    <row r="9" spans="2:22">
+      <c r="B9" s="12">
         <v>2024</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D9" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>449342.43200000003</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E9" s="15">
         <v>447545.49900000001</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F9" s="15">
         <v>1796.933</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G9" s="15">
         <v>130985.44000000002</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H9" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I9" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8869.9179999999997</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J9" s="15">
         <v>8814.67</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K9" s="18">
         <v>55.247999999999998</v>
       </c>
     </row>
-    <row r="9" spans="2:26">
-      <c r="B9" s="19">
+    <row r="10" spans="2:22">
+      <c r="B10" s="19">
         <v>2024</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D10" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>414979.28399999999</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E10" s="22">
         <v>413228.45</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F10" s="22">
         <v>1750.8340000000001</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G10" s="22">
         <v>126056.84700000001</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H10" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I10" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8715.9350000000013</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J10" s="22">
         <v>8658.853000000001</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K10" s="22">
         <v>57.082000000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:26">
-      <c r="B10" s="12">
+    <row r="11" spans="2:22">
+      <c r="B11" s="12">
         <v>2024</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D11" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>382292.66800000001</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E11" s="15">
         <v>380502.94699999999</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F11" s="15">
         <v>1789.721</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G11" s="15">
         <v>127339.47199999999</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H11" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I11" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8275.6580000000013</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J11" s="15">
         <v>8207.1910000000007</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K11" s="18">
         <v>68.466999999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:26">
-      <c r="B11" s="19">
+    <row r="12" spans="2:22">
+      <c r="B12" s="19">
         <v>2024</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C12" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D12" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>355217.31699999998</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E12" s="22">
         <v>353694.88099999999</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F12" s="22">
         <v>1522.4359999999999</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G12" s="22">
         <v>123427.23999999999</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H12" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I12" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8123.1509999999998</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J12" s="22">
         <v>8080.4319999999998</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K12" s="22">
         <v>42.719000000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:26">
-      <c r="B12" s="12">
+    <row r="13" spans="2:22">
+      <c r="B13" s="12">
         <v>2024</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D13" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>410385.15499999997</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E13" s="15">
         <v>408646.99599999998</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F13" s="15">
         <v>1738.1590000000001</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G13" s="15">
         <v>134271.14299999998</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H13" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I13" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7554.09</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J13" s="15">
         <v>7485.5810000000001</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K13" s="15">
         <v>68.509</v>
       </c>
-      <c r="Z12" s="3" t="e">
+      <c r="V13" s="3" t="e">
         <f>#REF!*1000</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="2:26">
-      <c r="B13" s="19">
+    <row r="14" spans="2:22">
+      <c r="B14" s="19">
         <v>2024</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C14" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D14" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>425598.28600000002</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E14" s="22">
         <v>423719.45600000001</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F14" s="22">
         <v>1878.83</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G14" s="22">
         <v>134103.45499999999</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H14" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I14" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6892.0260000000007</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J14" s="22">
         <v>6846.5480000000007</v>
       </c>
-      <c r="K13" s="25">
+      <c r="K14" s="25">
         <v>45.477999999999994</v>
       </c>
     </row>
-    <row r="14" spans="2:26">
-      <c r="B14" s="12">
+    <row r="15" spans="2:22">
+      <c r="B15" s="12">
         <v>2024</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D15" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>402694.15900000004</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E15" s="15">
         <v>401228.58</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F15" s="15">
         <v>1465.579</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G15" s="15">
         <v>130346.13999999998</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H15" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I15" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7673.4130000000005</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J15" s="15">
         <v>7627.335</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K15" s="18">
         <v>46.078000000000003</v>
       </c>
     </row>
-    <row r="15" spans="2:26">
-      <c r="B15" s="19">
+    <row r="16" spans="2:22">
+      <c r="B16" s="19">
         <v>2024</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C16" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D16" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>420255.26899999997</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E16" s="22">
         <v>418249.16899999999</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F16" s="22">
         <v>2006.1</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G16" s="22">
         <v>132414.008</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H16" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I16" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8118.799</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J16" s="22">
         <v>8068.768</v>
       </c>
-      <c r="K15" s="25">
+      <c r="K16" s="25">
         <v>50.030999999999999</v>
       </c>
     </row>
-    <row r="16" spans="2:26">
-      <c r="B16" s="12">
+    <row r="17" spans="2:11">
+      <c r="B17" s="12">
         <v>2024</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D17" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>439431.40099999995</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E17" s="15">
         <v>437628.61099999998</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F17" s="15">
         <v>1802.79</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G17" s="15">
         <v>128736.15699999999</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H17" s="15">
         <v>14608.594000000001</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I17" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7934.7060000000001</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J17" s="15">
         <v>7869.5050000000001</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K17" s="18">
         <v>65.200999999999993</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="19">
+    <row r="18" spans="2:11">
+      <c r="B18" s="19">
         <v>2024</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C18" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D18" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>484582.01799999992</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E18" s="22">
         <v>482370.14599999995</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F18" s="22">
         <v>2211.8719999999998</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G18" s="22">
         <v>132127.88800000001</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H18" s="22">
         <v>26118.722999999998</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I18" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8232.1929999999993</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J18" s="22">
         <v>8188.4409999999989</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K18" s="25">
         <v>43.752000000000002</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="12">
+    <row r="19" spans="2:11">
+      <c r="B19" s="12">
         <v>2024</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C19" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D19" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>439514.446</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E19" s="15">
         <v>437434.21399999998</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F19" s="15">
         <v>2080.232</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G19" s="15">
         <v>121792.711</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H19" s="15">
         <v>23599.862999999998</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I19" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7101.8710000000001</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J19" s="15">
         <v>7037.6580000000004</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K19" s="18">
         <v>64.213000000000008</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="26">
+    <row r="20" spans="2:11">
+      <c r="B20" s="26">
         <v>2024</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C20" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D20" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>474317.27799999999</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E20" s="29">
         <v>472107.52999999997</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F20" s="29">
         <v>2209.748</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G20" s="29">
         <v>133551.829</v>
       </c>
-      <c r="H19" s="29">
+      <c r="H20" s="29">
         <v>24093.275999999998</v>
       </c>
-      <c r="I19" s="30">
+      <c r="I20" s="30">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6939.9099999999989</v>
       </c>
-      <c r="J19" s="29">
+      <c r="J20" s="29">
         <v>6885.6349999999993</v>
       </c>
-      <c r="K19" s="31">
+      <c r="K20" s="31">
         <v>54.274999999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:11" hidden="1">
-      <c r="B20" s="32">
+    <row r="21" spans="2:11" hidden="1">
+      <c r="B21" s="32">
         <v>2023</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C21" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D21" s="34">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>497130.734</v>
       </c>
-      <c r="E20" s="35">
+      <c r="E21" s="35">
         <v>495355.598</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F21" s="35">
         <v>1775.136</v>
       </c>
-      <c r="G20" s="35">
+      <c r="G21" s="35">
         <v>141052.152</v>
       </c>
-      <c r="H20" s="35">
+      <c r="H21" s="35">
         <v>24233.223999999998</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I21" s="36">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6935.0720000000001</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J21" s="35">
         <v>6907.192</v>
       </c>
-      <c r="K20" s="37">
+      <c r="K21" s="37">
         <v>27.88</v>
       </c>
     </row>
-    <row r="21" spans="2:11" hidden="1">
-      <c r="B21" s="19">
+    <row r="22" spans="2:11" hidden="1">
+      <c r="B22" s="19">
         <v>2023</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C22" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D22" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>448851.103</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E22" s="22">
         <v>447174.89500000002</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F22" s="22">
         <v>1676.2079999999999</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G22" s="22">
         <v>133555.97700000001</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H22" s="22">
         <v>22508.399000000001</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I22" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7171.835</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J22" s="22">
         <v>7125.1350000000002</v>
       </c>
-      <c r="K21" s="25">
+      <c r="K22" s="25">
         <v>46.7</v>
       </c>
     </row>
-    <row r="22" spans="2:11" hidden="1">
-      <c r="B22" s="12">
+    <row r="23" spans="2:11" hidden="1">
+      <c r="B23" s="12">
         <v>2023</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C23" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D23" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>432477.60700000002</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E23" s="15">
         <v>430760.484</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F23" s="15">
         <v>1717.123</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G23" s="15">
         <v>135949.88099999999</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H23" s="15">
         <v>22848.071</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I23" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7518.7080000000005</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J23" s="15">
         <v>7461.4880000000003</v>
       </c>
-      <c r="K22" s="18">
+      <c r="K23" s="18">
         <v>57.22</v>
       </c>
     </row>
-    <row r="23" spans="2:11" hidden="1">
-      <c r="B23" s="19">
+    <row r="24" spans="2:11" hidden="1">
+      <c r="B24" s="19">
         <v>2023</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C24" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D24" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>403096.08900000004</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E24" s="22">
         <v>401473.96300000005</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F24" s="22">
         <v>1622.126</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G24" s="22">
         <v>130099.94800000002</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H24" s="22">
         <v>18583.999</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I24" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6008.808</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J24" s="22">
         <v>5967.9129999999996</v>
       </c>
-      <c r="K23" s="25">
+      <c r="K24" s="25">
         <v>40.895000000000003</v>
       </c>
     </row>
-    <row r="24" spans="2:11" hidden="1">
-      <c r="B24" s="12">
+    <row r="25" spans="2:11" hidden="1">
+      <c r="B25" s="12">
         <v>2023</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C25" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D25" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>456592.212</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E25" s="15">
         <v>454830.98300000001</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F25" s="15">
         <v>1761.229</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G25" s="15">
         <v>143391.905</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H25" s="15">
         <v>16745.141</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I25" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6500.8150000000005</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J25" s="15">
         <v>6459.5010000000002</v>
       </c>
-      <c r="K24" s="18">
+      <c r="K25" s="18">
         <v>41.314</v>
       </c>
     </row>
-    <row r="25" spans="2:11" hidden="1">
-      <c r="B25" s="19">
+    <row r="26" spans="2:11" hidden="1">
+      <c r="B26" s="19">
         <v>2023</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C26" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D26" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>471958.52600000001</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E26" s="22">
         <v>470075.826</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F26" s="22">
         <v>1882.7</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G26" s="22">
         <v>148684.78200000001</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H26" s="22">
         <v>11646.752</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I26" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6100.8280000000004</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J26" s="22">
         <v>6053.3130000000001</v>
       </c>
-      <c r="K25" s="25">
+      <c r="K26" s="25">
         <v>47.515000000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:11" hidden="1">
-      <c r="B26" s="12">
+    <row r="27" spans="2:11" hidden="1">
+      <c r="B27" s="12">
         <v>2023</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C27" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D27" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>445605.64600000001</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E27" s="15">
         <v>443787.57799999998</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F27" s="15">
         <v>1818.068</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G27" s="15">
         <v>146831.476</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H27" s="15">
         <v>7161.2819999999992</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I27" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6393.7270000000008</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J27" s="15">
         <v>6324.5640000000003</v>
       </c>
-      <c r="K26" s="18">
+      <c r="K27" s="18">
         <v>69.163000000000011</v>
       </c>
     </row>
-    <row r="27" spans="2:11" hidden="1">
-      <c r="B27" s="19">
+    <row r="28" spans="2:11" hidden="1">
+      <c r="B28" s="19">
         <v>2023</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C28" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D28" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>438617.83499999996</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E28" s="22">
         <v>436653.87099999998</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F28" s="22">
         <v>1963.9639999999999</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G28" s="22">
         <v>146066.30300000001</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H28" s="22">
         <v>6589.6929999999993</v>
       </c>
-      <c r="I27" s="24">
+      <c r="I28" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7134.3119999999999</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J28" s="22">
         <v>7076.7709999999997</v>
       </c>
-      <c r="K27" s="25">
+      <c r="K28" s="25">
         <v>57.540999999999997</v>
       </c>
     </row>
-    <row r="28" spans="2:11" hidden="1">
-      <c r="B28" s="12">
+    <row r="29" spans="2:11" hidden="1">
+      <c r="B29" s="12">
         <v>2023</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D29" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>452626.13400000002</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E29" s="15">
         <v>450773.85800000001</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F29" s="15">
         <v>1852.2760000000001</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G29" s="15">
         <v>142422.533</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H29" s="15">
         <v>5892.4449999999997</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I29" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6515.2709999999997</v>
       </c>
-      <c r="J28" s="15">
+      <c r="J29" s="15">
         <v>6469.5959999999995</v>
       </c>
-      <c r="K28" s="18">
+      <c r="K29" s="18">
         <v>45.674999999999997</v>
       </c>
     </row>
-    <row r="29" spans="2:11" hidden="1">
-      <c r="B29" s="19">
+    <row r="30" spans="2:11" hidden="1">
+      <c r="B30" s="19">
         <v>2023</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C30" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D30" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>474025.5</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E30" s="22">
         <v>471373.67300000001</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F30" s="22">
         <v>2651.8269999999998</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G30" s="22">
         <v>147034.883</v>
       </c>
-      <c r="H29" s="22">
+      <c r="H30" s="22">
         <v>6186.35</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I30" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7697.951</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J30" s="22">
         <v>7624.7790000000005</v>
       </c>
-      <c r="K29" s="25">
+      <c r="K30" s="25">
         <v>73.171999999999997</v>
       </c>
     </row>
-    <row r="30" spans="2:11" hidden="1">
-      <c r="B30" s="12">
+    <row r="31" spans="2:11" hidden="1">
+      <c r="B31" s="12">
         <v>2023</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C31" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D31" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>418819.08400000003</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E31" s="15">
         <v>416951.092</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F31" s="15">
         <v>1867.9920000000002</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G31" s="15">
         <v>132657.08799999999</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H31" s="15">
         <v>4602.9769999999999</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I31" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6457.866</v>
       </c>
-      <c r="J30" s="15">
+      <c r="J31" s="15">
         <v>6410.7969999999996</v>
       </c>
-      <c r="K30" s="18">
+      <c r="K31" s="18">
         <v>47.069000000000003</v>
       </c>
     </row>
-    <row r="31" spans="2:11" hidden="1">
-      <c r="B31" s="26">
+    <row r="32" spans="2:11" hidden="1">
+      <c r="B32" s="26">
         <v>2023</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C32" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="28">
+      <c r="D32" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>461982.14700000006</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E32" s="29">
         <v>459918.04600000003</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F32" s="29">
         <v>2064.1010000000001</v>
       </c>
-      <c r="G31" s="29">
+      <c r="G32" s="29">
         <v>149629.198</v>
       </c>
-      <c r="H31" s="29">
+      <c r="H32" s="29">
         <v>5197.7539999999999</v>
       </c>
-      <c r="I31" s="30">
+      <c r="I32" s="30">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6489.6009999999997</v>
       </c>
-      <c r="J31" s="29">
+      <c r="J32" s="29">
         <v>6439.6379999999999</v>
       </c>
-      <c r="K31" s="31">
+      <c r="K32" s="31">
         <v>49.963000000000001</v>
       </c>
     </row>
-    <row r="32" spans="2:11" hidden="1">
-      <c r="B32" s="32">
+    <row r="33" spans="2:11" hidden="1">
+      <c r="B33" s="32">
         <v>2022</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C33" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="34">
+      <c r="D33" s="34">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>490826.32500000001</v>
       </c>
-      <c r="E32" s="35">
+      <c r="E33" s="35">
         <v>489000.86</v>
       </c>
-      <c r="F32" s="35">
+      <c r="F33" s="35">
         <v>1825.4649999999999</v>
       </c>
-      <c r="G32" s="35">
+      <c r="G33" s="35">
         <v>157413.09299999999</v>
       </c>
-      <c r="H32" s="35">
+      <c r="H33" s="35">
         <v>4958.7839999999997</v>
       </c>
-      <c r="I32" s="36">
+      <c r="I33" s="36">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7356.5429999999997</v>
       </c>
-      <c r="J32" s="35">
+      <c r="J33" s="35">
         <v>7305.0450000000001</v>
       </c>
-      <c r="K32" s="37">
+      <c r="K33" s="37">
         <v>51.497999999999998</v>
       </c>
     </row>
-    <row r="33" spans="2:11" hidden="1">
-      <c r="B33" s="19">
+    <row r="34" spans="2:11" hidden="1">
+      <c r="B34" s="19">
         <v>2022</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C34" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D34" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>443157.86400000006</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E34" s="22">
         <v>441195.48500000004</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F34" s="22">
         <v>1962.3790000000001</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G34" s="22">
         <v>150891.29999999999</v>
       </c>
-      <c r="H33" s="22">
+      <c r="H34" s="22">
         <v>4915.8980000000001</v>
       </c>
-      <c r="I33" s="24">
+      <c r="I34" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7236.4110000000001</v>
       </c>
-      <c r="J33" s="22">
+      <c r="J34" s="22">
         <v>7161.7529999999997</v>
       </c>
-      <c r="K33" s="25">
+      <c r="K34" s="25">
         <v>74.658000000000001</v>
       </c>
     </row>
-    <row r="34" spans="2:11" hidden="1">
-      <c r="B34" s="12">
+    <row r="35" spans="2:11" hidden="1">
+      <c r="B35" s="12">
         <v>2022</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C35" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D35" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>414809.23100000003</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E35" s="15">
         <v>412921.60700000002</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F35" s="15">
         <v>1887.624</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G35" s="15">
         <v>150805.27799999999</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H35" s="15">
         <v>4853.9489999999996</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I35" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6708.0059999999994</v>
       </c>
-      <c r="J34" s="15">
+      <c r="J35" s="15">
         <v>6658.6229999999996</v>
       </c>
-      <c r="K34" s="18">
+      <c r="K35" s="18">
         <v>49.383000000000003</v>
       </c>
     </row>
-    <row r="35" spans="2:11" hidden="1">
-      <c r="B35" s="19">
+    <row r="36" spans="2:11" hidden="1">
+      <c r="B36" s="19">
         <v>2022</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C36" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D36" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>387372.408</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E36" s="22">
         <v>385430.815</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F36" s="22">
         <v>1941.5929999999998</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G36" s="22">
         <v>146576.45300000001</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H36" s="22">
         <v>3809.2310000000002</v>
       </c>
-      <c r="I35" s="24">
+      <c r="I36" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>5459.2980000000007</v>
       </c>
-      <c r="J35" s="22">
+      <c r="J36" s="22">
         <v>5409.8770000000004</v>
       </c>
-      <c r="K35" s="25">
+      <c r="K36" s="25">
         <v>49.420999999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:11" hidden="1">
-      <c r="B36" s="12">
+    <row r="37" spans="2:11" hidden="1">
+      <c r="B37" s="12">
         <v>2022</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C37" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D37" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>436832.37699999998</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E37" s="15">
         <v>434776.21399999998</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F37" s="15">
         <v>2056.163</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G37" s="15">
         <v>156853.56299999999</v>
       </c>
-      <c r="H36" s="15">
+      <c r="H37" s="15">
         <v>2564.7890000000002</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I37" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>5460.4780000000001</v>
       </c>
-      <c r="J36" s="15">
+      <c r="J37" s="15">
         <v>5402.1080000000002</v>
       </c>
-      <c r="K36" s="18">
+      <c r="K37" s="18">
         <v>58.37</v>
       </c>
     </row>
-    <row r="37" spans="2:11" hidden="1">
-      <c r="B37" s="19">
+    <row r="38" spans="2:11" hidden="1">
+      <c r="B38" s="19">
         <v>2022</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C38" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D38" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>448351.97599999997</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E38" s="22">
         <v>446503.61</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F38" s="22">
         <v>1848.366</v>
       </c>
-      <c r="G37" s="22">
+      <c r="G38" s="22">
         <v>153622.307</v>
       </c>
-      <c r="H37" s="22">
+      <c r="H38" s="22">
         <v>1060.989</v>
       </c>
-      <c r="I37" s="24">
+      <c r="I38" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>5119.0199999999995</v>
       </c>
-      <c r="J37" s="22">
+      <c r="J38" s="22">
         <v>5070.4549999999999</v>
       </c>
-      <c r="K37" s="25">
+      <c r="K38" s="25">
         <v>48.564999999999998</v>
       </c>
     </row>
-    <row r="38" spans="2:11" hidden="1">
-      <c r="B38" s="12">
+    <row r="39" spans="2:11" hidden="1">
+      <c r="B39" s="12">
         <v>2022</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C39" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D39" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>416921.51799999998</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E39" s="15">
         <v>414947.446</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F39" s="15">
         <v>1974.0720000000001</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G39" s="15">
         <v>140586.55600000001</v>
       </c>
-      <c r="H38" s="15">
+      <c r="H39" s="15">
         <v>853.44799999999998</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I39" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>4541.9560000000001</v>
       </c>
-      <c r="J38" s="15">
+      <c r="J39" s="15">
         <v>4497.9610000000002</v>
       </c>
-      <c r="K38" s="18">
+      <c r="K39" s="18">
         <v>43.994999999999997</v>
       </c>
     </row>
-    <row r="39" spans="2:11" hidden="1">
-      <c r="B39" s="19">
+    <row r="40" spans="2:11" hidden="1">
+      <c r="B40" s="19">
         <v>2022</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C40" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D40" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>424375.26299999998</v>
       </c>
-      <c r="E39" s="22">
+      <c r="E40" s="22">
         <v>422374.98</v>
       </c>
-      <c r="F39" s="22">
+      <c r="F40" s="22">
         <v>2000.2830000000001</v>
       </c>
-      <c r="G39" s="22"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="25"/>
-    </row>
-    <row r="40" spans="2:11" hidden="1">
-      <c r="B40" s="12">
+      <c r="G40" s="22"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="25"/>
+    </row>
+    <row r="41" spans="2:11" hidden="1">
+      <c r="B41" s="12">
         <v>2022</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C41" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D41" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>437218.36900000001</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E41" s="15">
         <v>435084.44699999999</v>
       </c>
-      <c r="F40" s="15">
+      <c r="F41" s="15">
         <v>2133.922</v>
       </c>
-      <c r="G40" s="15"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="18"/>
-    </row>
-    <row r="41" spans="2:11" hidden="1">
-      <c r="B41" s="19">
+      <c r="G41" s="15"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="18"/>
+    </row>
+    <row r="42" spans="2:11" hidden="1">
+      <c r="B42" s="19">
         <v>2022</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C42" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D42" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>430084.12599999999</v>
       </c>
-      <c r="E41" s="22">
+      <c r="E42" s="22">
         <v>427583.05499999999</v>
       </c>
-      <c r="F41" s="22">
+      <c r="F42" s="22">
         <v>2501.0709999999999</v>
       </c>
-      <c r="G41" s="22"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="25"/>
-    </row>
-    <row r="42" spans="2:11" hidden="1">
-      <c r="B42" s="12">
+      <c r="G42" s="22"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="25"/>
+    </row>
+    <row r="43" spans="2:11" hidden="1">
+      <c r="B43" s="12">
         <v>2022</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C43" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D43" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>358536.61100000003</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E43" s="15">
         <v>356535.05300000001</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F43" s="15">
         <v>2001.5580000000002</v>
       </c>
-      <c r="G42" s="15"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="18"/>
-    </row>
-    <row r="43" spans="2:11" hidden="1">
-      <c r="B43" s="26">
+      <c r="G43" s="15"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="18"/>
+    </row>
+    <row r="44" spans="2:11" hidden="1">
+      <c r="B44" s="26">
         <v>2022</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C44" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="28">
+      <c r="D44" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>401925.429</v>
       </c>
-      <c r="E43" s="29">
+      <c r="E44" s="29">
         <v>399729.82500000001</v>
       </c>
-      <c r="F43" s="29">
+      <c r="F44" s="29">
         <v>2195.6039999999998</v>
       </c>
-      <c r="G43" s="29"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="31"/>
-    </row>
-    <row r="44" spans="2:11" hidden="1">
-      <c r="B44" s="32">
+      <c r="G44" s="29"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="31"/>
+    </row>
+    <row r="45" spans="2:11" hidden="1">
+      <c r="B45" s="32">
         <v>2021</v>
       </c>
-      <c r="C44" s="33" t="s">
+      <c r="C45" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="34">
+      <c r="D45" s="34">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>432897.13799999998</v>
       </c>
-      <c r="E44" s="35">
+      <c r="E45" s="35">
         <v>430707.82799999998</v>
       </c>
-      <c r="F44" s="35">
+      <c r="F45" s="35">
         <v>2189.31</v>
       </c>
-      <c r="G44" s="35"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="37"/>
-    </row>
-    <row r="45" spans="2:11" hidden="1">
-      <c r="B45" s="19">
+      <c r="G45" s="35"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="37"/>
+    </row>
+    <row r="46" spans="2:11" hidden="1">
+      <c r="B46" s="19">
         <v>2021</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C46" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D46" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>383033.76299999998</v>
       </c>
-      <c r="E45" s="22">
+      <c r="E46" s="22">
         <v>380922.15399999998</v>
       </c>
-      <c r="F45" s="22">
+      <c r="F46" s="22">
         <v>2111.6089999999999</v>
       </c>
-      <c r="G45" s="22"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="25"/>
-    </row>
-    <row r="46" spans="2:11" hidden="1">
-      <c r="B46" s="12">
+      <c r="G46" s="22"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="25"/>
+    </row>
+    <row r="47" spans="2:11" hidden="1">
+      <c r="B47" s="12">
         <v>2021</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C47" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D47" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>358842.80099999998</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E47" s="15">
         <v>356760.12</v>
       </c>
-      <c r="F46" s="15">
+      <c r="F47" s="15">
         <v>2082.681</v>
       </c>
-      <c r="G46" s="15"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="18"/>
-    </row>
-    <row r="47" spans="2:11" hidden="1">
-      <c r="B47" s="19">
+      <c r="G47" s="15"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="18"/>
+    </row>
+    <row r="48" spans="2:11" hidden="1">
+      <c r="B48" s="19">
         <v>2021</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C48" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D48" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>321941.98300000001</v>
       </c>
-      <c r="E47" s="22">
+      <c r="E48" s="22">
         <v>319890.413</v>
       </c>
-      <c r="F47" s="22">
+      <c r="F48" s="22">
         <v>2051.5699999999997</v>
       </c>
-      <c r="G47" s="22"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="25"/>
-    </row>
-    <row r="48" spans="2:11" hidden="1">
-      <c r="B48" s="12">
+      <c r="G48" s="22"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="25"/>
+    </row>
+    <row r="49" spans="2:11" hidden="1">
+      <c r="B49" s="12">
         <v>2021</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C49" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D49" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>363960.13899999997</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E49" s="15">
         <v>361966.45999999996</v>
       </c>
-      <c r="F48" s="15">
+      <c r="F49" s="15">
         <v>1993.6790000000001</v>
       </c>
-      <c r="G48" s="15"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="18"/>
-    </row>
-    <row r="49" spans="2:11" hidden="1">
-      <c r="B49" s="19">
+      <c r="G49" s="15"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="18"/>
+    </row>
+    <row r="50" spans="2:11" hidden="1">
+      <c r="B50" s="19">
         <v>2021</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C50" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D49" s="21">
+      <c r="D50" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>374695.174</v>
       </c>
-      <c r="E49" s="22">
+      <c r="E50" s="22">
         <v>372625.397</v>
       </c>
-      <c r="F49" s="22">
+      <c r="F50" s="22">
         <v>2069.777</v>
       </c>
-      <c r="G49" s="22"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="25"/>
-    </row>
-    <row r="50" spans="2:11" hidden="1">
-      <c r="B50" s="12">
+      <c r="G50" s="22"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="25"/>
+    </row>
+    <row r="51" spans="2:11" hidden="1">
+      <c r="B51" s="12">
         <v>2021</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C51" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D51" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>334517.39600000001</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E51" s="15">
         <v>332552.66499999998</v>
       </c>
-      <c r="F50" s="15">
+      <c r="F51" s="15">
         <v>1964.731</v>
       </c>
-      <c r="G50" s="15"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="18"/>
-    </row>
-    <row r="51" spans="2:11" hidden="1">
-      <c r="B51" s="19">
+      <c r="G51" s="15"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="18"/>
+    </row>
+    <row r="52" spans="2:11" hidden="1">
+      <c r="B52" s="19">
         <v>2021</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C52" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="21">
+      <c r="D52" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>322630.61800000002</v>
       </c>
-      <c r="E51" s="22">
+      <c r="E52" s="22">
         <v>320400.96000000002</v>
       </c>
-      <c r="F51" s="22">
+      <c r="F52" s="22">
         <v>2229.6580000000004</v>
       </c>
-      <c r="G51" s="22"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="25"/>
-    </row>
-    <row r="52" spans="2:11" hidden="1">
-      <c r="B52" s="12">
+      <c r="G52" s="22"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="25"/>
+    </row>
+    <row r="53" spans="2:11" hidden="1">
+      <c r="B53" s="12">
         <v>2021</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C53" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D52" s="14">
+      <c r="D53" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>299222.027</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E53" s="15">
         <v>296903.73</v>
       </c>
-      <c r="F52" s="15">
+      <c r="F53" s="15">
         <v>2318.297</v>
       </c>
-      <c r="G52" s="15"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="18"/>
-    </row>
-    <row r="53" spans="2:11" hidden="1">
-      <c r="B53" s="19">
+      <c r="G53" s="15"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="18"/>
+    </row>
+    <row r="54" spans="2:11" hidden="1">
+      <c r="B54" s="19">
         <v>2021</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C54" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D53" s="21">
+      <c r="D54" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>271328.42499999999</v>
       </c>
-      <c r="E53" s="22">
+      <c r="E54" s="22">
         <v>268651.59499999997</v>
       </c>
-      <c r="F53" s="22">
+      <c r="F54" s="22">
         <v>2676.83</v>
       </c>
-      <c r="G53" s="22"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="25"/>
-    </row>
-    <row r="54" spans="2:11" hidden="1">
-      <c r="B54" s="12">
+      <c r="G54" s="22"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="25"/>
+    </row>
+    <row r="55" spans="2:11" hidden="1">
+      <c r="B55" s="12">
         <v>2021</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C55" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D55" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>222215.03899999999</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E55" s="15">
         <v>220246.12</v>
       </c>
-      <c r="F54" s="15">
+      <c r="F55" s="15">
         <v>1968.9190000000001</v>
       </c>
-      <c r="G54" s="15"/>
-      <c r="I54" s="40"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="18"/>
-    </row>
-    <row r="55" spans="2:11" hidden="1">
-      <c r="B55" s="26">
+      <c r="G55" s="15"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="18"/>
+    </row>
+    <row r="56" spans="2:11" hidden="1">
+      <c r="B56" s="26">
         <v>2021</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C56" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="28">
+      <c r="D56" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>272354.26800000004</v>
       </c>
-      <c r="E55" s="29">
+      <c r="E56" s="29">
         <v>270211.59100000001</v>
       </c>
-      <c r="F55" s="29">
+      <c r="F56" s="29">
         <v>2142.6770000000001</v>
       </c>
-      <c r="G55" s="29"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="31"/>
-    </row>
-    <row r="56" spans="2:11" hidden="1">
-      <c r="B56" s="32">
+      <c r="G56" s="29"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="31"/>
+    </row>
+    <row r="57" spans="2:11" hidden="1">
+      <c r="B57" s="32">
         <v>2020</v>
       </c>
-      <c r="C56" s="33" t="s">
+      <c r="C57" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D56" s="34">
+      <c r="D57" s="34">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>289863.19500000001</v>
       </c>
-      <c r="E56" s="35">
+      <c r="E57" s="35">
         <v>287659.50599999999</v>
       </c>
-      <c r="F56" s="35">
+      <c r="F57" s="35">
         <v>2203.6889999999999</v>
       </c>
-      <c r="G56" s="35"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="44"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="37"/>
-    </row>
-    <row r="57" spans="2:11" hidden="1">
-      <c r="B57" s="19">
+      <c r="G57" s="35"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="37"/>
+    </row>
+    <row r="58" spans="2:11" hidden="1">
+      <c r="B58" s="19">
         <v>2020</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C58" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D57" s="21">
+      <c r="D58" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>228379.71699999998</v>
       </c>
-      <c r="E57" s="22">
+      <c r="E58" s="22">
         <v>226637.46699999998</v>
       </c>
-      <c r="F57" s="22">
+      <c r="F58" s="22">
         <v>1742.25</v>
       </c>
-      <c r="G57" s="22"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="25"/>
-    </row>
-    <row r="58" spans="2:11" hidden="1">
-      <c r="B58" s="12">
+      <c r="G58" s="22"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="25"/>
+    </row>
+    <row r="59" spans="2:11" hidden="1">
+      <c r="B59" s="12">
         <v>2020</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C59" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D59" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>225796.75899999996</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E59" s="15">
         <v>223656.52399999998</v>
       </c>
-      <c r="F58" s="15">
+      <c r="F59" s="15">
         <v>2140.2350000000001</v>
       </c>
-      <c r="G58" s="15"/>
-      <c r="I58" s="40"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="18"/>
-    </row>
-    <row r="59" spans="2:11" hidden="1">
-      <c r="B59" s="19">
+      <c r="G59" s="15"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="18"/>
+    </row>
+    <row r="60" spans="2:11" hidden="1">
+      <c r="B60" s="19">
         <v>2020</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C60" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D59" s="21">
+      <c r="D60" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>192359.82700000002</v>
       </c>
-      <c r="E59" s="22">
+      <c r="E60" s="22">
         <v>190331.43100000001</v>
       </c>
-      <c r="F59" s="22">
+      <c r="F60" s="22">
         <v>2028.396</v>
       </c>
-      <c r="G59" s="22"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="25"/>
-    </row>
-    <row r="60" spans="2:11" hidden="1">
-      <c r="B60" s="12">
+      <c r="G60" s="22"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="25"/>
+    </row>
+    <row r="61" spans="2:11" hidden="1">
+      <c r="B61" s="12">
         <v>2020</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C61" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D60" s="14">
+      <c r="D61" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>184495.08899999998</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E61" s="15">
         <v>182519.18599999999</v>
       </c>
-      <c r="F60" s="15">
+      <c r="F61" s="15">
         <v>1975.903</v>
       </c>
-      <c r="G60" s="15"/>
-      <c r="I60" s="40"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="18"/>
-    </row>
-    <row r="61" spans="2:11" hidden="1">
-      <c r="B61" s="19">
+      <c r="G61" s="15"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="18"/>
+    </row>
+    <row r="62" spans="2:11" hidden="1">
+      <c r="B62" s="19">
         <v>2020</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C62" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D61" s="21">
+      <c r="D62" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>160167.435</v>
       </c>
-      <c r="E61" s="22">
+      <c r="E62" s="22">
         <v>158161.66200000001</v>
       </c>
-      <c r="F61" s="22">
+      <c r="F62" s="22">
         <v>2005.7730000000001</v>
       </c>
-      <c r="G61" s="22"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="25"/>
-    </row>
-    <row r="62" spans="2:11" hidden="1">
-      <c r="B62" s="12">
+      <c r="G62" s="22"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="25"/>
+    </row>
+    <row r="63" spans="2:11" hidden="1">
+      <c r="B63" s="12">
         <v>2020</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C63" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D63" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>105511.976</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E63" s="15">
         <v>103802.962</v>
       </c>
-      <c r="F62" s="15">
+      <c r="F63" s="15">
         <v>1709.0140000000001</v>
       </c>
-      <c r="G62" s="15"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="18"/>
-    </row>
-    <row r="63" spans="2:11" hidden="1">
-      <c r="B63" s="19">
+      <c r="G63" s="15"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="18"/>
+    </row>
+    <row r="64" spans="2:11" hidden="1">
+      <c r="B64" s="19">
         <v>2020</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C64" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D63" s="21">
+      <c r="D64" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>69285.474000000002</v>
       </c>
-      <c r="E63" s="22">
+      <c r="E64" s="22">
         <v>67702.22</v>
       </c>
-      <c r="F63" s="22">
+      <c r="F64" s="22">
         <v>1583.2539999999999</v>
       </c>
-      <c r="G63" s="22"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="39"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="25"/>
-    </row>
-    <row r="64" spans="2:11" hidden="1">
-      <c r="B64" s="12">
+      <c r="G64" s="22"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="25"/>
+    </row>
+    <row r="65" spans="2:11" hidden="1">
+      <c r="B65" s="12">
         <v>2020</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C65" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D64" s="14">
+      <c r="D65" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>69532.992000000013</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E65" s="15">
         <v>67898.813000000009</v>
       </c>
-      <c r="F64" s="15">
+      <c r="F65" s="15">
         <v>1634.1790000000001</v>
       </c>
-      <c r="G64" s="15"/>
-      <c r="I64" s="40"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="18"/>
-    </row>
-    <row r="65" spans="2:11" hidden="1">
-      <c r="B65" s="19">
+      <c r="G65" s="15"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="18"/>
+    </row>
+    <row r="66" spans="2:11" hidden="1">
+      <c r="B66" s="19">
         <v>2020</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C66" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D65" s="21">
+      <c r="D66" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>334769.408</v>
       </c>
-      <c r="E65" s="22">
+      <c r="E66" s="22">
         <v>332339.83399999997</v>
       </c>
-      <c r="F65" s="22">
+      <c r="F66" s="22">
         <v>2429.5740000000001</v>
       </c>
-      <c r="G65" s="22"/>
-      <c r="H65" s="38"/>
-      <c r="I65" s="39"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="25"/>
-    </row>
-    <row r="66" spans="2:11" hidden="1">
-      <c r="B66" s="12">
+      <c r="G66" s="22"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="25"/>
+    </row>
+    <row r="67" spans="2:11" hidden="1">
+      <c r="B67" s="12">
         <v>2020</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C67" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D66" s="14">
+      <c r="D67" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>400050.22200000001</v>
       </c>
-      <c r="E66" s="15">
+      <c r="E67" s="15">
         <v>397843.09899999999</v>
       </c>
-      <c r="F66" s="15">
+      <c r="F67" s="15">
         <v>2207.123</v>
       </c>
-      <c r="G66" s="15"/>
-      <c r="I66" s="40"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="18"/>
-    </row>
-    <row r="67" spans="2:11" hidden="1">
-      <c r="B67" s="26">
+      <c r="G67" s="15"/>
+      <c r="I67" s="40"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="18"/>
+    </row>
+    <row r="68" spans="2:11" hidden="1">
+      <c r="B68" s="26">
         <v>2020</v>
       </c>
-      <c r="C67" s="27" t="s">
+      <c r="C68" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D67" s="28">
+      <c r="D68" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>439902.09</v>
       </c>
-      <c r="E67" s="29">
+      <c r="E68" s="29">
         <v>437506.02900000004</v>
       </c>
-      <c r="F67" s="29">
+      <c r="F68" s="29">
         <v>2396.0610000000001</v>
       </c>
-      <c r="G67" s="29"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="42"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="31"/>
-    </row>
-    <row r="68" spans="2:11" hidden="1">
-      <c r="B68" s="32">
+      <c r="G68" s="29"/>
+      <c r="H68" s="41"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="31"/>
+    </row>
+    <row r="69" spans="2:11" hidden="1">
+      <c r="B69" s="32">
         <v>2019</v>
       </c>
-      <c r="C68" s="33" t="s">
+      <c r="C69" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D68" s="34">
+      <c r="D69" s="34">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>440800</v>
       </c>
-      <c r="E68" s="35">
+      <c r="E69" s="35">
         <v>438700</v>
       </c>
-      <c r="F68" s="35">
+      <c r="F69" s="35">
         <v>2100</v>
       </c>
-      <c r="G68" s="35"/>
-      <c r="H68" s="43"/>
-      <c r="I68" s="44"/>
-      <c r="J68" s="35"/>
-      <c r="K68" s="37"/>
-    </row>
-    <row r="69" spans="2:11" hidden="1">
-      <c r="B69" s="19">
+      <c r="G69" s="35"/>
+      <c r="H69" s="43"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="37"/>
+    </row>
+    <row r="70" spans="2:11" hidden="1">
+      <c r="B70" s="19">
         <v>2019</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C70" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D69" s="21">
+      <c r="D70" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>412300</v>
       </c>
-      <c r="E69" s="22">
+      <c r="E70" s="22">
         <v>410400</v>
       </c>
-      <c r="F69" s="22">
+      <c r="F70" s="22">
         <v>1900</v>
       </c>
-      <c r="G69" s="22"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="39"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="25"/>
-    </row>
-    <row r="70" spans="2:11" hidden="1">
-      <c r="B70" s="12">
+      <c r="G70" s="22"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="25"/>
+    </row>
+    <row r="71" spans="2:11" hidden="1">
+      <c r="B71" s="12">
         <v>2019</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C71" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D70" s="14">
+      <c r="D71" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>397000</v>
       </c>
-      <c r="E70" s="15">
+      <c r="E71" s="15">
         <v>395000</v>
       </c>
-      <c r="F70" s="15">
+      <c r="F71" s="15">
         <v>2000</v>
       </c>
-      <c r="G70" s="15"/>
-      <c r="I70" s="40"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="18"/>
-    </row>
-    <row r="71" spans="2:11" hidden="1">
-      <c r="B71" s="19">
+      <c r="G71" s="15"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="18"/>
+    </row>
+    <row r="72" spans="2:11" hidden="1">
+      <c r="B72" s="19">
         <v>2019</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="C72" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D71" s="21">
+      <c r="D72" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>372500</v>
       </c>
-      <c r="E71" s="22">
+      <c r="E72" s="22">
         <v>370700</v>
       </c>
-      <c r="F71" s="22">
+      <c r="F72" s="22">
         <v>1800</v>
       </c>
-      <c r="G71" s="22"/>
-      <c r="H71" s="38"/>
-      <c r="I71" s="39"/>
-      <c r="J71" s="22"/>
-      <c r="K71" s="25"/>
-    </row>
-    <row r="72" spans="2:11" hidden="1">
-      <c r="B72" s="12">
+      <c r="G72" s="22"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="39"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="25"/>
+    </row>
+    <row r="73" spans="2:11" hidden="1">
+      <c r="B73" s="12">
         <v>2019</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C73" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D72" s="14">
+      <c r="D73" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>430200</v>
       </c>
-      <c r="E72" s="15">
+      <c r="E73" s="15">
         <v>428200</v>
       </c>
-      <c r="F72" s="15">
+      <c r="F73" s="15">
         <v>2000</v>
       </c>
-      <c r="G72" s="15"/>
-      <c r="I72" s="40"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="18"/>
-    </row>
-    <row r="73" spans="2:11" hidden="1">
-      <c r="B73" s="19">
+      <c r="G73" s="15"/>
+      <c r="I73" s="40"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="18"/>
+    </row>
+    <row r="74" spans="2:11" hidden="1">
+      <c r="B74" s="19">
         <v>2019</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C74" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D73" s="21">
+      <c r="D74" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>445000</v>
       </c>
-      <c r="E73" s="22">
+      <c r="E74" s="22">
         <v>442800</v>
       </c>
-      <c r="F73" s="22">
+      <c r="F74" s="22">
         <v>2200</v>
       </c>
-      <c r="G73" s="22"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="39"/>
-      <c r="J73" s="22"/>
-      <c r="K73" s="25"/>
-    </row>
-    <row r="74" spans="2:11" hidden="1">
-      <c r="B74" s="12">
+      <c r="G74" s="22"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="39"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="25"/>
+    </row>
+    <row r="75" spans="2:11" hidden="1">
+      <c r="B75" s="12">
         <v>2019</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C75" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="14">
+      <c r="D75" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>415300</v>
       </c>
-      <c r="E74" s="15">
+      <c r="E75" s="15">
         <v>413200</v>
       </c>
-      <c r="F74" s="15">
+      <c r="F75" s="15">
         <v>2100</v>
       </c>
-      <c r="G74" s="15"/>
-      <c r="I74" s="40"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="18"/>
-    </row>
-    <row r="75" spans="2:11" hidden="1">
-      <c r="B75" s="19">
+      <c r="G75" s="15"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="18"/>
+    </row>
+    <row r="76" spans="2:11" hidden="1">
+      <c r="B76" s="19">
         <v>2019</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="C76" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D75" s="21">
+      <c r="D76" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>413700</v>
       </c>
-      <c r="E75" s="22">
+      <c r="E76" s="22">
         <v>411500</v>
       </c>
-      <c r="F75" s="22">
+      <c r="F76" s="22">
         <v>2200</v>
       </c>
-      <c r="G75" s="22"/>
-      <c r="H75" s="38"/>
-      <c r="I75" s="39"/>
-      <c r="J75" s="22"/>
-      <c r="K75" s="25"/>
-    </row>
-    <row r="76" spans="2:11" hidden="1">
-      <c r="B76" s="12">
+      <c r="G76" s="22"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="39"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="25"/>
+    </row>
+    <row r="77" spans="2:11" hidden="1">
+      <c r="B77" s="12">
         <v>2019</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C77" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D76" s="14">
+      <c r="D77" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>419400</v>
       </c>
-      <c r="E76" s="15">
+      <c r="E77" s="15">
         <v>417000</v>
       </c>
-      <c r="F76" s="15">
+      <c r="F77" s="15">
         <v>2400</v>
       </c>
-      <c r="G76" s="15"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="18"/>
-    </row>
-    <row r="77" spans="2:11" hidden="1">
-      <c r="B77" s="19">
+      <c r="G77" s="15"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="18"/>
+    </row>
+    <row r="78" spans="2:11" hidden="1">
+      <c r="B78" s="19">
         <v>2019</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C78" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D77" s="21">
+      <c r="D78" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>426800</v>
       </c>
-      <c r="E77" s="22">
+      <c r="E78" s="22">
         <v>420000</v>
       </c>
-      <c r="F77" s="22">
+      <c r="F78" s="22">
         <v>6800</v>
       </c>
-      <c r="G77" s="22"/>
-      <c r="H77" s="38"/>
-      <c r="I77" s="39"/>
-      <c r="J77" s="22"/>
-      <c r="K77" s="25"/>
-    </row>
-    <row r="78" spans="2:11" hidden="1">
-      <c r="B78" s="12">
+      <c r="G78" s="22"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="39"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="25"/>
+    </row>
+    <row r="79" spans="2:11" hidden="1">
+      <c r="B79" s="12">
         <v>2019</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C79" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D78" s="14">
+      <c r="D79" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>375100</v>
       </c>
-      <c r="E78" s="15">
+      <c r="E79" s="15">
         <v>372900</v>
       </c>
-      <c r="F78" s="15">
+      <c r="F79" s="15">
         <v>2200</v>
       </c>
-      <c r="G78" s="15"/>
-      <c r="I78" s="40"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="18"/>
-    </row>
-    <row r="79" spans="2:11" hidden="1">
-      <c r="B79" s="26">
+      <c r="G79" s="15"/>
+      <c r="I79" s="40"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="18"/>
+    </row>
+    <row r="80" spans="2:11" hidden="1">
+      <c r="B80" s="26">
         <v>2019</v>
       </c>
-      <c r="C79" s="27" t="s">
+      <c r="C80" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D79" s="28">
+      <c r="D80" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>420900</v>
       </c>
-      <c r="E79" s="29">
+      <c r="E80" s="29">
         <v>418600</v>
       </c>
-      <c r="F79" s="29">
+      <c r="F80" s="29">
         <v>2300</v>
       </c>
-      <c r="G79" s="29"/>
-      <c r="H79" s="41"/>
-      <c r="I79" s="42"/>
-      <c r="J79" s="29"/>
-      <c r="K79" s="31"/>
-    </row>
-    <row r="80" spans="2:11" hidden="1">
-      <c r="B80" s="13">
+      <c r="G80" s="29"/>
+      <c r="H80" s="41"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="29"/>
+      <c r="K80" s="31"/>
+    </row>
+    <row r="81" spans="2:11" hidden="1">
+      <c r="B81" s="13">
         <v>2018</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C81" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D80" s="14">
+      <c r="D81" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>436100</v>
       </c>
-      <c r="E80" s="15">
+      <c r="E81" s="15">
         <v>434000</v>
       </c>
-      <c r="F80" s="15">
+      <c r="F81" s="15">
         <v>2100</v>
       </c>
-      <c r="G80" s="15"/>
-      <c r="I80" s="44"/>
-      <c r="J80" s="35"/>
-      <c r="K80" s="37"/>
-    </row>
-    <row r="81" spans="2:11" hidden="1">
-      <c r="B81" s="20">
+      <c r="G81" s="15"/>
+      <c r="I81" s="44"/>
+      <c r="J81" s="35"/>
+      <c r="K81" s="37"/>
+    </row>
+    <row r="82" spans="2:11" hidden="1">
+      <c r="B82" s="20">
         <v>2018</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C82" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D81" s="21">
+      <c r="D82" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>406900</v>
       </c>
-      <c r="E81" s="22">
+      <c r="E82" s="22">
         <v>404900</v>
       </c>
-      <c r="F81" s="22">
+      <c r="F82" s="22">
         <v>2000</v>
       </c>
-      <c r="G81" s="22"/>
-      <c r="H81" s="38"/>
-      <c r="I81" s="39"/>
-      <c r="J81" s="22"/>
-      <c r="K81" s="25"/>
-    </row>
-    <row r="82" spans="2:11" hidden="1">
-      <c r="B82" s="13">
+      <c r="G82" s="22"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="39"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="25"/>
+    </row>
+    <row r="83" spans="2:11" hidden="1">
+      <c r="B83" s="13">
         <v>2018</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C83" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D82" s="14">
+      <c r="D83" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>391100</v>
       </c>
-      <c r="E82" s="15">
+      <c r="E83" s="15">
         <v>389100</v>
       </c>
-      <c r="F82" s="15">
+      <c r="F83" s="15">
         <v>2000</v>
       </c>
-      <c r="G82" s="15"/>
-      <c r="I82" s="40"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="18"/>
-    </row>
-    <row r="83" spans="2:11" hidden="1">
-      <c r="B83" s="20">
+      <c r="G83" s="15"/>
+      <c r="I83" s="40"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="18"/>
+    </row>
+    <row r="84" spans="2:11" hidden="1">
+      <c r="B84" s="20">
         <v>2018</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="C84" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D83" s="21">
+      <c r="D84" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>374300</v>
       </c>
-      <c r="E83" s="22">
+      <c r="E84" s="22">
         <v>372300</v>
       </c>
-      <c r="F83" s="22">
+      <c r="F84" s="22">
         <v>2000</v>
       </c>
-      <c r="G83" s="22"/>
-      <c r="H83" s="38"/>
-      <c r="I83" s="39"/>
-      <c r="J83" s="22"/>
-      <c r="K83" s="25"/>
-    </row>
-    <row r="84" spans="2:11" hidden="1">
-      <c r="B84" s="13">
+      <c r="G84" s="22"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="25"/>
+    </row>
+    <row r="85" spans="2:11" hidden="1">
+      <c r="B85" s="13">
         <v>2018</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C85" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="14">
+      <c r="D85" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>428800</v>
       </c>
-      <c r="E84" s="15">
+      <c r="E85" s="15">
         <v>426400</v>
       </c>
-      <c r="F84" s="15">
+      <c r="F85" s="15">
         <v>2400</v>
       </c>
-      <c r="G84" s="15"/>
-      <c r="I84" s="40"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="18"/>
-    </row>
-    <row r="85" spans="2:11" hidden="1">
-      <c r="B85" s="20">
+      <c r="G85" s="15"/>
+      <c r="I85" s="40"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="18"/>
+    </row>
+    <row r="86" spans="2:11" hidden="1">
+      <c r="B86" s="20">
         <v>2018</v>
       </c>
-      <c r="C85" s="20" t="s">
+      <c r="C86" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="21">
+      <c r="D86" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>446300</v>
       </c>
-      <c r="E85" s="22">
+      <c r="E86" s="22">
         <v>444000</v>
       </c>
-      <c r="F85" s="22">
+      <c r="F86" s="22">
         <v>2300</v>
       </c>
-      <c r="G85" s="22"/>
-      <c r="H85" s="38"/>
-      <c r="I85" s="39"/>
-      <c r="J85" s="22"/>
-      <c r="K85" s="25"/>
-    </row>
-    <row r="86" spans="2:11" hidden="1">
-      <c r="B86" s="13">
+      <c r="G86" s="22"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="39"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="25"/>
+    </row>
+    <row r="87" spans="2:11" hidden="1">
+      <c r="B87" s="13">
         <v>2018</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C87" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="14">
+      <c r="D87" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>411400</v>
       </c>
-      <c r="E86" s="15">
+      <c r="E87" s="15">
         <v>409400</v>
       </c>
-      <c r="F86" s="15">
+      <c r="F87" s="15">
         <v>2000</v>
       </c>
-      <c r="G86" s="15"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="18"/>
-    </row>
-    <row r="87" spans="2:11" hidden="1">
-      <c r="B87" s="20">
+      <c r="G87" s="15"/>
+      <c r="I87" s="40"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="18"/>
+    </row>
+    <row r="88" spans="2:11" hidden="1">
+      <c r="B88" s="20">
         <v>2018</v>
       </c>
-      <c r="C87" s="20" t="s">
+      <c r="C88" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="21">
+      <c r="D88" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>406200</v>
       </c>
-      <c r="E87" s="22">
+      <c r="E88" s="22">
         <v>403800</v>
       </c>
-      <c r="F87" s="22">
+      <c r="F88" s="22">
         <v>2400</v>
       </c>
-      <c r="G87" s="22"/>
-      <c r="H87" s="38"/>
-      <c r="I87" s="39"/>
-      <c r="J87" s="22"/>
-      <c r="K87" s="25"/>
-    </row>
-    <row r="88" spans="2:11" hidden="1">
-      <c r="B88" s="13">
+      <c r="G88" s="22"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="39"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="25"/>
+    </row>
+    <row r="89" spans="2:11" hidden="1">
+      <c r="B89" s="13">
         <v>2018</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C89" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="14">
+      <c r="D89" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>415400</v>
       </c>
-      <c r="E88" s="15">
+      <c r="E89" s="15">
         <v>413200</v>
       </c>
-      <c r="F88" s="15">
+      <c r="F89" s="15">
         <v>2200</v>
       </c>
-      <c r="G88" s="15"/>
-      <c r="I88" s="40"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="18"/>
-    </row>
-    <row r="89" spans="2:11" hidden="1">
-      <c r="B89" s="20">
+      <c r="G89" s="15"/>
+      <c r="I89" s="40"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="18"/>
+    </row>
+    <row r="90" spans="2:11" hidden="1">
+      <c r="B90" s="20">
         <v>2018</v>
       </c>
-      <c r="C89" s="20" t="s">
+      <c r="C90" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D89" s="21">
+      <c r="D90" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>444600</v>
       </c>
-      <c r="E89" s="22">
+      <c r="E90" s="22">
         <v>442100</v>
       </c>
-      <c r="F89" s="22">
+      <c r="F90" s="22">
         <v>2500</v>
       </c>
-      <c r="G89" s="22"/>
-      <c r="H89" s="38"/>
-      <c r="I89" s="39"/>
-      <c r="J89" s="22"/>
-      <c r="K89" s="25"/>
-    </row>
-    <row r="90" spans="2:11" hidden="1">
-      <c r="B90" s="13">
+      <c r="G90" s="22"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="22"/>
+      <c r="K90" s="25"/>
+    </row>
+    <row r="91" spans="2:11" hidden="1">
+      <c r="B91" s="13">
         <v>2018</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C91" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D90" s="14">
+      <c r="D91" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>381500</v>
       </c>
-      <c r="E90" s="15">
+      <c r="E91" s="15">
         <v>379200</v>
       </c>
-      <c r="F90" s="15">
+      <c r="F91" s="15">
         <v>2300</v>
       </c>
-      <c r="G90" s="15"/>
-      <c r="I90" s="40"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="18"/>
-    </row>
-    <row r="91" spans="2:11" hidden="1">
-      <c r="B91" s="20">
+      <c r="G91" s="15"/>
+      <c r="I91" s="40"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="18"/>
+    </row>
+    <row r="92" spans="2:11" hidden="1">
+      <c r="B92" s="20">
         <v>2018</v>
       </c>
-      <c r="C91" s="20" t="s">
+      <c r="C92" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="21">
+      <c r="D92" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>427700</v>
       </c>
-      <c r="E91" s="22">
+      <c r="E92" s="22">
         <v>425500</v>
       </c>
-      <c r="F91" s="22">
+      <c r="F92" s="22">
         <v>2200</v>
       </c>
-      <c r="G91" s="22"/>
-      <c r="H91" s="38"/>
-      <c r="I91" s="42"/>
-      <c r="J91" s="29"/>
-      <c r="K91" s="31"/>
-    </row>
-    <row r="92" spans="2:11">
-      <c r="B92" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H92" s="15"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="38"/>
+      <c r="I92" s="42"/>
+      <c r="J92" s="29"/>
+      <c r="K92" s="31"/>
     </row>
     <row r="93" spans="2:11">
       <c r="B93" s="3" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H93" s="15"/>
     </row>
     <row r="94" spans="2:11">
       <c r="B94" s="3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H94" s="15"/>
-      <c r="K94" s="45"/>
     </row>
     <row r="95" spans="2:11">
       <c r="B95" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H95" s="15"/>
       <c r="K95" s="45"/>
     </row>
     <row r="96" spans="2:11">
-      <c r="B96" s="46" t="s">
+      <c r="B96" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="K96" s="45"/>
+    </row>
+    <row r="97" spans="2:8">
+      <c r="B97" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="H96" s="15"/>
-    </row>
-    <row r="97" spans="2:8">
-      <c r="B97" s="47" t="s">
+      <c r="H97" s="15"/>
+    </row>
+    <row r="98" spans="2:8">
+      <c r="B98" s="47" t="s">
         <v>37</v>
-      </c>
-      <c r="H97" s="15"/>
-    </row>
-    <row r="98" spans="2:8">
-      <c r="B98" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="H98" s="15"/>
     </row>
     <row r="99" spans="2:8">
       <c r="B99" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H99" s="15"/>
     </row>
     <row r="100" spans="2:8">
       <c r="B100" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H100" s="15"/>
     </row>
     <row r="101" spans="2:8">
       <c r="B101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" s="15"/>
+    </row>
+    <row r="102" spans="2:8">
+      <c r="B102" s="3" t="s">
         <v>35</v>
       </c>
     </row>

--- a/Combustuble_A.xlsx
+++ b/Combustuble_A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD42648-9B7A-40CB-A024-79DA0A1F01B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25684399-9D86-444B-928D-4F76ACEB61AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_29" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="39">
   <si>
     <t>AICM</t>
   </si>
@@ -152,7 +152,7 @@
     <t>ND No Disponible.</t>
   </si>
   <si>
-    <t>Actualización: Marzo 2025.</t>
+    <t>Actualización: Abril 2025.</t>
   </si>
 </sst>
 </file>
@@ -787,8 +787,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:K92" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
-  <autoFilter ref="B5:K92" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:K93" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="B5:K93" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -1039,7 +1039,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:V102"/>
+  <dimension ref="B2:K103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1060,19 +1060,19 @@
     <col min="12" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" ht="18">
+    <row r="2" spans="2:11" ht="18">
       <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="2:22">
+    <row r="3" spans="2:11">
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="2:22">
+    <row r="4" spans="2:11">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="49" t="s">
@@ -1092,7 +1092,7 @@
       <c r="J4" s="50"/>
       <c r="K4" s="51"/>
     </row>
-    <row r="5" spans="2:22">
+    <row r="5" spans="2:11">
       <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
@@ -1124,2418 +1124,2450 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:22">
-      <c r="B6" s="19">
+    <row r="6" spans="2:11">
+      <c r="B6" s="13">
         <v>2025</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="14">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>436043.58100000001</v>
+      </c>
+      <c r="E6" s="15">
+        <v>434212.31099999999</v>
+      </c>
+      <c r="F6" s="15">
+        <v>1831.27</v>
+      </c>
+      <c r="G6" s="15">
+        <v>129515.29700000001</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="17">
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
+        <v>10477.77</v>
+      </c>
+      <c r="J6" s="15">
+        <v>10424.495000000001</v>
+      </c>
+      <c r="K6" s="15">
+        <v>53.275000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="19">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="21">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>454566.74799999996</v>
-      </c>
-      <c r="E6" s="22">
-        <v>452691.04199999996</v>
-      </c>
-      <c r="F6" s="22">
+      <c r="D7" s="21">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>454563.21800000005</v>
+      </c>
+      <c r="E7" s="22">
+        <v>452687.51200000005</v>
+      </c>
+      <c r="F7" s="22">
         <v>1875.7060000000001</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G7" s="22">
         <v>130469.94799999999</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24">
+      <c r="H7" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>9538.9540000000015</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J7" s="22">
         <v>9476.7290000000012</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K7" s="22">
         <v>62.225000000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:22">
-      <c r="B7" s="13">
+    <row r="8" spans="2:11">
+      <c r="B8" s="13">
         <v>2025</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D8" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>389847.54699999996</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E8" s="15">
         <v>387924.35699999996</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F8" s="15">
         <v>1923.19</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G8" s="15">
         <v>114153.624</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H8" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I8" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7439.2119999999995</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J8" s="15">
         <v>7369.0519999999997</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K8" s="15">
         <v>70.16</v>
       </c>
     </row>
-    <row r="8" spans="2:22">
-      <c r="B8" s="26">
+    <row r="9" spans="2:11">
+      <c r="B9" s="26">
         <v>2025</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D9" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>438408.533</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E9" s="29">
         <v>436339.908</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F9" s="29">
         <v>2068.625</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G9" s="29">
         <v>128458.55</v>
       </c>
-      <c r="H8" s="48" t="s">
+      <c r="H9" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I9" s="30">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8286.9150000000009</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J9" s="29">
         <v>8219.5570000000007</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K9" s="29">
         <v>67.358000000000004</v>
       </c>
     </row>
-    <row r="9" spans="2:22">
-      <c r="B9" s="12">
+    <row r="10" spans="2:11">
+      <c r="B10" s="12">
         <v>2024</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D10" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>449342.43200000003</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E10" s="15">
         <v>447545.49900000001</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F10" s="15">
         <v>1796.933</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G10" s="15">
         <v>130985.44000000002</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H10" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I10" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8869.9179999999997</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J10" s="15">
         <v>8814.67</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K10" s="18">
         <v>55.247999999999998</v>
       </c>
     </row>
-    <row r="10" spans="2:22">
-      <c r="B10" s="19">
+    <row r="11" spans="2:11">
+      <c r="B11" s="19">
         <v>2024</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C11" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D11" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>414979.28399999999</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E11" s="22">
         <v>413228.45</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F11" s="22">
         <v>1750.8340000000001</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G11" s="22">
         <v>126056.84700000001</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H11" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I11" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8715.9350000000013</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J11" s="22">
         <v>8658.853000000001</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K11" s="22">
         <v>57.082000000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:22">
-      <c r="B11" s="12">
+    <row r="12" spans="2:11">
+      <c r="B12" s="12">
         <v>2024</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D12" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>382292.66800000001</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E12" s="15">
         <v>380502.94699999999</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F12" s="15">
         <v>1789.721</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G12" s="15">
         <v>127339.47199999999</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H12" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I12" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8275.6580000000013</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J12" s="15">
         <v>8207.1910000000007</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K12" s="18">
         <v>68.466999999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:22">
-      <c r="B12" s="19">
+    <row r="13" spans="2:11">
+      <c r="B13" s="19">
         <v>2024</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C13" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D13" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>355217.31699999998</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E13" s="22">
         <v>353694.88099999999</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F13" s="22">
         <v>1522.4359999999999</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G13" s="22">
         <v>123427.23999999999</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H13" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I13" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8123.1509999999998</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J13" s="22">
         <v>8080.4319999999998</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K13" s="22">
         <v>42.719000000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:22">
-      <c r="B13" s="12">
+    <row r="14" spans="2:11">
+      <c r="B14" s="12">
         <v>2024</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D14" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>410385.15499999997</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E14" s="15">
         <v>408646.99599999998</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F14" s="15">
         <v>1738.1590000000001</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G14" s="15">
         <v>134271.14299999998</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I14" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7554.09</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J14" s="15">
         <v>7485.5810000000001</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K14" s="15">
         <v>68.509</v>
       </c>
-      <c r="V13" s="3" t="e">
-        <f>#REF!*1000</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22">
-      <c r="B14" s="19">
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="19">
         <v>2024</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C15" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D15" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>425598.28600000002</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E15" s="22">
         <v>423719.45600000001</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F15" s="22">
         <v>1878.83</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G15" s="22">
         <v>134103.45499999999</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H15" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I15" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6892.0260000000007</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J15" s="22">
         <v>6846.5480000000007</v>
       </c>
-      <c r="K14" s="25">
+      <c r="K15" s="25">
         <v>45.477999999999994</v>
       </c>
     </row>
-    <row r="15" spans="2:22">
-      <c r="B15" s="12">
+    <row r="16" spans="2:11">
+      <c r="B16" s="12">
         <v>2024</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D16" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>402694.15900000004</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E16" s="15">
         <v>401228.58</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F16" s="15">
         <v>1465.579</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G16" s="15">
         <v>130346.13999999998</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H16" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I16" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7673.4130000000005</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J16" s="15">
         <v>7627.335</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K16" s="18">
         <v>46.078000000000003</v>
       </c>
     </row>
-    <row r="16" spans="2:22">
-      <c r="B16" s="19">
+    <row r="17" spans="2:11">
+      <c r="B17" s="19">
         <v>2024</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C17" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D17" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>420255.26899999997</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E17" s="22">
         <v>418249.16899999999</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F17" s="22">
         <v>2006.1</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G17" s="22">
         <v>132414.008</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H17" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I17" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8118.799</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J17" s="22">
         <v>8068.768</v>
       </c>
-      <c r="K16" s="25">
+      <c r="K17" s="25">
         <v>50.030999999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="12">
+    <row r="18" spans="2:11">
+      <c r="B18" s="12">
         <v>2024</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C18" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D18" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>439431.40099999995</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E18" s="15">
         <v>437628.61099999998</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F18" s="15">
         <v>1802.79</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G18" s="15">
         <v>128736.15699999999</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H18" s="15">
         <v>14608.594000000001</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I18" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7934.7060000000001</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J18" s="15">
         <v>7869.5050000000001</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K18" s="18">
         <v>65.200999999999993</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="19">
+    <row r="19" spans="2:11">
+      <c r="B19" s="19">
         <v>2024</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C19" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D19" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>484582.01799999992</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E19" s="22">
         <v>482370.14599999995</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F19" s="22">
         <v>2211.8719999999998</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G19" s="22">
         <v>132127.88800000001</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H19" s="22">
         <v>26118.722999999998</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I19" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8232.1929999999993</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J19" s="22">
         <v>8188.4409999999989</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K19" s="25">
         <v>43.752000000000002</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="12">
+    <row r="20" spans="2:11">
+      <c r="B20" s="12">
         <v>2024</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C20" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D20" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>439514.446</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E20" s="15">
         <v>437434.21399999998</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F20" s="15">
         <v>2080.232</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G20" s="15">
         <v>121792.711</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H20" s="15">
         <v>23599.862999999998</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I20" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7101.8710000000001</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J20" s="15">
         <v>7037.6580000000004</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K20" s="18">
         <v>64.213000000000008</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="26">
+    <row r="21" spans="2:11">
+      <c r="B21" s="26">
         <v>2024</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C21" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D21" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>474317.27799999999</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E21" s="29">
         <v>472107.52999999997</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F21" s="29">
         <v>2209.748</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G21" s="29">
         <v>133551.829</v>
       </c>
-      <c r="H20" s="29">
+      <c r="H21" s="29">
         <v>24093.275999999998</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I21" s="30">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6939.9099999999989</v>
       </c>
-      <c r="J20" s="29">
+      <c r="J21" s="29">
         <v>6885.6349999999993</v>
       </c>
-      <c r="K20" s="31">
+      <c r="K21" s="31">
         <v>54.274999999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:11" hidden="1">
-      <c r="B21" s="32">
+    <row r="22" spans="2:11" hidden="1">
+      <c r="B22" s="32">
         <v>2023</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C22" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D22" s="34">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>497130.734</v>
       </c>
-      <c r="E21" s="35">
+      <c r="E22" s="35">
         <v>495355.598</v>
       </c>
-      <c r="F21" s="35">
+      <c r="F22" s="35">
         <v>1775.136</v>
       </c>
-      <c r="G21" s="35">
+      <c r="G22" s="35">
         <v>141052.152</v>
       </c>
-      <c r="H21" s="35">
+      <c r="H22" s="35">
         <v>24233.223999999998</v>
       </c>
-      <c r="I21" s="36">
+      <c r="I22" s="36">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6935.0720000000001</v>
       </c>
-      <c r="J21" s="35">
+      <c r="J22" s="35">
         <v>6907.192</v>
       </c>
-      <c r="K21" s="37">
+      <c r="K22" s="37">
         <v>27.88</v>
       </c>
     </row>
-    <row r="22" spans="2:11" hidden="1">
-      <c r="B22" s="19">
+    <row r="23" spans="2:11" hidden="1">
+      <c r="B23" s="19">
         <v>2023</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C23" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D23" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>448851.103</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E23" s="22">
         <v>447174.89500000002</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F23" s="22">
         <v>1676.2079999999999</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G23" s="22">
         <v>133555.97700000001</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H23" s="22">
         <v>22508.399000000001</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I23" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7171.835</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J23" s="22">
         <v>7125.1350000000002</v>
       </c>
-      <c r="K22" s="25">
+      <c r="K23" s="25">
         <v>46.7</v>
       </c>
     </row>
-    <row r="23" spans="2:11" hidden="1">
-      <c r="B23" s="12">
+    <row r="24" spans="2:11" hidden="1">
+      <c r="B24" s="12">
         <v>2023</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C24" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D24" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>432477.60700000002</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E24" s="15">
         <v>430760.484</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F24" s="15">
         <v>1717.123</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G24" s="15">
         <v>135949.88099999999</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H24" s="15">
         <v>22848.071</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I24" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7518.7080000000005</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J24" s="15">
         <v>7461.4880000000003</v>
       </c>
-      <c r="K23" s="18">
+      <c r="K24" s="18">
         <v>57.22</v>
       </c>
     </row>
-    <row r="24" spans="2:11" hidden="1">
-      <c r="B24" s="19">
+    <row r="25" spans="2:11" hidden="1">
+      <c r="B25" s="19">
         <v>2023</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C25" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D25" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>403096.08900000004</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E25" s="22">
         <v>401473.96300000005</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F25" s="22">
         <v>1622.126</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G25" s="22">
         <v>130099.94800000002</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H25" s="22">
         <v>18583.999</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I25" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6008.808</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J25" s="22">
         <v>5967.9129999999996</v>
       </c>
-      <c r="K24" s="25">
+      <c r="K25" s="25">
         <v>40.895000000000003</v>
       </c>
     </row>
-    <row r="25" spans="2:11" hidden="1">
-      <c r="B25" s="12">
+    <row r="26" spans="2:11" hidden="1">
+      <c r="B26" s="12">
         <v>2023</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C26" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D26" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>456592.212</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E26" s="15">
         <v>454830.98300000001</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F26" s="15">
         <v>1761.229</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G26" s="15">
         <v>143391.905</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H26" s="15">
         <v>16745.141</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I26" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6500.8150000000005</v>
       </c>
-      <c r="J25" s="15">
+      <c r="J26" s="15">
         <v>6459.5010000000002</v>
       </c>
-      <c r="K25" s="18">
+      <c r="K26" s="18">
         <v>41.314</v>
       </c>
     </row>
-    <row r="26" spans="2:11" hidden="1">
-      <c r="B26" s="19">
+    <row r="27" spans="2:11" hidden="1">
+      <c r="B27" s="19">
         <v>2023</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C27" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D27" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>471958.52600000001</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E27" s="22">
         <v>470075.826</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F27" s="22">
         <v>1882.7</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G27" s="22">
         <v>148684.78200000001</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H27" s="22">
         <v>11646.752</v>
       </c>
-      <c r="I26" s="24">
+      <c r="I27" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6100.8280000000004</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J27" s="22">
         <v>6053.3130000000001</v>
       </c>
-      <c r="K26" s="25">
+      <c r="K27" s="25">
         <v>47.515000000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:11" hidden="1">
-      <c r="B27" s="12">
+    <row r="28" spans="2:11" hidden="1">
+      <c r="B28" s="12">
         <v>2023</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C28" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D28" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>445605.64600000001</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E28" s="15">
         <v>443787.57799999998</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F28" s="15">
         <v>1818.068</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G28" s="15">
         <v>146831.476</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H28" s="15">
         <v>7161.2819999999992</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I28" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6393.7270000000008</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J28" s="15">
         <v>6324.5640000000003</v>
       </c>
-      <c r="K27" s="18">
+      <c r="K28" s="18">
         <v>69.163000000000011</v>
       </c>
     </row>
-    <row r="28" spans="2:11" hidden="1">
-      <c r="B28" s="19">
+    <row r="29" spans="2:11" hidden="1">
+      <c r="B29" s="19">
         <v>2023</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C29" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D29" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>438617.83499999996</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E29" s="22">
         <v>436653.87099999998</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F29" s="22">
         <v>1963.9639999999999</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G29" s="22">
         <v>146066.30300000001</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H29" s="22">
         <v>6589.6929999999993</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I29" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7134.3119999999999</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J29" s="22">
         <v>7076.7709999999997</v>
       </c>
-      <c r="K28" s="25">
+      <c r="K29" s="25">
         <v>57.540999999999997</v>
       </c>
     </row>
-    <row r="29" spans="2:11" hidden="1">
-      <c r="B29" s="12">
+    <row r="30" spans="2:11" hidden="1">
+      <c r="B30" s="12">
         <v>2023</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C30" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D30" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>452626.13400000002</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E30" s="15">
         <v>450773.85800000001</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F30" s="15">
         <v>1852.2760000000001</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G30" s="15">
         <v>142422.533</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H30" s="15">
         <v>5892.4449999999997</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I30" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6515.2709999999997</v>
       </c>
-      <c r="J29" s="15">
+      <c r="J30" s="15">
         <v>6469.5959999999995</v>
       </c>
-      <c r="K29" s="18">
+      <c r="K30" s="18">
         <v>45.674999999999997</v>
       </c>
     </row>
-    <row r="30" spans="2:11" hidden="1">
-      <c r="B30" s="19">
+    <row r="31" spans="2:11" hidden="1">
+      <c r="B31" s="19">
         <v>2023</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C31" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D31" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>474025.5</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E31" s="22">
         <v>471373.67300000001</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F31" s="22">
         <v>2651.8269999999998</v>
       </c>
-      <c r="G30" s="22">
+      <c r="G31" s="22">
         <v>147034.883</v>
       </c>
-      <c r="H30" s="22">
+      <c r="H31" s="22">
         <v>6186.35</v>
       </c>
-      <c r="I30" s="24">
+      <c r="I31" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7697.951</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J31" s="22">
         <v>7624.7790000000005</v>
       </c>
-      <c r="K30" s="25">
+      <c r="K31" s="25">
         <v>73.171999999999997</v>
       </c>
     </row>
-    <row r="31" spans="2:11" hidden="1">
-      <c r="B31" s="12">
+    <row r="32" spans="2:11" hidden="1">
+      <c r="B32" s="12">
         <v>2023</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C32" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D32" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>418819.08400000003</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E32" s="15">
         <v>416951.092</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F32" s="15">
         <v>1867.9920000000002</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G32" s="15">
         <v>132657.08799999999</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H32" s="15">
         <v>4602.9769999999999</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I32" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6457.866</v>
       </c>
-      <c r="J31" s="15">
+      <c r="J32" s="15">
         <v>6410.7969999999996</v>
       </c>
-      <c r="K31" s="18">
+      <c r="K32" s="18">
         <v>47.069000000000003</v>
       </c>
     </row>
-    <row r="32" spans="2:11" hidden="1">
-      <c r="B32" s="26">
+    <row r="33" spans="2:11" hidden="1">
+      <c r="B33" s="26">
         <v>2023</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C33" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="28">
+      <c r="D33" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>461982.14700000006</v>
       </c>
-      <c r="E32" s="29">
+      <c r="E33" s="29">
         <v>459918.04600000003</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F33" s="29">
         <v>2064.1010000000001</v>
       </c>
-      <c r="G32" s="29">
+      <c r="G33" s="29">
         <v>149629.198</v>
       </c>
-      <c r="H32" s="29">
+      <c r="H33" s="29">
         <v>5197.7539999999999</v>
       </c>
-      <c r="I32" s="30">
+      <c r="I33" s="30">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6489.6009999999997</v>
       </c>
-      <c r="J32" s="29">
+      <c r="J33" s="29">
         <v>6439.6379999999999</v>
       </c>
-      <c r="K32" s="31">
+      <c r="K33" s="31">
         <v>49.963000000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:11" hidden="1">
-      <c r="B33" s="32">
+    <row r="34" spans="2:11" hidden="1">
+      <c r="B34" s="32">
         <v>2022</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C34" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="34">
+      <c r="D34" s="34">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>490826.32500000001</v>
       </c>
-      <c r="E33" s="35">
+      <c r="E34" s="35">
         <v>489000.86</v>
       </c>
-      <c r="F33" s="35">
+      <c r="F34" s="35">
         <v>1825.4649999999999</v>
       </c>
-      <c r="G33" s="35">
+      <c r="G34" s="35">
         <v>157413.09299999999</v>
       </c>
-      <c r="H33" s="35">
+      <c r="H34" s="35">
         <v>4958.7839999999997</v>
       </c>
-      <c r="I33" s="36">
+      <c r="I34" s="36">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7356.5429999999997</v>
       </c>
-      <c r="J33" s="35">
+      <c r="J34" s="35">
         <v>7305.0450000000001</v>
       </c>
-      <c r="K33" s="37">
+      <c r="K34" s="37">
         <v>51.497999999999998</v>
       </c>
     </row>
-    <row r="34" spans="2:11" hidden="1">
-      <c r="B34" s="19">
+    <row r="35" spans="2:11" hidden="1">
+      <c r="B35" s="19">
         <v>2022</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C35" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D35" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>443157.86400000006</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E35" s="22">
         <v>441195.48500000004</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F35" s="22">
         <v>1962.3790000000001</v>
       </c>
-      <c r="G34" s="22">
+      <c r="G35" s="22">
         <v>150891.29999999999</v>
       </c>
-      <c r="H34" s="22">
+      <c r="H35" s="22">
         <v>4915.8980000000001</v>
       </c>
-      <c r="I34" s="24">
+      <c r="I35" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7236.4110000000001</v>
       </c>
-      <c r="J34" s="22">
+      <c r="J35" s="22">
         <v>7161.7529999999997</v>
       </c>
-      <c r="K34" s="25">
+      <c r="K35" s="25">
         <v>74.658000000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:11" hidden="1">
-      <c r="B35" s="12">
+    <row r="36" spans="2:11" hidden="1">
+      <c r="B36" s="12">
         <v>2022</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C36" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D36" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>414809.23100000003</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E36" s="15">
         <v>412921.60700000002</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F36" s="15">
         <v>1887.624</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G36" s="15">
         <v>150805.27799999999</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H36" s="15">
         <v>4853.9489999999996</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I36" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6708.0059999999994</v>
       </c>
-      <c r="J35" s="15">
+      <c r="J36" s="15">
         <v>6658.6229999999996</v>
       </c>
-      <c r="K35" s="18">
+      <c r="K36" s="18">
         <v>49.383000000000003</v>
       </c>
     </row>
-    <row r="36" spans="2:11" hidden="1">
-      <c r="B36" s="19">
+    <row r="37" spans="2:11" hidden="1">
+      <c r="B37" s="19">
         <v>2022</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C37" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D37" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>387372.408</v>
       </c>
-      <c r="E36" s="22">
+      <c r="E37" s="22">
         <v>385430.815</v>
       </c>
-      <c r="F36" s="22">
+      <c r="F37" s="22">
         <v>1941.5929999999998</v>
       </c>
-      <c r="G36" s="22">
+      <c r="G37" s="22">
         <v>146576.45300000001</v>
       </c>
-      <c r="H36" s="22">
+      <c r="H37" s="22">
         <v>3809.2310000000002</v>
       </c>
-      <c r="I36" s="24">
+      <c r="I37" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>5459.2980000000007</v>
       </c>
-      <c r="J36" s="22">
+      <c r="J37" s="22">
         <v>5409.8770000000004</v>
       </c>
-      <c r="K36" s="25">
+      <c r="K37" s="25">
         <v>49.420999999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:11" hidden="1">
-      <c r="B37" s="12">
+    <row r="38" spans="2:11" hidden="1">
+      <c r="B38" s="12">
         <v>2022</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C38" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D38" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>436832.37699999998</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E38" s="15">
         <v>434776.21399999998</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F38" s="15">
         <v>2056.163</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G38" s="15">
         <v>156853.56299999999</v>
       </c>
-      <c r="H37" s="15">
+      <c r="H38" s="15">
         <v>2564.7890000000002</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I38" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>5460.4780000000001</v>
       </c>
-      <c r="J37" s="15">
+      <c r="J38" s="15">
         <v>5402.1080000000002</v>
       </c>
-      <c r="K37" s="18">
+      <c r="K38" s="18">
         <v>58.37</v>
       </c>
     </row>
-    <row r="38" spans="2:11" hidden="1">
-      <c r="B38" s="19">
+    <row r="39" spans="2:11" hidden="1">
+      <c r="B39" s="19">
         <v>2022</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C39" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D39" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>448351.97599999997</v>
       </c>
-      <c r="E38" s="22">
+      <c r="E39" s="22">
         <v>446503.61</v>
       </c>
-      <c r="F38" s="22">
+      <c r="F39" s="22">
         <v>1848.366</v>
       </c>
-      <c r="G38" s="22">
+      <c r="G39" s="22">
         <v>153622.307</v>
       </c>
-      <c r="H38" s="22">
+      <c r="H39" s="22">
         <v>1060.989</v>
       </c>
-      <c r="I38" s="24">
+      <c r="I39" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>5119.0199999999995</v>
       </c>
-      <c r="J38" s="22">
+      <c r="J39" s="22">
         <v>5070.4549999999999</v>
       </c>
-      <c r="K38" s="25">
+      <c r="K39" s="25">
         <v>48.564999999999998</v>
       </c>
     </row>
-    <row r="39" spans="2:11" hidden="1">
-      <c r="B39" s="12">
+    <row r="40" spans="2:11" hidden="1">
+      <c r="B40" s="12">
         <v>2022</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C40" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D40" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>416921.51799999998</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E40" s="15">
         <v>414947.446</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F40" s="15">
         <v>1974.0720000000001</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G40" s="15">
         <v>140586.55600000001</v>
       </c>
-      <c r="H39" s="15">
+      <c r="H40" s="15">
         <v>853.44799999999998</v>
       </c>
-      <c r="I39" s="17">
+      <c r="I40" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>4541.9560000000001</v>
       </c>
-      <c r="J39" s="15">
+      <c r="J40" s="15">
         <v>4497.9610000000002</v>
       </c>
-      <c r="K39" s="18">
+      <c r="K40" s="18">
         <v>43.994999999999997</v>
       </c>
     </row>
-    <row r="40" spans="2:11" hidden="1">
-      <c r="B40" s="19">
+    <row r="41" spans="2:11" hidden="1">
+      <c r="B41" s="19">
         <v>2022</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C41" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D41" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>424375.26299999998</v>
       </c>
-      <c r="E40" s="22">
+      <c r="E41" s="22">
         <v>422374.98</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F41" s="22">
         <v>2000.2830000000001</v>
       </c>
-      <c r="G40" s="22"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="25"/>
-    </row>
-    <row r="41" spans="2:11" hidden="1">
-      <c r="B41" s="12">
+      <c r="G41" s="22"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="25"/>
+    </row>
+    <row r="42" spans="2:11" hidden="1">
+      <c r="B42" s="12">
         <v>2022</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C42" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D42" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>437218.36900000001</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E42" s="15">
         <v>435084.44699999999</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F42" s="15">
         <v>2133.922</v>
       </c>
-      <c r="G41" s="15"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="18"/>
-    </row>
-    <row r="42" spans="2:11" hidden="1">
-      <c r="B42" s="19">
+      <c r="G42" s="15"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="18"/>
+    </row>
+    <row r="43" spans="2:11" hidden="1">
+      <c r="B43" s="19">
         <v>2022</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C43" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D43" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>430084.12599999999</v>
       </c>
-      <c r="E42" s="22">
+      <c r="E43" s="22">
         <v>427583.05499999999</v>
       </c>
-      <c r="F42" s="22">
+      <c r="F43" s="22">
         <v>2501.0709999999999</v>
       </c>
-      <c r="G42" s="22"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="25"/>
-    </row>
-    <row r="43" spans="2:11" hidden="1">
-      <c r="B43" s="12">
+      <c r="G43" s="22"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="25"/>
+    </row>
+    <row r="44" spans="2:11" hidden="1">
+      <c r="B44" s="12">
         <v>2022</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C44" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D44" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>358536.61100000003</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E44" s="15">
         <v>356535.05300000001</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F44" s="15">
         <v>2001.5580000000002</v>
       </c>
-      <c r="G43" s="15"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="18"/>
-    </row>
-    <row r="44" spans="2:11" hidden="1">
-      <c r="B44" s="26">
+      <c r="G44" s="15"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="18"/>
+    </row>
+    <row r="45" spans="2:11" hidden="1">
+      <c r="B45" s="26">
         <v>2022</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C45" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="28">
+      <c r="D45" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>401925.429</v>
       </c>
-      <c r="E44" s="29">
+      <c r="E45" s="29">
         <v>399729.82500000001</v>
       </c>
-      <c r="F44" s="29">
+      <c r="F45" s="29">
         <v>2195.6039999999998</v>
       </c>
-      <c r="G44" s="29"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="31"/>
-    </row>
-    <row r="45" spans="2:11" hidden="1">
-      <c r="B45" s="32">
+      <c r="G45" s="29"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="31"/>
+    </row>
+    <row r="46" spans="2:11" hidden="1">
+      <c r="B46" s="32">
         <v>2021</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C46" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="34">
+      <c r="D46" s="34">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>432897.13799999998</v>
       </c>
-      <c r="E45" s="35">
+      <c r="E46" s="35">
         <v>430707.82799999998</v>
       </c>
-      <c r="F45" s="35">
+      <c r="F46" s="35">
         <v>2189.31</v>
       </c>
-      <c r="G45" s="35"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="37"/>
-    </row>
-    <row r="46" spans="2:11" hidden="1">
-      <c r="B46" s="19">
+      <c r="G46" s="35"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="37"/>
+    </row>
+    <row r="47" spans="2:11" hidden="1">
+      <c r="B47" s="19">
         <v>2021</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C47" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D47" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>383033.76299999998</v>
       </c>
-      <c r="E46" s="22">
+      <c r="E47" s="22">
         <v>380922.15399999998</v>
       </c>
-      <c r="F46" s="22">
+      <c r="F47" s="22">
         <v>2111.6089999999999</v>
       </c>
-      <c r="G46" s="22"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="25"/>
-    </row>
-    <row r="47" spans="2:11" hidden="1">
-      <c r="B47" s="12">
+      <c r="G47" s="22"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="25"/>
+    </row>
+    <row r="48" spans="2:11" hidden="1">
+      <c r="B48" s="12">
         <v>2021</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C48" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D48" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>358842.80099999998</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E48" s="15">
         <v>356760.12</v>
       </c>
-      <c r="F47" s="15">
+      <c r="F48" s="15">
         <v>2082.681</v>
       </c>
-      <c r="G47" s="15"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="18"/>
-    </row>
-    <row r="48" spans="2:11" hidden="1">
-      <c r="B48" s="19">
+      <c r="G48" s="15"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="18"/>
+    </row>
+    <row r="49" spans="2:11" hidden="1">
+      <c r="B49" s="19">
         <v>2021</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C49" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="21">
+      <c r="D49" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>321941.98300000001</v>
       </c>
-      <c r="E48" s="22">
+      <c r="E49" s="22">
         <v>319890.413</v>
       </c>
-      <c r="F48" s="22">
+      <c r="F49" s="22">
         <v>2051.5699999999997</v>
       </c>
-      <c r="G48" s="22"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="25"/>
-    </row>
-    <row r="49" spans="2:11" hidden="1">
-      <c r="B49" s="12">
+      <c r="G49" s="22"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="25"/>
+    </row>
+    <row r="50" spans="2:11" hidden="1">
+      <c r="B50" s="12">
         <v>2021</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C50" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D50" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>363960.13899999997</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E50" s="15">
         <v>361966.45999999996</v>
       </c>
-      <c r="F49" s="15">
+      <c r="F50" s="15">
         <v>1993.6790000000001</v>
       </c>
-      <c r="G49" s="15"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="18"/>
-    </row>
-    <row r="50" spans="2:11" hidden="1">
-      <c r="B50" s="19">
+      <c r="G50" s="15"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="18"/>
+    </row>
+    <row r="51" spans="2:11" hidden="1">
+      <c r="B51" s="19">
         <v>2021</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C51" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D50" s="21">
+      <c r="D51" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>374695.174</v>
       </c>
-      <c r="E50" s="22">
+      <c r="E51" s="22">
         <v>372625.397</v>
       </c>
-      <c r="F50" s="22">
+      <c r="F51" s="22">
         <v>2069.777</v>
       </c>
-      <c r="G50" s="22"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="25"/>
-    </row>
-    <row r="51" spans="2:11" hidden="1">
-      <c r="B51" s="12">
+      <c r="G51" s="22"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="25"/>
+    </row>
+    <row r="52" spans="2:11" hidden="1">
+      <c r="B52" s="12">
         <v>2021</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C52" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D52" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>334517.39600000001</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E52" s="15">
         <v>332552.66499999998</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F52" s="15">
         <v>1964.731</v>
       </c>
-      <c r="G51" s="15"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="18"/>
-    </row>
-    <row r="52" spans="2:11" hidden="1">
-      <c r="B52" s="19">
+      <c r="G52" s="15"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="18"/>
+    </row>
+    <row r="53" spans="2:11" hidden="1">
+      <c r="B53" s="19">
         <v>2021</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C53" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="21">
+      <c r="D53" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>322630.61800000002</v>
       </c>
-      <c r="E52" s="22">
+      <c r="E53" s="22">
         <v>320400.96000000002</v>
       </c>
-      <c r="F52" s="22">
+      <c r="F53" s="22">
         <v>2229.6580000000004</v>
       </c>
-      <c r="G52" s="22"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="25"/>
-    </row>
-    <row r="53" spans="2:11" hidden="1">
-      <c r="B53" s="12">
+      <c r="G53" s="22"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="25"/>
+    </row>
+    <row r="54" spans="2:11" hidden="1">
+      <c r="B54" s="12">
         <v>2021</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C54" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D54" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>299222.027</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E54" s="15">
         <v>296903.73</v>
       </c>
-      <c r="F53" s="15">
+      <c r="F54" s="15">
         <v>2318.297</v>
       </c>
-      <c r="G53" s="15"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="18"/>
-    </row>
-    <row r="54" spans="2:11" hidden="1">
-      <c r="B54" s="19">
+      <c r="G54" s="15"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="18"/>
+    </row>
+    <row r="55" spans="2:11" hidden="1">
+      <c r="B55" s="19">
         <v>2021</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C55" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D54" s="21">
+      <c r="D55" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>271328.42499999999</v>
       </c>
-      <c r="E54" s="22">
+      <c r="E55" s="22">
         <v>268651.59499999997</v>
       </c>
-      <c r="F54" s="22">
+      <c r="F55" s="22">
         <v>2676.83</v>
       </c>
-      <c r="G54" s="22"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="25"/>
-    </row>
-    <row r="55" spans="2:11" hidden="1">
-      <c r="B55" s="12">
+      <c r="G55" s="22"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="25"/>
+    </row>
+    <row r="56" spans="2:11" hidden="1">
+      <c r="B56" s="12">
         <v>2021</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C56" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D56" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>222215.03899999999</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E56" s="15">
         <v>220246.12</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F56" s="15">
         <v>1968.9190000000001</v>
       </c>
-      <c r="G55" s="15"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="18"/>
-    </row>
-    <row r="56" spans="2:11" hidden="1">
-      <c r="B56" s="26">
+      <c r="G56" s="15"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="18"/>
+    </row>
+    <row r="57" spans="2:11" hidden="1">
+      <c r="B57" s="26">
         <v>2021</v>
       </c>
-      <c r="C56" s="27" t="s">
+      <c r="C57" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D56" s="28">
+      <c r="D57" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>272354.26800000004</v>
       </c>
-      <c r="E56" s="29">
+      <c r="E57" s="29">
         <v>270211.59100000001</v>
       </c>
-      <c r="F56" s="29">
+      <c r="F57" s="29">
         <v>2142.6770000000001</v>
       </c>
-      <c r="G56" s="29"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="31"/>
-    </row>
-    <row r="57" spans="2:11" hidden="1">
-      <c r="B57" s="32">
+      <c r="G57" s="29"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="31"/>
+    </row>
+    <row r="58" spans="2:11" hidden="1">
+      <c r="B58" s="32">
         <v>2020</v>
       </c>
-      <c r="C57" s="33" t="s">
+      <c r="C58" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D57" s="34">
+      <c r="D58" s="34">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>289863.19500000001</v>
       </c>
-      <c r="E57" s="35">
+      <c r="E58" s="35">
         <v>287659.50599999999</v>
       </c>
-      <c r="F57" s="35">
+      <c r="F58" s="35">
         <v>2203.6889999999999</v>
       </c>
-      <c r="G57" s="35"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="44"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="37"/>
-    </row>
-    <row r="58" spans="2:11" hidden="1">
-      <c r="B58" s="19">
+      <c r="G58" s="35"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="37"/>
+    </row>
+    <row r="59" spans="2:11" hidden="1">
+      <c r="B59" s="19">
         <v>2020</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C59" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D58" s="21">
+      <c r="D59" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>228379.71699999998</v>
       </c>
-      <c r="E58" s="22">
+      <c r="E59" s="22">
         <v>226637.46699999998</v>
       </c>
-      <c r="F58" s="22">
+      <c r="F59" s="22">
         <v>1742.25</v>
       </c>
-      <c r="G58" s="22"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="25"/>
-    </row>
-    <row r="59" spans="2:11" hidden="1">
-      <c r="B59" s="12">
+      <c r="G59" s="22"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="25"/>
+    </row>
+    <row r="60" spans="2:11" hidden="1">
+      <c r="B60" s="12">
         <v>2020</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C60" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D60" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>225796.75899999996</v>
       </c>
-      <c r="E59" s="15">
+      <c r="E60" s="15">
         <v>223656.52399999998</v>
       </c>
-      <c r="F59" s="15">
+      <c r="F60" s="15">
         <v>2140.2350000000001</v>
       </c>
-      <c r="G59" s="15"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="18"/>
-    </row>
-    <row r="60" spans="2:11" hidden="1">
-      <c r="B60" s="19">
+      <c r="G60" s="15"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="18"/>
+    </row>
+    <row r="61" spans="2:11" hidden="1">
+      <c r="B61" s="19">
         <v>2020</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C61" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D60" s="21">
+      <c r="D61" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>192359.82700000002</v>
       </c>
-      <c r="E60" s="22">
+      <c r="E61" s="22">
         <v>190331.43100000001</v>
       </c>
-      <c r="F60" s="22">
+      <c r="F61" s="22">
         <v>2028.396</v>
       </c>
-      <c r="G60" s="22"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="25"/>
-    </row>
-    <row r="61" spans="2:11" hidden="1">
-      <c r="B61" s="12">
+      <c r="G61" s="22"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="25"/>
+    </row>
+    <row r="62" spans="2:11" hidden="1">
+      <c r="B62" s="12">
         <v>2020</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C62" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="14">
+      <c r="D62" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>184495.08899999998</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E62" s="15">
         <v>182519.18599999999</v>
       </c>
-      <c r="F61" s="15">
+      <c r="F62" s="15">
         <v>1975.903</v>
       </c>
-      <c r="G61" s="15"/>
-      <c r="I61" s="40"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="18"/>
-    </row>
-    <row r="62" spans="2:11" hidden="1">
-      <c r="B62" s="19">
+      <c r="G62" s="15"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="18"/>
+    </row>
+    <row r="63" spans="2:11" hidden="1">
+      <c r="B63" s="19">
         <v>2020</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C63" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D62" s="21">
+      <c r="D63" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>160167.435</v>
       </c>
-      <c r="E62" s="22">
+      <c r="E63" s="22">
         <v>158161.66200000001</v>
       </c>
-      <c r="F62" s="22">
+      <c r="F63" s="22">
         <v>2005.7730000000001</v>
       </c>
-      <c r="G62" s="22"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="39"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="25"/>
-    </row>
-    <row r="63" spans="2:11" hidden="1">
-      <c r="B63" s="12">
+      <c r="G63" s="22"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="25"/>
+    </row>
+    <row r="64" spans="2:11" hidden="1">
+      <c r="B64" s="12">
         <v>2020</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C64" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="14">
+      <c r="D64" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>105511.976</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E64" s="15">
         <v>103802.962</v>
       </c>
-      <c r="F63" s="15">
+      <c r="F64" s="15">
         <v>1709.0140000000001</v>
       </c>
-      <c r="G63" s="15"/>
-      <c r="I63" s="40"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="18"/>
-    </row>
-    <row r="64" spans="2:11" hidden="1">
-      <c r="B64" s="19">
+      <c r="G64" s="15"/>
+      <c r="I64" s="40"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="18"/>
+    </row>
+    <row r="65" spans="2:11" hidden="1">
+      <c r="B65" s="19">
         <v>2020</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C65" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D64" s="21">
+      <c r="D65" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>69285.474000000002</v>
       </c>
-      <c r="E64" s="22">
+      <c r="E65" s="22">
         <v>67702.22</v>
       </c>
-      <c r="F64" s="22">
+      <c r="F65" s="22">
         <v>1583.2539999999999</v>
       </c>
-      <c r="G64" s="22"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="25"/>
-    </row>
-    <row r="65" spans="2:11" hidden="1">
-      <c r="B65" s="12">
+      <c r="G65" s="22"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="25"/>
+    </row>
+    <row r="66" spans="2:11" hidden="1">
+      <c r="B66" s="12">
         <v>2020</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C66" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D65" s="14">
+      <c r="D66" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>69532.992000000013</v>
       </c>
-      <c r="E65" s="15">
+      <c r="E66" s="15">
         <v>67898.813000000009</v>
       </c>
-      <c r="F65" s="15">
+      <c r="F66" s="15">
         <v>1634.1790000000001</v>
       </c>
-      <c r="G65" s="15"/>
-      <c r="I65" s="40"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="18"/>
-    </row>
-    <row r="66" spans="2:11" hidden="1">
-      <c r="B66" s="19">
+      <c r="G66" s="15"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="18"/>
+    </row>
+    <row r="67" spans="2:11" hidden="1">
+      <c r="B67" s="19">
         <v>2020</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C67" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D66" s="21">
+      <c r="D67" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>334769.408</v>
       </c>
-      <c r="E66" s="22">
+      <c r="E67" s="22">
         <v>332339.83399999997</v>
       </c>
-      <c r="F66" s="22">
+      <c r="F67" s="22">
         <v>2429.5740000000001</v>
       </c>
-      <c r="G66" s="22"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="39"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="25"/>
-    </row>
-    <row r="67" spans="2:11" hidden="1">
-      <c r="B67" s="12">
+      <c r="G67" s="22"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="25"/>
+    </row>
+    <row r="68" spans="2:11" hidden="1">
+      <c r="B68" s="12">
         <v>2020</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C68" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D67" s="14">
+      <c r="D68" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>400050.22200000001</v>
       </c>
-      <c r="E67" s="15">
+      <c r="E68" s="15">
         <v>397843.09899999999</v>
       </c>
-      <c r="F67" s="15">
+      <c r="F68" s="15">
         <v>2207.123</v>
       </c>
-      <c r="G67" s="15"/>
-      <c r="I67" s="40"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="18"/>
-    </row>
-    <row r="68" spans="2:11" hidden="1">
-      <c r="B68" s="26">
+      <c r="G68" s="15"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="18"/>
+    </row>
+    <row r="69" spans="2:11" hidden="1">
+      <c r="B69" s="26">
         <v>2020</v>
       </c>
-      <c r="C68" s="27" t="s">
+      <c r="C69" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D68" s="28">
+      <c r="D69" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>439902.09</v>
       </c>
-      <c r="E68" s="29">
+      <c r="E69" s="29">
         <v>437506.02900000004</v>
       </c>
-      <c r="F68" s="29">
+      <c r="F69" s="29">
         <v>2396.0610000000001</v>
       </c>
-      <c r="G68" s="29"/>
-      <c r="H68" s="41"/>
-      <c r="I68" s="42"/>
-      <c r="J68" s="29"/>
-      <c r="K68" s="31"/>
-    </row>
-    <row r="69" spans="2:11" hidden="1">
-      <c r="B69" s="32">
+      <c r="G69" s="29"/>
+      <c r="H69" s="41"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="29"/>
+      <c r="K69" s="31"/>
+    </row>
+    <row r="70" spans="2:11" hidden="1">
+      <c r="B70" s="32">
         <v>2019</v>
       </c>
-      <c r="C69" s="33" t="s">
+      <c r="C70" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D69" s="34">
+      <c r="D70" s="34">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>440800</v>
       </c>
-      <c r="E69" s="35">
+      <c r="E70" s="35">
         <v>438700</v>
       </c>
-      <c r="F69" s="35">
+      <c r="F70" s="35">
         <v>2100</v>
       </c>
-      <c r="G69" s="35"/>
-      <c r="H69" s="43"/>
-      <c r="I69" s="44"/>
-      <c r="J69" s="35"/>
-      <c r="K69" s="37"/>
-    </row>
-    <row r="70" spans="2:11" hidden="1">
-      <c r="B70" s="19">
+      <c r="G70" s="35"/>
+      <c r="H70" s="43"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="35"/>
+      <c r="K70" s="37"/>
+    </row>
+    <row r="71" spans="2:11" hidden="1">
+      <c r="B71" s="19">
         <v>2019</v>
       </c>
-      <c r="C70" s="20" t="s">
+      <c r="C71" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D70" s="21">
+      <c r="D71" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>412300</v>
       </c>
-      <c r="E70" s="22">
+      <c r="E71" s="22">
         <v>410400</v>
       </c>
-      <c r="F70" s="22">
+      <c r="F71" s="22">
         <v>1900</v>
       </c>
-      <c r="G70" s="22"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="39"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="25"/>
-    </row>
-    <row r="71" spans="2:11" hidden="1">
-      <c r="B71" s="12">
+      <c r="G71" s="22"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="39"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="25"/>
+    </row>
+    <row r="72" spans="2:11" hidden="1">
+      <c r="B72" s="12">
         <v>2019</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C72" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D71" s="14">
+      <c r="D72" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>397000</v>
       </c>
-      <c r="E71" s="15">
+      <c r="E72" s="15">
         <v>395000</v>
       </c>
-      <c r="F71" s="15">
+      <c r="F72" s="15">
         <v>2000</v>
       </c>
-      <c r="G71" s="15"/>
-      <c r="I71" s="40"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="18"/>
-    </row>
-    <row r="72" spans="2:11" hidden="1">
-      <c r="B72" s="19">
+      <c r="G72" s="15"/>
+      <c r="I72" s="40"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="18"/>
+    </row>
+    <row r="73" spans="2:11" hidden="1">
+      <c r="B73" s="19">
         <v>2019</v>
       </c>
-      <c r="C72" s="20" t="s">
+      <c r="C73" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D72" s="21">
+      <c r="D73" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>372500</v>
       </c>
-      <c r="E72" s="22">
+      <c r="E73" s="22">
         <v>370700</v>
       </c>
-      <c r="F72" s="22">
+      <c r="F73" s="22">
         <v>1800</v>
       </c>
-      <c r="G72" s="22"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="39"/>
-      <c r="J72" s="22"/>
-      <c r="K72" s="25"/>
-    </row>
-    <row r="73" spans="2:11" hidden="1">
-      <c r="B73" s="12">
+      <c r="G73" s="22"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="39"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="25"/>
+    </row>
+    <row r="74" spans="2:11" hidden="1">
+      <c r="B74" s="12">
         <v>2019</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C74" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D73" s="14">
+      <c r="D74" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>430200</v>
       </c>
-      <c r="E73" s="15">
+      <c r="E74" s="15">
         <v>428200</v>
       </c>
-      <c r="F73" s="15">
+      <c r="F74" s="15">
         <v>2000</v>
       </c>
-      <c r="G73" s="15"/>
-      <c r="I73" s="40"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="18"/>
-    </row>
-    <row r="74" spans="2:11" hidden="1">
-      <c r="B74" s="19">
+      <c r="G74" s="15"/>
+      <c r="I74" s="40"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="18"/>
+    </row>
+    <row r="75" spans="2:11" hidden="1">
+      <c r="B75" s="19">
         <v>2019</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="C75" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D74" s="21">
+      <c r="D75" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>445000</v>
       </c>
-      <c r="E74" s="22">
+      <c r="E75" s="22">
         <v>442800</v>
       </c>
-      <c r="F74" s="22">
+      <c r="F75" s="22">
         <v>2200</v>
       </c>
-      <c r="G74" s="22"/>
-      <c r="H74" s="38"/>
-      <c r="I74" s="39"/>
-      <c r="J74" s="22"/>
-      <c r="K74" s="25"/>
-    </row>
-    <row r="75" spans="2:11" hidden="1">
-      <c r="B75" s="12">
+      <c r="G75" s="22"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="39"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="25"/>
+    </row>
+    <row r="76" spans="2:11" hidden="1">
+      <c r="B76" s="12">
         <v>2019</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C76" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D75" s="14">
+      <c r="D76" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>415300</v>
       </c>
-      <c r="E75" s="15">
+      <c r="E76" s="15">
         <v>413200</v>
       </c>
-      <c r="F75" s="15">
+      <c r="F76" s="15">
         <v>2100</v>
       </c>
-      <c r="G75" s="15"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="18"/>
-    </row>
-    <row r="76" spans="2:11" hidden="1">
-      <c r="B76" s="19">
+      <c r="G76" s="15"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="18"/>
+    </row>
+    <row r="77" spans="2:11" hidden="1">
+      <c r="B77" s="19">
         <v>2019</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C77" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D76" s="21">
+      <c r="D77" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>413700</v>
       </c>
-      <c r="E76" s="22">
+      <c r="E77" s="22">
         <v>411500</v>
       </c>
-      <c r="F76" s="22">
+      <c r="F77" s="22">
         <v>2200</v>
       </c>
-      <c r="G76" s="22"/>
-      <c r="H76" s="38"/>
-      <c r="I76" s="39"/>
-      <c r="J76" s="22"/>
-      <c r="K76" s="25"/>
-    </row>
-    <row r="77" spans="2:11" hidden="1">
-      <c r="B77" s="12">
+      <c r="G77" s="22"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="39"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="25"/>
+    </row>
+    <row r="78" spans="2:11" hidden="1">
+      <c r="B78" s="12">
         <v>2019</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C78" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D77" s="14">
+      <c r="D78" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>419400</v>
       </c>
-      <c r="E77" s="15">
+      <c r="E78" s="15">
         <v>417000</v>
       </c>
-      <c r="F77" s="15">
+      <c r="F78" s="15">
         <v>2400</v>
       </c>
-      <c r="G77" s="15"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="18"/>
-    </row>
-    <row r="78" spans="2:11" hidden="1">
-      <c r="B78" s="19">
+      <c r="G78" s="15"/>
+      <c r="I78" s="40"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="18"/>
+    </row>
+    <row r="79" spans="2:11" hidden="1">
+      <c r="B79" s="19">
         <v>2019</v>
       </c>
-      <c r="C78" s="20" t="s">
+      <c r="C79" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D78" s="21">
+      <c r="D79" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>426800</v>
       </c>
-      <c r="E78" s="22">
+      <c r="E79" s="22">
         <v>420000</v>
       </c>
-      <c r="F78" s="22">
+      <c r="F79" s="22">
         <v>6800</v>
       </c>
-      <c r="G78" s="22"/>
-      <c r="H78" s="38"/>
-      <c r="I78" s="39"/>
-      <c r="J78" s="22"/>
-      <c r="K78" s="25"/>
-    </row>
-    <row r="79" spans="2:11" hidden="1">
-      <c r="B79" s="12">
+      <c r="G79" s="22"/>
+      <c r="H79" s="38"/>
+      <c r="I79" s="39"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="25"/>
+    </row>
+    <row r="80" spans="2:11" hidden="1">
+      <c r="B80" s="12">
         <v>2019</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C80" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D79" s="14">
+      <c r="D80" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>375100</v>
       </c>
-      <c r="E79" s="15">
+      <c r="E80" s="15">
         <v>372900</v>
       </c>
-      <c r="F79" s="15">
+      <c r="F80" s="15">
         <v>2200</v>
       </c>
-      <c r="G79" s="15"/>
-      <c r="I79" s="40"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="18"/>
-    </row>
-    <row r="80" spans="2:11" hidden="1">
-      <c r="B80" s="26">
+      <c r="G80" s="15"/>
+      <c r="I80" s="40"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="18"/>
+    </row>
+    <row r="81" spans="2:11" hidden="1">
+      <c r="B81" s="26">
         <v>2019</v>
       </c>
-      <c r="C80" s="27" t="s">
+      <c r="C81" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D80" s="28">
+      <c r="D81" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>420900</v>
       </c>
-      <c r="E80" s="29">
+      <c r="E81" s="29">
         <v>418600</v>
       </c>
-      <c r="F80" s="29">
+      <c r="F81" s="29">
         <v>2300</v>
       </c>
-      <c r="G80" s="29"/>
-      <c r="H80" s="41"/>
-      <c r="I80" s="42"/>
-      <c r="J80" s="29"/>
-      <c r="K80" s="31"/>
-    </row>
-    <row r="81" spans="2:11" hidden="1">
-      <c r="B81" s="13">
+      <c r="G81" s="29"/>
+      <c r="H81" s="41"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="29"/>
+      <c r="K81" s="31"/>
+    </row>
+    <row r="82" spans="2:11" hidden="1">
+      <c r="B82" s="13">
         <v>2018</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C82" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="14">
+      <c r="D82" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>436100</v>
       </c>
-      <c r="E81" s="15">
+      <c r="E82" s="15">
         <v>434000</v>
       </c>
-      <c r="F81" s="15">
+      <c r="F82" s="15">
         <v>2100</v>
       </c>
-      <c r="G81" s="15"/>
-      <c r="I81" s="44"/>
-      <c r="J81" s="35"/>
-      <c r="K81" s="37"/>
-    </row>
-    <row r="82" spans="2:11" hidden="1">
-      <c r="B82" s="20">
+      <c r="G82" s="15"/>
+      <c r="I82" s="44"/>
+      <c r="J82" s="35"/>
+      <c r="K82" s="37"/>
+    </row>
+    <row r="83" spans="2:11" hidden="1">
+      <c r="B83" s="20">
         <v>2018</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="C83" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D82" s="21">
+      <c r="D83" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>406900</v>
       </c>
-      <c r="E82" s="22">
+      <c r="E83" s="22">
         <v>404900</v>
       </c>
-      <c r="F82" s="22">
+      <c r="F83" s="22">
         <v>2000</v>
       </c>
-      <c r="G82" s="22"/>
-      <c r="H82" s="38"/>
-      <c r="I82" s="39"/>
-      <c r="J82" s="22"/>
-      <c r="K82" s="25"/>
-    </row>
-    <row r="83" spans="2:11" hidden="1">
-      <c r="B83" s="13">
+      <c r="G83" s="22"/>
+      <c r="H83" s="38"/>
+      <c r="I83" s="39"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="25"/>
+    </row>
+    <row r="84" spans="2:11" hidden="1">
+      <c r="B84" s="13">
         <v>2018</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C84" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D83" s="14">
+      <c r="D84" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>391100</v>
       </c>
-      <c r="E83" s="15">
+      <c r="E84" s="15">
         <v>389100</v>
       </c>
-      <c r="F83" s="15">
+      <c r="F84" s="15">
         <v>2000</v>
       </c>
-      <c r="G83" s="15"/>
-      <c r="I83" s="40"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="18"/>
-    </row>
-    <row r="84" spans="2:11" hidden="1">
-      <c r="B84" s="20">
+      <c r="G84" s="15"/>
+      <c r="I84" s="40"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="18"/>
+    </row>
+    <row r="85" spans="2:11" hidden="1">
+      <c r="B85" s="20">
         <v>2018</v>
       </c>
-      <c r="C84" s="20" t="s">
+      <c r="C85" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D84" s="21">
+      <c r="D85" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>374300</v>
       </c>
-      <c r="E84" s="22">
+      <c r="E85" s="22">
         <v>372300</v>
       </c>
-      <c r="F84" s="22">
+      <c r="F85" s="22">
         <v>2000</v>
       </c>
-      <c r="G84" s="22"/>
-      <c r="H84" s="38"/>
-      <c r="I84" s="39"/>
-      <c r="J84" s="22"/>
-      <c r="K84" s="25"/>
-    </row>
-    <row r="85" spans="2:11" hidden="1">
-      <c r="B85" s="13">
+      <c r="G85" s="22"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="39"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="25"/>
+    </row>
+    <row r="86" spans="2:11" hidden="1">
+      <c r="B86" s="13">
         <v>2018</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C86" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D85" s="14">
+      <c r="D86" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>428800</v>
       </c>
-      <c r="E85" s="15">
+      <c r="E86" s="15">
         <v>426400</v>
       </c>
-      <c r="F85" s="15">
+      <c r="F86" s="15">
         <v>2400</v>
       </c>
-      <c r="G85" s="15"/>
-      <c r="I85" s="40"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="18"/>
-    </row>
-    <row r="86" spans="2:11" hidden="1">
-      <c r="B86" s="20">
+      <c r="G86" s="15"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="18"/>
+    </row>
+    <row r="87" spans="2:11" hidden="1">
+      <c r="B87" s="20">
         <v>2018</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="C87" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D86" s="21">
+      <c r="D87" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>446300</v>
       </c>
-      <c r="E86" s="22">
+      <c r="E87" s="22">
         <v>444000</v>
       </c>
-      <c r="F86" s="22">
+      <c r="F87" s="22">
         <v>2300</v>
       </c>
-      <c r="G86" s="22"/>
-      <c r="H86" s="38"/>
-      <c r="I86" s="39"/>
-      <c r="J86" s="22"/>
-      <c r="K86" s="25"/>
-    </row>
-    <row r="87" spans="2:11" hidden="1">
-      <c r="B87" s="13">
+      <c r="G87" s="22"/>
+      <c r="H87" s="38"/>
+      <c r="I87" s="39"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="25"/>
+    </row>
+    <row r="88" spans="2:11" hidden="1">
+      <c r="B88" s="13">
         <v>2018</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C88" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D87" s="14">
+      <c r="D88" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>411400</v>
       </c>
-      <c r="E87" s="15">
+      <c r="E88" s="15">
         <v>409400</v>
       </c>
-      <c r="F87" s="15">
+      <c r="F88" s="15">
         <v>2000</v>
       </c>
-      <c r="G87" s="15"/>
-      <c r="I87" s="40"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="18"/>
-    </row>
-    <row r="88" spans="2:11" hidden="1">
-      <c r="B88" s="20">
+      <c r="G88" s="15"/>
+      <c r="I88" s="40"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="18"/>
+    </row>
+    <row r="89" spans="2:11" hidden="1">
+      <c r="B89" s="20">
         <v>2018</v>
       </c>
-      <c r="C88" s="20" t="s">
+      <c r="C89" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D88" s="21">
+      <c r="D89" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>406200</v>
       </c>
-      <c r="E88" s="22">
+      <c r="E89" s="22">
         <v>403800</v>
       </c>
-      <c r="F88" s="22">
+      <c r="F89" s="22">
         <v>2400</v>
       </c>
-      <c r="G88" s="22"/>
-      <c r="H88" s="38"/>
-      <c r="I88" s="39"/>
-      <c r="J88" s="22"/>
-      <c r="K88" s="25"/>
-    </row>
-    <row r="89" spans="2:11" hidden="1">
-      <c r="B89" s="13">
+      <c r="G89" s="22"/>
+      <c r="H89" s="38"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="25"/>
+    </row>
+    <row r="90" spans="2:11" hidden="1">
+      <c r="B90" s="13">
         <v>2018</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C90" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D89" s="14">
+      <c r="D90" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>415400</v>
       </c>
-      <c r="E89" s="15">
+      <c r="E90" s="15">
         <v>413200</v>
       </c>
-      <c r="F89" s="15">
+      <c r="F90" s="15">
         <v>2200</v>
       </c>
-      <c r="G89" s="15"/>
-      <c r="I89" s="40"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="18"/>
-    </row>
-    <row r="90" spans="2:11" hidden="1">
-      <c r="B90" s="20">
+      <c r="G90" s="15"/>
+      <c r="I90" s="40"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="18"/>
+    </row>
+    <row r="91" spans="2:11" hidden="1">
+      <c r="B91" s="20">
         <v>2018</v>
       </c>
-      <c r="C90" s="20" t="s">
+      <c r="C91" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D90" s="21">
+      <c r="D91" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>444600</v>
       </c>
-      <c r="E90" s="22">
+      <c r="E91" s="22">
         <v>442100</v>
       </c>
-      <c r="F90" s="22">
+      <c r="F91" s="22">
         <v>2500</v>
       </c>
-      <c r="G90" s="22"/>
-      <c r="H90" s="38"/>
-      <c r="I90" s="39"/>
-      <c r="J90" s="22"/>
-      <c r="K90" s="25"/>
-    </row>
-    <row r="91" spans="2:11" hidden="1">
-      <c r="B91" s="13">
+      <c r="G91" s="22"/>
+      <c r="H91" s="38"/>
+      <c r="I91" s="39"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="25"/>
+    </row>
+    <row r="92" spans="2:11" hidden="1">
+      <c r="B92" s="13">
         <v>2018</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="C92" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D91" s="14">
+      <c r="D92" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>381500</v>
       </c>
-      <c r="E91" s="15">
+      <c r="E92" s="15">
         <v>379200</v>
       </c>
-      <c r="F91" s="15">
+      <c r="F92" s="15">
         <v>2300</v>
       </c>
-      <c r="G91" s="15"/>
-      <c r="I91" s="40"/>
-      <c r="J91" s="15"/>
-      <c r="K91" s="18"/>
-    </row>
-    <row r="92" spans="2:11" hidden="1">
-      <c r="B92" s="20">
+      <c r="G92" s="15"/>
+      <c r="I92" s="40"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="18"/>
+    </row>
+    <row r="93" spans="2:11" hidden="1">
+      <c r="B93" s="20">
         <v>2018</v>
       </c>
-      <c r="C92" s="20" t="s">
+      <c r="C93" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D92" s="21">
+      <c r="D93" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>427700</v>
       </c>
-      <c r="E92" s="22">
+      <c r="E93" s="22">
         <v>425500</v>
       </c>
-      <c r="F92" s="22">
+      <c r="F93" s="22">
         <v>2200</v>
       </c>
-      <c r="G92" s="22"/>
-      <c r="H92" s="38"/>
-      <c r="I92" s="42"/>
-      <c r="J92" s="29"/>
-      <c r="K92" s="31"/>
-    </row>
-    <row r="93" spans="2:11">
-      <c r="B93" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H93" s="15"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="38"/>
+      <c r="I93" s="42"/>
+      <c r="J93" s="29"/>
+      <c r="K93" s="31"/>
     </row>
     <row r="94" spans="2:11">
       <c r="B94" s="3" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H94" s="15"/>
     </row>
     <row r="95" spans="2:11">
       <c r="B95" s="3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H95" s="15"/>
-      <c r="K95" s="45"/>
     </row>
     <row r="96" spans="2:11">
       <c r="B96" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H96" s="15"/>
       <c r="K96" s="45"/>
     </row>
-    <row r="97" spans="2:8">
-      <c r="B97" s="46" t="s">
+    <row r="97" spans="2:11">
+      <c r="B97" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="K97" s="45"/>
+    </row>
+    <row r="98" spans="2:11">
+      <c r="B98" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="H97" s="15"/>
-    </row>
-    <row r="98" spans="2:8">
-      <c r="B98" s="47" t="s">
+      <c r="H98" s="15"/>
+    </row>
+    <row r="99" spans="2:11">
+      <c r="B99" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="H98" s="15"/>
-    </row>
-    <row r="99" spans="2:8">
-      <c r="B99" s="3" t="s">
+      <c r="H99" s="15"/>
+    </row>
+    <row r="100" spans="2:11">
+      <c r="B100" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H99" s="15"/>
-    </row>
-    <row r="100" spans="2:8">
-      <c r="B100" s="3" t="s">
+      <c r="H100" s="15"/>
+    </row>
+    <row r="101" spans="2:11">
+      <c r="B101" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H100" s="15"/>
-    </row>
-    <row r="101" spans="2:8">
-      <c r="B101" s="3" t="s">
+      <c r="H101" s="15"/>
+    </row>
+    <row r="102" spans="2:11">
+      <c r="B102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H101" s="15"/>
-    </row>
-    <row r="102" spans="2:8">
-      <c r="B102" s="3" t="s">
+      <c r="H102" s="15"/>
+    </row>
+    <row r="103" spans="2:11">
+      <c r="B103" s="3" t="s">
         <v>35</v>
       </c>
     </row>

--- a/Combustuble_A.xlsx
+++ b/Combustuble_A.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25684399-9D86-444B-928D-4F76ACEB61AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A208904-0B4D-4A1F-8F5B-BF59A0DF359B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="39">
   <si>
     <t>AICM</t>
   </si>
@@ -152,7 +152,7 @@
     <t>ND No Disponible.</t>
   </si>
   <si>
-    <t>Actualización: Abril 2025.</t>
+    <t>Actualización: Junio 2025.</t>
   </si>
 </sst>
 </file>
@@ -787,8 +787,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:K93" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
-  <autoFilter ref="B5:K93" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:K95" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="B5:K95" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -1039,7 +1039,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:K103"/>
+  <dimension ref="B2:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1129,33 +1129,33 @@
         <v>2025</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>436043.58100000001</v>
+        <v>407954.33800000005</v>
       </c>
       <c r="E6" s="15">
-        <v>434212.31099999999</v>
+        <v>406488.92100000003</v>
       </c>
       <c r="F6" s="15">
-        <v>1831.27</v>
+        <v>1465.4169999999999</v>
       </c>
       <c r="G6" s="15">
-        <v>129515.29700000001</v>
+        <v>128638.768</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>36</v>
       </c>
       <c r="I6" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
-        <v>10477.77</v>
+        <v>10070.996000000001</v>
       </c>
       <c r="J6" s="15">
-        <v>10424.495000000001</v>
+        <v>10028.43</v>
       </c>
       <c r="K6" s="15">
-        <v>53.275000000000006</v>
+        <v>42.566000000000003</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -1163,33 +1163,33 @@
         <v>2025</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>454563.21800000005</v>
+        <v>415839.87800000003</v>
       </c>
       <c r="E7" s="22">
-        <v>452687.51200000005</v>
+        <v>413968.94900000002</v>
       </c>
       <c r="F7" s="22">
-        <v>1875.7060000000001</v>
+        <v>1870.9290000000001</v>
       </c>
       <c r="G7" s="22">
-        <v>130469.94799999999</v>
+        <v>128883.59800000001</v>
       </c>
       <c r="H7" s="23" t="s">
         <v>36</v>
       </c>
       <c r="I7" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
-        <v>9538.9540000000015</v>
+        <v>10776.736999999999</v>
       </c>
       <c r="J7" s="22">
-        <v>9476.7290000000012</v>
+        <v>10693.146999999999</v>
       </c>
       <c r="K7" s="22">
-        <v>62.225000000000001</v>
+        <v>83.59</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -1197,135 +1197,135 @@
         <v>2025</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>389847.54699999996</v>
+        <v>436043.58100000001</v>
       </c>
       <c r="E8" s="15">
-        <v>387924.35699999996</v>
+        <v>434212.31099999999</v>
       </c>
       <c r="F8" s="15">
-        <v>1923.19</v>
+        <v>1831.27</v>
       </c>
       <c r="G8" s="15">
-        <v>114153.624</v>
+        <v>129515.29700000001</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>36</v>
       </c>
       <c r="I8" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
+        <v>10477.77</v>
+      </c>
+      <c r="J8" s="15">
+        <v>10424.495000000001</v>
+      </c>
+      <c r="K8" s="15">
+        <v>53.275000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="19">
+        <v>2025</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="21">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>454563.21800000005</v>
+      </c>
+      <c r="E9" s="22">
+        <v>452687.51200000005</v>
+      </c>
+      <c r="F9" s="22">
+        <v>1875.7060000000001</v>
+      </c>
+      <c r="G9" s="22">
+        <v>130469.94799999999</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="24">
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
+        <v>9538.9540000000015</v>
+      </c>
+      <c r="J9" s="22">
+        <v>9476.7290000000012</v>
+      </c>
+      <c r="K9" s="22">
+        <v>62.225000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="13">
+        <v>2025</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="14">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>389847.54699999996</v>
+      </c>
+      <c r="E10" s="15">
+        <v>387924.35699999996</v>
+      </c>
+      <c r="F10" s="15">
+        <v>1923.19</v>
+      </c>
+      <c r="G10" s="15">
+        <v>114153.624</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="17">
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7439.2119999999995</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J10" s="15">
         <v>7369.0519999999997</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K10" s="15">
         <v>70.16</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="26">
+    <row r="11" spans="2:11">
+      <c r="B11" s="26">
         <v>2025</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C11" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D11" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>438408.533</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E11" s="29">
         <v>436339.908</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F11" s="29">
         <v>2068.625</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G11" s="29">
         <v>128458.55</v>
       </c>
-      <c r="H9" s="48" t="s">
+      <c r="H11" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I11" s="30">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8286.9150000000009</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J11" s="29">
         <v>8219.5570000000007</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K11" s="29">
         <v>67.358000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="12">
-        <v>2024</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="14">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>449342.43200000003</v>
-      </c>
-      <c r="E10" s="15">
-        <v>447545.49900000001</v>
-      </c>
-      <c r="F10" s="15">
-        <v>1796.933</v>
-      </c>
-      <c r="G10" s="15">
-        <v>130985.44000000002</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="17">
-        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
-        <v>8869.9179999999997</v>
-      </c>
-      <c r="J10" s="15">
-        <v>8814.67</v>
-      </c>
-      <c r="K10" s="18">
-        <v>55.247999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="19">
-        <v>2024</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="21">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>414979.28399999999</v>
-      </c>
-      <c r="E11" s="22">
-        <v>413228.45</v>
-      </c>
-      <c r="F11" s="22">
-        <v>1750.8340000000001</v>
-      </c>
-      <c r="G11" s="22">
-        <v>126056.84700000001</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="24">
-        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
-        <v>8715.9350000000013</v>
-      </c>
-      <c r="J11" s="22">
-        <v>8658.853000000001</v>
-      </c>
-      <c r="K11" s="22">
-        <v>57.082000000000001</v>
       </c>
     </row>
     <row r="12" spans="2:11">
@@ -1333,33 +1333,33 @@
         <v>2024</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>382292.66800000001</v>
+        <v>449342.43200000003</v>
       </c>
       <c r="E12" s="15">
-        <v>380502.94699999999</v>
+        <v>447545.49900000001</v>
       </c>
       <c r="F12" s="15">
-        <v>1789.721</v>
+        <v>1796.933</v>
       </c>
       <c r="G12" s="15">
-        <v>127339.47199999999</v>
+        <v>130985.44000000002</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>36</v>
       </c>
       <c r="I12" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
-        <v>8275.6580000000013</v>
+        <v>8869.9179999999997</v>
       </c>
       <c r="J12" s="15">
-        <v>8207.1910000000007</v>
+        <v>8814.67</v>
       </c>
       <c r="K12" s="18">
-        <v>68.466999999999999</v>
+        <v>55.247999999999998</v>
       </c>
     </row>
     <row r="13" spans="2:11">
@@ -1367,33 +1367,33 @@
         <v>2024</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>355217.31699999998</v>
+        <v>414979.28399999999</v>
       </c>
       <c r="E13" s="22">
-        <v>353694.88099999999</v>
+        <v>413228.45</v>
       </c>
       <c r="F13" s="22">
-        <v>1522.4359999999999</v>
+        <v>1750.8340000000001</v>
       </c>
       <c r="G13" s="22">
-        <v>123427.23999999999</v>
+        <v>126056.84700000001</v>
       </c>
       <c r="H13" s="23" t="s">
         <v>36</v>
       </c>
       <c r="I13" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
-        <v>8123.1509999999998</v>
+        <v>8715.9350000000013</v>
       </c>
       <c r="J13" s="22">
-        <v>8080.4319999999998</v>
+        <v>8658.853000000001</v>
       </c>
       <c r="K13" s="22">
-        <v>42.719000000000001</v>
+        <v>57.082000000000001</v>
       </c>
     </row>
     <row r="14" spans="2:11">
@@ -1401,33 +1401,33 @@
         <v>2024</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D14" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>410385.15499999997</v>
+        <v>382292.66800000001</v>
       </c>
       <c r="E14" s="15">
-        <v>408646.99599999998</v>
+        <v>380502.94699999999</v>
       </c>
       <c r="F14" s="15">
-        <v>1738.1590000000001</v>
+        <v>1789.721</v>
       </c>
       <c r="G14" s="15">
-        <v>134271.14299999998</v>
+        <v>127339.47199999999</v>
       </c>
       <c r="H14" s="16" t="s">
         <v>36</v>
       </c>
       <c r="I14" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
-        <v>7554.09</v>
+        <v>8275.6580000000013</v>
       </c>
       <c r="J14" s="15">
-        <v>7485.5810000000001</v>
-      </c>
-      <c r="K14" s="15">
-        <v>68.509</v>
+        <v>8207.1910000000007</v>
+      </c>
+      <c r="K14" s="18">
+        <v>68.466999999999999</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -1435,33 +1435,33 @@
         <v>2024</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D15" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>425598.28600000002</v>
+        <v>355217.31699999998</v>
       </c>
       <c r="E15" s="22">
-        <v>423719.45600000001</v>
+        <v>353694.88099999999</v>
       </c>
       <c r="F15" s="22">
-        <v>1878.83</v>
+        <v>1522.4359999999999</v>
       </c>
       <c r="G15" s="22">
-        <v>134103.45499999999</v>
+        <v>123427.23999999999</v>
       </c>
       <c r="H15" s="23" t="s">
         <v>36</v>
       </c>
       <c r="I15" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
-        <v>6892.0260000000007</v>
+        <v>8123.1509999999998</v>
       </c>
       <c r="J15" s="22">
-        <v>6846.5480000000007</v>
-      </c>
-      <c r="K15" s="25">
-        <v>45.477999999999994</v>
+        <v>8080.4319999999998</v>
+      </c>
+      <c r="K15" s="22">
+        <v>42.719000000000001</v>
       </c>
     </row>
     <row r="16" spans="2:11">
@@ -1469,33 +1469,33 @@
         <v>2024</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>402694.15900000004</v>
+        <v>410385.15499999997</v>
       </c>
       <c r="E16" s="15">
-        <v>401228.58</v>
+        <v>408646.99599999998</v>
       </c>
       <c r="F16" s="15">
-        <v>1465.579</v>
+        <v>1738.1590000000001</v>
       </c>
       <c r="G16" s="15">
-        <v>130346.13999999998</v>
+        <v>134271.14299999998</v>
       </c>
       <c r="H16" s="16" t="s">
         <v>36</v>
       </c>
       <c r="I16" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
-        <v>7673.4130000000005</v>
+        <v>7554.09</v>
       </c>
       <c r="J16" s="15">
-        <v>7627.335</v>
-      </c>
-      <c r="K16" s="18">
-        <v>46.078000000000003</v>
+        <v>7485.5810000000001</v>
+      </c>
+      <c r="K16" s="15">
+        <v>68.509</v>
       </c>
     </row>
     <row r="17" spans="2:11">
@@ -1503,33 +1503,33 @@
         <v>2024</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>420255.26899999997</v>
+        <v>425598.28600000002</v>
       </c>
       <c r="E17" s="22">
-        <v>418249.16899999999</v>
+        <v>423719.45600000001</v>
       </c>
       <c r="F17" s="22">
-        <v>2006.1</v>
+        <v>1878.83</v>
       </c>
       <c r="G17" s="22">
-        <v>132414.008</v>
+        <v>134103.45499999999</v>
       </c>
       <c r="H17" s="23" t="s">
         <v>36</v>
       </c>
       <c r="I17" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
-        <v>8118.799</v>
+        <v>6892.0260000000007</v>
       </c>
       <c r="J17" s="22">
-        <v>8068.768</v>
+        <v>6846.5480000000007</v>
       </c>
       <c r="K17" s="25">
-        <v>50.030999999999999</v>
+        <v>45.477999999999994</v>
       </c>
     </row>
     <row r="18" spans="2:11">
@@ -1537,33 +1537,33 @@
         <v>2024</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D18" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>439431.40099999995</v>
+        <v>402694.15900000004</v>
       </c>
       <c r="E18" s="15">
-        <v>437628.61099999998</v>
+        <v>401228.58</v>
       </c>
       <c r="F18" s="15">
-        <v>1802.79</v>
+        <v>1465.579</v>
       </c>
       <c r="G18" s="15">
-        <v>128736.15699999999</v>
-      </c>
-      <c r="H18" s="15">
-        <v>14608.594000000001</v>
+        <v>130346.13999999998</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="I18" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
-        <v>7934.7060000000001</v>
+        <v>7673.4130000000005</v>
       </c>
       <c r="J18" s="15">
-        <v>7869.5050000000001</v>
+        <v>7627.335</v>
       </c>
       <c r="K18" s="18">
-        <v>65.200999999999993</v>
+        <v>46.078000000000003</v>
       </c>
     </row>
     <row r="19" spans="2:11">
@@ -1571,33 +1571,33 @@
         <v>2024</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D19" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>484582.01799999992</v>
+        <v>420255.26899999997</v>
       </c>
       <c r="E19" s="22">
-        <v>482370.14599999995</v>
+        <v>418249.16899999999</v>
       </c>
       <c r="F19" s="22">
-        <v>2211.8719999999998</v>
+        <v>2006.1</v>
       </c>
       <c r="G19" s="22">
-        <v>132127.88800000001</v>
-      </c>
-      <c r="H19" s="22">
-        <v>26118.722999999998</v>
+        <v>132414.008</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="I19" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
-        <v>8232.1929999999993</v>
+        <v>8118.799</v>
       </c>
       <c r="J19" s="22">
-        <v>8188.4409999999989</v>
+        <v>8068.768</v>
       </c>
       <c r="K19" s="25">
-        <v>43.752000000000002</v>
+        <v>50.030999999999999</v>
       </c>
     </row>
     <row r="20" spans="2:11">
@@ -1605,169 +1605,169 @@
         <v>2024</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D20" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>439514.446</v>
+        <v>439431.40099999995</v>
       </c>
       <c r="E20" s="15">
-        <v>437434.21399999998</v>
+        <v>437628.61099999998</v>
       </c>
       <c r="F20" s="15">
-        <v>2080.232</v>
+        <v>1802.79</v>
       </c>
       <c r="G20" s="15">
-        <v>121792.711</v>
+        <v>128736.15699999999</v>
       </c>
       <c r="H20" s="15">
-        <v>23599.862999999998</v>
+        <v>14608.594000000001</v>
       </c>
       <c r="I20" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
+        <v>7934.7060000000001</v>
+      </c>
+      <c r="J20" s="15">
+        <v>7869.5050000000001</v>
+      </c>
+      <c r="K20" s="18">
+        <v>65.200999999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="19">
+        <v>2024</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="21">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>484582.01799999992</v>
+      </c>
+      <c r="E21" s="22">
+        <v>482370.14599999995</v>
+      </c>
+      <c r="F21" s="22">
+        <v>2211.8719999999998</v>
+      </c>
+      <c r="G21" s="22">
+        <v>132127.88800000001</v>
+      </c>
+      <c r="H21" s="22">
+        <v>26118.722999999998</v>
+      </c>
+      <c r="I21" s="24">
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
+        <v>8232.1929999999993</v>
+      </c>
+      <c r="J21" s="22">
+        <v>8188.4409999999989</v>
+      </c>
+      <c r="K21" s="25">
+        <v>43.752000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="12">
+        <v>2024</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="14">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>439514.446</v>
+      </c>
+      <c r="E22" s="15">
+        <v>437434.21399999998</v>
+      </c>
+      <c r="F22" s="15">
+        <v>2080.232</v>
+      </c>
+      <c r="G22" s="15">
+        <v>121792.711</v>
+      </c>
+      <c r="H22" s="15">
+        <v>23599.862999999998</v>
+      </c>
+      <c r="I22" s="17">
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7101.8710000000001</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J22" s="15">
         <v>7037.6580000000004</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K22" s="18">
         <v>64.213000000000008</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="26">
+    <row r="23" spans="2:11">
+      <c r="B23" s="26">
         <v>2024</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C23" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D23" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>474317.27799999999</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E23" s="29">
         <v>472107.52999999997</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F23" s="29">
         <v>2209.748</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G23" s="29">
         <v>133551.829</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H23" s="29">
         <v>24093.275999999998</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I23" s="30">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6939.9099999999989</v>
       </c>
-      <c r="J21" s="29">
+      <c r="J23" s="29">
         <v>6885.6349999999993</v>
       </c>
-      <c r="K21" s="31">
+      <c r="K23" s="31">
         <v>54.274999999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:11" hidden="1">
-      <c r="B22" s="32">
+    <row r="24" spans="2:11" hidden="1">
+      <c r="B24" s="32">
         <v>2023</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C24" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D24" s="34">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>497130.734</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E24" s="35">
         <v>495355.598</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F24" s="35">
         <v>1775.136</v>
       </c>
-      <c r="G22" s="35">
+      <c r="G24" s="35">
         <v>141052.152</v>
       </c>
-      <c r="H22" s="35">
+      <c r="H24" s="35">
         <v>24233.223999999998</v>
       </c>
-      <c r="I22" s="36">
+      <c r="I24" s="36">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6935.0720000000001</v>
       </c>
-      <c r="J22" s="35">
+      <c r="J24" s="35">
         <v>6907.192</v>
       </c>
-      <c r="K22" s="37">
+      <c r="K24" s="37">
         <v>27.88</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" hidden="1">
-      <c r="B23" s="19">
-        <v>2023</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="21">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>448851.103</v>
-      </c>
-      <c r="E23" s="22">
-        <v>447174.89500000002</v>
-      </c>
-      <c r="F23" s="22">
-        <v>1676.2079999999999</v>
-      </c>
-      <c r="G23" s="22">
-        <v>133555.97700000001</v>
-      </c>
-      <c r="H23" s="22">
-        <v>22508.399000000001</v>
-      </c>
-      <c r="I23" s="24">
-        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
-        <v>7171.835</v>
-      </c>
-      <c r="J23" s="22">
-        <v>7125.1350000000002</v>
-      </c>
-      <c r="K23" s="25">
-        <v>46.7</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" hidden="1">
-      <c r="B24" s="12">
-        <v>2023</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="14">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>432477.60700000002</v>
-      </c>
-      <c r="E24" s="15">
-        <v>430760.484</v>
-      </c>
-      <c r="F24" s="15">
-        <v>1717.123</v>
-      </c>
-      <c r="G24" s="15">
-        <v>135949.88099999999</v>
-      </c>
-      <c r="H24" s="15">
-        <v>22848.071</v>
-      </c>
-      <c r="I24" s="17">
-        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
-        <v>7518.7080000000005</v>
-      </c>
-      <c r="J24" s="15">
-        <v>7461.4880000000003</v>
-      </c>
-      <c r="K24" s="18">
-        <v>57.22</v>
       </c>
     </row>
     <row r="25" spans="2:11" hidden="1">
@@ -1775,33 +1775,33 @@
         <v>2023</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D25" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>403096.08900000004</v>
+        <v>448851.103</v>
       </c>
       <c r="E25" s="22">
-        <v>401473.96300000005</v>
+        <v>447174.89500000002</v>
       </c>
       <c r="F25" s="22">
-        <v>1622.126</v>
+        <v>1676.2079999999999</v>
       </c>
       <c r="G25" s="22">
-        <v>130099.94800000002</v>
+        <v>133555.97700000001</v>
       </c>
       <c r="H25" s="22">
-        <v>18583.999</v>
+        <v>22508.399000000001</v>
       </c>
       <c r="I25" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
-        <v>6008.808</v>
+        <v>7171.835</v>
       </c>
       <c r="J25" s="22">
-        <v>5967.9129999999996</v>
+        <v>7125.1350000000002</v>
       </c>
       <c r="K25" s="25">
-        <v>40.895000000000003</v>
+        <v>46.7</v>
       </c>
     </row>
     <row r="26" spans="2:11" hidden="1">
@@ -1809,33 +1809,33 @@
         <v>2023</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D26" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>456592.212</v>
+        <v>432477.60700000002</v>
       </c>
       <c r="E26" s="15">
-        <v>454830.98300000001</v>
+        <v>430760.484</v>
       </c>
       <c r="F26" s="15">
-        <v>1761.229</v>
+        <v>1717.123</v>
       </c>
       <c r="G26" s="15">
-        <v>143391.905</v>
+        <v>135949.88099999999</v>
       </c>
       <c r="H26" s="15">
-        <v>16745.141</v>
+        <v>22848.071</v>
       </c>
       <c r="I26" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
-        <v>6500.8150000000005</v>
+        <v>7518.7080000000005</v>
       </c>
       <c r="J26" s="15">
-        <v>6459.5010000000002</v>
+        <v>7461.4880000000003</v>
       </c>
       <c r="K26" s="18">
-        <v>41.314</v>
+        <v>57.22</v>
       </c>
     </row>
     <row r="27" spans="2:11" hidden="1">
@@ -1843,33 +1843,33 @@
         <v>2023</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D27" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>471958.52600000001</v>
+        <v>403096.08900000004</v>
       </c>
       <c r="E27" s="22">
-        <v>470075.826</v>
+        <v>401473.96300000005</v>
       </c>
       <c r="F27" s="22">
-        <v>1882.7</v>
+        <v>1622.126</v>
       </c>
       <c r="G27" s="22">
-        <v>148684.78200000001</v>
+        <v>130099.94800000002</v>
       </c>
       <c r="H27" s="22">
-        <v>11646.752</v>
+        <v>18583.999</v>
       </c>
       <c r="I27" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
-        <v>6100.8280000000004</v>
+        <v>6008.808</v>
       </c>
       <c r="J27" s="22">
-        <v>6053.3130000000001</v>
+        <v>5967.9129999999996</v>
       </c>
       <c r="K27" s="25">
-        <v>47.515000000000001</v>
+        <v>40.895000000000003</v>
       </c>
     </row>
     <row r="28" spans="2:11" hidden="1">
@@ -1877,33 +1877,33 @@
         <v>2023</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D28" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>445605.64600000001</v>
+        <v>456592.212</v>
       </c>
       <c r="E28" s="15">
-        <v>443787.57799999998</v>
+        <v>454830.98300000001</v>
       </c>
       <c r="F28" s="15">
-        <v>1818.068</v>
+        <v>1761.229</v>
       </c>
       <c r="G28" s="15">
-        <v>146831.476</v>
+        <v>143391.905</v>
       </c>
       <c r="H28" s="15">
-        <v>7161.2819999999992</v>
+        <v>16745.141</v>
       </c>
       <c r="I28" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
-        <v>6393.7270000000008</v>
+        <v>6500.8150000000005</v>
       </c>
       <c r="J28" s="15">
-        <v>6324.5640000000003</v>
+        <v>6459.5010000000002</v>
       </c>
       <c r="K28" s="18">
-        <v>69.163000000000011</v>
+        <v>41.314</v>
       </c>
     </row>
     <row r="29" spans="2:11" hidden="1">
@@ -1911,33 +1911,33 @@
         <v>2023</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D29" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>438617.83499999996</v>
+        <v>471958.52600000001</v>
       </c>
       <c r="E29" s="22">
-        <v>436653.87099999998</v>
+        <v>470075.826</v>
       </c>
       <c r="F29" s="22">
-        <v>1963.9639999999999</v>
+        <v>1882.7</v>
       </c>
       <c r="G29" s="22">
-        <v>146066.30300000001</v>
+        <v>148684.78200000001</v>
       </c>
       <c r="H29" s="22">
-        <v>6589.6929999999993</v>
+        <v>11646.752</v>
       </c>
       <c r="I29" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
-        <v>7134.3119999999999</v>
+        <v>6100.8280000000004</v>
       </c>
       <c r="J29" s="22">
-        <v>7076.7709999999997</v>
+        <v>6053.3130000000001</v>
       </c>
       <c r="K29" s="25">
-        <v>57.540999999999997</v>
+        <v>47.515000000000001</v>
       </c>
     </row>
     <row r="30" spans="2:11" hidden="1">
@@ -1945,33 +1945,33 @@
         <v>2023</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D30" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>452626.13400000002</v>
+        <v>445605.64600000001</v>
       </c>
       <c r="E30" s="15">
-        <v>450773.85800000001</v>
+        <v>443787.57799999998</v>
       </c>
       <c r="F30" s="15">
-        <v>1852.2760000000001</v>
+        <v>1818.068</v>
       </c>
       <c r="G30" s="15">
-        <v>142422.533</v>
+        <v>146831.476</v>
       </c>
       <c r="H30" s="15">
-        <v>5892.4449999999997</v>
+        <v>7161.2819999999992</v>
       </c>
       <c r="I30" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
-        <v>6515.2709999999997</v>
+        <v>6393.7270000000008</v>
       </c>
       <c r="J30" s="15">
-        <v>6469.5959999999995</v>
+        <v>6324.5640000000003</v>
       </c>
       <c r="K30" s="18">
-        <v>45.674999999999997</v>
+        <v>69.163000000000011</v>
       </c>
     </row>
     <row r="31" spans="2:11" hidden="1">
@@ -1979,33 +1979,33 @@
         <v>2023</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D31" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>474025.5</v>
+        <v>438617.83499999996</v>
       </c>
       <c r="E31" s="22">
-        <v>471373.67300000001</v>
+        <v>436653.87099999998</v>
       </c>
       <c r="F31" s="22">
-        <v>2651.8269999999998</v>
+        <v>1963.9639999999999</v>
       </c>
       <c r="G31" s="22">
-        <v>147034.883</v>
+        <v>146066.30300000001</v>
       </c>
       <c r="H31" s="22">
-        <v>6186.35</v>
+        <v>6589.6929999999993</v>
       </c>
       <c r="I31" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
-        <v>7697.951</v>
+        <v>7134.3119999999999</v>
       </c>
       <c r="J31" s="22">
-        <v>7624.7790000000005</v>
+        <v>7076.7709999999997</v>
       </c>
       <c r="K31" s="25">
-        <v>73.171999999999997</v>
+        <v>57.540999999999997</v>
       </c>
     </row>
     <row r="32" spans="2:11" hidden="1">
@@ -2013,169 +2013,169 @@
         <v>2023</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D32" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>418819.08400000003</v>
+        <v>452626.13400000002</v>
       </c>
       <c r="E32" s="15">
-        <v>416951.092</v>
+        <v>450773.85800000001</v>
       </c>
       <c r="F32" s="15">
-        <v>1867.9920000000002</v>
+        <v>1852.2760000000001</v>
       </c>
       <c r="G32" s="15">
-        <v>132657.08799999999</v>
+        <v>142422.533</v>
       </c>
       <c r="H32" s="15">
-        <v>4602.9769999999999</v>
+        <v>5892.4449999999997</v>
       </c>
       <c r="I32" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
+        <v>6515.2709999999997</v>
+      </c>
+      <c r="J32" s="15">
+        <v>6469.5959999999995</v>
+      </c>
+      <c r="K32" s="18">
+        <v>45.674999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" hidden="1">
+      <c r="B33" s="19">
+        <v>2023</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="21">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>474025.5</v>
+      </c>
+      <c r="E33" s="22">
+        <v>471373.67300000001</v>
+      </c>
+      <c r="F33" s="22">
+        <v>2651.8269999999998</v>
+      </c>
+      <c r="G33" s="22">
+        <v>147034.883</v>
+      </c>
+      <c r="H33" s="22">
+        <v>6186.35</v>
+      </c>
+      <c r="I33" s="24">
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
+        <v>7697.951</v>
+      </c>
+      <c r="J33" s="22">
+        <v>7624.7790000000005</v>
+      </c>
+      <c r="K33" s="25">
+        <v>73.171999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" hidden="1">
+      <c r="B34" s="12">
+        <v>2023</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="14">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>418819.08400000003</v>
+      </c>
+      <c r="E34" s="15">
+        <v>416951.092</v>
+      </c>
+      <c r="F34" s="15">
+        <v>1867.9920000000002</v>
+      </c>
+      <c r="G34" s="15">
+        <v>132657.08799999999</v>
+      </c>
+      <c r="H34" s="15">
+        <v>4602.9769999999999</v>
+      </c>
+      <c r="I34" s="17">
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6457.866</v>
       </c>
-      <c r="J32" s="15">
+      <c r="J34" s="15">
         <v>6410.7969999999996</v>
       </c>
-      <c r="K32" s="18">
+      <c r="K34" s="18">
         <v>47.069000000000003</v>
       </c>
     </row>
-    <row r="33" spans="2:11" hidden="1">
-      <c r="B33" s="26">
+    <row r="35" spans="2:11" hidden="1">
+      <c r="B35" s="26">
         <v>2023</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C35" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="28">
+      <c r="D35" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>461982.14700000006</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E35" s="29">
         <v>459918.04600000003</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F35" s="29">
         <v>2064.1010000000001</v>
       </c>
-      <c r="G33" s="29">
+      <c r="G35" s="29">
         <v>149629.198</v>
       </c>
-      <c r="H33" s="29">
+      <c r="H35" s="29">
         <v>5197.7539999999999</v>
       </c>
-      <c r="I33" s="30">
+      <c r="I35" s="30">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6489.6009999999997</v>
       </c>
-      <c r="J33" s="29">
+      <c r="J35" s="29">
         <v>6439.6379999999999</v>
       </c>
-      <c r="K33" s="31">
+      <c r="K35" s="31">
         <v>49.963000000000001</v>
       </c>
     </row>
-    <row r="34" spans="2:11" hidden="1">
-      <c r="B34" s="32">
+    <row r="36" spans="2:11" hidden="1">
+      <c r="B36" s="32">
         <v>2022</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C36" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="34">
+      <c r="D36" s="34">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>490826.32500000001</v>
       </c>
-      <c r="E34" s="35">
+      <c r="E36" s="35">
         <v>489000.86</v>
       </c>
-      <c r="F34" s="35">
+      <c r="F36" s="35">
         <v>1825.4649999999999</v>
       </c>
-      <c r="G34" s="35">
+      <c r="G36" s="35">
         <v>157413.09299999999</v>
       </c>
-      <c r="H34" s="35">
+      <c r="H36" s="35">
         <v>4958.7839999999997</v>
       </c>
-      <c r="I34" s="36">
+      <c r="I36" s="36">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7356.5429999999997</v>
       </c>
-      <c r="J34" s="35">
+      <c r="J36" s="35">
         <v>7305.0450000000001</v>
       </c>
-      <c r="K34" s="37">
+      <c r="K36" s="37">
         <v>51.497999999999998</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" hidden="1">
-      <c r="B35" s="19">
-        <v>2022</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="21">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>443157.86400000006</v>
-      </c>
-      <c r="E35" s="22">
-        <v>441195.48500000004</v>
-      </c>
-      <c r="F35" s="22">
-        <v>1962.3790000000001</v>
-      </c>
-      <c r="G35" s="22">
-        <v>150891.29999999999</v>
-      </c>
-      <c r="H35" s="22">
-        <v>4915.8980000000001</v>
-      </c>
-      <c r="I35" s="24">
-        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
-        <v>7236.4110000000001</v>
-      </c>
-      <c r="J35" s="22">
-        <v>7161.7529999999997</v>
-      </c>
-      <c r="K35" s="25">
-        <v>74.658000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" hidden="1">
-      <c r="B36" s="12">
-        <v>2022</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="14">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>414809.23100000003</v>
-      </c>
-      <c r="E36" s="15">
-        <v>412921.60700000002</v>
-      </c>
-      <c r="F36" s="15">
-        <v>1887.624</v>
-      </c>
-      <c r="G36" s="15">
-        <v>150805.27799999999</v>
-      </c>
-      <c r="H36" s="15">
-        <v>4853.9489999999996</v>
-      </c>
-      <c r="I36" s="17">
-        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
-        <v>6708.0059999999994</v>
-      </c>
-      <c r="J36" s="15">
-        <v>6658.6229999999996</v>
-      </c>
-      <c r="K36" s="18">
-        <v>49.383000000000003</v>
       </c>
     </row>
     <row r="37" spans="2:11" hidden="1">
@@ -2183,33 +2183,33 @@
         <v>2022</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D37" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>387372.408</v>
+        <v>443157.86400000006</v>
       </c>
       <c r="E37" s="22">
-        <v>385430.815</v>
+        <v>441195.48500000004</v>
       </c>
       <c r="F37" s="22">
-        <v>1941.5929999999998</v>
+        <v>1962.3790000000001</v>
       </c>
       <c r="G37" s="22">
-        <v>146576.45300000001</v>
+        <v>150891.29999999999</v>
       </c>
       <c r="H37" s="22">
-        <v>3809.2310000000002</v>
+        <v>4915.8980000000001</v>
       </c>
       <c r="I37" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
-        <v>5459.2980000000007</v>
+        <v>7236.4110000000001</v>
       </c>
       <c r="J37" s="22">
-        <v>5409.8770000000004</v>
+        <v>7161.7529999999997</v>
       </c>
       <c r="K37" s="25">
-        <v>49.420999999999999</v>
+        <v>74.658000000000001</v>
       </c>
     </row>
     <row r="38" spans="2:11" hidden="1">
@@ -2217,33 +2217,33 @@
         <v>2022</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D38" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>436832.37699999998</v>
+        <v>414809.23100000003</v>
       </c>
       <c r="E38" s="15">
-        <v>434776.21399999998</v>
+        <v>412921.60700000002</v>
       </c>
       <c r="F38" s="15">
-        <v>2056.163</v>
+        <v>1887.624</v>
       </c>
       <c r="G38" s="15">
-        <v>156853.56299999999</v>
+        <v>150805.27799999999</v>
       </c>
       <c r="H38" s="15">
-        <v>2564.7890000000002</v>
+        <v>4853.9489999999996</v>
       </c>
       <c r="I38" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
-        <v>5460.4780000000001</v>
+        <v>6708.0059999999994</v>
       </c>
       <c r="J38" s="15">
-        <v>5402.1080000000002</v>
+        <v>6658.6229999999996</v>
       </c>
       <c r="K38" s="18">
-        <v>58.37</v>
+        <v>49.383000000000003</v>
       </c>
     </row>
     <row r="39" spans="2:11" hidden="1">
@@ -2251,33 +2251,33 @@
         <v>2022</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D39" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>448351.97599999997</v>
+        <v>387372.408</v>
       </c>
       <c r="E39" s="22">
-        <v>446503.61</v>
+        <v>385430.815</v>
       </c>
       <c r="F39" s="22">
-        <v>1848.366</v>
+        <v>1941.5929999999998</v>
       </c>
       <c r="G39" s="22">
-        <v>153622.307</v>
+        <v>146576.45300000001</v>
       </c>
       <c r="H39" s="22">
-        <v>1060.989</v>
+        <v>3809.2310000000002</v>
       </c>
       <c r="I39" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
-        <v>5119.0199999999995</v>
+        <v>5459.2980000000007</v>
       </c>
       <c r="J39" s="22">
-        <v>5070.4549999999999</v>
+        <v>5409.8770000000004</v>
       </c>
       <c r="K39" s="25">
-        <v>48.564999999999998</v>
+        <v>49.420999999999999</v>
       </c>
     </row>
     <row r="40" spans="2:11" hidden="1">
@@ -2285,33 +2285,33 @@
         <v>2022</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D40" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>416921.51799999998</v>
+        <v>436832.37699999998</v>
       </c>
       <c r="E40" s="15">
-        <v>414947.446</v>
+        <v>434776.21399999998</v>
       </c>
       <c r="F40" s="15">
-        <v>1974.0720000000001</v>
+        <v>2056.163</v>
       </c>
       <c r="G40" s="15">
-        <v>140586.55600000001</v>
+        <v>156853.56299999999</v>
       </c>
       <c r="H40" s="15">
-        <v>853.44799999999998</v>
+        <v>2564.7890000000002</v>
       </c>
       <c r="I40" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
-        <v>4541.9560000000001</v>
+        <v>5460.4780000000001</v>
       </c>
       <c r="J40" s="15">
-        <v>4497.9610000000002</v>
+        <v>5402.1080000000002</v>
       </c>
       <c r="K40" s="18">
-        <v>43.994999999999997</v>
+        <v>58.37</v>
       </c>
     </row>
     <row r="41" spans="2:11" hidden="1">
@@ -2319,62 +2319,85 @@
         <v>2022</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D41" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>424375.26299999998</v>
+        <v>448351.97599999997</v>
       </c>
       <c r="E41" s="22">
-        <v>422374.98</v>
+        <v>446503.61</v>
       </c>
       <c r="F41" s="22">
-        <v>2000.2830000000001</v>
-      </c>
-      <c r="G41" s="22"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="25"/>
+        <v>1848.366</v>
+      </c>
+      <c r="G41" s="22">
+        <v>153622.307</v>
+      </c>
+      <c r="H41" s="22">
+        <v>1060.989</v>
+      </c>
+      <c r="I41" s="24">
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
+        <v>5119.0199999999995</v>
+      </c>
+      <c r="J41" s="22">
+        <v>5070.4549999999999</v>
+      </c>
+      <c r="K41" s="25">
+        <v>48.564999999999998</v>
+      </c>
     </row>
     <row r="42" spans="2:11" hidden="1">
       <c r="B42" s="12">
         <v>2022</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D42" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>437218.36900000001</v>
+        <v>416921.51799999998</v>
       </c>
       <c r="E42" s="15">
-        <v>435084.44699999999</v>
+        <v>414947.446</v>
       </c>
       <c r="F42" s="15">
-        <v>2133.922</v>
-      </c>
-      <c r="G42" s="15"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="18"/>
+        <v>1974.0720000000001</v>
+      </c>
+      <c r="G42" s="15">
+        <v>140586.55600000001</v>
+      </c>
+      <c r="H42" s="15">
+        <v>853.44799999999998</v>
+      </c>
+      <c r="I42" s="17">
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
+        <v>4541.9560000000001</v>
+      </c>
+      <c r="J42" s="15">
+        <v>4497.9610000000002</v>
+      </c>
+      <c r="K42" s="18">
+        <v>43.994999999999997</v>
+      </c>
     </row>
     <row r="43" spans="2:11" hidden="1">
       <c r="B43" s="19">
         <v>2022</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D43" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>430084.12599999999</v>
+        <v>424375.26299999998</v>
       </c>
       <c r="E43" s="22">
-        <v>427583.05499999999</v>
+        <v>422374.98</v>
       </c>
       <c r="F43" s="22">
-        <v>2501.0709999999999</v>
+        <v>2000.2830000000001</v>
       </c>
       <c r="G43" s="22"/>
       <c r="H43" s="38"/>
@@ -2387,17 +2410,17 @@
         <v>2022</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D44" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>358536.61100000003</v>
+        <v>437218.36900000001</v>
       </c>
       <c r="E44" s="15">
-        <v>356535.05300000001</v>
+        <v>435084.44699999999</v>
       </c>
       <c r="F44" s="15">
-        <v>2001.5580000000002</v>
+        <v>2133.922</v>
       </c>
       <c r="G44" s="15"/>
       <c r="I44" s="40"/>
@@ -2405,112 +2428,112 @@
       <c r="K44" s="18"/>
     </row>
     <row r="45" spans="2:11" hidden="1">
-      <c r="B45" s="26">
+      <c r="B45" s="19">
         <v>2022</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="21">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>430084.12599999999</v>
+      </c>
+      <c r="E45" s="22">
+        <v>427583.05499999999</v>
+      </c>
+      <c r="F45" s="22">
+        <v>2501.0709999999999</v>
+      </c>
+      <c r="G45" s="22"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="25"/>
+    </row>
+    <row r="46" spans="2:11" hidden="1">
+      <c r="B46" s="12">
+        <v>2022</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="14">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>358536.61100000003</v>
+      </c>
+      <c r="E46" s="15">
+        <v>356535.05300000001</v>
+      </c>
+      <c r="F46" s="15">
+        <v>2001.5580000000002</v>
+      </c>
+      <c r="G46" s="15"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="18"/>
+    </row>
+    <row r="47" spans="2:11" hidden="1">
+      <c r="B47" s="26">
+        <v>2022</v>
+      </c>
+      <c r="C47" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="28">
+      <c r="D47" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>401925.429</v>
       </c>
-      <c r="E45" s="29">
+      <c r="E47" s="29">
         <v>399729.82500000001</v>
       </c>
-      <c r="F45" s="29">
+      <c r="F47" s="29">
         <v>2195.6039999999998</v>
       </c>
-      <c r="G45" s="29"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="31"/>
-    </row>
-    <row r="46" spans="2:11" hidden="1">
-      <c r="B46" s="32">
+      <c r="G47" s="29"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="31"/>
+    </row>
+    <row r="48" spans="2:11" hidden="1">
+      <c r="B48" s="32">
         <v>2021</v>
       </c>
-      <c r="C46" s="33" t="s">
+      <c r="C48" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="34">
+      <c r="D48" s="34">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>432897.13799999998</v>
       </c>
-      <c r="E46" s="35">
+      <c r="E48" s="35">
         <v>430707.82799999998</v>
       </c>
-      <c r="F46" s="35">
+      <c r="F48" s="35">
         <v>2189.31</v>
       </c>
-      <c r="G46" s="35"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="37"/>
-    </row>
-    <row r="47" spans="2:11" hidden="1">
-      <c r="B47" s="19">
-        <v>2021</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="21">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>383033.76299999998</v>
-      </c>
-      <c r="E47" s="22">
-        <v>380922.15399999998</v>
-      </c>
-      <c r="F47" s="22">
-        <v>2111.6089999999999</v>
-      </c>
-      <c r="G47" s="22"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="25"/>
-    </row>
-    <row r="48" spans="2:11" hidden="1">
-      <c r="B48" s="12">
-        <v>2021</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="14">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>358842.80099999998</v>
-      </c>
-      <c r="E48" s="15">
-        <v>356760.12</v>
-      </c>
-      <c r="F48" s="15">
-        <v>2082.681</v>
-      </c>
-      <c r="G48" s="15"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="18"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="37"/>
     </row>
     <row r="49" spans="2:11" hidden="1">
       <c r="B49" s="19">
         <v>2021</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D49" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>321941.98300000001</v>
+        <v>383033.76299999998</v>
       </c>
       <c r="E49" s="22">
-        <v>319890.413</v>
+        <v>380922.15399999998</v>
       </c>
       <c r="F49" s="22">
-        <v>2051.5699999999997</v>
+        <v>2111.6089999999999</v>
       </c>
       <c r="G49" s="22"/>
       <c r="H49" s="38"/>
@@ -2523,17 +2546,17 @@
         <v>2021</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D50" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>363960.13899999997</v>
+        <v>358842.80099999998</v>
       </c>
       <c r="E50" s="15">
-        <v>361966.45999999996</v>
+        <v>356760.12</v>
       </c>
       <c r="F50" s="15">
-        <v>1993.6790000000001</v>
+        <v>2082.681</v>
       </c>
       <c r="G50" s="15"/>
       <c r="I50" s="40"/>
@@ -2545,17 +2568,17 @@
         <v>2021</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D51" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>374695.174</v>
+        <v>321941.98300000001</v>
       </c>
       <c r="E51" s="22">
-        <v>372625.397</v>
+        <v>319890.413</v>
       </c>
       <c r="F51" s="22">
-        <v>2069.777</v>
+        <v>2051.5699999999997</v>
       </c>
       <c r="G51" s="22"/>
       <c r="H51" s="38"/>
@@ -2568,17 +2591,17 @@
         <v>2021</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D52" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>334517.39600000001</v>
+        <v>363960.13899999997</v>
       </c>
       <c r="E52" s="15">
-        <v>332552.66499999998</v>
+        <v>361966.45999999996</v>
       </c>
       <c r="F52" s="15">
-        <v>1964.731</v>
+        <v>1993.6790000000001</v>
       </c>
       <c r="G52" s="15"/>
       <c r="I52" s="40"/>
@@ -2590,17 +2613,17 @@
         <v>2021</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D53" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>322630.61800000002</v>
+        <v>374695.174</v>
       </c>
       <c r="E53" s="22">
-        <v>320400.96000000002</v>
+        <v>372625.397</v>
       </c>
       <c r="F53" s="22">
-        <v>2229.6580000000004</v>
+        <v>2069.777</v>
       </c>
       <c r="G53" s="22"/>
       <c r="H53" s="38"/>
@@ -2613,17 +2636,17 @@
         <v>2021</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D54" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>299222.027</v>
+        <v>334517.39600000001</v>
       </c>
       <c r="E54" s="15">
-        <v>296903.73</v>
+        <v>332552.66499999998</v>
       </c>
       <c r="F54" s="15">
-        <v>2318.297</v>
+        <v>1964.731</v>
       </c>
       <c r="G54" s="15"/>
       <c r="I54" s="40"/>
@@ -2635,17 +2658,17 @@
         <v>2021</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D55" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>271328.42499999999</v>
+        <v>322630.61800000002</v>
       </c>
       <c r="E55" s="22">
-        <v>268651.59499999997</v>
+        <v>320400.96000000002</v>
       </c>
       <c r="F55" s="22">
-        <v>2676.83</v>
+        <v>2229.6580000000004</v>
       </c>
       <c r="G55" s="22"/>
       <c r="H55" s="38"/>
@@ -2658,17 +2681,17 @@
         <v>2021</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D56" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>222215.03899999999</v>
+        <v>299222.027</v>
       </c>
       <c r="E56" s="15">
-        <v>220246.12</v>
+        <v>296903.73</v>
       </c>
       <c r="F56" s="15">
-        <v>1968.9190000000001</v>
+        <v>2318.297</v>
       </c>
       <c r="G56" s="15"/>
       <c r="I56" s="40"/>
@@ -2676,112 +2699,112 @@
       <c r="K56" s="18"/>
     </row>
     <row r="57" spans="2:11" hidden="1">
-      <c r="B57" s="26">
+      <c r="B57" s="19">
         <v>2021</v>
       </c>
-      <c r="C57" s="27" t="s">
+      <c r="C57" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" s="21">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>271328.42499999999</v>
+      </c>
+      <c r="E57" s="22">
+        <v>268651.59499999997</v>
+      </c>
+      <c r="F57" s="22">
+        <v>2676.83</v>
+      </c>
+      <c r="G57" s="22"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="25"/>
+    </row>
+    <row r="58" spans="2:11" hidden="1">
+      <c r="B58" s="12">
+        <v>2021</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" s="14">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>222215.03899999999</v>
+      </c>
+      <c r="E58" s="15">
+        <v>220246.12</v>
+      </c>
+      <c r="F58" s="15">
+        <v>1968.9190000000001</v>
+      </c>
+      <c r="G58" s="15"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="18"/>
+    </row>
+    <row r="59" spans="2:11" hidden="1">
+      <c r="B59" s="26">
+        <v>2021</v>
+      </c>
+      <c r="C59" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="28">
+      <c r="D59" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>272354.26800000004</v>
       </c>
-      <c r="E57" s="29">
+      <c r="E59" s="29">
         <v>270211.59100000001</v>
       </c>
-      <c r="F57" s="29">
+      <c r="F59" s="29">
         <v>2142.6770000000001</v>
       </c>
-      <c r="G57" s="29"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="31"/>
-    </row>
-    <row r="58" spans="2:11" hidden="1">
-      <c r="B58" s="32">
+      <c r="G59" s="29"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="31"/>
+    </row>
+    <row r="60" spans="2:11" hidden="1">
+      <c r="B60" s="32">
         <v>2020</v>
       </c>
-      <c r="C58" s="33" t="s">
+      <c r="C60" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="34">
+      <c r="D60" s="34">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>289863.19500000001</v>
       </c>
-      <c r="E58" s="35">
+      <c r="E60" s="35">
         <v>287659.50599999999</v>
       </c>
-      <c r="F58" s="35">
+      <c r="F60" s="35">
         <v>2203.6889999999999</v>
       </c>
-      <c r="G58" s="35"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="44"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="37"/>
-    </row>
-    <row r="59" spans="2:11" hidden="1">
-      <c r="B59" s="19">
-        <v>2020</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D59" s="21">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>228379.71699999998</v>
-      </c>
-      <c r="E59" s="22">
-        <v>226637.46699999998</v>
-      </c>
-      <c r="F59" s="22">
-        <v>1742.25</v>
-      </c>
-      <c r="G59" s="22"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="25"/>
-    </row>
-    <row r="60" spans="2:11" hidden="1">
-      <c r="B60" s="12">
-        <v>2020</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D60" s="14">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>225796.75899999996</v>
-      </c>
-      <c r="E60" s="15">
-        <v>223656.52399999998</v>
-      </c>
-      <c r="F60" s="15">
-        <v>2140.2350000000001</v>
-      </c>
-      <c r="G60" s="15"/>
-      <c r="I60" s="40"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="18"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="37"/>
     </row>
     <row r="61" spans="2:11" hidden="1">
       <c r="B61" s="19">
         <v>2020</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D61" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>192359.82700000002</v>
+        <v>228379.71699999998</v>
       </c>
       <c r="E61" s="22">
-        <v>190331.43100000001</v>
+        <v>226637.46699999998</v>
       </c>
       <c r="F61" s="22">
-        <v>2028.396</v>
+        <v>1742.25</v>
       </c>
       <c r="G61" s="22"/>
       <c r="H61" s="38"/>
@@ -2794,17 +2817,17 @@
         <v>2020</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D62" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>184495.08899999998</v>
+        <v>225796.75899999996</v>
       </c>
       <c r="E62" s="15">
-        <v>182519.18599999999</v>
+        <v>223656.52399999998</v>
       </c>
       <c r="F62" s="15">
-        <v>1975.903</v>
+        <v>2140.2350000000001</v>
       </c>
       <c r="G62" s="15"/>
       <c r="I62" s="40"/>
@@ -2816,17 +2839,17 @@
         <v>2020</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D63" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>160167.435</v>
+        <v>192359.82700000002</v>
       </c>
       <c r="E63" s="22">
-        <v>158161.66200000001</v>
+        <v>190331.43100000001</v>
       </c>
       <c r="F63" s="22">
-        <v>2005.7730000000001</v>
+        <v>2028.396</v>
       </c>
       <c r="G63" s="22"/>
       <c r="H63" s="38"/>
@@ -2839,17 +2862,17 @@
         <v>2020</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D64" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>105511.976</v>
+        <v>184495.08899999998</v>
       </c>
       <c r="E64" s="15">
-        <v>103802.962</v>
+        <v>182519.18599999999</v>
       </c>
       <c r="F64" s="15">
-        <v>1709.0140000000001</v>
+        <v>1975.903</v>
       </c>
       <c r="G64" s="15"/>
       <c r="I64" s="40"/>
@@ -2861,17 +2884,17 @@
         <v>2020</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D65" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>69285.474000000002</v>
+        <v>160167.435</v>
       </c>
       <c r="E65" s="22">
-        <v>67702.22</v>
+        <v>158161.66200000001</v>
       </c>
       <c r="F65" s="22">
-        <v>1583.2539999999999</v>
+        <v>2005.7730000000001</v>
       </c>
       <c r="G65" s="22"/>
       <c r="H65" s="38"/>
@@ -2884,17 +2907,17 @@
         <v>2020</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D66" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>69532.992000000013</v>
+        <v>105511.976</v>
       </c>
       <c r="E66" s="15">
-        <v>67898.813000000009</v>
+        <v>103802.962</v>
       </c>
       <c r="F66" s="15">
-        <v>1634.1790000000001</v>
+        <v>1709.0140000000001</v>
       </c>
       <c r="G66" s="15"/>
       <c r="I66" s="40"/>
@@ -2906,17 +2929,17 @@
         <v>2020</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D67" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>334769.408</v>
+        <v>69285.474000000002</v>
       </c>
       <c r="E67" s="22">
-        <v>332339.83399999997</v>
+        <v>67702.22</v>
       </c>
       <c r="F67" s="22">
-        <v>2429.5740000000001</v>
+        <v>1583.2539999999999</v>
       </c>
       <c r="G67" s="22"/>
       <c r="H67" s="38"/>
@@ -2929,17 +2952,17 @@
         <v>2020</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D68" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>400050.22200000001</v>
+        <v>69532.992000000013</v>
       </c>
       <c r="E68" s="15">
-        <v>397843.09899999999</v>
+        <v>67898.813000000009</v>
       </c>
       <c r="F68" s="15">
-        <v>2207.123</v>
+        <v>1634.1790000000001</v>
       </c>
       <c r="G68" s="15"/>
       <c r="I68" s="40"/>
@@ -2947,112 +2970,112 @@
       <c r="K68" s="18"/>
     </row>
     <row r="69" spans="2:11" hidden="1">
-      <c r="B69" s="26">
+      <c r="B69" s="19">
         <v>2020</v>
       </c>
-      <c r="C69" s="27" t="s">
+      <c r="C69" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" s="21">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>334769.408</v>
+      </c>
+      <c r="E69" s="22">
+        <v>332339.83399999997</v>
+      </c>
+      <c r="F69" s="22">
+        <v>2429.5740000000001</v>
+      </c>
+      <c r="G69" s="22"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="25"/>
+    </row>
+    <row r="70" spans="2:11" hidden="1">
+      <c r="B70" s="12">
+        <v>2020</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70" s="14">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>400050.22200000001</v>
+      </c>
+      <c r="E70" s="15">
+        <v>397843.09899999999</v>
+      </c>
+      <c r="F70" s="15">
+        <v>2207.123</v>
+      </c>
+      <c r="G70" s="15"/>
+      <c r="I70" s="40"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="18"/>
+    </row>
+    <row r="71" spans="2:11" hidden="1">
+      <c r="B71" s="26">
+        <v>2020</v>
+      </c>
+      <c r="C71" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D69" s="28">
+      <c r="D71" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>439902.09</v>
       </c>
-      <c r="E69" s="29">
+      <c r="E71" s="29">
         <v>437506.02900000004</v>
       </c>
-      <c r="F69" s="29">
+      <c r="F71" s="29">
         <v>2396.0610000000001</v>
       </c>
-      <c r="G69" s="29"/>
-      <c r="H69" s="41"/>
-      <c r="I69" s="42"/>
-      <c r="J69" s="29"/>
-      <c r="K69" s="31"/>
-    </row>
-    <row r="70" spans="2:11" hidden="1">
-      <c r="B70" s="32">
+      <c r="G71" s="29"/>
+      <c r="H71" s="41"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="29"/>
+      <c r="K71" s="31"/>
+    </row>
+    <row r="72" spans="2:11" hidden="1">
+      <c r="B72" s="32">
         <v>2019</v>
       </c>
-      <c r="C70" s="33" t="s">
+      <c r="C72" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D70" s="34">
+      <c r="D72" s="34">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>440800</v>
       </c>
-      <c r="E70" s="35">
+      <c r="E72" s="35">
         <v>438700</v>
       </c>
-      <c r="F70" s="35">
+      <c r="F72" s="35">
         <v>2100</v>
       </c>
-      <c r="G70" s="35"/>
-      <c r="H70" s="43"/>
-      <c r="I70" s="44"/>
-      <c r="J70" s="35"/>
-      <c r="K70" s="37"/>
-    </row>
-    <row r="71" spans="2:11" hidden="1">
-      <c r="B71" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C71" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D71" s="21">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>412300</v>
-      </c>
-      <c r="E71" s="22">
-        <v>410400</v>
-      </c>
-      <c r="F71" s="22">
-        <v>1900</v>
-      </c>
-      <c r="G71" s="22"/>
-      <c r="H71" s="38"/>
-      <c r="I71" s="39"/>
-      <c r="J71" s="22"/>
-      <c r="K71" s="25"/>
-    </row>
-    <row r="72" spans="2:11" hidden="1">
-      <c r="B72" s="12">
-        <v>2019</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D72" s="14">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>397000</v>
-      </c>
-      <c r="E72" s="15">
-        <v>395000</v>
-      </c>
-      <c r="F72" s="15">
-        <v>2000</v>
-      </c>
-      <c r="G72" s="15"/>
-      <c r="I72" s="40"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="18"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="43"/>
+      <c r="I72" s="44"/>
+      <c r="J72" s="35"/>
+      <c r="K72" s="37"/>
     </row>
     <row r="73" spans="2:11" hidden="1">
       <c r="B73" s="19">
         <v>2019</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D73" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>372500</v>
+        <v>412300</v>
       </c>
       <c r="E73" s="22">
-        <v>370700</v>
+        <v>410400</v>
       </c>
       <c r="F73" s="22">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="G73" s="22"/>
       <c r="H73" s="38"/>
@@ -3065,14 +3088,14 @@
         <v>2019</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D74" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>430200</v>
+        <v>397000</v>
       </c>
       <c r="E74" s="15">
-        <v>428200</v>
+        <v>395000</v>
       </c>
       <c r="F74" s="15">
         <v>2000</v>
@@ -3087,17 +3110,17 @@
         <v>2019</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D75" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>445000</v>
+        <v>372500</v>
       </c>
       <c r="E75" s="22">
-        <v>442800</v>
+        <v>370700</v>
       </c>
       <c r="F75" s="22">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="G75" s="22"/>
       <c r="H75" s="38"/>
@@ -3110,17 +3133,17 @@
         <v>2019</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D76" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>415300</v>
+        <v>430200</v>
       </c>
       <c r="E76" s="15">
-        <v>413200</v>
+        <v>428200</v>
       </c>
       <c r="F76" s="15">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G76" s="15"/>
       <c r="I76" s="40"/>
@@ -3132,14 +3155,14 @@
         <v>2019</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D77" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>413700</v>
+        <v>445000</v>
       </c>
       <c r="E77" s="22">
-        <v>411500</v>
+        <v>442800</v>
       </c>
       <c r="F77" s="22">
         <v>2200</v>
@@ -3155,17 +3178,17 @@
         <v>2019</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D78" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>419400</v>
+        <v>415300</v>
       </c>
       <c r="E78" s="15">
-        <v>417000</v>
+        <v>413200</v>
       </c>
       <c r="F78" s="15">
-        <v>2400</v>
+        <v>2100</v>
       </c>
       <c r="G78" s="15"/>
       <c r="I78" s="40"/>
@@ -3177,17 +3200,17 @@
         <v>2019</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D79" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>426800</v>
+        <v>413700</v>
       </c>
       <c r="E79" s="22">
-        <v>420000</v>
+        <v>411500</v>
       </c>
       <c r="F79" s="22">
-        <v>6800</v>
+        <v>2200</v>
       </c>
       <c r="G79" s="22"/>
       <c r="H79" s="38"/>
@@ -3200,17 +3223,17 @@
         <v>2019</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D80" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>375100</v>
+        <v>419400</v>
       </c>
       <c r="E80" s="15">
-        <v>372900</v>
+        <v>417000</v>
       </c>
       <c r="F80" s="15">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="G80" s="15"/>
       <c r="I80" s="40"/>
@@ -3218,108 +3241,108 @@
       <c r="K80" s="18"/>
     </row>
     <row r="81" spans="2:11" hidden="1">
-      <c r="B81" s="26">
+      <c r="B81" s="19">
         <v>2019</v>
       </c>
-      <c r="C81" s="27" t="s">
+      <c r="C81" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="21">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>426800</v>
+      </c>
+      <c r="E81" s="22">
+        <v>420000</v>
+      </c>
+      <c r="F81" s="22">
+        <v>6800</v>
+      </c>
+      <c r="G81" s="22"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="25"/>
+    </row>
+    <row r="82" spans="2:11" hidden="1">
+      <c r="B82" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D82" s="14">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>375100</v>
+      </c>
+      <c r="E82" s="15">
+        <v>372900</v>
+      </c>
+      <c r="F82" s="15">
+        <v>2200</v>
+      </c>
+      <c r="G82" s="15"/>
+      <c r="I82" s="40"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="18"/>
+    </row>
+    <row r="83" spans="2:11" hidden="1">
+      <c r="B83" s="26">
+        <v>2019</v>
+      </c>
+      <c r="C83" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="28">
+      <c r="D83" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>420900</v>
       </c>
-      <c r="E81" s="29">
+      <c r="E83" s="29">
         <v>418600</v>
       </c>
-      <c r="F81" s="29">
+      <c r="F83" s="29">
         <v>2300</v>
       </c>
-      <c r="G81" s="29"/>
-      <c r="H81" s="41"/>
-      <c r="I81" s="42"/>
-      <c r="J81" s="29"/>
-      <c r="K81" s="31"/>
-    </row>
-    <row r="82" spans="2:11" hidden="1">
-      <c r="B82" s="13">
-        <v>2018</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D82" s="14">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>436100</v>
-      </c>
-      <c r="E82" s="15">
-        <v>434000</v>
-      </c>
-      <c r="F82" s="15">
-        <v>2100</v>
-      </c>
-      <c r="G82" s="15"/>
-      <c r="I82" s="44"/>
-      <c r="J82" s="35"/>
-      <c r="K82" s="37"/>
-    </row>
-    <row r="83" spans="2:11" hidden="1">
-      <c r="B83" s="20">
-        <v>2018</v>
-      </c>
-      <c r="C83" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D83" s="21">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>406900</v>
-      </c>
-      <c r="E83" s="22">
-        <v>404900</v>
-      </c>
-      <c r="F83" s="22">
-        <v>2000</v>
-      </c>
-      <c r="G83" s="22"/>
-      <c r="H83" s="38"/>
-      <c r="I83" s="39"/>
-      <c r="J83" s="22"/>
-      <c r="K83" s="25"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="41"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="29"/>
+      <c r="K83" s="31"/>
     </row>
     <row r="84" spans="2:11" hidden="1">
       <c r="B84" s="13">
         <v>2018</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D84" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>391100</v>
+        <v>436100</v>
       </c>
       <c r="E84" s="15">
-        <v>389100</v>
+        <v>434000</v>
       </c>
       <c r="F84" s="15">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G84" s="15"/>
-      <c r="I84" s="40"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="18"/>
+      <c r="I84" s="44"/>
+      <c r="J84" s="35"/>
+      <c r="K84" s="37"/>
     </row>
     <row r="85" spans="2:11" hidden="1">
       <c r="B85" s="20">
         <v>2018</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D85" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>374300</v>
+        <v>406900</v>
       </c>
       <c r="E85" s="22">
-        <v>372300</v>
+        <v>404900</v>
       </c>
       <c r="F85" s="22">
         <v>2000</v>
@@ -3335,17 +3358,17 @@
         <v>2018</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D86" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>428800</v>
+        <v>391100</v>
       </c>
       <c r="E86" s="15">
-        <v>426400</v>
+        <v>389100</v>
       </c>
       <c r="F86" s="15">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="G86" s="15"/>
       <c r="I86" s="40"/>
@@ -3357,17 +3380,17 @@
         <v>2018</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D87" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>446300</v>
+        <v>374300</v>
       </c>
       <c r="E87" s="22">
-        <v>444000</v>
+        <v>372300</v>
       </c>
       <c r="F87" s="22">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="G87" s="22"/>
       <c r="H87" s="38"/>
@@ -3380,17 +3403,17 @@
         <v>2018</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D88" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>411400</v>
+        <v>428800</v>
       </c>
       <c r="E88" s="15">
-        <v>409400</v>
+        <v>426400</v>
       </c>
       <c r="F88" s="15">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="G88" s="15"/>
       <c r="I88" s="40"/>
@@ -3402,17 +3425,17 @@
         <v>2018</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D89" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>406200</v>
+        <v>446300</v>
       </c>
       <c r="E89" s="22">
-        <v>403800</v>
+        <v>444000</v>
       </c>
       <c r="F89" s="22">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="G89" s="22"/>
       <c r="H89" s="38"/>
@@ -3425,17 +3448,17 @@
         <v>2018</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D90" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>415400</v>
+        <v>411400</v>
       </c>
       <c r="E90" s="15">
-        <v>413200</v>
+        <v>409400</v>
       </c>
       <c r="F90" s="15">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="G90" s="15"/>
       <c r="I90" s="40"/>
@@ -3447,17 +3470,17 @@
         <v>2018</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D91" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>444600</v>
+        <v>406200</v>
       </c>
       <c r="E91" s="22">
-        <v>442100</v>
+        <v>403800</v>
       </c>
       <c r="F91" s="22">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="G91" s="22"/>
       <c r="H91" s="38"/>
@@ -3470,17 +3493,17 @@
         <v>2018</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D92" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>381500</v>
+        <v>415400</v>
       </c>
       <c r="E92" s="15">
-        <v>379200</v>
+        <v>413200</v>
       </c>
       <c r="F92" s="15">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="G92" s="15"/>
       <c r="I92" s="40"/>
@@ -3492,82 +3515,127 @@
         <v>2018</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D93" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>427700</v>
+        <v>444600</v>
       </c>
       <c r="E93" s="22">
-        <v>425500</v>
+        <v>442100</v>
       </c>
       <c r="F93" s="22">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="G93" s="22"/>
       <c r="H93" s="38"/>
-      <c r="I93" s="42"/>
-      <c r="J93" s="29"/>
-      <c r="K93" s="31"/>
-    </row>
-    <row r="94" spans="2:11">
-      <c r="B94" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H94" s="15"/>
-    </row>
-    <row r="95" spans="2:11">
-      <c r="B95" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H95" s="15"/>
+      <c r="I93" s="39"/>
+      <c r="J93" s="22"/>
+      <c r="K93" s="25"/>
+    </row>
+    <row r="94" spans="2:11" hidden="1">
+      <c r="B94" s="13">
+        <v>2018</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D94" s="14">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>381500</v>
+      </c>
+      <c r="E94" s="15">
+        <v>379200</v>
+      </c>
+      <c r="F94" s="15">
+        <v>2300</v>
+      </c>
+      <c r="G94" s="15"/>
+      <c r="I94" s="40"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="18"/>
+    </row>
+    <row r="95" spans="2:11" hidden="1">
+      <c r="B95" s="20">
+        <v>2018</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D95" s="21">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>427700</v>
+      </c>
+      <c r="E95" s="22">
+        <v>425500</v>
+      </c>
+      <c r="F95" s="22">
+        <v>2200</v>
+      </c>
+      <c r="G95" s="22"/>
+      <c r="H95" s="38"/>
+      <c r="I95" s="42"/>
+      <c r="J95" s="29"/>
+      <c r="K95" s="31"/>
     </row>
     <row r="96" spans="2:11">
       <c r="B96" s="3" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="H96" s="15"/>
-      <c r="K96" s="45"/>
     </row>
     <row r="97" spans="2:11">
       <c r="B97" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H97" s="15"/>
+    </row>
+    <row r="98" spans="2:11">
+      <c r="B98" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="K98" s="45"/>
+    </row>
+    <row r="99" spans="2:11">
+      <c r="B99" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H97" s="15"/>
-      <c r="K97" s="45"/>
-    </row>
-    <row r="98" spans="2:11">
-      <c r="B98" s="46" t="s">
+      <c r="H99" s="15"/>
+      <c r="K99" s="45"/>
+    </row>
+    <row r="100" spans="2:11">
+      <c r="B100" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="H98" s="15"/>
-    </row>
-    <row r="99" spans="2:11">
-      <c r="B99" s="47" t="s">
+      <c r="H100" s="15"/>
+    </row>
+    <row r="101" spans="2:11">
+      <c r="B101" s="47" t="s">
         <v>37</v>
-      </c>
-      <c r="H99" s="15"/>
-    </row>
-    <row r="100" spans="2:11">
-      <c r="B100" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H100" s="15"/>
-    </row>
-    <row r="101" spans="2:11">
-      <c r="B101" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="H101" s="15"/>
     </row>
     <row r="102" spans="2:11">
       <c r="B102" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H102" s="15"/>
     </row>
     <row r="103" spans="2:11">
       <c r="B103" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H103" s="15"/>
+    </row>
+    <row r="104" spans="2:11">
+      <c r="B104" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H104" s="15"/>
+    </row>
+    <row r="105" spans="2:11">
+      <c r="B105" s="3" t="s">
         <v>35</v>
       </c>
     </row>

--- a/Combustuble_A.xlsx
+++ b/Combustuble_A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A208904-0B4D-4A1F-8F5B-BF59A0DF359B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0449365-38F7-4F98-BAB1-4F8EA9E667C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_29" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="39">
   <si>
     <t>AICM</t>
   </si>
@@ -152,7 +152,7 @@
     <t>ND No Disponible.</t>
   </si>
   <si>
-    <t>Actualización: Junio 2025.</t>
+    <t>Actualización: Julio 2025.</t>
   </si>
 </sst>
 </file>
@@ -787,8 +787,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:K95" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
-  <autoFilter ref="B5:K95" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:K96" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="B5:K96" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -1039,7 +1039,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:K105"/>
+  <dimension ref="B2:K106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1125,2517 +1125,2551 @@
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="13">
+      <c r="B6" s="19">
         <v>2025</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="21">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>445624.19799999997</v>
+      </c>
+      <c r="E6" s="22">
+        <v>443851.23599999998</v>
+      </c>
+      <c r="F6" s="22">
+        <v>1772.962</v>
+      </c>
+      <c r="G6" s="22">
+        <v>136399.77499999999</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="24">
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
+        <v>9095.8220000000001</v>
+      </c>
+      <c r="J6" s="22">
+        <v>9048.3320000000003</v>
+      </c>
+      <c r="K6" s="22">
+        <v>47.489999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="13">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="14">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>407954.33800000005</v>
-      </c>
-      <c r="E6" s="15">
-        <v>406488.92100000003</v>
-      </c>
-      <c r="F6" s="15">
+      <c r="D7" s="14">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>414643.62900000002</v>
+      </c>
+      <c r="E7" s="15">
+        <v>413178.212</v>
+      </c>
+      <c r="F7" s="15">
         <v>1465.4169999999999</v>
       </c>
-      <c r="G6" s="15">
-        <v>128638.768</v>
-      </c>
-      <c r="H6" s="16" t="s">
+      <c r="G7" s="15">
+        <v>128925.75099999999</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I7" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>10070.996000000001</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J7" s="15">
         <v>10028.43</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K7" s="15">
         <v>42.566000000000003</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="19">
+    <row r="8" spans="2:11">
+      <c r="B8" s="19">
         <v>2025</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="21">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>415839.87800000003</v>
-      </c>
-      <c r="E7" s="22">
-        <v>413968.94900000002</v>
-      </c>
-      <c r="F7" s="22">
+      <c r="D8" s="21">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>424807.86900000001</v>
+      </c>
+      <c r="E8" s="22">
+        <v>422936.94</v>
+      </c>
+      <c r="F8" s="22">
         <v>1870.9290000000001</v>
       </c>
-      <c r="G7" s="22">
-        <v>128883.59800000001</v>
-      </c>
-      <c r="H7" s="23" t="s">
+      <c r="G8" s="22">
+        <v>131741.603</v>
+      </c>
+      <c r="H8" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I8" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>10776.736999999999</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J8" s="22">
         <v>10693.146999999999</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K8" s="22">
         <v>83.59</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="13">
+    <row r="9" spans="2:11">
+      <c r="B9" s="13">
         <v>2025</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="14">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>436043.58100000001</v>
-      </c>
-      <c r="E8" s="15">
-        <v>434212.31099999999</v>
-      </c>
-      <c r="F8" s="15">
+      <c r="D9" s="14">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>445193.63400000002</v>
+      </c>
+      <c r="E9" s="15">
+        <v>443362.364</v>
+      </c>
+      <c r="F9" s="15">
         <v>1831.27</v>
       </c>
-      <c r="G8" s="15">
-        <v>129515.29700000001</v>
-      </c>
-      <c r="H8" s="16" t="s">
+      <c r="G9" s="15">
+        <v>132612.81399999998</v>
+      </c>
+      <c r="H9" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I9" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>10477.77</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J9" s="15">
         <v>10424.495000000001</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K9" s="15">
         <v>53.275000000000006</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="19">
+    <row r="10" spans="2:11">
+      <c r="B10" s="19">
         <v>2025</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="21">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>454563.21800000005</v>
-      </c>
-      <c r="E9" s="22">
-        <v>452687.51200000005</v>
-      </c>
-      <c r="F9" s="22">
+      <c r="D10" s="21">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>463454.47099999996</v>
+      </c>
+      <c r="E10" s="22">
+        <v>461578.76499999996</v>
+      </c>
+      <c r="F10" s="22">
         <v>1875.7060000000001</v>
       </c>
-      <c r="G9" s="22">
-        <v>130469.94799999999</v>
-      </c>
-      <c r="H9" s="23" t="s">
+      <c r="G10" s="22">
+        <v>133988.50200000001</v>
+      </c>
+      <c r="H10" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I10" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>9538.9540000000015</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J10" s="22">
         <v>9476.7290000000012</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K10" s="22">
         <v>62.225000000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="13">
+    <row r="11" spans="2:11">
+      <c r="B11" s="13">
         <v>2025</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="14">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>389847.54699999996</v>
-      </c>
-      <c r="E10" s="15">
-        <v>387924.35699999996</v>
-      </c>
-      <c r="F10" s="15">
+      <c r="D11" s="14">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>398483.31700000004</v>
+      </c>
+      <c r="E11" s="15">
+        <v>396560.12700000004</v>
+      </c>
+      <c r="F11" s="15">
         <v>1923.19</v>
       </c>
-      <c r="G10" s="15">
-        <v>114153.624</v>
-      </c>
-      <c r="H10" s="16" t="s">
+      <c r="G11" s="15">
+        <v>117324.00199999999</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I11" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7439.2119999999995</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J11" s="15">
         <v>7369.0519999999997</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K11" s="15">
         <v>70.16</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="26">
+    <row r="12" spans="2:11">
+      <c r="B12" s="26">
         <v>2025</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="28">
-        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
-        <v>438408.533</v>
-      </c>
-      <c r="E11" s="29">
-        <v>436339.908</v>
-      </c>
-      <c r="F11" s="29">
+      <c r="D12" s="28">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>448988.51699999999</v>
+      </c>
+      <c r="E12" s="29">
+        <v>446919.89199999999</v>
+      </c>
+      <c r="F12" s="29">
         <v>2068.625</v>
       </c>
-      <c r="G11" s="29">
-        <v>128458.55</v>
-      </c>
-      <c r="H11" s="48" t="s">
+      <c r="G12" s="29">
+        <v>131966.58199999999</v>
+      </c>
+      <c r="H12" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I12" s="30">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8286.9150000000009</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J12" s="29">
         <v>8219.5570000000007</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K12" s="29">
         <v>67.358000000000004</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="12">
+    <row r="13" spans="2:11">
+      <c r="B13" s="12">
         <v>2024</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D13" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>449342.43200000003</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E13" s="15">
         <v>447545.49900000001</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F13" s="15">
         <v>1796.933</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G13" s="15">
         <v>130985.44000000002</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H13" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I13" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8869.9179999999997</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J13" s="15">
         <v>8814.67</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K13" s="18">
         <v>55.247999999999998</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="19">
+    <row r="14" spans="2:11">
+      <c r="B14" s="19">
         <v>2024</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C14" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D14" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>414979.28399999999</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E14" s="22">
         <v>413228.45</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F14" s="22">
         <v>1750.8340000000001</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G14" s="22">
         <v>126056.84700000001</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H14" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I14" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8715.9350000000013</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J14" s="22">
         <v>8658.853000000001</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K14" s="22">
         <v>57.082000000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="12">
+    <row r="15" spans="2:11">
+      <c r="B15" s="12">
         <v>2024</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C15" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D15" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>382292.66800000001</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E15" s="15">
         <v>380502.94699999999</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F15" s="15">
         <v>1789.721</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G15" s="15">
         <v>127339.47199999999</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H15" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I15" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8275.6580000000013</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J15" s="15">
         <v>8207.1910000000007</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K15" s="18">
         <v>68.466999999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="19">
+    <row r="16" spans="2:11">
+      <c r="B16" s="19">
         <v>2024</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C16" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D16" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>355217.31699999998</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E16" s="22">
         <v>353694.88099999999</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F16" s="22">
         <v>1522.4359999999999</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G16" s="22">
         <v>123427.23999999999</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H16" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I16" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8123.1509999999998</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J16" s="22">
         <v>8080.4319999999998</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K16" s="22">
         <v>42.719000000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="12">
+    <row r="17" spans="2:11">
+      <c r="B17" s="12">
         <v>2024</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D17" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>410385.15499999997</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E17" s="15">
         <v>408646.99599999998</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F17" s="15">
         <v>1738.1590000000001</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G17" s="15">
         <v>134271.14299999998</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H17" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I17" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7554.09</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J17" s="15">
         <v>7485.5810000000001</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K17" s="15">
         <v>68.509</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="19">
+    <row r="18" spans="2:11">
+      <c r="B18" s="19">
         <v>2024</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C18" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D18" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>425598.28600000002</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E18" s="22">
         <v>423719.45600000001</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F18" s="22">
         <v>1878.83</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G18" s="22">
         <v>134103.45499999999</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H18" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I18" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6892.0260000000007</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J18" s="22">
         <v>6846.5480000000007</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K18" s="25">
         <v>45.477999999999994</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="12">
+    <row r="19" spans="2:11">
+      <c r="B19" s="12">
         <v>2024</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C19" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D19" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>402694.15900000004</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E19" s="15">
         <v>401228.58</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F19" s="15">
         <v>1465.579</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G19" s="15">
         <v>130346.13999999998</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H19" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I19" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7673.4130000000005</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J19" s="15">
         <v>7627.335</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K19" s="18">
         <v>46.078000000000003</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="19">
+    <row r="20" spans="2:11">
+      <c r="B20" s="19">
         <v>2024</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C20" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D20" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>420255.26899999997</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E20" s="22">
         <v>418249.16899999999</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F20" s="22">
         <v>2006.1</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G20" s="22">
         <v>132414.008</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H20" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I20" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8118.799</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J20" s="22">
         <v>8068.768</v>
       </c>
-      <c r="K19" s="25">
+      <c r="K20" s="25">
         <v>50.030999999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="12">
+    <row r="21" spans="2:11">
+      <c r="B21" s="12">
         <v>2024</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D21" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>439431.40099999995</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E21" s="15">
         <v>437628.61099999998</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F21" s="15">
         <v>1802.79</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G21" s="15">
         <v>128736.15699999999</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H21" s="15">
         <v>14608.594000000001</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I21" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7934.7060000000001</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J21" s="15">
         <v>7869.5050000000001</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K21" s="18">
         <v>65.200999999999993</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="19">
+    <row r="22" spans="2:11">
+      <c r="B22" s="19">
         <v>2024</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C22" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D22" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>484582.01799999992</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E22" s="22">
         <v>482370.14599999995</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F22" s="22">
         <v>2211.8719999999998</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G22" s="22">
         <v>132127.88800000001</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H22" s="22">
         <v>26118.722999999998</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I22" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8232.1929999999993</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J22" s="22">
         <v>8188.4409999999989</v>
       </c>
-      <c r="K21" s="25">
+      <c r="K22" s="25">
         <v>43.752000000000002</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="12">
+    <row r="23" spans="2:11">
+      <c r="B23" s="12">
         <v>2024</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D23" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>439514.446</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E23" s="15">
         <v>437434.21399999998</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F23" s="15">
         <v>2080.232</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G23" s="15">
         <v>121792.711</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H23" s="15">
         <v>23599.862999999998</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I23" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7101.8710000000001</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J23" s="15">
         <v>7037.6580000000004</v>
       </c>
-      <c r="K22" s="18">
+      <c r="K23" s="18">
         <v>64.213000000000008</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="26">
+    <row r="24" spans="2:11">
+      <c r="B24" s="26">
         <v>2024</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C24" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="28">
+      <c r="D24" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>474317.27799999999</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E24" s="29">
         <v>472107.52999999997</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F24" s="29">
         <v>2209.748</v>
       </c>
-      <c r="G23" s="29">
+      <c r="G24" s="29">
         <v>133551.829</v>
       </c>
-      <c r="H23" s="29">
+      <c r="H24" s="29">
         <v>24093.275999999998</v>
       </c>
-      <c r="I23" s="30">
+      <c r="I24" s="30">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6939.9099999999989</v>
       </c>
-      <c r="J23" s="29">
+      <c r="J24" s="29">
         <v>6885.6349999999993</v>
       </c>
-      <c r="K23" s="31">
+      <c r="K24" s="31">
         <v>54.274999999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:11" hidden="1">
-      <c r="B24" s="32">
+    <row r="25" spans="2:11" hidden="1">
+      <c r="B25" s="32">
         <v>2023</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C25" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D25" s="34">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>497130.734</v>
       </c>
-      <c r="E24" s="35">
+      <c r="E25" s="35">
         <v>495355.598</v>
       </c>
-      <c r="F24" s="35">
+      <c r="F25" s="35">
         <v>1775.136</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G25" s="35">
         <v>141052.152</v>
       </c>
-      <c r="H24" s="35">
+      <c r="H25" s="35">
         <v>24233.223999999998</v>
       </c>
-      <c r="I24" s="36">
+      <c r="I25" s="36">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6935.0720000000001</v>
       </c>
-      <c r="J24" s="35">
+      <c r="J25" s="35">
         <v>6907.192</v>
       </c>
-      <c r="K24" s="37">
+      <c r="K25" s="37">
         <v>27.88</v>
       </c>
     </row>
-    <row r="25" spans="2:11" hidden="1">
-      <c r="B25" s="19">
+    <row r="26" spans="2:11" hidden="1">
+      <c r="B26" s="19">
         <v>2023</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C26" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D26" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>448851.103</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E26" s="22">
         <v>447174.89500000002</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F26" s="22">
         <v>1676.2079999999999</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G26" s="22">
         <v>133555.97700000001</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H26" s="22">
         <v>22508.399000000001</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I26" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7171.835</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J26" s="22">
         <v>7125.1350000000002</v>
       </c>
-      <c r="K25" s="25">
+      <c r="K26" s="25">
         <v>46.7</v>
       </c>
     </row>
-    <row r="26" spans="2:11" hidden="1">
-      <c r="B26" s="12">
+    <row r="27" spans="2:11" hidden="1">
+      <c r="B27" s="12">
         <v>2023</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C27" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D27" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>432477.60700000002</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E27" s="15">
         <v>430760.484</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F27" s="15">
         <v>1717.123</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G27" s="15">
         <v>135949.88099999999</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H27" s="15">
         <v>22848.071</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I27" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7518.7080000000005</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J27" s="15">
         <v>7461.4880000000003</v>
       </c>
-      <c r="K26" s="18">
+      <c r="K27" s="18">
         <v>57.22</v>
       </c>
     </row>
-    <row r="27" spans="2:11" hidden="1">
-      <c r="B27" s="19">
+    <row r="28" spans="2:11" hidden="1">
+      <c r="B28" s="19">
         <v>2023</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C28" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D28" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>403096.08900000004</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E28" s="22">
         <v>401473.96300000005</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F28" s="22">
         <v>1622.126</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G28" s="22">
         <v>130099.94800000002</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H28" s="22">
         <v>18583.999</v>
       </c>
-      <c r="I27" s="24">
+      <c r="I28" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6008.808</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J28" s="22">
         <v>5967.9129999999996</v>
       </c>
-      <c r="K27" s="25">
+      <c r="K28" s="25">
         <v>40.895000000000003</v>
       </c>
     </row>
-    <row r="28" spans="2:11" hidden="1">
-      <c r="B28" s="12">
+    <row r="29" spans="2:11" hidden="1">
+      <c r="B29" s="12">
         <v>2023</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D29" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>456592.212</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E29" s="15">
         <v>454830.98300000001</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F29" s="15">
         <v>1761.229</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G29" s="15">
         <v>143391.905</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H29" s="15">
         <v>16745.141</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I29" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6500.8150000000005</v>
       </c>
-      <c r="J28" s="15">
+      <c r="J29" s="15">
         <v>6459.5010000000002</v>
       </c>
-      <c r="K28" s="18">
+      <c r="K29" s="18">
         <v>41.314</v>
       </c>
     </row>
-    <row r="29" spans="2:11" hidden="1">
-      <c r="B29" s="19">
+    <row r="30" spans="2:11" hidden="1">
+      <c r="B30" s="19">
         <v>2023</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C30" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D30" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>471958.52600000001</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E30" s="22">
         <v>470075.826</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F30" s="22">
         <v>1882.7</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G30" s="22">
         <v>148684.78200000001</v>
       </c>
-      <c r="H29" s="22">
+      <c r="H30" s="22">
         <v>11646.752</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I30" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6100.8280000000004</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J30" s="22">
         <v>6053.3130000000001</v>
       </c>
-      <c r="K29" s="25">
+      <c r="K30" s="25">
         <v>47.515000000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:11" hidden="1">
-      <c r="B30" s="12">
+    <row r="31" spans="2:11" hidden="1">
+      <c r="B31" s="12">
         <v>2023</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C31" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D31" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>445605.64600000001</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E31" s="15">
         <v>443787.57799999998</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F31" s="15">
         <v>1818.068</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G31" s="15">
         <v>146831.476</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H31" s="15">
         <v>7161.2819999999992</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I31" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6393.7270000000008</v>
       </c>
-      <c r="J30" s="15">
+      <c r="J31" s="15">
         <v>6324.5640000000003</v>
       </c>
-      <c r="K30" s="18">
+      <c r="K31" s="18">
         <v>69.163000000000011</v>
       </c>
     </row>
-    <row r="31" spans="2:11" hidden="1">
-      <c r="B31" s="19">
+    <row r="32" spans="2:11" hidden="1">
+      <c r="B32" s="19">
         <v>2023</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C32" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D32" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>438617.83499999996</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E32" s="22">
         <v>436653.87099999998</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F32" s="22">
         <v>1963.9639999999999</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G32" s="22">
         <v>146066.30300000001</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H32" s="22">
         <v>6589.6929999999993</v>
       </c>
-      <c r="I31" s="24">
+      <c r="I32" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7134.3119999999999</v>
       </c>
-      <c r="J31" s="22">
+      <c r="J32" s="22">
         <v>7076.7709999999997</v>
       </c>
-      <c r="K31" s="25">
+      <c r="K32" s="25">
         <v>57.540999999999997</v>
       </c>
     </row>
-    <row r="32" spans="2:11" hidden="1">
-      <c r="B32" s="12">
+    <row r="33" spans="2:11" hidden="1">
+      <c r="B33" s="12">
         <v>2023</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C33" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D33" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>452626.13400000002</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E33" s="15">
         <v>450773.85800000001</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F33" s="15">
         <v>1852.2760000000001</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G33" s="15">
         <v>142422.533</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H33" s="15">
         <v>5892.4449999999997</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I33" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6515.2709999999997</v>
       </c>
-      <c r="J32" s="15">
+      <c r="J33" s="15">
         <v>6469.5959999999995</v>
       </c>
-      <c r="K32" s="18">
+      <c r="K33" s="18">
         <v>45.674999999999997</v>
       </c>
     </row>
-    <row r="33" spans="2:11" hidden="1">
-      <c r="B33" s="19">
+    <row r="34" spans="2:11" hidden="1">
+      <c r="B34" s="19">
         <v>2023</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C34" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D34" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>474025.5</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E34" s="22">
         <v>471373.67300000001</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F34" s="22">
         <v>2651.8269999999998</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G34" s="22">
         <v>147034.883</v>
       </c>
-      <c r="H33" s="22">
+      <c r="H34" s="22">
         <v>6186.35</v>
       </c>
-      <c r="I33" s="24">
+      <c r="I34" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7697.951</v>
       </c>
-      <c r="J33" s="22">
+      <c r="J34" s="22">
         <v>7624.7790000000005</v>
       </c>
-      <c r="K33" s="25">
+      <c r="K34" s="25">
         <v>73.171999999999997</v>
       </c>
     </row>
-    <row r="34" spans="2:11" hidden="1">
-      <c r="B34" s="12">
+    <row r="35" spans="2:11" hidden="1">
+      <c r="B35" s="12">
         <v>2023</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C35" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D35" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>418819.08400000003</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E35" s="15">
         <v>416951.092</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F35" s="15">
         <v>1867.9920000000002</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G35" s="15">
         <v>132657.08799999999</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H35" s="15">
         <v>4602.9769999999999</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I35" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6457.866</v>
       </c>
-      <c r="J34" s="15">
+      <c r="J35" s="15">
         <v>6410.7969999999996</v>
       </c>
-      <c r="K34" s="18">
+      <c r="K35" s="18">
         <v>47.069000000000003</v>
       </c>
     </row>
-    <row r="35" spans="2:11" hidden="1">
-      <c r="B35" s="26">
+    <row r="36" spans="2:11" hidden="1">
+      <c r="B36" s="26">
         <v>2023</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C36" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="28">
+      <c r="D36" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>461982.14700000006</v>
       </c>
-      <c r="E35" s="29">
+      <c r="E36" s="29">
         <v>459918.04600000003</v>
       </c>
-      <c r="F35" s="29">
+      <c r="F36" s="29">
         <v>2064.1010000000001</v>
       </c>
-      <c r="G35" s="29">
+      <c r="G36" s="29">
         <v>149629.198</v>
       </c>
-      <c r="H35" s="29">
+      <c r="H36" s="29">
         <v>5197.7539999999999</v>
       </c>
-      <c r="I35" s="30">
+      <c r="I36" s="30">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6489.6009999999997</v>
       </c>
-      <c r="J35" s="29">
+      <c r="J36" s="29">
         <v>6439.6379999999999</v>
       </c>
-      <c r="K35" s="31">
+      <c r="K36" s="31">
         <v>49.963000000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:11" hidden="1">
-      <c r="B36" s="32">
+    <row r="37" spans="2:11" hidden="1">
+      <c r="B37" s="32">
         <v>2022</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C37" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="34">
+      <c r="D37" s="34">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>490826.32500000001</v>
       </c>
-      <c r="E36" s="35">
+      <c r="E37" s="35">
         <v>489000.86</v>
       </c>
-      <c r="F36" s="35">
+      <c r="F37" s="35">
         <v>1825.4649999999999</v>
       </c>
-      <c r="G36" s="35">
+      <c r="G37" s="35">
         <v>157413.09299999999</v>
       </c>
-      <c r="H36" s="35">
+      <c r="H37" s="35">
         <v>4958.7839999999997</v>
       </c>
-      <c r="I36" s="36">
+      <c r="I37" s="36">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7356.5429999999997</v>
       </c>
-      <c r="J36" s="35">
+      <c r="J37" s="35">
         <v>7305.0450000000001</v>
       </c>
-      <c r="K36" s="37">
+      <c r="K37" s="37">
         <v>51.497999999999998</v>
       </c>
     </row>
-    <row r="37" spans="2:11" hidden="1">
-      <c r="B37" s="19">
+    <row r="38" spans="2:11" hidden="1">
+      <c r="B38" s="19">
         <v>2022</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C38" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D38" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>443157.86400000006</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E38" s="22">
         <v>441195.48500000004</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F38" s="22">
         <v>1962.3790000000001</v>
       </c>
-      <c r="G37" s="22">
+      <c r="G38" s="22">
         <v>150891.29999999999</v>
       </c>
-      <c r="H37" s="22">
+      <c r="H38" s="22">
         <v>4915.8980000000001</v>
       </c>
-      <c r="I37" s="24">
+      <c r="I38" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7236.4110000000001</v>
       </c>
-      <c r="J37" s="22">
+      <c r="J38" s="22">
         <v>7161.7529999999997</v>
       </c>
-      <c r="K37" s="25">
+      <c r="K38" s="25">
         <v>74.658000000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:11" hidden="1">
-      <c r="B38" s="12">
+    <row r="39" spans="2:11" hidden="1">
+      <c r="B39" s="12">
         <v>2022</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C39" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D39" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>414809.23100000003</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E39" s="15">
         <v>412921.60700000002</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F39" s="15">
         <v>1887.624</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G39" s="15">
         <v>150805.27799999999</v>
       </c>
-      <c r="H38" s="15">
+      <c r="H39" s="15">
         <v>4853.9489999999996</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I39" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6708.0059999999994</v>
       </c>
-      <c r="J38" s="15">
+      <c r="J39" s="15">
         <v>6658.6229999999996</v>
       </c>
-      <c r="K38" s="18">
+      <c r="K39" s="18">
         <v>49.383000000000003</v>
       </c>
     </row>
-    <row r="39" spans="2:11" hidden="1">
-      <c r="B39" s="19">
+    <row r="40" spans="2:11" hidden="1">
+      <c r="B40" s="19">
         <v>2022</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C40" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D40" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>387372.408</v>
       </c>
-      <c r="E39" s="22">
+      <c r="E40" s="22">
         <v>385430.815</v>
       </c>
-      <c r="F39" s="22">
+      <c r="F40" s="22">
         <v>1941.5929999999998</v>
       </c>
-      <c r="G39" s="22">
+      <c r="G40" s="22">
         <v>146576.45300000001</v>
       </c>
-      <c r="H39" s="22">
+      <c r="H40" s="22">
         <v>3809.2310000000002</v>
       </c>
-      <c r="I39" s="24">
+      <c r="I40" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>5459.2980000000007</v>
       </c>
-      <c r="J39" s="22">
+      <c r="J40" s="22">
         <v>5409.8770000000004</v>
       </c>
-      <c r="K39" s="25">
+      <c r="K40" s="25">
         <v>49.420999999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:11" hidden="1">
-      <c r="B40" s="12">
+    <row r="41" spans="2:11" hidden="1">
+      <c r="B41" s="12">
         <v>2022</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C41" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D41" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>436832.37699999998</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E41" s="15">
         <v>434776.21399999998</v>
       </c>
-      <c r="F40" s="15">
+      <c r="F41" s="15">
         <v>2056.163</v>
       </c>
-      <c r="G40" s="15">
+      <c r="G41" s="15">
         <v>156853.56299999999</v>
       </c>
-      <c r="H40" s="15">
+      <c r="H41" s="15">
         <v>2564.7890000000002</v>
       </c>
-      <c r="I40" s="17">
+      <c r="I41" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>5460.4780000000001</v>
       </c>
-      <c r="J40" s="15">
+      <c r="J41" s="15">
         <v>5402.1080000000002</v>
       </c>
-      <c r="K40" s="18">
+      <c r="K41" s="18">
         <v>58.37</v>
       </c>
     </row>
-    <row r="41" spans="2:11" hidden="1">
-      <c r="B41" s="19">
+    <row r="42" spans="2:11" hidden="1">
+      <c r="B42" s="19">
         <v>2022</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C42" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D42" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>448351.97599999997</v>
       </c>
-      <c r="E41" s="22">
+      <c r="E42" s="22">
         <v>446503.61</v>
       </c>
-      <c r="F41" s="22">
+      <c r="F42" s="22">
         <v>1848.366</v>
       </c>
-      <c r="G41" s="22">
+      <c r="G42" s="22">
         <v>153622.307</v>
       </c>
-      <c r="H41" s="22">
+      <c r="H42" s="22">
         <v>1060.989</v>
       </c>
-      <c r="I41" s="24">
+      <c r="I42" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>5119.0199999999995</v>
       </c>
-      <c r="J41" s="22">
+      <c r="J42" s="22">
         <v>5070.4549999999999</v>
       </c>
-      <c r="K41" s="25">
+      <c r="K42" s="25">
         <v>48.564999999999998</v>
       </c>
     </row>
-    <row r="42" spans="2:11" hidden="1">
-      <c r="B42" s="12">
+    <row r="43" spans="2:11" hidden="1">
+      <c r="B43" s="12">
         <v>2022</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C43" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D43" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>416921.51799999998</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E43" s="15">
         <v>414947.446</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F43" s="15">
         <v>1974.0720000000001</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G43" s="15">
         <v>140586.55600000001</v>
       </c>
-      <c r="H42" s="15">
+      <c r="H43" s="15">
         <v>853.44799999999998</v>
       </c>
-      <c r="I42" s="17">
+      <c r="I43" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>4541.9560000000001</v>
       </c>
-      <c r="J42" s="15">
+      <c r="J43" s="15">
         <v>4497.9610000000002</v>
       </c>
-      <c r="K42" s="18">
+      <c r="K43" s="18">
         <v>43.994999999999997</v>
       </c>
     </row>
-    <row r="43" spans="2:11" hidden="1">
-      <c r="B43" s="19">
+    <row r="44" spans="2:11" hidden="1">
+      <c r="B44" s="19">
         <v>2022</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C44" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D44" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>424375.26299999998</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E44" s="22">
         <v>422374.98</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F44" s="22">
         <v>2000.2830000000001</v>
       </c>
-      <c r="G43" s="22"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="25"/>
-    </row>
-    <row r="44" spans="2:11" hidden="1">
-      <c r="B44" s="12">
+      <c r="G44" s="22"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="25"/>
+    </row>
+    <row r="45" spans="2:11" hidden="1">
+      <c r="B45" s="12">
         <v>2022</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C45" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D45" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>437218.36900000001</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E45" s="15">
         <v>435084.44699999999</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F45" s="15">
         <v>2133.922</v>
       </c>
-      <c r="G44" s="15"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="18"/>
-    </row>
-    <row r="45" spans="2:11" hidden="1">
-      <c r="B45" s="19">
+      <c r="G45" s="15"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="18"/>
+    </row>
+    <row r="46" spans="2:11" hidden="1">
+      <c r="B46" s="19">
         <v>2022</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C46" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D46" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>430084.12599999999</v>
       </c>
-      <c r="E45" s="22">
+      <c r="E46" s="22">
         <v>427583.05499999999</v>
       </c>
-      <c r="F45" s="22">
+      <c r="F46" s="22">
         <v>2501.0709999999999</v>
       </c>
-      <c r="G45" s="22"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="25"/>
-    </row>
-    <row r="46" spans="2:11" hidden="1">
-      <c r="B46" s="12">
+      <c r="G46" s="22"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="25"/>
+    </row>
+    <row r="47" spans="2:11" hidden="1">
+      <c r="B47" s="12">
         <v>2022</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C47" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D47" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>358536.61100000003</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E47" s="15">
         <v>356535.05300000001</v>
       </c>
-      <c r="F46" s="15">
+      <c r="F47" s="15">
         <v>2001.5580000000002</v>
       </c>
-      <c r="G46" s="15"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="18"/>
-    </row>
-    <row r="47" spans="2:11" hidden="1">
-      <c r="B47" s="26">
+      <c r="G47" s="15"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="18"/>
+    </row>
+    <row r="48" spans="2:11" hidden="1">
+      <c r="B48" s="26">
         <v>2022</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C48" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D47" s="28">
+      <c r="D48" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>401925.429</v>
       </c>
-      <c r="E47" s="29">
+      <c r="E48" s="29">
         <v>399729.82500000001</v>
       </c>
-      <c r="F47" s="29">
+      <c r="F48" s="29">
         <v>2195.6039999999998</v>
       </c>
-      <c r="G47" s="29"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="31"/>
-    </row>
-    <row r="48" spans="2:11" hidden="1">
-      <c r="B48" s="32">
+      <c r="G48" s="29"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="31"/>
+    </row>
+    <row r="49" spans="2:11" hidden="1">
+      <c r="B49" s="32">
         <v>2021</v>
       </c>
-      <c r="C48" s="33" t="s">
+      <c r="C49" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D48" s="34">
+      <c r="D49" s="34">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>432897.13799999998</v>
       </c>
-      <c r="E48" s="35">
+      <c r="E49" s="35">
         <v>430707.82799999998</v>
       </c>
-      <c r="F48" s="35">
+      <c r="F49" s="35">
         <v>2189.31</v>
       </c>
-      <c r="G48" s="35"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="37"/>
-    </row>
-    <row r="49" spans="2:11" hidden="1">
-      <c r="B49" s="19">
+      <c r="G49" s="35"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="37"/>
+    </row>
+    <row r="50" spans="2:11" hidden="1">
+      <c r="B50" s="19">
         <v>2021</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C50" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D49" s="21">
+      <c r="D50" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>383033.76299999998</v>
       </c>
-      <c r="E49" s="22">
+      <c r="E50" s="22">
         <v>380922.15399999998</v>
       </c>
-      <c r="F49" s="22">
+      <c r="F50" s="22">
         <v>2111.6089999999999</v>
       </c>
-      <c r="G49" s="22"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="25"/>
-    </row>
-    <row r="50" spans="2:11" hidden="1">
-      <c r="B50" s="12">
+      <c r="G50" s="22"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="25"/>
+    </row>
+    <row r="51" spans="2:11" hidden="1">
+      <c r="B51" s="12">
         <v>2021</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C51" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D51" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>358842.80099999998</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E51" s="15">
         <v>356760.12</v>
       </c>
-      <c r="F50" s="15">
+      <c r="F51" s="15">
         <v>2082.681</v>
       </c>
-      <c r="G50" s="15"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="18"/>
-    </row>
-    <row r="51" spans="2:11" hidden="1">
-      <c r="B51" s="19">
+      <c r="G51" s="15"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="18"/>
+    </row>
+    <row r="52" spans="2:11" hidden="1">
+      <c r="B52" s="19">
         <v>2021</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C52" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="21">
+      <c r="D52" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>321941.98300000001</v>
       </c>
-      <c r="E51" s="22">
+      <c r="E52" s="22">
         <v>319890.413</v>
       </c>
-      <c r="F51" s="22">
+      <c r="F52" s="22">
         <v>2051.5699999999997</v>
       </c>
-      <c r="G51" s="22"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="25"/>
-    </row>
-    <row r="52" spans="2:11" hidden="1">
-      <c r="B52" s="12">
+      <c r="G52" s="22"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="25"/>
+    </row>
+    <row r="53" spans="2:11" hidden="1">
+      <c r="B53" s="12">
         <v>2021</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C53" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="14">
+      <c r="D53" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>363960.13899999997</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E53" s="15">
         <v>361966.45999999996</v>
       </c>
-      <c r="F52" s="15">
+      <c r="F53" s="15">
         <v>1993.6790000000001</v>
       </c>
-      <c r="G52" s="15"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="18"/>
-    </row>
-    <row r="53" spans="2:11" hidden="1">
-      <c r="B53" s="19">
+      <c r="G53" s="15"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="18"/>
+    </row>
+    <row r="54" spans="2:11" hidden="1">
+      <c r="B54" s="19">
         <v>2021</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C54" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D53" s="21">
+      <c r="D54" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>374695.174</v>
       </c>
-      <c r="E53" s="22">
+      <c r="E54" s="22">
         <v>372625.397</v>
       </c>
-      <c r="F53" s="22">
+      <c r="F54" s="22">
         <v>2069.777</v>
       </c>
-      <c r="G53" s="22"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="25"/>
-    </row>
-    <row r="54" spans="2:11" hidden="1">
-      <c r="B54" s="12">
+      <c r="G54" s="22"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="25"/>
+    </row>
+    <row r="55" spans="2:11" hidden="1">
+      <c r="B55" s="12">
         <v>2021</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C55" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D55" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>334517.39600000001</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E55" s="15">
         <v>332552.66499999998</v>
       </c>
-      <c r="F54" s="15">
+      <c r="F55" s="15">
         <v>1964.731</v>
       </c>
-      <c r="G54" s="15"/>
-      <c r="I54" s="40"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="18"/>
-    </row>
-    <row r="55" spans="2:11" hidden="1">
-      <c r="B55" s="19">
+      <c r="G55" s="15"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="18"/>
+    </row>
+    <row r="56" spans="2:11" hidden="1">
+      <c r="B56" s="19">
         <v>2021</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C56" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D55" s="21">
+      <c r="D56" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>322630.61800000002</v>
       </c>
-      <c r="E55" s="22">
+      <c r="E56" s="22">
         <v>320400.96000000002</v>
       </c>
-      <c r="F55" s="22">
+      <c r="F56" s="22">
         <v>2229.6580000000004</v>
       </c>
-      <c r="G55" s="22"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="25"/>
-    </row>
-    <row r="56" spans="2:11" hidden="1">
-      <c r="B56" s="12">
+      <c r="G56" s="22"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="25"/>
+    </row>
+    <row r="57" spans="2:11" hidden="1">
+      <c r="B57" s="12">
         <v>2021</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C57" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D56" s="14">
+      <c r="D57" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>299222.027</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E57" s="15">
         <v>296903.73</v>
       </c>
-      <c r="F56" s="15">
+      <c r="F57" s="15">
         <v>2318.297</v>
       </c>
-      <c r="G56" s="15"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="18"/>
-    </row>
-    <row r="57" spans="2:11" hidden="1">
-      <c r="B57" s="19">
+      <c r="G57" s="15"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="18"/>
+    </row>
+    <row r="58" spans="2:11" hidden="1">
+      <c r="B58" s="19">
         <v>2021</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C58" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D57" s="21">
+      <c r="D58" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>271328.42499999999</v>
       </c>
-      <c r="E57" s="22">
+      <c r="E58" s="22">
         <v>268651.59499999997</v>
       </c>
-      <c r="F57" s="22">
+      <c r="F58" s="22">
         <v>2676.83</v>
       </c>
-      <c r="G57" s="22"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="25"/>
-    </row>
-    <row r="58" spans="2:11" hidden="1">
-      <c r="B58" s="12">
+      <c r="G58" s="22"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="25"/>
+    </row>
+    <row r="59" spans="2:11" hidden="1">
+      <c r="B59" s="12">
         <v>2021</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C59" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D59" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>222215.03899999999</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E59" s="15">
         <v>220246.12</v>
       </c>
-      <c r="F58" s="15">
+      <c r="F59" s="15">
         <v>1968.9190000000001</v>
       </c>
-      <c r="G58" s="15"/>
-      <c r="I58" s="40"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="18"/>
-    </row>
-    <row r="59" spans="2:11" hidden="1">
-      <c r="B59" s="26">
+      <c r="G59" s="15"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="18"/>
+    </row>
+    <row r="60" spans="2:11" hidden="1">
+      <c r="B60" s="26">
         <v>2021</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C60" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D59" s="28">
+      <c r="D60" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>272354.26800000004</v>
       </c>
-      <c r="E59" s="29">
+      <c r="E60" s="29">
         <v>270211.59100000001</v>
       </c>
-      <c r="F59" s="29">
+      <c r="F60" s="29">
         <v>2142.6770000000001</v>
       </c>
-      <c r="G59" s="29"/>
-      <c r="H59" s="41"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="31"/>
-    </row>
-    <row r="60" spans="2:11" hidden="1">
-      <c r="B60" s="32">
+      <c r="G60" s="29"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="31"/>
+    </row>
+    <row r="61" spans="2:11" hidden="1">
+      <c r="B61" s="32">
         <v>2020</v>
       </c>
-      <c r="C60" s="33" t="s">
+      <c r="C61" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D60" s="34">
+      <c r="D61" s="34">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>289863.19500000001</v>
       </c>
-      <c r="E60" s="35">
+      <c r="E61" s="35">
         <v>287659.50599999999</v>
       </c>
-      <c r="F60" s="35">
+      <c r="F61" s="35">
         <v>2203.6889999999999</v>
       </c>
-      <c r="G60" s="35"/>
-      <c r="H60" s="43"/>
-      <c r="I60" s="44"/>
-      <c r="J60" s="35"/>
-      <c r="K60" s="37"/>
-    </row>
-    <row r="61" spans="2:11" hidden="1">
-      <c r="B61" s="19">
+      <c r="G61" s="35"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="44"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="37"/>
+    </row>
+    <row r="62" spans="2:11" hidden="1">
+      <c r="B62" s="19">
         <v>2020</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C62" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D61" s="21">
+      <c r="D62" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>228379.71699999998</v>
       </c>
-      <c r="E61" s="22">
+      <c r="E62" s="22">
         <v>226637.46699999998</v>
       </c>
-      <c r="F61" s="22">
+      <c r="F62" s="22">
         <v>1742.25</v>
       </c>
-      <c r="G61" s="22"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="25"/>
-    </row>
-    <row r="62" spans="2:11" hidden="1">
-      <c r="B62" s="12">
+      <c r="G62" s="22"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="25"/>
+    </row>
+    <row r="63" spans="2:11" hidden="1">
+      <c r="B63" s="12">
         <v>2020</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C63" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D63" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>225796.75899999996</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E63" s="15">
         <v>223656.52399999998</v>
       </c>
-      <c r="F62" s="15">
+      <c r="F63" s="15">
         <v>2140.2350000000001</v>
       </c>
-      <c r="G62" s="15"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="18"/>
-    </row>
-    <row r="63" spans="2:11" hidden="1">
-      <c r="B63" s="19">
+      <c r="G63" s="15"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="18"/>
+    </row>
+    <row r="64" spans="2:11" hidden="1">
+      <c r="B64" s="19">
         <v>2020</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C64" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D63" s="21">
+      <c r="D64" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>192359.82700000002</v>
       </c>
-      <c r="E63" s="22">
+      <c r="E64" s="22">
         <v>190331.43100000001</v>
       </c>
-      <c r="F63" s="22">
+      <c r="F64" s="22">
         <v>2028.396</v>
       </c>
-      <c r="G63" s="22"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="39"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="25"/>
-    </row>
-    <row r="64" spans="2:11" hidden="1">
-      <c r="B64" s="12">
+      <c r="G64" s="22"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="25"/>
+    </row>
+    <row r="65" spans="2:11" hidden="1">
+      <c r="B65" s="12">
         <v>2020</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C65" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="14">
+      <c r="D65" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>184495.08899999998</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E65" s="15">
         <v>182519.18599999999</v>
       </c>
-      <c r="F64" s="15">
+      <c r="F65" s="15">
         <v>1975.903</v>
       </c>
-      <c r="G64" s="15"/>
-      <c r="I64" s="40"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="18"/>
-    </row>
-    <row r="65" spans="2:11" hidden="1">
-      <c r="B65" s="19">
+      <c r="G65" s="15"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="18"/>
+    </row>
+    <row r="66" spans="2:11" hidden="1">
+      <c r="B66" s="19">
         <v>2020</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C66" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D65" s="21">
+      <c r="D66" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>160167.435</v>
       </c>
-      <c r="E65" s="22">
+      <c r="E66" s="22">
         <v>158161.66200000001</v>
       </c>
-      <c r="F65" s="22">
+      <c r="F66" s="22">
         <v>2005.7730000000001</v>
       </c>
-      <c r="G65" s="22"/>
-      <c r="H65" s="38"/>
-      <c r="I65" s="39"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="25"/>
-    </row>
-    <row r="66" spans="2:11" hidden="1">
-      <c r="B66" s="12">
+      <c r="G66" s="22"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="25"/>
+    </row>
+    <row r="67" spans="2:11" hidden="1">
+      <c r="B67" s="12">
         <v>2020</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C67" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="14">
+      <c r="D67" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>105511.976</v>
       </c>
-      <c r="E66" s="15">
+      <c r="E67" s="15">
         <v>103802.962</v>
       </c>
-      <c r="F66" s="15">
+      <c r="F67" s="15">
         <v>1709.0140000000001</v>
       </c>
-      <c r="G66" s="15"/>
-      <c r="I66" s="40"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="18"/>
-    </row>
-    <row r="67" spans="2:11" hidden="1">
-      <c r="B67" s="19">
+      <c r="G67" s="15"/>
+      <c r="I67" s="40"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="18"/>
+    </row>
+    <row r="68" spans="2:11" hidden="1">
+      <c r="B68" s="19">
         <v>2020</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C68" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D67" s="21">
+      <c r="D68" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>69285.474000000002</v>
       </c>
-      <c r="E67" s="22">
+      <c r="E68" s="22">
         <v>67702.22</v>
       </c>
-      <c r="F67" s="22">
+      <c r="F68" s="22">
         <v>1583.2539999999999</v>
       </c>
-      <c r="G67" s="22"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="39"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="25"/>
-    </row>
-    <row r="68" spans="2:11" hidden="1">
-      <c r="B68" s="12">
+      <c r="G68" s="22"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="25"/>
+    </row>
+    <row r="69" spans="2:11" hidden="1">
+      <c r="B69" s="12">
         <v>2020</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C69" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D68" s="14">
+      <c r="D69" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>69532.992000000013</v>
       </c>
-      <c r="E68" s="15">
+      <c r="E69" s="15">
         <v>67898.813000000009</v>
       </c>
-      <c r="F68" s="15">
+      <c r="F69" s="15">
         <v>1634.1790000000001</v>
       </c>
-      <c r="G68" s="15"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="18"/>
-    </row>
-    <row r="69" spans="2:11" hidden="1">
-      <c r="B69" s="19">
+      <c r="G69" s="15"/>
+      <c r="I69" s="40"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="18"/>
+    </row>
+    <row r="70" spans="2:11" hidden="1">
+      <c r="B70" s="19">
         <v>2020</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C70" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="21">
+      <c r="D70" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>334769.408</v>
       </c>
-      <c r="E69" s="22">
+      <c r="E70" s="22">
         <v>332339.83399999997</v>
       </c>
-      <c r="F69" s="22">
+      <c r="F70" s="22">
         <v>2429.5740000000001</v>
       </c>
-      <c r="G69" s="22"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="39"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="25"/>
-    </row>
-    <row r="70" spans="2:11" hidden="1">
-      <c r="B70" s="12">
+      <c r="G70" s="22"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="25"/>
+    </row>
+    <row r="71" spans="2:11" hidden="1">
+      <c r="B71" s="12">
         <v>2020</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C71" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D70" s="14">
+      <c r="D71" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>400050.22200000001</v>
       </c>
-      <c r="E70" s="15">
+      <c r="E71" s="15">
         <v>397843.09899999999</v>
       </c>
-      <c r="F70" s="15">
+      <c r="F71" s="15">
         <v>2207.123</v>
       </c>
-      <c r="G70" s="15"/>
-      <c r="I70" s="40"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="18"/>
-    </row>
-    <row r="71" spans="2:11" hidden="1">
-      <c r="B71" s="26">
+      <c r="G71" s="15"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="18"/>
+    </row>
+    <row r="72" spans="2:11" hidden="1">
+      <c r="B72" s="26">
         <v>2020</v>
       </c>
-      <c r="C71" s="27" t="s">
+      <c r="C72" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="28">
+      <c r="D72" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>439902.09</v>
       </c>
-      <c r="E71" s="29">
+      <c r="E72" s="29">
         <v>437506.02900000004</v>
       </c>
-      <c r="F71" s="29">
+      <c r="F72" s="29">
         <v>2396.0610000000001</v>
       </c>
-      <c r="G71" s="29"/>
-      <c r="H71" s="41"/>
-      <c r="I71" s="42"/>
-      <c r="J71" s="29"/>
-      <c r="K71" s="31"/>
-    </row>
-    <row r="72" spans="2:11" hidden="1">
-      <c r="B72" s="32">
+      <c r="G72" s="29"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="29"/>
+      <c r="K72" s="31"/>
+    </row>
+    <row r="73" spans="2:11" hidden="1">
+      <c r="B73" s="32">
         <v>2019</v>
       </c>
-      <c r="C72" s="33" t="s">
+      <c r="C73" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D72" s="34">
+      <c r="D73" s="34">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>440800</v>
       </c>
-      <c r="E72" s="35">
+      <c r="E73" s="35">
         <v>438700</v>
       </c>
-      <c r="F72" s="35">
+      <c r="F73" s="35">
         <v>2100</v>
       </c>
-      <c r="G72" s="35"/>
-      <c r="H72" s="43"/>
-      <c r="I72" s="44"/>
-      <c r="J72" s="35"/>
-      <c r="K72" s="37"/>
-    </row>
-    <row r="73" spans="2:11" hidden="1">
-      <c r="B73" s="19">
+      <c r="G73" s="35"/>
+      <c r="H73" s="43"/>
+      <c r="I73" s="44"/>
+      <c r="J73" s="35"/>
+      <c r="K73" s="37"/>
+    </row>
+    <row r="74" spans="2:11" hidden="1">
+      <c r="B74" s="19">
         <v>2019</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C74" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D73" s="21">
+      <c r="D74" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>412300</v>
       </c>
-      <c r="E73" s="22">
+      <c r="E74" s="22">
         <v>410400</v>
       </c>
-      <c r="F73" s="22">
+      <c r="F74" s="22">
         <v>1900</v>
       </c>
-      <c r="G73" s="22"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="39"/>
-      <c r="J73" s="22"/>
-      <c r="K73" s="25"/>
-    </row>
-    <row r="74" spans="2:11" hidden="1">
-      <c r="B74" s="12">
+      <c r="G74" s="22"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="39"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="25"/>
+    </row>
+    <row r="75" spans="2:11" hidden="1">
+      <c r="B75" s="12">
         <v>2019</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C75" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D74" s="14">
+      <c r="D75" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>397000</v>
       </c>
-      <c r="E74" s="15">
+      <c r="E75" s="15">
         <v>395000</v>
       </c>
-      <c r="F74" s="15">
+      <c r="F75" s="15">
         <v>2000</v>
       </c>
-      <c r="G74" s="15"/>
-      <c r="I74" s="40"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="18"/>
-    </row>
-    <row r="75" spans="2:11" hidden="1">
-      <c r="B75" s="19">
+      <c r="G75" s="15"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="18"/>
+    </row>
+    <row r="76" spans="2:11" hidden="1">
+      <c r="B76" s="19">
         <v>2019</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="C76" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D75" s="21">
+      <c r="D76" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>372500</v>
       </c>
-      <c r="E75" s="22">
+      <c r="E76" s="22">
         <v>370700</v>
       </c>
-      <c r="F75" s="22">
+      <c r="F76" s="22">
         <v>1800</v>
       </c>
-      <c r="G75" s="22"/>
-      <c r="H75" s="38"/>
-      <c r="I75" s="39"/>
-      <c r="J75" s="22"/>
-      <c r="K75" s="25"/>
-    </row>
-    <row r="76" spans="2:11" hidden="1">
-      <c r="B76" s="12">
+      <c r="G76" s="22"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="39"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="25"/>
+    </row>
+    <row r="77" spans="2:11" hidden="1">
+      <c r="B77" s="12">
         <v>2019</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C77" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D76" s="14">
+      <c r="D77" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>430200</v>
       </c>
-      <c r="E76" s="15">
+      <c r="E77" s="15">
         <v>428200</v>
       </c>
-      <c r="F76" s="15">
+      <c r="F77" s="15">
         <v>2000</v>
       </c>
-      <c r="G76" s="15"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="18"/>
-    </row>
-    <row r="77" spans="2:11" hidden="1">
-      <c r="B77" s="19">
+      <c r="G77" s="15"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="18"/>
+    </row>
+    <row r="78" spans="2:11" hidden="1">
+      <c r="B78" s="19">
         <v>2019</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C78" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D77" s="21">
+      <c r="D78" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>445000</v>
       </c>
-      <c r="E77" s="22">
+      <c r="E78" s="22">
         <v>442800</v>
       </c>
-      <c r="F77" s="22">
+      <c r="F78" s="22">
         <v>2200</v>
       </c>
-      <c r="G77" s="22"/>
-      <c r="H77" s="38"/>
-      <c r="I77" s="39"/>
-      <c r="J77" s="22"/>
-      <c r="K77" s="25"/>
-    </row>
-    <row r="78" spans="2:11" hidden="1">
-      <c r="B78" s="12">
+      <c r="G78" s="22"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="39"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="25"/>
+    </row>
+    <row r="79" spans="2:11" hidden="1">
+      <c r="B79" s="12">
         <v>2019</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C79" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="14">
+      <c r="D79" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>415300</v>
       </c>
-      <c r="E78" s="15">
+      <c r="E79" s="15">
         <v>413200</v>
       </c>
-      <c r="F78" s="15">
+      <c r="F79" s="15">
         <v>2100</v>
       </c>
-      <c r="G78" s="15"/>
-      <c r="I78" s="40"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="18"/>
-    </row>
-    <row r="79" spans="2:11" hidden="1">
-      <c r="B79" s="19">
+      <c r="G79" s="15"/>
+      <c r="I79" s="40"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="18"/>
+    </row>
+    <row r="80" spans="2:11" hidden="1">
+      <c r="B80" s="19">
         <v>2019</v>
       </c>
-      <c r="C79" s="20" t="s">
+      <c r="C80" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D79" s="21">
+      <c r="D80" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>413700</v>
       </c>
-      <c r="E79" s="22">
+      <c r="E80" s="22">
         <v>411500</v>
       </c>
-      <c r="F79" s="22">
+      <c r="F80" s="22">
         <v>2200</v>
       </c>
-      <c r="G79" s="22"/>
-      <c r="H79" s="38"/>
-      <c r="I79" s="39"/>
-      <c r="J79" s="22"/>
-      <c r="K79" s="25"/>
-    </row>
-    <row r="80" spans="2:11" hidden="1">
-      <c r="B80" s="12">
+      <c r="G80" s="22"/>
+      <c r="H80" s="38"/>
+      <c r="I80" s="39"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="25"/>
+    </row>
+    <row r="81" spans="2:11" hidden="1">
+      <c r="B81" s="12">
         <v>2019</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C81" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D80" s="14">
+      <c r="D81" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>419400</v>
       </c>
-      <c r="E80" s="15">
+      <c r="E81" s="15">
         <v>417000</v>
       </c>
-      <c r="F80" s="15">
+      <c r="F81" s="15">
         <v>2400</v>
       </c>
-      <c r="G80" s="15"/>
-      <c r="I80" s="40"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="18"/>
-    </row>
-    <row r="81" spans="2:11" hidden="1">
-      <c r="B81" s="19">
+      <c r="G81" s="15"/>
+      <c r="I81" s="40"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="18"/>
+    </row>
+    <row r="82" spans="2:11" hidden="1">
+      <c r="B82" s="19">
         <v>2019</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C82" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D81" s="21">
+      <c r="D82" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>426800</v>
       </c>
-      <c r="E81" s="22">
+      <c r="E82" s="22">
         <v>420000</v>
       </c>
-      <c r="F81" s="22">
+      <c r="F82" s="22">
         <v>6800</v>
       </c>
-      <c r="G81" s="22"/>
-      <c r="H81" s="38"/>
-      <c r="I81" s="39"/>
-      <c r="J81" s="22"/>
-      <c r="K81" s="25"/>
-    </row>
-    <row r="82" spans="2:11" hidden="1">
-      <c r="B82" s="12">
+      <c r="G82" s="22"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="39"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="25"/>
+    </row>
+    <row r="83" spans="2:11" hidden="1">
+      <c r="B83" s="12">
         <v>2019</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C83" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D82" s="14">
+      <c r="D83" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>375100</v>
       </c>
-      <c r="E82" s="15">
+      <c r="E83" s="15">
         <v>372900</v>
       </c>
-      <c r="F82" s="15">
+      <c r="F83" s="15">
         <v>2200</v>
       </c>
-      <c r="G82" s="15"/>
-      <c r="I82" s="40"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="18"/>
-    </row>
-    <row r="83" spans="2:11" hidden="1">
-      <c r="B83" s="26">
+      <c r="G83" s="15"/>
+      <c r="I83" s="40"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="18"/>
+    </row>
+    <row r="84" spans="2:11" hidden="1">
+      <c r="B84" s="26">
         <v>2019</v>
       </c>
-      <c r="C83" s="27" t="s">
+      <c r="C84" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D83" s="28">
+      <c r="D84" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>420900</v>
       </c>
-      <c r="E83" s="29">
+      <c r="E84" s="29">
         <v>418600</v>
       </c>
-      <c r="F83" s="29">
+      <c r="F84" s="29">
         <v>2300</v>
       </c>
-      <c r="G83" s="29"/>
-      <c r="H83" s="41"/>
-      <c r="I83" s="42"/>
-      <c r="J83" s="29"/>
-      <c r="K83" s="31"/>
-    </row>
-    <row r="84" spans="2:11" hidden="1">
-      <c r="B84" s="13">
+      <c r="G84" s="29"/>
+      <c r="H84" s="41"/>
+      <c r="I84" s="42"/>
+      <c r="J84" s="29"/>
+      <c r="K84" s="31"/>
+    </row>
+    <row r="85" spans="2:11" hidden="1">
+      <c r="B85" s="13">
         <v>2018</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C85" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D84" s="14">
+      <c r="D85" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>436100</v>
       </c>
-      <c r="E84" s="15">
+      <c r="E85" s="15">
         <v>434000</v>
       </c>
-      <c r="F84" s="15">
+      <c r="F85" s="15">
         <v>2100</v>
       </c>
-      <c r="G84" s="15"/>
-      <c r="I84" s="44"/>
-      <c r="J84" s="35"/>
-      <c r="K84" s="37"/>
-    </row>
-    <row r="85" spans="2:11" hidden="1">
-      <c r="B85" s="20">
+      <c r="G85" s="15"/>
+      <c r="I85" s="44"/>
+      <c r="J85" s="35"/>
+      <c r="K85" s="37"/>
+    </row>
+    <row r="86" spans="2:11" hidden="1">
+      <c r="B86" s="20">
         <v>2018</v>
       </c>
-      <c r="C85" s="20" t="s">
+      <c r="C86" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D85" s="21">
+      <c r="D86" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>406900</v>
       </c>
-      <c r="E85" s="22">
+      <c r="E86" s="22">
         <v>404900</v>
       </c>
-      <c r="F85" s="22">
+      <c r="F86" s="22">
         <v>2000</v>
       </c>
-      <c r="G85" s="22"/>
-      <c r="H85" s="38"/>
-      <c r="I85" s="39"/>
-      <c r="J85" s="22"/>
-      <c r="K85" s="25"/>
-    </row>
-    <row r="86" spans="2:11" hidden="1">
-      <c r="B86" s="13">
+      <c r="G86" s="22"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="39"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="25"/>
+    </row>
+    <row r="87" spans="2:11" hidden="1">
+      <c r="B87" s="13">
         <v>2018</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C87" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D86" s="14">
+      <c r="D87" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>391100</v>
       </c>
-      <c r="E86" s="15">
+      <c r="E87" s="15">
         <v>389100</v>
       </c>
-      <c r="F86" s="15">
+      <c r="F87" s="15">
         <v>2000</v>
       </c>
-      <c r="G86" s="15"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="18"/>
-    </row>
-    <row r="87" spans="2:11" hidden="1">
-      <c r="B87" s="20">
+      <c r="G87" s="15"/>
+      <c r="I87" s="40"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="18"/>
+    </row>
+    <row r="88" spans="2:11" hidden="1">
+      <c r="B88" s="20">
         <v>2018</v>
       </c>
-      <c r="C87" s="20" t="s">
+      <c r="C88" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D87" s="21">
+      <c r="D88" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>374300</v>
       </c>
-      <c r="E87" s="22">
+      <c r="E88" s="22">
         <v>372300</v>
       </c>
-      <c r="F87" s="22">
+      <c r="F88" s="22">
         <v>2000</v>
       </c>
-      <c r="G87" s="22"/>
-      <c r="H87" s="38"/>
-      <c r="I87" s="39"/>
-      <c r="J87" s="22"/>
-      <c r="K87" s="25"/>
-    </row>
-    <row r="88" spans="2:11" hidden="1">
-      <c r="B88" s="13">
+      <c r="G88" s="22"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="39"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="25"/>
+    </row>
+    <row r="89" spans="2:11" hidden="1">
+      <c r="B89" s="13">
         <v>2018</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C89" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D88" s="14">
+      <c r="D89" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>428800</v>
       </c>
-      <c r="E88" s="15">
+      <c r="E89" s="15">
         <v>426400</v>
       </c>
-      <c r="F88" s="15">
+      <c r="F89" s="15">
         <v>2400</v>
       </c>
-      <c r="G88" s="15"/>
-      <c r="I88" s="40"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="18"/>
-    </row>
-    <row r="89" spans="2:11" hidden="1">
-      <c r="B89" s="20">
+      <c r="G89" s="15"/>
+      <c r="I89" s="40"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="18"/>
+    </row>
+    <row r="90" spans="2:11" hidden="1">
+      <c r="B90" s="20">
         <v>2018</v>
       </c>
-      <c r="C89" s="20" t="s">
+      <c r="C90" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D89" s="21">
+      <c r="D90" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>446300</v>
       </c>
-      <c r="E89" s="22">
+      <c r="E90" s="22">
         <v>444000</v>
       </c>
-      <c r="F89" s="22">
+      <c r="F90" s="22">
         <v>2300</v>
       </c>
-      <c r="G89" s="22"/>
-      <c r="H89" s="38"/>
-      <c r="I89" s="39"/>
-      <c r="J89" s="22"/>
-      <c r="K89" s="25"/>
-    </row>
-    <row r="90" spans="2:11" hidden="1">
-      <c r="B90" s="13">
+      <c r="G90" s="22"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="22"/>
+      <c r="K90" s="25"/>
+    </row>
+    <row r="91" spans="2:11" hidden="1">
+      <c r="B91" s="13">
         <v>2018</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C91" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="14">
+      <c r="D91" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>411400</v>
       </c>
-      <c r="E90" s="15">
+      <c r="E91" s="15">
         <v>409400</v>
       </c>
-      <c r="F90" s="15">
+      <c r="F91" s="15">
         <v>2000</v>
       </c>
-      <c r="G90" s="15"/>
-      <c r="I90" s="40"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="18"/>
-    </row>
-    <row r="91" spans="2:11" hidden="1">
-      <c r="B91" s="20">
+      <c r="G91" s="15"/>
+      <c r="I91" s="40"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="18"/>
+    </row>
+    <row r="92" spans="2:11" hidden="1">
+      <c r="B92" s="20">
         <v>2018</v>
       </c>
-      <c r="C91" s="20" t="s">
+      <c r="C92" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D91" s="21">
+      <c r="D92" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>406200</v>
       </c>
-      <c r="E91" s="22">
+      <c r="E92" s="22">
         <v>403800</v>
       </c>
-      <c r="F91" s="22">
+      <c r="F92" s="22">
         <v>2400</v>
       </c>
-      <c r="G91" s="22"/>
-      <c r="H91" s="38"/>
-      <c r="I91" s="39"/>
-      <c r="J91" s="22"/>
-      <c r="K91" s="25"/>
-    </row>
-    <row r="92" spans="2:11" hidden="1">
-      <c r="B92" s="13">
+      <c r="G92" s="22"/>
+      <c r="H92" s="38"/>
+      <c r="I92" s="39"/>
+      <c r="J92" s="22"/>
+      <c r="K92" s="25"/>
+    </row>
+    <row r="93" spans="2:11" hidden="1">
+      <c r="B93" s="13">
         <v>2018</v>
       </c>
-      <c r="C92" s="13" t="s">
+      <c r="C93" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D92" s="14">
+      <c r="D93" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>415400</v>
       </c>
-      <c r="E92" s="15">
+      <c r="E93" s="15">
         <v>413200</v>
       </c>
-      <c r="F92" s="15">
+      <c r="F93" s="15">
         <v>2200</v>
       </c>
-      <c r="G92" s="15"/>
-      <c r="I92" s="40"/>
-      <c r="J92" s="15"/>
-      <c r="K92" s="18"/>
-    </row>
-    <row r="93" spans="2:11" hidden="1">
-      <c r="B93" s="20">
+      <c r="G93" s="15"/>
+      <c r="I93" s="40"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="18"/>
+    </row>
+    <row r="94" spans="2:11" hidden="1">
+      <c r="B94" s="20">
         <v>2018</v>
       </c>
-      <c r="C93" s="20" t="s">
+      <c r="C94" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D93" s="21">
+      <c r="D94" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>444600</v>
       </c>
-      <c r="E93" s="22">
+      <c r="E94" s="22">
         <v>442100</v>
       </c>
-      <c r="F93" s="22">
+      <c r="F94" s="22">
         <v>2500</v>
       </c>
-      <c r="G93" s="22"/>
-      <c r="H93" s="38"/>
-      <c r="I93" s="39"/>
-      <c r="J93" s="22"/>
-      <c r="K93" s="25"/>
-    </row>
-    <row r="94" spans="2:11" hidden="1">
-      <c r="B94" s="13">
+      <c r="G94" s="22"/>
+      <c r="H94" s="38"/>
+      <c r="I94" s="39"/>
+      <c r="J94" s="22"/>
+      <c r="K94" s="25"/>
+    </row>
+    <row r="95" spans="2:11" hidden="1">
+      <c r="B95" s="13">
         <v>2018</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="C95" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D94" s="14">
+      <c r="D95" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>381500</v>
       </c>
-      <c r="E94" s="15">
+      <c r="E95" s="15">
         <v>379200</v>
       </c>
-      <c r="F94" s="15">
+      <c r="F95" s="15">
         <v>2300</v>
       </c>
-      <c r="G94" s="15"/>
-      <c r="I94" s="40"/>
-      <c r="J94" s="15"/>
-      <c r="K94" s="18"/>
-    </row>
-    <row r="95" spans="2:11" hidden="1">
-      <c r="B95" s="20">
+      <c r="G95" s="15"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="15"/>
+      <c r="K95" s="18"/>
+    </row>
+    <row r="96" spans="2:11" hidden="1">
+      <c r="B96" s="20">
         <v>2018</v>
       </c>
-      <c r="C95" s="20" t="s">
+      <c r="C96" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D95" s="21">
+      <c r="D96" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>427700</v>
       </c>
-      <c r="E95" s="22">
+      <c r="E96" s="22">
         <v>425500</v>
       </c>
-      <c r="F95" s="22">
+      <c r="F96" s="22">
         <v>2200</v>
       </c>
-      <c r="G95" s="22"/>
-      <c r="H95" s="38"/>
-      <c r="I95" s="42"/>
-      <c r="J95" s="29"/>
-      <c r="K95" s="31"/>
-    </row>
-    <row r="96" spans="2:11">
-      <c r="B96" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H96" s="15"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="38"/>
+      <c r="I96" s="42"/>
+      <c r="J96" s="29"/>
+      <c r="K96" s="31"/>
     </row>
     <row r="97" spans="2:11">
       <c r="B97" s="3" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H97" s="15"/>
     </row>
     <row r="98" spans="2:11">
       <c r="B98" s="3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H98" s="15"/>
-      <c r="K98" s="45"/>
     </row>
     <row r="99" spans="2:11">
       <c r="B99" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H99" s="15"/>
       <c r="K99" s="45"/>
     </row>
     <row r="100" spans="2:11">
-      <c r="B100" s="46" t="s">
+      <c r="B100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="K100" s="45"/>
+    </row>
+    <row r="101" spans="2:11">
+      <c r="B101" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="H100" s="15"/>
-    </row>
-    <row r="101" spans="2:11">
-      <c r="B101" s="47" t="s">
+      <c r="H101" s="15"/>
+    </row>
+    <row r="102" spans="2:11">
+      <c r="B102" s="47" t="s">
         <v>37</v>
-      </c>
-      <c r="H101" s="15"/>
-    </row>
-    <row r="102" spans="2:11">
-      <c r="B102" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="H102" s="15"/>
     </row>
     <row r="103" spans="2:11">
       <c r="B103" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H103" s="15"/>
     </row>
     <row r="104" spans="2:11">
       <c r="B104" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H104" s="15"/>
     </row>
     <row r="105" spans="2:11">
       <c r="B105" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H105" s="15"/>
+    </row>
+    <row r="106" spans="2:11">
+      <c r="B106" s="3" t="s">
         <v>35</v>
       </c>
     </row>

--- a/Combustuble_A.xlsx
+++ b/Combustuble_A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0449365-38F7-4F98-BAB1-4F8EA9E667C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5287D10-40F3-4F4C-9878-935B6B80E74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_29" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="39">
   <si>
     <t>AICM</t>
   </si>
@@ -152,7 +152,7 @@
     <t>ND No Disponible.</t>
   </si>
   <si>
-    <t>Actualización: Julio 2025.</t>
+    <t>Actualización: Agosto 2025.</t>
   </si>
 </sst>
 </file>
@@ -787,8 +787,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:K96" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
-  <autoFilter ref="B5:K96" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:K97" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="B5:K97" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -1039,9 +1039,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:K106"/>
+  <dimension ref="B2:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1125,2551 +1125,2585 @@
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="19">
+      <c r="B6" s="13">
         <v>2025</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="14">
+        <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
+        <v>417427.17599999998</v>
+      </c>
+      <c r="E6" s="15">
+        <v>415838.76699999999</v>
+      </c>
+      <c r="F6" s="15">
+        <v>1588.4089999999999</v>
+      </c>
+      <c r="G6" s="15">
+        <v>131853.489</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="17">
+        <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
+        <v>10352.722</v>
+      </c>
+      <c r="J6" s="15">
+        <v>10304.545</v>
+      </c>
+      <c r="K6" s="15">
+        <v>48.177</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="19">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D7" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>445624.19799999997</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E7" s="22">
         <v>443851.23599999998</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F7" s="22">
         <v>1772.962</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G7" s="22">
         <v>136399.77499999999</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I7" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>9095.8220000000001</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J7" s="22">
         <v>9048.3320000000003</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K7" s="22">
         <v>47.489999999999995</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="13">
+    <row r="8" spans="2:11">
+      <c r="B8" s="13">
         <v>2025</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D8" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>414643.62900000002</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E8" s="15">
         <v>413178.212</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F8" s="15">
         <v>1465.4169999999999</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G8" s="15">
         <v>128925.75099999999</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H8" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I8" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>10070.996000000001</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J8" s="15">
         <v>10028.43</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K8" s="15">
         <v>42.566000000000003</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="19">
+    <row r="9" spans="2:11">
+      <c r="B9" s="19">
         <v>2025</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D9" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>424807.86900000001</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E9" s="22">
         <v>422936.94</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F9" s="22">
         <v>1870.9290000000001</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G9" s="22">
         <v>131741.603</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H9" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I9" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>10776.736999999999</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J9" s="22">
         <v>10693.146999999999</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K9" s="22">
         <v>83.59</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="13">
+    <row r="10" spans="2:11">
+      <c r="B10" s="13">
         <v>2025</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D10" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>445193.63400000002</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E10" s="15">
         <v>443362.364</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F10" s="15">
         <v>1831.27</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G10" s="15">
         <v>132612.81399999998</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H10" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I10" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>10477.77</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J10" s="15">
         <v>10424.495000000001</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K10" s="15">
         <v>53.275000000000006</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="19">
+    <row r="11" spans="2:11">
+      <c r="B11" s="19">
         <v>2025</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C11" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D11" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>463454.47099999996</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E11" s="22">
         <v>461578.76499999996</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F11" s="22">
         <v>1875.7060000000001</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G11" s="22">
         <v>133988.50200000001</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H11" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I11" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>9538.9540000000015</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J11" s="22">
         <v>9476.7290000000012</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K11" s="22">
         <v>62.225000000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="13">
+    <row r="12" spans="2:11">
+      <c r="B12" s="13">
         <v>2025</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D12" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>398483.31700000004</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E12" s="15">
         <v>396560.12700000004</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F12" s="15">
         <v>1923.19</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G12" s="15">
         <v>117324.00199999999</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H12" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I12" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7439.2119999999995</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J12" s="15">
         <v>7369.0519999999997</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K12" s="15">
         <v>70.16</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="26">
+    <row r="13" spans="2:11">
+      <c r="B13" s="26">
         <v>2025</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C13" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D13" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>448988.51699999999</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E13" s="29">
         <v>446919.89199999999</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F13" s="29">
         <v>2068.625</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G13" s="29">
         <v>131966.58199999999</v>
       </c>
-      <c r="H12" s="48" t="s">
+      <c r="H13" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I13" s="30">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8286.9150000000009</v>
       </c>
-      <c r="J12" s="29">
+      <c r="J13" s="29">
         <v>8219.5570000000007</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K13" s="29">
         <v>67.358000000000004</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="12">
+    <row r="14" spans="2:11">
+      <c r="B14" s="12">
         <v>2024</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D14" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>449342.43200000003</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E14" s="15">
         <v>447545.49900000001</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F14" s="15">
         <v>1796.933</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G14" s="15">
         <v>130985.44000000002</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I14" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8869.9179999999997</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J14" s="15">
         <v>8814.67</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K14" s="18">
         <v>55.247999999999998</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="19">
+    <row r="15" spans="2:11">
+      <c r="B15" s="19">
         <v>2024</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C15" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D15" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>414979.28399999999</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E15" s="22">
         <v>413228.45</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F15" s="22">
         <v>1750.8340000000001</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G15" s="22">
         <v>126056.84700000001</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H15" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I15" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8715.9350000000013</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J15" s="22">
         <v>8658.853000000001</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K15" s="22">
         <v>57.082000000000001</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="12">
+    <row r="16" spans="2:11">
+      <c r="B16" s="12">
         <v>2024</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D16" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>382292.66800000001</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E16" s="15">
         <v>380502.94699999999</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F16" s="15">
         <v>1789.721</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G16" s="15">
         <v>127339.47199999999</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H16" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I16" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8275.6580000000013</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J16" s="15">
         <v>8207.1910000000007</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K16" s="18">
         <v>68.466999999999999</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="19">
+    <row r="17" spans="2:11">
+      <c r="B17" s="19">
         <v>2024</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C17" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D17" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>355217.31699999998</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E17" s="22">
         <v>353694.88099999999</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F17" s="22">
         <v>1522.4359999999999</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G17" s="22">
         <v>123427.23999999999</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H17" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I17" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8123.1509999999998</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J17" s="22">
         <v>8080.4319999999998</v>
       </c>
-      <c r="K16" s="22">
+      <c r="K17" s="22">
         <v>42.719000000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="12">
+    <row r="18" spans="2:11">
+      <c r="B18" s="12">
         <v>2024</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C18" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D18" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>410385.15499999997</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E18" s="15">
         <v>408646.99599999998</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F18" s="15">
         <v>1738.1590000000001</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G18" s="15">
         <v>134271.14299999998</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H18" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I18" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7554.09</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J18" s="15">
         <v>7485.5810000000001</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K18" s="15">
         <v>68.509</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="19">
+    <row r="19" spans="2:11">
+      <c r="B19" s="19">
         <v>2024</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C19" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D19" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>425598.28600000002</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E19" s="22">
         <v>423719.45600000001</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F19" s="22">
         <v>1878.83</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G19" s="22">
         <v>134103.45499999999</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H19" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I19" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6892.0260000000007</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J19" s="22">
         <v>6846.5480000000007</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K19" s="25">
         <v>45.477999999999994</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="12">
+    <row r="20" spans="2:11">
+      <c r="B20" s="12">
         <v>2024</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D20" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>402694.15900000004</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E20" s="15">
         <v>401228.58</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F20" s="15">
         <v>1465.579</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G20" s="15">
         <v>130346.13999999998</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H20" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I20" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7673.4130000000005</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J20" s="15">
         <v>7627.335</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K20" s="18">
         <v>46.078000000000003</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="19">
+    <row r="21" spans="2:11">
+      <c r="B21" s="19">
         <v>2024</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C21" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D21" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>420255.26899999997</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E21" s="22">
         <v>418249.16899999999</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F21" s="22">
         <v>2006.1</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G21" s="22">
         <v>132414.008</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H21" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I21" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8118.799</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J21" s="22">
         <v>8068.768</v>
       </c>
-      <c r="K20" s="25">
+      <c r="K21" s="25">
         <v>50.030999999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="12">
+    <row r="22" spans="2:11">
+      <c r="B22" s="12">
         <v>2024</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C22" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D22" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>439431.40099999995</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E22" s="15">
         <v>437628.61099999998</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F22" s="15">
         <v>1802.79</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G22" s="15">
         <v>128736.15699999999</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H22" s="15">
         <v>14608.594000000001</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I22" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7934.7060000000001</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J22" s="15">
         <v>7869.5050000000001</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K22" s="18">
         <v>65.200999999999993</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="19">
+    <row r="23" spans="2:11">
+      <c r="B23" s="19">
         <v>2024</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C23" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D23" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>484582.01799999992</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E23" s="22">
         <v>482370.14599999995</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F23" s="22">
         <v>2211.8719999999998</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G23" s="22">
         <v>132127.88800000001</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H23" s="22">
         <v>26118.722999999998</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I23" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>8232.1929999999993</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J23" s="22">
         <v>8188.4409999999989</v>
       </c>
-      <c r="K22" s="25">
+      <c r="K23" s="25">
         <v>43.752000000000002</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="12">
+    <row r="24" spans="2:11">
+      <c r="B24" s="12">
         <v>2024</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D24" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>439514.446</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E24" s="15">
         <v>437434.21399999998</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F24" s="15">
         <v>2080.232</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G24" s="15">
         <v>121792.711</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H24" s="15">
         <v>23599.862999999998</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I24" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7101.8710000000001</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J24" s="15">
         <v>7037.6580000000004</v>
       </c>
-      <c r="K23" s="18">
+      <c r="K24" s="18">
         <v>64.213000000000008</v>
       </c>
     </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="26">
+    <row r="25" spans="2:11">
+      <c r="B25" s="26">
         <v>2024</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C25" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="28">
+      <c r="D25" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>474317.27799999999</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E25" s="29">
         <v>472107.52999999997</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F25" s="29">
         <v>2209.748</v>
       </c>
-      <c r="G24" s="29">
+      <c r="G25" s="29">
         <v>133551.829</v>
       </c>
-      <c r="H24" s="29">
+      <c r="H25" s="29">
         <v>24093.275999999998</v>
       </c>
-      <c r="I24" s="30">
+      <c r="I25" s="30">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6939.9099999999989</v>
       </c>
-      <c r="J24" s="29">
+      <c r="J25" s="29">
         <v>6885.6349999999993</v>
       </c>
-      <c r="K24" s="31">
+      <c r="K25" s="31">
         <v>54.274999999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:11" hidden="1">
-      <c r="B25" s="32">
+    <row r="26" spans="2:11" hidden="1">
+      <c r="B26" s="32">
         <v>2023</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C26" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D26" s="34">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>497130.734</v>
       </c>
-      <c r="E25" s="35">
+      <c r="E26" s="35">
         <v>495355.598</v>
       </c>
-      <c r="F25" s="35">
+      <c r="F26" s="35">
         <v>1775.136</v>
       </c>
-      <c r="G25" s="35">
+      <c r="G26" s="35">
         <v>141052.152</v>
       </c>
-      <c r="H25" s="35">
+      <c r="H26" s="35">
         <v>24233.223999999998</v>
       </c>
-      <c r="I25" s="36">
+      <c r="I26" s="36">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6935.0720000000001</v>
       </c>
-      <c r="J25" s="35">
+      <c r="J26" s="35">
         <v>6907.192</v>
       </c>
-      <c r="K25" s="37">
+      <c r="K26" s="37">
         <v>27.88</v>
       </c>
     </row>
-    <row r="26" spans="2:11" hidden="1">
-      <c r="B26" s="19">
+    <row r="27" spans="2:11" hidden="1">
+      <c r="B27" s="19">
         <v>2023</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C27" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D27" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>448851.103</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E27" s="22">
         <v>447174.89500000002</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F27" s="22">
         <v>1676.2079999999999</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G27" s="22">
         <v>133555.97700000001</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H27" s="22">
         <v>22508.399000000001</v>
       </c>
-      <c r="I26" s="24">
+      <c r="I27" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7171.835</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J27" s="22">
         <v>7125.1350000000002</v>
       </c>
-      <c r="K26" s="25">
+      <c r="K27" s="25">
         <v>46.7</v>
       </c>
     </row>
-    <row r="27" spans="2:11" hidden="1">
-      <c r="B27" s="12">
+    <row r="28" spans="2:11" hidden="1">
+      <c r="B28" s="12">
         <v>2023</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C28" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D28" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>432477.60700000002</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E28" s="15">
         <v>430760.484</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F28" s="15">
         <v>1717.123</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G28" s="15">
         <v>135949.88099999999</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H28" s="15">
         <v>22848.071</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I28" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7518.7080000000005</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J28" s="15">
         <v>7461.4880000000003</v>
       </c>
-      <c r="K27" s="18">
+      <c r="K28" s="18">
         <v>57.22</v>
       </c>
     </row>
-    <row r="28" spans="2:11" hidden="1">
-      <c r="B28" s="19">
+    <row r="29" spans="2:11" hidden="1">
+      <c r="B29" s="19">
         <v>2023</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C29" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D29" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>403096.08900000004</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E29" s="22">
         <v>401473.96300000005</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F29" s="22">
         <v>1622.126</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G29" s="22">
         <v>130099.94800000002</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H29" s="22">
         <v>18583.999</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I29" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6008.808</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J29" s="22">
         <v>5967.9129999999996</v>
       </c>
-      <c r="K28" s="25">
+      <c r="K29" s="25">
         <v>40.895000000000003</v>
       </c>
     </row>
-    <row r="29" spans="2:11" hidden="1">
-      <c r="B29" s="12">
+    <row r="30" spans="2:11" hidden="1">
+      <c r="B30" s="12">
         <v>2023</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C30" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D30" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>456592.212</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E30" s="15">
         <v>454830.98300000001</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F30" s="15">
         <v>1761.229</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G30" s="15">
         <v>143391.905</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H30" s="15">
         <v>16745.141</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I30" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6500.8150000000005</v>
       </c>
-      <c r="J29" s="15">
+      <c r="J30" s="15">
         <v>6459.5010000000002</v>
       </c>
-      <c r="K29" s="18">
+      <c r="K30" s="18">
         <v>41.314</v>
       </c>
     </row>
-    <row r="30" spans="2:11" hidden="1">
-      <c r="B30" s="19">
+    <row r="31" spans="2:11" hidden="1">
+      <c r="B31" s="19">
         <v>2023</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C31" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D31" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>471958.52600000001</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E31" s="22">
         <v>470075.826</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F31" s="22">
         <v>1882.7</v>
       </c>
-      <c r="G30" s="22">
+      <c r="G31" s="22">
         <v>148684.78200000001</v>
       </c>
-      <c r="H30" s="22">
+      <c r="H31" s="22">
         <v>11646.752</v>
       </c>
-      <c r="I30" s="24">
+      <c r="I31" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6100.8280000000004</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J31" s="22">
         <v>6053.3130000000001</v>
       </c>
-      <c r="K30" s="25">
+      <c r="K31" s="25">
         <v>47.515000000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:11" hidden="1">
-      <c r="B31" s="12">
+    <row r="32" spans="2:11" hidden="1">
+      <c r="B32" s="12">
         <v>2023</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C32" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D32" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>445605.64600000001</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E32" s="15">
         <v>443787.57799999998</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F32" s="15">
         <v>1818.068</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G32" s="15">
         <v>146831.476</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H32" s="15">
         <v>7161.2819999999992</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I32" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6393.7270000000008</v>
       </c>
-      <c r="J31" s="15">
+      <c r="J32" s="15">
         <v>6324.5640000000003</v>
       </c>
-      <c r="K31" s="18">
+      <c r="K32" s="18">
         <v>69.163000000000011</v>
       </c>
     </row>
-    <row r="32" spans="2:11" hidden="1">
-      <c r="B32" s="19">
+    <row r="33" spans="2:11" hidden="1">
+      <c r="B33" s="19">
         <v>2023</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C33" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D33" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>438617.83499999996</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E33" s="22">
         <v>436653.87099999998</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F33" s="22">
         <v>1963.9639999999999</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G33" s="22">
         <v>146066.30300000001</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H33" s="22">
         <v>6589.6929999999993</v>
       </c>
-      <c r="I32" s="24">
+      <c r="I33" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7134.3119999999999</v>
       </c>
-      <c r="J32" s="22">
+      <c r="J33" s="22">
         <v>7076.7709999999997</v>
       </c>
-      <c r="K32" s="25">
+      <c r="K33" s="25">
         <v>57.540999999999997</v>
       </c>
     </row>
-    <row r="33" spans="2:11" hidden="1">
-      <c r="B33" s="12">
+    <row r="34" spans="2:11" hidden="1">
+      <c r="B34" s="12">
         <v>2023</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C34" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D34" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>452626.13400000002</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E34" s="15">
         <v>450773.85800000001</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F34" s="15">
         <v>1852.2760000000001</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G34" s="15">
         <v>142422.533</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H34" s="15">
         <v>5892.4449999999997</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I34" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6515.2709999999997</v>
       </c>
-      <c r="J33" s="15">
+      <c r="J34" s="15">
         <v>6469.5959999999995</v>
       </c>
-      <c r="K33" s="18">
+      <c r="K34" s="18">
         <v>45.674999999999997</v>
       </c>
     </row>
-    <row r="34" spans="2:11" hidden="1">
-      <c r="B34" s="19">
+    <row r="35" spans="2:11" hidden="1">
+      <c r="B35" s="19">
         <v>2023</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C35" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D35" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>474025.5</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E35" s="22">
         <v>471373.67300000001</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F35" s="22">
         <v>2651.8269999999998</v>
       </c>
-      <c r="G34" s="22">
+      <c r="G35" s="22">
         <v>147034.883</v>
       </c>
-      <c r="H34" s="22">
+      <c r="H35" s="22">
         <v>6186.35</v>
       </c>
-      <c r="I34" s="24">
+      <c r="I35" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7697.951</v>
       </c>
-      <c r="J34" s="22">
+      <c r="J35" s="22">
         <v>7624.7790000000005</v>
       </c>
-      <c r="K34" s="25">
+      <c r="K35" s="25">
         <v>73.171999999999997</v>
       </c>
     </row>
-    <row r="35" spans="2:11" hidden="1">
-      <c r="B35" s="12">
+    <row r="36" spans="2:11" hidden="1">
+      <c r="B36" s="12">
         <v>2023</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C36" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D36" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>418819.08400000003</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E36" s="15">
         <v>416951.092</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F36" s="15">
         <v>1867.9920000000002</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G36" s="15">
         <v>132657.08799999999</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H36" s="15">
         <v>4602.9769999999999</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I36" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6457.866</v>
       </c>
-      <c r="J35" s="15">
+      <c r="J36" s="15">
         <v>6410.7969999999996</v>
       </c>
-      <c r="K35" s="18">
+      <c r="K36" s="18">
         <v>47.069000000000003</v>
       </c>
     </row>
-    <row r="36" spans="2:11" hidden="1">
-      <c r="B36" s="26">
+    <row r="37" spans="2:11" hidden="1">
+      <c r="B37" s="26">
         <v>2023</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C37" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="28">
+      <c r="D37" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>461982.14700000006</v>
       </c>
-      <c r="E36" s="29">
+      <c r="E37" s="29">
         <v>459918.04600000003</v>
       </c>
-      <c r="F36" s="29">
+      <c r="F37" s="29">
         <v>2064.1010000000001</v>
       </c>
-      <c r="G36" s="29">
+      <c r="G37" s="29">
         <v>149629.198</v>
       </c>
-      <c r="H36" s="29">
+      <c r="H37" s="29">
         <v>5197.7539999999999</v>
       </c>
-      <c r="I36" s="30">
+      <c r="I37" s="30">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6489.6009999999997</v>
       </c>
-      <c r="J36" s="29">
+      <c r="J37" s="29">
         <v>6439.6379999999999</v>
       </c>
-      <c r="K36" s="31">
+      <c r="K37" s="31">
         <v>49.963000000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:11" hidden="1">
-      <c r="B37" s="32">
+    <row r="38" spans="2:11" hidden="1">
+      <c r="B38" s="32">
         <v>2022</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C38" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="34">
+      <c r="D38" s="34">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>490826.32500000001</v>
       </c>
-      <c r="E37" s="35">
+      <c r="E38" s="35">
         <v>489000.86</v>
       </c>
-      <c r="F37" s="35">
+      <c r="F38" s="35">
         <v>1825.4649999999999</v>
       </c>
-      <c r="G37" s="35">
+      <c r="G38" s="35">
         <v>157413.09299999999</v>
       </c>
-      <c r="H37" s="35">
+      <c r="H38" s="35">
         <v>4958.7839999999997</v>
       </c>
-      <c r="I37" s="36">
+      <c r="I38" s="36">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7356.5429999999997</v>
       </c>
-      <c r="J37" s="35">
+      <c r="J38" s="35">
         <v>7305.0450000000001</v>
       </c>
-      <c r="K37" s="37">
+      <c r="K38" s="37">
         <v>51.497999999999998</v>
       </c>
     </row>
-    <row r="38" spans="2:11" hidden="1">
-      <c r="B38" s="19">
+    <row r="39" spans="2:11" hidden="1">
+      <c r="B39" s="19">
         <v>2022</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C39" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D39" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>443157.86400000006</v>
       </c>
-      <c r="E38" s="22">
+      <c r="E39" s="22">
         <v>441195.48500000004</v>
       </c>
-      <c r="F38" s="22">
+      <c r="F39" s="22">
         <v>1962.3790000000001</v>
       </c>
-      <c r="G38" s="22">
+      <c r="G39" s="22">
         <v>150891.29999999999</v>
       </c>
-      <c r="H38" s="22">
+      <c r="H39" s="22">
         <v>4915.8980000000001</v>
       </c>
-      <c r="I38" s="24">
+      <c r="I39" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>7236.4110000000001</v>
       </c>
-      <c r="J38" s="22">
+      <c r="J39" s="22">
         <v>7161.7529999999997</v>
       </c>
-      <c r="K38" s="25">
+      <c r="K39" s="25">
         <v>74.658000000000001</v>
       </c>
     </row>
-    <row r="39" spans="2:11" hidden="1">
-      <c r="B39" s="12">
+    <row r="40" spans="2:11" hidden="1">
+      <c r="B40" s="12">
         <v>2022</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C40" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D40" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>414809.23100000003</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E40" s="15">
         <v>412921.60700000002</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F40" s="15">
         <v>1887.624</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G40" s="15">
         <v>150805.27799999999</v>
       </c>
-      <c r="H39" s="15">
+      <c r="H40" s="15">
         <v>4853.9489999999996</v>
       </c>
-      <c r="I39" s="17">
+      <c r="I40" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>6708.0059999999994</v>
       </c>
-      <c r="J39" s="15">
+      <c r="J40" s="15">
         <v>6658.6229999999996</v>
       </c>
-      <c r="K39" s="18">
+      <c r="K40" s="18">
         <v>49.383000000000003</v>
       </c>
     </row>
-    <row r="40" spans="2:11" hidden="1">
-      <c r="B40" s="19">
+    <row r="41" spans="2:11" hidden="1">
+      <c r="B41" s="19">
         <v>2022</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C41" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D41" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>387372.408</v>
       </c>
-      <c r="E40" s="22">
+      <c r="E41" s="22">
         <v>385430.815</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F41" s="22">
         <v>1941.5929999999998</v>
       </c>
-      <c r="G40" s="22">
+      <c r="G41" s="22">
         <v>146576.45300000001</v>
       </c>
-      <c r="H40" s="22">
+      <c r="H41" s="22">
         <v>3809.2310000000002</v>
       </c>
-      <c r="I40" s="24">
+      <c r="I41" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>5459.2980000000007</v>
       </c>
-      <c r="J40" s="22">
+      <c r="J41" s="22">
         <v>5409.8770000000004</v>
       </c>
-      <c r="K40" s="25">
+      <c r="K41" s="25">
         <v>49.420999999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:11" hidden="1">
-      <c r="B41" s="12">
+    <row r="42" spans="2:11" hidden="1">
+      <c r="B42" s="12">
         <v>2022</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C42" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D42" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>436832.37699999998</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E42" s="15">
         <v>434776.21399999998</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F42" s="15">
         <v>2056.163</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G42" s="15">
         <v>156853.56299999999</v>
       </c>
-      <c r="H41" s="15">
+      <c r="H42" s="15">
         <v>2564.7890000000002</v>
       </c>
-      <c r="I41" s="17">
+      <c r="I42" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>5460.4780000000001</v>
       </c>
-      <c r="J41" s="15">
+      <c r="J42" s="15">
         <v>5402.1080000000002</v>
       </c>
-      <c r="K41" s="18">
+      <c r="K42" s="18">
         <v>58.37</v>
       </c>
     </row>
-    <row r="42" spans="2:11" hidden="1">
-      <c r="B42" s="19">
+    <row r="43" spans="2:11" hidden="1">
+      <c r="B43" s="19">
         <v>2022</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C43" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D43" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>448351.97599999997</v>
       </c>
-      <c r="E42" s="22">
+      <c r="E43" s="22">
         <v>446503.61</v>
       </c>
-      <c r="F42" s="22">
+      <c r="F43" s="22">
         <v>1848.366</v>
       </c>
-      <c r="G42" s="22">
+      <c r="G43" s="22">
         <v>153622.307</v>
       </c>
-      <c r="H42" s="22">
+      <c r="H43" s="22">
         <v>1060.989</v>
       </c>
-      <c r="I42" s="24">
+      <c r="I43" s="24">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>5119.0199999999995</v>
       </c>
-      <c r="J42" s="22">
+      <c r="J43" s="22">
         <v>5070.4549999999999</v>
       </c>
-      <c r="K42" s="25">
+      <c r="K43" s="25">
         <v>48.564999999999998</v>
       </c>
     </row>
-    <row r="43" spans="2:11" hidden="1">
-      <c r="B43" s="12">
+    <row r="44" spans="2:11" hidden="1">
+      <c r="B44" s="12">
         <v>2022</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C44" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D44" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>416921.51799999998</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E44" s="15">
         <v>414947.446</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F44" s="15">
         <v>1974.0720000000001</v>
       </c>
-      <c r="G43" s="15">
+      <c r="G44" s="15">
         <v>140586.55600000001</v>
       </c>
-      <c r="H43" s="15">
+      <c r="H44" s="15">
         <v>853.44799999999998</v>
       </c>
-      <c r="I43" s="17">
+      <c r="I44" s="17">
         <f>SUM(Tabla3[[#This Row],[Turbosina  ]:[Gasavión  ]])</f>
         <v>4541.9560000000001</v>
       </c>
-      <c r="J43" s="15">
+      <c r="J44" s="15">
         <v>4497.9610000000002</v>
       </c>
-      <c r="K43" s="18">
+      <c r="K44" s="18">
         <v>43.994999999999997</v>
       </c>
     </row>
-    <row r="44" spans="2:11" hidden="1">
-      <c r="B44" s="19">
+    <row r="45" spans="2:11" hidden="1">
+      <c r="B45" s="19">
         <v>2022</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C45" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D45" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>424375.26299999998</v>
       </c>
-      <c r="E44" s="22">
+      <c r="E45" s="22">
         <v>422374.98</v>
       </c>
-      <c r="F44" s="22">
+      <c r="F45" s="22">
         <v>2000.2830000000001</v>
       </c>
-      <c r="G44" s="22"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="25"/>
-    </row>
-    <row r="45" spans="2:11" hidden="1">
-      <c r="B45" s="12">
+      <c r="G45" s="22"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="25"/>
+    </row>
+    <row r="46" spans="2:11" hidden="1">
+      <c r="B46" s="12">
         <v>2022</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C46" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D46" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>437218.36900000001</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E46" s="15">
         <v>435084.44699999999</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F46" s="15">
         <v>2133.922</v>
       </c>
-      <c r="G45" s="15"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="18"/>
-    </row>
-    <row r="46" spans="2:11" hidden="1">
-      <c r="B46" s="19">
+      <c r="G46" s="15"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="18"/>
+    </row>
+    <row r="47" spans="2:11" hidden="1">
+      <c r="B47" s="19">
         <v>2022</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C47" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D47" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>430084.12599999999</v>
       </c>
-      <c r="E46" s="22">
+      <c r="E47" s="22">
         <v>427583.05499999999</v>
       </c>
-      <c r="F46" s="22">
+      <c r="F47" s="22">
         <v>2501.0709999999999</v>
       </c>
-      <c r="G46" s="22"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="25"/>
-    </row>
-    <row r="47" spans="2:11" hidden="1">
-      <c r="B47" s="12">
+      <c r="G47" s="22"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="25"/>
+    </row>
+    <row r="48" spans="2:11" hidden="1">
+      <c r="B48" s="12">
         <v>2022</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C48" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D48" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>358536.61100000003</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E48" s="15">
         <v>356535.05300000001</v>
       </c>
-      <c r="F47" s="15">
+      <c r="F48" s="15">
         <v>2001.5580000000002</v>
       </c>
-      <c r="G47" s="15"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="18"/>
-    </row>
-    <row r="48" spans="2:11" hidden="1">
-      <c r="B48" s="26">
+      <c r="G48" s="15"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="18"/>
+    </row>
+    <row r="49" spans="2:11" hidden="1">
+      <c r="B49" s="26">
         <v>2022</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C49" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="28">
+      <c r="D49" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>401925.429</v>
       </c>
-      <c r="E48" s="29">
+      <c r="E49" s="29">
         <v>399729.82500000001</v>
       </c>
-      <c r="F48" s="29">
+      <c r="F49" s="29">
         <v>2195.6039999999998</v>
       </c>
-      <c r="G48" s="29"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="31"/>
-    </row>
-    <row r="49" spans="2:11" hidden="1">
-      <c r="B49" s="32">
+      <c r="G49" s="29"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="31"/>
+    </row>
+    <row r="50" spans="2:11" hidden="1">
+      <c r="B50" s="32">
         <v>2021</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="C50" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="34">
+      <c r="D50" s="34">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>432897.13799999998</v>
       </c>
-      <c r="E49" s="35">
+      <c r="E50" s="35">
         <v>430707.82799999998</v>
       </c>
-      <c r="F49" s="35">
+      <c r="F50" s="35">
         <v>2189.31</v>
       </c>
-      <c r="G49" s="35"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="37"/>
-    </row>
-    <row r="50" spans="2:11" hidden="1">
-      <c r="B50" s="19">
+      <c r="G50" s="35"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="37"/>
+    </row>
+    <row r="51" spans="2:11" hidden="1">
+      <c r="B51" s="19">
         <v>2021</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C51" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="21">
+      <c r="D51" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>383033.76299999998</v>
       </c>
-      <c r="E50" s="22">
+      <c r="E51" s="22">
         <v>380922.15399999998</v>
       </c>
-      <c r="F50" s="22">
+      <c r="F51" s="22">
         <v>2111.6089999999999</v>
       </c>
-      <c r="G50" s="22"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="25"/>
-    </row>
-    <row r="51" spans="2:11" hidden="1">
-      <c r="B51" s="12">
+      <c r="G51" s="22"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="25"/>
+    </row>
+    <row r="52" spans="2:11" hidden="1">
+      <c r="B52" s="12">
         <v>2021</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C52" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D52" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>358842.80099999998</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E52" s="15">
         <v>356760.12</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F52" s="15">
         <v>2082.681</v>
       </c>
-      <c r="G51" s="15"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="18"/>
-    </row>
-    <row r="52" spans="2:11" hidden="1">
-      <c r="B52" s="19">
+      <c r="G52" s="15"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="18"/>
+    </row>
+    <row r="53" spans="2:11" hidden="1">
+      <c r="B53" s="19">
         <v>2021</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C53" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="21">
+      <c r="D53" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>321941.98300000001</v>
       </c>
-      <c r="E52" s="22">
+      <c r="E53" s="22">
         <v>319890.413</v>
       </c>
-      <c r="F52" s="22">
+      <c r="F53" s="22">
         <v>2051.5699999999997</v>
       </c>
-      <c r="G52" s="22"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="25"/>
-    </row>
-    <row r="53" spans="2:11" hidden="1">
-      <c r="B53" s="12">
+      <c r="G53" s="22"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="25"/>
+    </row>
+    <row r="54" spans="2:11" hidden="1">
+      <c r="B54" s="12">
         <v>2021</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C54" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D54" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>363960.13899999997</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E54" s="15">
         <v>361966.45999999996</v>
       </c>
-      <c r="F53" s="15">
+      <c r="F54" s="15">
         <v>1993.6790000000001</v>
       </c>
-      <c r="G53" s="15"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="18"/>
-    </row>
-    <row r="54" spans="2:11" hidden="1">
-      <c r="B54" s="19">
+      <c r="G54" s="15"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="18"/>
+    </row>
+    <row r="55" spans="2:11" hidden="1">
+      <c r="B55" s="19">
         <v>2021</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C55" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="21">
+      <c r="D55" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>374695.174</v>
       </c>
-      <c r="E54" s="22">
+      <c r="E55" s="22">
         <v>372625.397</v>
       </c>
-      <c r="F54" s="22">
+      <c r="F55" s="22">
         <v>2069.777</v>
       </c>
-      <c r="G54" s="22"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="25"/>
-    </row>
-    <row r="55" spans="2:11" hidden="1">
-      <c r="B55" s="12">
+      <c r="G55" s="22"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="25"/>
+    </row>
+    <row r="56" spans="2:11" hidden="1">
+      <c r="B56" s="12">
         <v>2021</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C56" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D56" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>334517.39600000001</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E56" s="15">
         <v>332552.66499999998</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F56" s="15">
         <v>1964.731</v>
       </c>
-      <c r="G55" s="15"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="18"/>
-    </row>
-    <row r="56" spans="2:11" hidden="1">
-      <c r="B56" s="19">
+      <c r="G56" s="15"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="18"/>
+    </row>
+    <row r="57" spans="2:11" hidden="1">
+      <c r="B57" s="19">
         <v>2021</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C57" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="21">
+      <c r="D57" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>322630.61800000002</v>
       </c>
-      <c r="E56" s="22">
+      <c r="E57" s="22">
         <v>320400.96000000002</v>
       </c>
-      <c r="F56" s="22">
+      <c r="F57" s="22">
         <v>2229.6580000000004</v>
       </c>
-      <c r="G56" s="22"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="25"/>
-    </row>
-    <row r="57" spans="2:11" hidden="1">
-      <c r="B57" s="12">
+      <c r="G57" s="22"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="25"/>
+    </row>
+    <row r="58" spans="2:11" hidden="1">
+      <c r="B58" s="12">
         <v>2021</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C58" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D58" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>299222.027</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E58" s="15">
         <v>296903.73</v>
       </c>
-      <c r="F57" s="15">
+      <c r="F58" s="15">
         <v>2318.297</v>
       </c>
-      <c r="G57" s="15"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="18"/>
-    </row>
-    <row r="58" spans="2:11" hidden="1">
-      <c r="B58" s="19">
+      <c r="G58" s="15"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="18"/>
+    </row>
+    <row r="59" spans="2:11" hidden="1">
+      <c r="B59" s="19">
         <v>2021</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C59" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D58" s="21">
+      <c r="D59" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>271328.42499999999</v>
       </c>
-      <c r="E58" s="22">
+      <c r="E59" s="22">
         <v>268651.59499999997</v>
       </c>
-      <c r="F58" s="22">
+      <c r="F59" s="22">
         <v>2676.83</v>
       </c>
-      <c r="G58" s="22"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="25"/>
-    </row>
-    <row r="59" spans="2:11" hidden="1">
-      <c r="B59" s="12">
+      <c r="G59" s="22"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="25"/>
+    </row>
+    <row r="60" spans="2:11" hidden="1">
+      <c r="B60" s="12">
         <v>2021</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C60" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D60" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>222215.03899999999</v>
       </c>
-      <c r="E59" s="15">
+      <c r="E60" s="15">
         <v>220246.12</v>
       </c>
-      <c r="F59" s="15">
+      <c r="F60" s="15">
         <v>1968.9190000000001</v>
       </c>
-      <c r="G59" s="15"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="18"/>
-    </row>
-    <row r="60" spans="2:11" hidden="1">
-      <c r="B60" s="26">
+      <c r="G60" s="15"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="18"/>
+    </row>
+    <row r="61" spans="2:11" hidden="1">
+      <c r="B61" s="26">
         <v>2021</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="C61" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D60" s="28">
+      <c r="D61" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>272354.26800000004</v>
       </c>
-      <c r="E60" s="29">
+      <c r="E61" s="29">
         <v>270211.59100000001</v>
       </c>
-      <c r="F60" s="29">
+      <c r="F61" s="29">
         <v>2142.6770000000001</v>
       </c>
-      <c r="G60" s="29"/>
-      <c r="H60" s="41"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="31"/>
-    </row>
-    <row r="61" spans="2:11" hidden="1">
-      <c r="B61" s="32">
+      <c r="G61" s="29"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="31"/>
+    </row>
+    <row r="62" spans="2:11" hidden="1">
+      <c r="B62" s="32">
         <v>2020</v>
       </c>
-      <c r="C61" s="33" t="s">
+      <c r="C62" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D61" s="34">
+      <c r="D62" s="34">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>289863.19500000001</v>
       </c>
-      <c r="E61" s="35">
+      <c r="E62" s="35">
         <v>287659.50599999999</v>
       </c>
-      <c r="F61" s="35">
+      <c r="F62" s="35">
         <v>2203.6889999999999</v>
       </c>
-      <c r="G61" s="35"/>
-      <c r="H61" s="43"/>
-      <c r="I61" s="44"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="37"/>
-    </row>
-    <row r="62" spans="2:11" hidden="1">
-      <c r="B62" s="19">
+      <c r="G62" s="35"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="37"/>
+    </row>
+    <row r="63" spans="2:11" hidden="1">
+      <c r="B63" s="19">
         <v>2020</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C63" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D62" s="21">
+      <c r="D63" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>228379.71699999998</v>
       </c>
-      <c r="E62" s="22">
+      <c r="E63" s="22">
         <v>226637.46699999998</v>
       </c>
-      <c r="F62" s="22">
+      <c r="F63" s="22">
         <v>1742.25</v>
       </c>
-      <c r="G62" s="22"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="39"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="25"/>
-    </row>
-    <row r="63" spans="2:11" hidden="1">
-      <c r="B63" s="12">
+      <c r="G63" s="22"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="25"/>
+    </row>
+    <row r="64" spans="2:11" hidden="1">
+      <c r="B64" s="12">
         <v>2020</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C64" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D63" s="14">
+      <c r="D64" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>225796.75899999996</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E64" s="15">
         <v>223656.52399999998</v>
       </c>
-      <c r="F63" s="15">
+      <c r="F64" s="15">
         <v>2140.2350000000001</v>
       </c>
-      <c r="G63" s="15"/>
-      <c r="I63" s="40"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="18"/>
-    </row>
-    <row r="64" spans="2:11" hidden="1">
-      <c r="B64" s="19">
+      <c r="G64" s="15"/>
+      <c r="I64" s="40"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="18"/>
+    </row>
+    <row r="65" spans="2:11" hidden="1">
+      <c r="B65" s="19">
         <v>2020</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C65" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D64" s="21">
+      <c r="D65" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>192359.82700000002</v>
       </c>
-      <c r="E64" s="22">
+      <c r="E65" s="22">
         <v>190331.43100000001</v>
       </c>
-      <c r="F64" s="22">
+      <c r="F65" s="22">
         <v>2028.396</v>
       </c>
-      <c r="G64" s="22"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="25"/>
-    </row>
-    <row r="65" spans="2:11" hidden="1">
-      <c r="B65" s="12">
+      <c r="G65" s="22"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="25"/>
+    </row>
+    <row r="66" spans="2:11" hidden="1">
+      <c r="B66" s="12">
         <v>2020</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C66" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="14">
+      <c r="D66" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>184495.08899999998</v>
       </c>
-      <c r="E65" s="15">
+      <c r="E66" s="15">
         <v>182519.18599999999</v>
       </c>
-      <c r="F65" s="15">
+      <c r="F66" s="15">
         <v>1975.903</v>
       </c>
-      <c r="G65" s="15"/>
-      <c r="I65" s="40"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="18"/>
-    </row>
-    <row r="66" spans="2:11" hidden="1">
-      <c r="B66" s="19">
+      <c r="G66" s="15"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="18"/>
+    </row>
+    <row r="67" spans="2:11" hidden="1">
+      <c r="B67" s="19">
         <v>2020</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C67" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D66" s="21">
+      <c r="D67" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>160167.435</v>
       </c>
-      <c r="E66" s="22">
+      <c r="E67" s="22">
         <v>158161.66200000001</v>
       </c>
-      <c r="F66" s="22">
+      <c r="F67" s="22">
         <v>2005.7730000000001</v>
       </c>
-      <c r="G66" s="22"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="39"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="25"/>
-    </row>
-    <row r="67" spans="2:11" hidden="1">
-      <c r="B67" s="12">
+      <c r="G67" s="22"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="25"/>
+    </row>
+    <row r="68" spans="2:11" hidden="1">
+      <c r="B68" s="12">
         <v>2020</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C68" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D67" s="14">
+      <c r="D68" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>105511.976</v>
       </c>
-      <c r="E67" s="15">
+      <c r="E68" s="15">
         <v>103802.962</v>
       </c>
-      <c r="F67" s="15">
+      <c r="F68" s="15">
         <v>1709.0140000000001</v>
       </c>
-      <c r="G67" s="15"/>
-      <c r="I67" s="40"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="18"/>
-    </row>
-    <row r="68" spans="2:11" hidden="1">
-      <c r="B68" s="19">
+      <c r="G68" s="15"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="18"/>
+    </row>
+    <row r="69" spans="2:11" hidden="1">
+      <c r="B69" s="19">
         <v>2020</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C69" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D68" s="21">
+      <c r="D69" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>69285.474000000002</v>
       </c>
-      <c r="E68" s="22">
+      <c r="E69" s="22">
         <v>67702.22</v>
       </c>
-      <c r="F68" s="22">
+      <c r="F69" s="22">
         <v>1583.2539999999999</v>
       </c>
-      <c r="G68" s="22"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="39"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="25"/>
-    </row>
-    <row r="69" spans="2:11" hidden="1">
-      <c r="B69" s="12">
+      <c r="G69" s="22"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="25"/>
+    </row>
+    <row r="70" spans="2:11" hidden="1">
+      <c r="B70" s="12">
         <v>2020</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C70" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D69" s="14">
+      <c r="D70" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>69532.992000000013</v>
       </c>
-      <c r="E69" s="15">
+      <c r="E70" s="15">
         <v>67898.813000000009</v>
       </c>
-      <c r="F69" s="15">
+      <c r="F70" s="15">
         <v>1634.1790000000001</v>
       </c>
-      <c r="G69" s="15"/>
-      <c r="I69" s="40"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="18"/>
-    </row>
-    <row r="70" spans="2:11" hidden="1">
-      <c r="B70" s="19">
+      <c r="G70" s="15"/>
+      <c r="I70" s="40"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="18"/>
+    </row>
+    <row r="71" spans="2:11" hidden="1">
+      <c r="B71" s="19">
         <v>2020</v>
       </c>
-      <c r="C70" s="20" t="s">
+      <c r="C71" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D70" s="21">
+      <c r="D71" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>334769.408</v>
       </c>
-      <c r="E70" s="22">
+      <c r="E71" s="22">
         <v>332339.83399999997</v>
       </c>
-      <c r="F70" s="22">
+      <c r="F71" s="22">
         <v>2429.5740000000001</v>
       </c>
-      <c r="G70" s="22"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="39"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="25"/>
-    </row>
-    <row r="71" spans="2:11" hidden="1">
-      <c r="B71" s="12">
+      <c r="G71" s="22"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="39"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="25"/>
+    </row>
+    <row r="72" spans="2:11" hidden="1">
+      <c r="B72" s="12">
         <v>2020</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C72" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D71" s="14">
+      <c r="D72" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>400050.22200000001</v>
       </c>
-      <c r="E71" s="15">
+      <c r="E72" s="15">
         <v>397843.09899999999</v>
       </c>
-      <c r="F71" s="15">
+      <c r="F72" s="15">
         <v>2207.123</v>
       </c>
-      <c r="G71" s="15"/>
-      <c r="I71" s="40"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="18"/>
-    </row>
-    <row r="72" spans="2:11" hidden="1">
-      <c r="B72" s="26">
+      <c r="G72" s="15"/>
+      <c r="I72" s="40"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="18"/>
+    </row>
+    <row r="73" spans="2:11" hidden="1">
+      <c r="B73" s="26">
         <v>2020</v>
       </c>
-      <c r="C72" s="27" t="s">
+      <c r="C73" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D72" s="28">
+      <c r="D73" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>439902.09</v>
       </c>
-      <c r="E72" s="29">
+      <c r="E73" s="29">
         <v>437506.02900000004</v>
       </c>
-      <c r="F72" s="29">
+      <c r="F73" s="29">
         <v>2396.0610000000001</v>
       </c>
-      <c r="G72" s="29"/>
-      <c r="H72" s="41"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="29"/>
-      <c r="K72" s="31"/>
-    </row>
-    <row r="73" spans="2:11" hidden="1">
-      <c r="B73" s="32">
+      <c r="G73" s="29"/>
+      <c r="H73" s="41"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="31"/>
+    </row>
+    <row r="74" spans="2:11" hidden="1">
+      <c r="B74" s="32">
         <v>2019</v>
       </c>
-      <c r="C73" s="33" t="s">
+      <c r="C74" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D73" s="34">
+      <c r="D74" s="34">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>440800</v>
       </c>
-      <c r="E73" s="35">
+      <c r="E74" s="35">
         <v>438700</v>
       </c>
-      <c r="F73" s="35">
+      <c r="F74" s="35">
         <v>2100</v>
       </c>
-      <c r="G73" s="35"/>
-      <c r="H73" s="43"/>
-      <c r="I73" s="44"/>
-      <c r="J73" s="35"/>
-      <c r="K73" s="37"/>
-    </row>
-    <row r="74" spans="2:11" hidden="1">
-      <c r="B74" s="19">
+      <c r="G74" s="35"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="35"/>
+      <c r="K74" s="37"/>
+    </row>
+    <row r="75" spans="2:11" hidden="1">
+      <c r="B75" s="19">
         <v>2019</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="C75" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D74" s="21">
+      <c r="D75" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>412300</v>
       </c>
-      <c r="E74" s="22">
+      <c r="E75" s="22">
         <v>410400</v>
       </c>
-      <c r="F74" s="22">
+      <c r="F75" s="22">
         <v>1900</v>
       </c>
-      <c r="G74" s="22"/>
-      <c r="H74" s="38"/>
-      <c r="I74" s="39"/>
-      <c r="J74" s="22"/>
-      <c r="K74" s="25"/>
-    </row>
-    <row r="75" spans="2:11" hidden="1">
-      <c r="B75" s="12">
+      <c r="G75" s="22"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="39"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="25"/>
+    </row>
+    <row r="76" spans="2:11" hidden="1">
+      <c r="B76" s="12">
         <v>2019</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C76" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D75" s="14">
+      <c r="D76" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>397000</v>
       </c>
-      <c r="E75" s="15">
+      <c r="E76" s="15">
         <v>395000</v>
       </c>
-      <c r="F75" s="15">
+      <c r="F76" s="15">
         <v>2000</v>
       </c>
-      <c r="G75" s="15"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="18"/>
-    </row>
-    <row r="76" spans="2:11" hidden="1">
-      <c r="B76" s="19">
+      <c r="G76" s="15"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="18"/>
+    </row>
+    <row r="77" spans="2:11" hidden="1">
+      <c r="B77" s="19">
         <v>2019</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C77" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D76" s="21">
+      <c r="D77" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>372500</v>
       </c>
-      <c r="E76" s="22">
+      <c r="E77" s="22">
         <v>370700</v>
       </c>
-      <c r="F76" s="22">
+      <c r="F77" s="22">
         <v>1800</v>
       </c>
-      <c r="G76" s="22"/>
-      <c r="H76" s="38"/>
-      <c r="I76" s="39"/>
-      <c r="J76" s="22"/>
-      <c r="K76" s="25"/>
-    </row>
-    <row r="77" spans="2:11" hidden="1">
-      <c r="B77" s="12">
+      <c r="G77" s="22"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="39"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="25"/>
+    </row>
+    <row r="78" spans="2:11" hidden="1">
+      <c r="B78" s="12">
         <v>2019</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C78" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="14">
+      <c r="D78" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>430200</v>
       </c>
-      <c r="E77" s="15">
+      <c r="E78" s="15">
         <v>428200</v>
       </c>
-      <c r="F77" s="15">
+      <c r="F78" s="15">
         <v>2000</v>
       </c>
-      <c r="G77" s="15"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="18"/>
-    </row>
-    <row r="78" spans="2:11" hidden="1">
-      <c r="B78" s="19">
+      <c r="G78" s="15"/>
+      <c r="I78" s="40"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="18"/>
+    </row>
+    <row r="79" spans="2:11" hidden="1">
+      <c r="B79" s="19">
         <v>2019</v>
       </c>
-      <c r="C78" s="20" t="s">
+      <c r="C79" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D78" s="21">
+      <c r="D79" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>445000</v>
       </c>
-      <c r="E78" s="22">
+      <c r="E79" s="22">
         <v>442800</v>
       </c>
-      <c r="F78" s="22">
+      <c r="F79" s="22">
         <v>2200</v>
       </c>
-      <c r="G78" s="22"/>
-      <c r="H78" s="38"/>
-      <c r="I78" s="39"/>
-      <c r="J78" s="22"/>
-      <c r="K78" s="25"/>
-    </row>
-    <row r="79" spans="2:11" hidden="1">
-      <c r="B79" s="12">
+      <c r="G79" s="22"/>
+      <c r="H79" s="38"/>
+      <c r="I79" s="39"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="25"/>
+    </row>
+    <row r="80" spans="2:11" hidden="1">
+      <c r="B80" s="12">
         <v>2019</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C80" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="14">
+      <c r="D80" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>415300</v>
       </c>
-      <c r="E79" s="15">
+      <c r="E80" s="15">
         <v>413200</v>
       </c>
-      <c r="F79" s="15">
+      <c r="F80" s="15">
         <v>2100</v>
       </c>
-      <c r="G79" s="15"/>
-      <c r="I79" s="40"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="18"/>
-    </row>
-    <row r="80" spans="2:11" hidden="1">
-      <c r="B80" s="19">
+      <c r="G80" s="15"/>
+      <c r="I80" s="40"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="18"/>
+    </row>
+    <row r="81" spans="2:11" hidden="1">
+      <c r="B81" s="19">
         <v>2019</v>
       </c>
-      <c r="C80" s="20" t="s">
+      <c r="C81" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D80" s="21">
+      <c r="D81" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>413700</v>
       </c>
-      <c r="E80" s="22">
+      <c r="E81" s="22">
         <v>411500</v>
       </c>
-      <c r="F80" s="22">
+      <c r="F81" s="22">
         <v>2200</v>
       </c>
-      <c r="G80" s="22"/>
-      <c r="H80" s="38"/>
-      <c r="I80" s="39"/>
-      <c r="J80" s="22"/>
-      <c r="K80" s="25"/>
-    </row>
-    <row r="81" spans="2:11" hidden="1">
-      <c r="B81" s="12">
+      <c r="G81" s="22"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="25"/>
+    </row>
+    <row r="82" spans="2:11" hidden="1">
+      <c r="B82" s="12">
         <v>2019</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C82" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D81" s="14">
+      <c r="D82" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>419400</v>
       </c>
-      <c r="E81" s="15">
+      <c r="E82" s="15">
         <v>417000</v>
       </c>
-      <c r="F81" s="15">
+      <c r="F82" s="15">
         <v>2400</v>
       </c>
-      <c r="G81" s="15"/>
-      <c r="I81" s="40"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="18"/>
-    </row>
-    <row r="82" spans="2:11" hidden="1">
-      <c r="B82" s="19">
+      <c r="G82" s="15"/>
+      <c r="I82" s="40"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="18"/>
+    </row>
+    <row r="83" spans="2:11" hidden="1">
+      <c r="B83" s="19">
         <v>2019</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="C83" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D82" s="21">
+      <c r="D83" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>426800</v>
       </c>
-      <c r="E82" s="22">
+      <c r="E83" s="22">
         <v>420000</v>
       </c>
-      <c r="F82" s="22">
+      <c r="F83" s="22">
         <v>6800</v>
       </c>
-      <c r="G82" s="22"/>
-      <c r="H82" s="38"/>
-      <c r="I82" s="39"/>
-      <c r="J82" s="22"/>
-      <c r="K82" s="25"/>
-    </row>
-    <row r="83" spans="2:11" hidden="1">
-      <c r="B83" s="12">
+      <c r="G83" s="22"/>
+      <c r="H83" s="38"/>
+      <c r="I83" s="39"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="25"/>
+    </row>
+    <row r="84" spans="2:11" hidden="1">
+      <c r="B84" s="12">
         <v>2019</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C84" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="14">
+      <c r="D84" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>375100</v>
       </c>
-      <c r="E83" s="15">
+      <c r="E84" s="15">
         <v>372900</v>
       </c>
-      <c r="F83" s="15">
+      <c r="F84" s="15">
         <v>2200</v>
       </c>
-      <c r="G83" s="15"/>
-      <c r="I83" s="40"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="18"/>
-    </row>
-    <row r="84" spans="2:11" hidden="1">
-      <c r="B84" s="26">
+      <c r="G84" s="15"/>
+      <c r="I84" s="40"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="18"/>
+    </row>
+    <row r="85" spans="2:11" hidden="1">
+      <c r="B85" s="26">
         <v>2019</v>
       </c>
-      <c r="C84" s="27" t="s">
+      <c r="C85" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="28">
+      <c r="D85" s="28">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>420900</v>
       </c>
-      <c r="E84" s="29">
+      <c r="E85" s="29">
         <v>418600</v>
       </c>
-      <c r="F84" s="29">
+      <c r="F85" s="29">
         <v>2300</v>
       </c>
-      <c r="G84" s="29"/>
-      <c r="H84" s="41"/>
-      <c r="I84" s="42"/>
-      <c r="J84" s="29"/>
-      <c r="K84" s="31"/>
-    </row>
-    <row r="85" spans="2:11" hidden="1">
-      <c r="B85" s="13">
+      <c r="G85" s="29"/>
+      <c r="H85" s="41"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="29"/>
+      <c r="K85" s="31"/>
+    </row>
+    <row r="86" spans="2:11" hidden="1">
+      <c r="B86" s="13">
         <v>2018</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C86" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="14">
+      <c r="D86" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>436100</v>
       </c>
-      <c r="E85" s="15">
+      <c r="E86" s="15">
         <v>434000</v>
       </c>
-      <c r="F85" s="15">
+      <c r="F86" s="15">
         <v>2100</v>
       </c>
-      <c r="G85" s="15"/>
-      <c r="I85" s="44"/>
-      <c r="J85" s="35"/>
-      <c r="K85" s="37"/>
-    </row>
-    <row r="86" spans="2:11" hidden="1">
-      <c r="B86" s="20">
+      <c r="G86" s="15"/>
+      <c r="I86" s="44"/>
+      <c r="J86" s="35"/>
+      <c r="K86" s="37"/>
+    </row>
+    <row r="87" spans="2:11" hidden="1">
+      <c r="B87" s="20">
         <v>2018</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="C87" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="21">
+      <c r="D87" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>406900</v>
       </c>
-      <c r="E86" s="22">
+      <c r="E87" s="22">
         <v>404900</v>
       </c>
-      <c r="F86" s="22">
+      <c r="F87" s="22">
         <v>2000</v>
       </c>
-      <c r="G86" s="22"/>
-      <c r="H86" s="38"/>
-      <c r="I86" s="39"/>
-      <c r="J86" s="22"/>
-      <c r="K86" s="25"/>
-    </row>
-    <row r="87" spans="2:11" hidden="1">
-      <c r="B87" s="13">
+      <c r="G87" s="22"/>
+      <c r="H87" s="38"/>
+      <c r="I87" s="39"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="25"/>
+    </row>
+    <row r="88" spans="2:11" hidden="1">
+      <c r="B88" s="13">
         <v>2018</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C88" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="14">
+      <c r="D88" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>391100</v>
       </c>
-      <c r="E87" s="15">
+      <c r="E88" s="15">
         <v>389100</v>
       </c>
-      <c r="F87" s="15">
+      <c r="F88" s="15">
         <v>2000</v>
       </c>
-      <c r="G87" s="15"/>
-      <c r="I87" s="40"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="18"/>
-    </row>
-    <row r="88" spans="2:11" hidden="1">
-      <c r="B88" s="20">
+      <c r="G88" s="15"/>
+      <c r="I88" s="40"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="18"/>
+    </row>
+    <row r="89" spans="2:11" hidden="1">
+      <c r="B89" s="20">
         <v>2018</v>
       </c>
-      <c r="C88" s="20" t="s">
+      <c r="C89" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="21">
+      <c r="D89" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>374300</v>
       </c>
-      <c r="E88" s="22">
+      <c r="E89" s="22">
         <v>372300</v>
       </c>
-      <c r="F88" s="22">
+      <c r="F89" s="22">
         <v>2000</v>
       </c>
-      <c r="G88" s="22"/>
-      <c r="H88" s="38"/>
-      <c r="I88" s="39"/>
-      <c r="J88" s="22"/>
-      <c r="K88" s="25"/>
-    </row>
-    <row r="89" spans="2:11" hidden="1">
-      <c r="B89" s="13">
+      <c r="G89" s="22"/>
+      <c r="H89" s="38"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="25"/>
+    </row>
+    <row r="90" spans="2:11" hidden="1">
+      <c r="B90" s="13">
         <v>2018</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C90" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D89" s="14">
+      <c r="D90" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>428800</v>
       </c>
-      <c r="E89" s="15">
+      <c r="E90" s="15">
         <v>426400</v>
       </c>
-      <c r="F89" s="15">
+      <c r="F90" s="15">
         <v>2400</v>
       </c>
-      <c r="G89" s="15"/>
-      <c r="I89" s="40"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="18"/>
-    </row>
-    <row r="90" spans="2:11" hidden="1">
-      <c r="B90" s="20">
+      <c r="G90" s="15"/>
+      <c r="I90" s="40"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="18"/>
+    </row>
+    <row r="91" spans="2:11" hidden="1">
+      <c r="B91" s="20">
         <v>2018</v>
       </c>
-      <c r="C90" s="20" t="s">
+      <c r="C91" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D90" s="21">
+      <c r="D91" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>446300</v>
       </c>
-      <c r="E90" s="22">
+      <c r="E91" s="22">
         <v>444000</v>
       </c>
-      <c r="F90" s="22">
+      <c r="F91" s="22">
         <v>2300</v>
       </c>
-      <c r="G90" s="22"/>
-      <c r="H90" s="38"/>
-      <c r="I90" s="39"/>
-      <c r="J90" s="22"/>
-      <c r="K90" s="25"/>
-    </row>
-    <row r="91" spans="2:11" hidden="1">
-      <c r="B91" s="13">
+      <c r="G91" s="22"/>
+      <c r="H91" s="38"/>
+      <c r="I91" s="39"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="25"/>
+    </row>
+    <row r="92" spans="2:11" hidden="1">
+      <c r="B92" s="13">
         <v>2018</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="C92" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D91" s="14">
+      <c r="D92" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>411400</v>
       </c>
-      <c r="E91" s="15">
+      <c r="E92" s="15">
         <v>409400</v>
       </c>
-      <c r="F91" s="15">
+      <c r="F92" s="15">
         <v>2000</v>
       </c>
-      <c r="G91" s="15"/>
-      <c r="I91" s="40"/>
-      <c r="J91" s="15"/>
-      <c r="K91" s="18"/>
-    </row>
-    <row r="92" spans="2:11" hidden="1">
-      <c r="B92" s="20">
+      <c r="G92" s="15"/>
+      <c r="I92" s="40"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="18"/>
+    </row>
+    <row r="93" spans="2:11" hidden="1">
+      <c r="B93" s="20">
         <v>2018</v>
       </c>
-      <c r="C92" s="20" t="s">
+      <c r="C93" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D92" s="21">
+      <c r="D93" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>406200</v>
       </c>
-      <c r="E92" s="22">
+      <c r="E93" s="22">
         <v>403800</v>
       </c>
-      <c r="F92" s="22">
+      <c r="F93" s="22">
         <v>2400</v>
       </c>
-      <c r="G92" s="22"/>
-      <c r="H92" s="38"/>
-      <c r="I92" s="39"/>
-      <c r="J92" s="22"/>
-      <c r="K92" s="25"/>
-    </row>
-    <row r="93" spans="2:11" hidden="1">
-      <c r="B93" s="13">
+      <c r="G93" s="22"/>
+      <c r="H93" s="38"/>
+      <c r="I93" s="39"/>
+      <c r="J93" s="22"/>
+      <c r="K93" s="25"/>
+    </row>
+    <row r="94" spans="2:11" hidden="1">
+      <c r="B94" s="13">
         <v>2018</v>
       </c>
-      <c r="C93" s="13" t="s">
+      <c r="C94" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D93" s="14">
+      <c r="D94" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>415400</v>
       </c>
-      <c r="E93" s="15">
+      <c r="E94" s="15">
         <v>413200</v>
       </c>
-      <c r="F93" s="15">
+      <c r="F94" s="15">
         <v>2200</v>
       </c>
-      <c r="G93" s="15"/>
-      <c r="I93" s="40"/>
-      <c r="J93" s="15"/>
-      <c r="K93" s="18"/>
-    </row>
-    <row r="94" spans="2:11" hidden="1">
-      <c r="B94" s="20">
+      <c r="G94" s="15"/>
+      <c r="I94" s="40"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="18"/>
+    </row>
+    <row r="95" spans="2:11" hidden="1">
+      <c r="B95" s="20">
         <v>2018</v>
       </c>
-      <c r="C94" s="20" t="s">
+      <c r="C95" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D94" s="21">
+      <c r="D95" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>444600</v>
       </c>
-      <c r="E94" s="22">
+      <c r="E95" s="22">
         <v>442100</v>
       </c>
-      <c r="F94" s="22">
+      <c r="F95" s="22">
         <v>2500</v>
       </c>
-      <c r="G94" s="22"/>
-      <c r="H94" s="38"/>
-      <c r="I94" s="39"/>
-      <c r="J94" s="22"/>
-      <c r="K94" s="25"/>
-    </row>
-    <row r="95" spans="2:11" hidden="1">
-      <c r="B95" s="13">
+      <c r="G95" s="22"/>
+      <c r="H95" s="38"/>
+      <c r="I95" s="39"/>
+      <c r="J95" s="22"/>
+      <c r="K95" s="25"/>
+    </row>
+    <row r="96" spans="2:11" hidden="1">
+      <c r="B96" s="13">
         <v>2018</v>
       </c>
-      <c r="C95" s="13" t="s">
+      <c r="C96" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D95" s="14">
+      <c r="D96" s="14">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>381500</v>
       </c>
-      <c r="E95" s="15">
+      <c r="E96" s="15">
         <v>379200</v>
       </c>
-      <c r="F95" s="15">
+      <c r="F96" s="15">
         <v>2300</v>
       </c>
-      <c r="G95" s="15"/>
-      <c r="I95" s="40"/>
-      <c r="J95" s="15"/>
-      <c r="K95" s="18"/>
-    </row>
-    <row r="96" spans="2:11" hidden="1">
-      <c r="B96" s="20">
+      <c r="G96" s="15"/>
+      <c r="I96" s="40"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="18"/>
+    </row>
+    <row r="97" spans="2:11" hidden="1">
+      <c r="B97" s="20">
         <v>2018</v>
       </c>
-      <c r="C96" s="20" t="s">
+      <c r="C97" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D96" s="21">
+      <c r="D97" s="21">
         <f>SUM(Tabla3[[#This Row],[Turbosina]:[Gasavión]])</f>
         <v>427700</v>
       </c>
-      <c r="E96" s="22">
+      <c r="E97" s="22">
         <v>425500</v>
       </c>
-      <c r="F96" s="22">
+      <c r="F97" s="22">
         <v>2200</v>
       </c>
-      <c r="G96" s="22"/>
-      <c r="H96" s="38"/>
-      <c r="I96" s="42"/>
-      <c r="J96" s="29"/>
-      <c r="K96" s="31"/>
-    </row>
-    <row r="97" spans="2:11">
-      <c r="B97" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H97" s="15"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="38"/>
+      <c r="I97" s="42"/>
+      <c r="J97" s="29"/>
+      <c r="K97" s="31"/>
     </row>
     <row r="98" spans="2:11">
       <c r="B98" s="3" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H98" s="15"/>
     </row>
     <row r="99" spans="2:11">
       <c r="B99" s="3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H99" s="15"/>
-      <c r="K99" s="45"/>
     </row>
     <row r="100" spans="2:11">
       <c r="B100" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H100" s="15"/>
       <c r="K100" s="45"/>
     </row>
     <row r="101" spans="2:11">
-      <c r="B101" s="46" t="s">
+      <c r="B101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="15"/>
+      <c r="K101" s="45"/>
+    </row>
+    <row r="102" spans="2:11">
+      <c r="B102" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="H101" s="15"/>
-    </row>
-    <row r="102" spans="2:11">
-      <c r="B102" s="47" t="s">
+      <c r="H102" s="15"/>
+    </row>
+    <row r="103" spans="2:11">
+      <c r="B103" s="47" t="s">
         <v>37</v>
-      </c>
-      <c r="H102" s="15"/>
-    </row>
-    <row r="103" spans="2:11">
-      <c r="B103" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="H103" s="15"/>
     </row>
     <row r="104" spans="2:11">
       <c r="B104" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H104" s="15"/>
     </row>
     <row r="105" spans="2:11">
       <c r="B105" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H105" s="15"/>
     </row>
     <row r="106" spans="2:11">
       <c r="B106" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H106" s="15"/>
+    </row>
+    <row r="107" spans="2:11">
+      <c r="B107" s="3" t="s">
         <v>35</v>
       </c>
     </row>
